--- a/Civilworks cost/LD/LD Annexes.xlsx
+++ b/Civilworks cost/LD/LD Annexes.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Annex-II" sheetId="1" r:id="rId1"/>
+    <sheet name="Annex-IV" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="461">
   <si>
     <t xml:space="preserve">HOBI/PW-01 </t>
   </si>
@@ -1330,6 +1331,162 @@
   </si>
   <si>
     <t>Annexture-2: List of Site where works stopped due to Land Acquisition</t>
+  </si>
+  <si>
+    <t>Amount of Calim as per GCC 69.1(a)</t>
+  </si>
+  <si>
+    <t>Claim Settlement 69.2</t>
+  </si>
+  <si>
+    <t>Cost (Lakh)</t>
+  </si>
+  <si>
+    <t>Time (Days)</t>
+  </si>
+  <si>
+    <t>Contract Value (Lakh)</t>
+  </si>
+  <si>
+    <t>Name of the Contractor</t>
+  </si>
+  <si>
+    <t>HOBI/PW-02</t>
+  </si>
+  <si>
+    <t>HOBI/PW-04</t>
+  </si>
+  <si>
+    <t>HOBI/PW-05</t>
+  </si>
+  <si>
+    <t>HOBI/PW-06</t>
+  </si>
+  <si>
+    <t>HOBI/PW-07</t>
+  </si>
+  <si>
+    <t>KISH/PW-01</t>
+  </si>
+  <si>
+    <t>KISH/PW-02</t>
+  </si>
+  <si>
+    <t>KISH/PW-03</t>
+  </si>
+  <si>
+    <t>KISH/PW-04</t>
+  </si>
+  <si>
+    <t>KISH/PW-05</t>
+  </si>
+  <si>
+    <t>KISH/PW-06</t>
+  </si>
+  <si>
+    <t>KISH/PW-07</t>
+  </si>
+  <si>
+    <t>KISH/PW-09</t>
+  </si>
+  <si>
+    <t>KISH/PW-10</t>
+  </si>
+  <si>
+    <t>KISH/PW-11</t>
+  </si>
+  <si>
+    <t>KISH/PW-12</t>
+  </si>
+  <si>
+    <t>KISH/PW-13</t>
+  </si>
+  <si>
+    <t>KISH/PW-14</t>
+  </si>
+  <si>
+    <t>KISH/PW-15</t>
+  </si>
+  <si>
+    <t>KISH/PW-16</t>
+  </si>
+  <si>
+    <t>KISH/PW-17</t>
+  </si>
+  <si>
+    <t>KISH/PW-18</t>
+  </si>
+  <si>
+    <t>KISH/PW-19</t>
+  </si>
+  <si>
+    <t>KISH/PW-20</t>
+  </si>
+  <si>
+    <t>KISH/PW-21</t>
+  </si>
+  <si>
+    <t>KISH/PW-22</t>
+  </si>
+  <si>
+    <t>KISH/PW-23</t>
+  </si>
+  <si>
+    <t>KISH/PW-24</t>
+  </si>
+  <si>
+    <t>KISH/PW-25</t>
+  </si>
+  <si>
+    <t>KISH/PW-26</t>
+  </si>
+  <si>
+    <t>KISH/PW-27</t>
+  </si>
+  <si>
+    <t>KISH/PW-28</t>
+  </si>
+  <si>
+    <t>NETR/PW-01</t>
+  </si>
+  <si>
+    <t>NETR/PW-02</t>
+  </si>
+  <si>
+    <t>NETR/PW-03</t>
+  </si>
+  <si>
+    <t>NETR/PW-04</t>
+  </si>
+  <si>
+    <t>NETR/PW-05</t>
+  </si>
+  <si>
+    <t>NETR/PW-06</t>
+  </si>
+  <si>
+    <t>NETR/PW-07</t>
+  </si>
+  <si>
+    <t>NETR/PW-08</t>
+  </si>
+  <si>
+    <t>SUNM/PW-01</t>
+  </si>
+  <si>
+    <t>SUNM/PW-02</t>
+  </si>
+  <si>
+    <t>SUNM/PW-03</t>
+  </si>
+  <si>
+    <t>SUNM/PW-04</t>
+  </si>
+  <si>
+    <t>SUNM/PW-05</t>
+  </si>
+  <si>
+    <t>SUNM/PW-06</t>
   </si>
 </sst>
 </file>
@@ -1465,7 +1622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1502,6 +1659,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1784,16 +1951,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D358"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="57.6640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="21.21875" customWidth="1"/>
-    <col min="4" max="4" width="133.44140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="133.42578125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="48.6" customHeight="1">
@@ -1804,7 +1971,7 @@
       <c r="C1" s="12"/>
       <c r="D1" s="13"/>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" ht="43.2" customHeight="1">
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="43.15" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>403</v>
       </c>
@@ -1818,7 +1985,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="25.8" customHeight="1">
+    <row r="3" spans="1:4" ht="25.9" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -1830,7 +1997,7 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="25.8" customHeight="1">
+    <row r="4" spans="1:4" ht="25.9" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -1840,7 +2007,7 @@
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" ht="25.8" customHeight="1">
+    <row r="5" spans="1:4" ht="25.9" customHeight="1">
       <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -1850,7 +2017,7 @@
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" ht="25.8" customHeight="1">
+    <row r="6" spans="1:4" ht="25.9" customHeight="1">
       <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -1862,7 +2029,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="25.8" customHeight="1">
+    <row r="7" spans="1:4" ht="25.9" customHeight="1">
       <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -1872,7 +2039,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="25.8" customHeight="1">
+    <row r="8" spans="1:4" ht="25.9" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -1882,7 +2049,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" ht="25.8" customHeight="1">
+    <row r="9" spans="1:4" ht="25.9" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1894,7 +2061,7 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" ht="25.8" customHeight="1">
+    <row r="10" spans="1:4" ht="25.9" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="1" t="s">
         <v>9</v>
@@ -1904,7 +2071,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="25.8" customHeight="1">
+    <row r="11" spans="1:4" ht="25.9" customHeight="1">
       <c r="A11" s="9"/>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -1914,7 +2081,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="25.8" customHeight="1">
+    <row r="12" spans="1:4" ht="25.9" customHeight="1">
       <c r="A12" s="9"/>
       <c r="B12" s="1" t="s">
         <v>11</v>
@@ -1924,7 +2091,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" ht="25.8" customHeight="1">
+    <row r="13" spans="1:4" ht="25.9" customHeight="1">
       <c r="A13" s="9"/>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -1934,7 +2101,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="25.8" customHeight="1">
+    <row r="14" spans="1:4" ht="25.9" customHeight="1">
       <c r="A14" s="9"/>
       <c r="B14" s="1" t="s">
         <v>13</v>
@@ -1944,7 +2111,7 @@
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="25.8" customHeight="1">
+    <row r="15" spans="1:4" ht="25.9" customHeight="1">
       <c r="A15" s="9"/>
       <c r="B15" s="1" t="s">
         <v>14</v>
@@ -1954,7 +2121,7 @@
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" ht="25.8" customHeight="1">
+    <row r="16" spans="1:4" ht="25.9" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="1" t="s">
         <v>15</v>
@@ -1964,7 +2131,7 @@
       </c>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" ht="25.8" customHeight="1">
+    <row r="17" spans="1:4" ht="25.9" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
@@ -1976,7 +2143,7 @@
       </c>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" ht="25.8" customHeight="1">
+    <row r="18" spans="1:4" ht="25.9" customHeight="1">
       <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
@@ -1988,7 +2155,7 @@
       </c>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" ht="25.8" customHeight="1">
+    <row r="19" spans="1:4" ht="25.9" customHeight="1">
       <c r="A19" s="9"/>
       <c r="B19" s="1" t="s">
         <v>20</v>
@@ -1998,7 +2165,7 @@
       </c>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" ht="25.8" customHeight="1">
+    <row r="20" spans="1:4" ht="25.9" customHeight="1">
       <c r="A20" s="9"/>
       <c r="B20" s="1" t="s">
         <v>21</v>
@@ -2008,7 +2175,7 @@
       </c>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" ht="25.8" customHeight="1">
+    <row r="21" spans="1:4" ht="25.9" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="1" t="s">
         <v>22</v>
@@ -2018,7 +2185,7 @@
       </c>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" ht="25.8" customHeight="1">
+    <row r="22" spans="1:4" ht="25.9" customHeight="1">
       <c r="A22" s="9"/>
       <c r="B22" s="1" t="s">
         <v>23</v>
@@ -2028,7 +2195,7 @@
       </c>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" ht="25.8" customHeight="1">
+    <row r="23" spans="1:4" ht="25.9" customHeight="1">
       <c r="A23" s="9"/>
       <c r="B23" s="1" t="s">
         <v>24</v>
@@ -2038,7 +2205,7 @@
       </c>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" ht="25.8" customHeight="1">
+    <row r="24" spans="1:4" ht="25.9" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="1" t="s">
         <v>25</v>
@@ -2048,7 +2215,7 @@
       </c>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" ht="25.8" customHeight="1">
+    <row r="25" spans="1:4" ht="25.9" customHeight="1">
       <c r="A25" s="8" t="s">
         <v>26</v>
       </c>
@@ -2060,7 +2227,7 @@
       </c>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" ht="25.8" customHeight="1">
+    <row r="26" spans="1:4" ht="25.9" customHeight="1">
       <c r="A26" s="9"/>
       <c r="B26" s="1" t="s">
         <v>28</v>
@@ -2070,7 +2237,7 @@
       </c>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" ht="25.8" customHeight="1">
+    <row r="27" spans="1:4" ht="25.9" customHeight="1">
       <c r="A27" s="9"/>
       <c r="B27" s="1" t="s">
         <v>29</v>
@@ -2080,7 +2247,7 @@
       </c>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" ht="25.8" customHeight="1">
+    <row r="28" spans="1:4" ht="25.9" customHeight="1">
       <c r="A28" s="9"/>
       <c r="B28" s="1" t="s">
         <v>30</v>
@@ -2090,7 +2257,7 @@
       </c>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" ht="25.8" customHeight="1">
+    <row r="29" spans="1:4" ht="25.9" customHeight="1">
       <c r="A29" s="9"/>
       <c r="B29" s="1" t="s">
         <v>31</v>
@@ -2100,7 +2267,7 @@
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" ht="25.8" customHeight="1">
+    <row r="30" spans="1:4" ht="25.9" customHeight="1">
       <c r="A30" s="9"/>
       <c r="B30" s="1" t="s">
         <v>32</v>
@@ -2110,7 +2277,7 @@
       </c>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" ht="25.8" customHeight="1">
+    <row r="31" spans="1:4" ht="25.9" customHeight="1">
       <c r="A31" s="9"/>
       <c r="B31" s="1" t="s">
         <v>33</v>
@@ -2120,7 +2287,7 @@
       </c>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4" ht="25.8" customHeight="1">
+    <row r="32" spans="1:4" ht="25.9" customHeight="1">
       <c r="A32" s="9"/>
       <c r="B32" s="1" t="s">
         <v>34</v>
@@ -2130,7 +2297,7 @@
       </c>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4" ht="25.8" customHeight="1">
+    <row r="33" spans="1:4" ht="25.9" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="1" t="s">
         <v>35</v>
@@ -2140,7 +2307,7 @@
       </c>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" ht="25.8" customHeight="1">
+    <row r="34" spans="1:4" ht="25.9" customHeight="1">
       <c r="A34" s="9"/>
       <c r="B34" s="1" t="s">
         <v>36</v>
@@ -2150,7 +2317,7 @@
       </c>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" ht="25.8" customHeight="1">
+    <row r="35" spans="1:4" ht="25.9" customHeight="1">
       <c r="A35" s="9"/>
       <c r="B35" s="1" t="s">
         <v>37</v>
@@ -2160,7 +2327,7 @@
       </c>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4" ht="25.8" customHeight="1">
+    <row r="36" spans="1:4" ht="25.9" customHeight="1">
       <c r="A36" s="9"/>
       <c r="B36" s="1" t="s">
         <v>38</v>
@@ -2170,7 +2337,7 @@
       </c>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:4" ht="25.8" customHeight="1">
+    <row r="37" spans="1:4" ht="25.9" customHeight="1">
       <c r="A37" s="9"/>
       <c r="B37" s="1" t="s">
         <v>39</v>
@@ -2180,7 +2347,7 @@
       </c>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4" ht="25.8" customHeight="1">
+    <row r="38" spans="1:4" ht="25.9" customHeight="1">
       <c r="A38" s="9"/>
       <c r="B38" s="1" t="s">
         <v>40</v>
@@ -2190,7 +2357,7 @@
       </c>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:4" ht="25.8" customHeight="1">
+    <row r="39" spans="1:4" ht="25.9" customHeight="1">
       <c r="A39" s="9"/>
       <c r="B39" s="1" t="s">
         <v>41</v>
@@ -2200,7 +2367,7 @@
       </c>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="1:4" ht="25.8" customHeight="1">
+    <row r="40" spans="1:4" ht="25.9" customHeight="1">
       <c r="A40" s="9"/>
       <c r="B40" s="1" t="s">
         <v>42</v>
@@ -2210,7 +2377,7 @@
       </c>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="1:4" ht="25.8" customHeight="1">
+    <row r="41" spans="1:4" ht="25.9" customHeight="1">
       <c r="A41" s="9"/>
       <c r="B41" s="1" t="s">
         <v>43</v>
@@ -2220,7 +2387,7 @@
       </c>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="1:4" ht="25.8" customHeight="1">
+    <row r="42" spans="1:4" ht="25.9" customHeight="1">
       <c r="A42" s="9"/>
       <c r="B42" s="1" t="s">
         <v>44</v>
@@ -2230,7 +2397,7 @@
       </c>
       <c r="D42" s="5"/>
     </row>
-    <row r="43" spans="1:4" ht="25.8" customHeight="1">
+    <row r="43" spans="1:4" ht="25.9" customHeight="1">
       <c r="A43" s="9"/>
       <c r="B43" s="1" t="s">
         <v>45</v>
@@ -2240,7 +2407,7 @@
       </c>
       <c r="D43" s="5"/>
     </row>
-    <row r="44" spans="1:4" ht="25.8" customHeight="1">
+    <row r="44" spans="1:4" ht="25.9" customHeight="1">
       <c r="A44" s="9"/>
       <c r="B44" s="1" t="s">
         <v>46</v>
@@ -2250,7 +2417,7 @@
       </c>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:4" ht="25.8" customHeight="1">
+    <row r="45" spans="1:4" ht="25.9" customHeight="1">
       <c r="A45" s="9"/>
       <c r="B45" s="1" t="s">
         <v>47</v>
@@ -2260,7 +2427,7 @@
       </c>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="1:4" ht="25.8" customHeight="1">
+    <row r="46" spans="1:4" ht="25.9" customHeight="1">
       <c r="A46" s="9"/>
       <c r="B46" s="1" t="s">
         <v>48</v>
@@ -2270,7 +2437,7 @@
       </c>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:4" ht="25.8" customHeight="1">
+    <row r="47" spans="1:4" ht="25.9" customHeight="1">
       <c r="A47" s="9"/>
       <c r="B47" s="1" t="s">
         <v>49</v>
@@ -2280,7 +2447,7 @@
       </c>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="1:4" ht="25.8" customHeight="1">
+    <row r="48" spans="1:4" ht="25.9" customHeight="1">
       <c r="A48" s="9"/>
       <c r="B48" s="1" t="s">
         <v>50</v>
@@ -2290,7 +2457,7 @@
       </c>
       <c r="D48" s="5"/>
     </row>
-    <row r="49" spans="1:4" ht="25.8" customHeight="1">
+    <row r="49" spans="1:4" ht="25.9" customHeight="1">
       <c r="A49" s="9"/>
       <c r="B49" s="1" t="s">
         <v>51</v>
@@ -2300,7 +2467,7 @@
       </c>
       <c r="D49" s="5"/>
     </row>
-    <row r="50" spans="1:4" ht="25.8" customHeight="1">
+    <row r="50" spans="1:4" ht="25.9" customHeight="1">
       <c r="A50" s="9"/>
       <c r="B50" s="1" t="s">
         <v>52</v>
@@ -2310,7 +2477,7 @@
       </c>
       <c r="D50" s="5"/>
     </row>
-    <row r="51" spans="1:4" ht="25.8" customHeight="1">
+    <row r="51" spans="1:4" ht="25.9" customHeight="1">
       <c r="A51" s="9"/>
       <c r="B51" s="1" t="s">
         <v>53</v>
@@ -2320,7 +2487,7 @@
       </c>
       <c r="D51" s="5"/>
     </row>
-    <row r="52" spans="1:4" ht="25.8" customHeight="1">
+    <row r="52" spans="1:4" ht="25.9" customHeight="1">
       <c r="A52" s="10"/>
       <c r="B52" s="1" t="s">
         <v>54</v>
@@ -2330,7 +2497,7 @@
       </c>
       <c r="D52" s="5"/>
     </row>
-    <row r="53" spans="1:4" ht="25.8" customHeight="1">
+    <row r="53" spans="1:4" ht="25.9" customHeight="1">
       <c r="A53" s="8" t="s">
         <v>55</v>
       </c>
@@ -2342,7 +2509,7 @@
       </c>
       <c r="D53" s="5"/>
     </row>
-    <row r="54" spans="1:4" ht="25.8" customHeight="1">
+    <row r="54" spans="1:4" ht="25.9" customHeight="1">
       <c r="A54" s="9"/>
       <c r="B54" s="1" t="s">
         <v>57</v>
@@ -2352,7 +2519,7 @@
       </c>
       <c r="D54" s="5"/>
     </row>
-    <row r="55" spans="1:4" ht="25.8" customHeight="1">
+    <row r="55" spans="1:4" ht="25.9" customHeight="1">
       <c r="A55" s="9"/>
       <c r="B55" s="1" t="s">
         <v>58</v>
@@ -2362,7 +2529,7 @@
       </c>
       <c r="D55" s="5"/>
     </row>
-    <row r="56" spans="1:4" ht="25.8" customHeight="1">
+    <row r="56" spans="1:4" ht="25.9" customHeight="1">
       <c r="A56" s="9"/>
       <c r="B56" s="1" t="s">
         <v>59</v>
@@ -2372,7 +2539,7 @@
       </c>
       <c r="D56" s="5"/>
     </row>
-    <row r="57" spans="1:4" ht="25.8" customHeight="1">
+    <row r="57" spans="1:4" ht="25.9" customHeight="1">
       <c r="A57" s="9"/>
       <c r="B57" s="1" t="s">
         <v>60</v>
@@ -2382,7 +2549,7 @@
       </c>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="1:4" ht="25.8" customHeight="1">
+    <row r="58" spans="1:4" ht="25.9" customHeight="1">
       <c r="A58" s="9"/>
       <c r="B58" s="1" t="s">
         <v>61</v>
@@ -2392,7 +2559,7 @@
       </c>
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="1:4" ht="25.8" customHeight="1">
+    <row r="59" spans="1:4" ht="25.9" customHeight="1">
       <c r="A59" s="9"/>
       <c r="B59" s="1" t="s">
         <v>62</v>
@@ -2402,7 +2569,7 @@
       </c>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="1:4" ht="25.8" customHeight="1">
+    <row r="60" spans="1:4" ht="25.9" customHeight="1">
       <c r="A60" s="9"/>
       <c r="B60" s="1" t="s">
         <v>63</v>
@@ -2412,7 +2579,7 @@
       </c>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" spans="1:4" ht="25.8" customHeight="1">
+    <row r="61" spans="1:4" ht="25.9" customHeight="1">
       <c r="A61" s="9"/>
       <c r="B61" s="1" t="s">
         <v>64</v>
@@ -2422,7 +2589,7 @@
       </c>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="1:4" ht="25.8" customHeight="1">
+    <row r="62" spans="1:4" ht="25.9" customHeight="1">
       <c r="A62" s="10"/>
       <c r="B62" s="1" t="s">
         <v>65</v>
@@ -2432,7 +2599,7 @@
       </c>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="1:4" ht="25.8" customHeight="1">
+    <row r="63" spans="1:4" ht="25.9" customHeight="1">
       <c r="A63" s="8" t="s">
         <v>66</v>
       </c>
@@ -2444,7 +2611,7 @@
       </c>
       <c r="D63" s="5"/>
     </row>
-    <row r="64" spans="1:4" ht="25.8" customHeight="1">
+    <row r="64" spans="1:4" ht="25.9" customHeight="1">
       <c r="A64" s="9"/>
       <c r="B64" s="1" t="s">
         <v>68</v>
@@ -2454,7 +2621,7 @@
       </c>
       <c r="D64" s="5"/>
     </row>
-    <row r="65" spans="1:4" ht="25.8" customHeight="1">
+    <row r="65" spans="1:4" ht="25.9" customHeight="1">
       <c r="A65" s="9"/>
       <c r="B65" s="1" t="s">
         <v>69</v>
@@ -2464,7 +2631,7 @@
       </c>
       <c r="D65" s="5"/>
     </row>
-    <row r="66" spans="1:4" ht="25.8" customHeight="1">
+    <row r="66" spans="1:4" ht="25.9" customHeight="1">
       <c r="A66" s="9"/>
       <c r="B66" s="1" t="s">
         <v>70</v>
@@ -2474,7 +2641,7 @@
       </c>
       <c r="D66" s="5"/>
     </row>
-    <row r="67" spans="1:4" ht="25.8" customHeight="1">
+    <row r="67" spans="1:4" ht="25.9" customHeight="1">
       <c r="A67" s="10"/>
       <c r="B67" s="1" t="s">
         <v>71</v>
@@ -2484,7 +2651,7 @@
       </c>
       <c r="D67" s="5"/>
     </row>
-    <row r="68" spans="1:4" ht="25.8" customHeight="1">
+    <row r="68" spans="1:4" ht="25.9" customHeight="1">
       <c r="A68" s="8" t="s">
         <v>72</v>
       </c>
@@ -2496,7 +2663,7 @@
       </c>
       <c r="D68" s="5"/>
     </row>
-    <row r="69" spans="1:4" ht="25.8" customHeight="1">
+    <row r="69" spans="1:4" ht="25.9" customHeight="1">
       <c r="A69" s="9"/>
       <c r="B69" s="1" t="s">
         <v>74</v>
@@ -2506,7 +2673,7 @@
       </c>
       <c r="D69" s="5"/>
     </row>
-    <row r="70" spans="1:4" ht="25.8" customHeight="1">
+    <row r="70" spans="1:4" ht="25.9" customHeight="1">
       <c r="A70" s="9"/>
       <c r="B70" s="1" t="s">
         <v>75</v>
@@ -2516,7 +2683,7 @@
       </c>
       <c r="D70" s="5"/>
     </row>
-    <row r="71" spans="1:4" ht="25.8" customHeight="1">
+    <row r="71" spans="1:4" ht="25.9" customHeight="1">
       <c r="A71" s="9"/>
       <c r="B71" s="1" t="s">
         <v>76</v>
@@ -2526,7 +2693,7 @@
       </c>
       <c r="D71" s="5"/>
     </row>
-    <row r="72" spans="1:4" ht="25.8" customHeight="1">
+    <row r="72" spans="1:4" ht="25.9" customHeight="1">
       <c r="A72" s="9"/>
       <c r="B72" s="1" t="s">
         <v>77</v>
@@ -2536,7 +2703,7 @@
       </c>
       <c r="D72" s="5"/>
     </row>
-    <row r="73" spans="1:4" ht="25.8" customHeight="1">
+    <row r="73" spans="1:4" ht="25.9" customHeight="1">
       <c r="A73" s="9"/>
       <c r="B73" s="1" t="s">
         <v>78</v>
@@ -2546,7 +2713,7 @@
       </c>
       <c r="D73" s="5"/>
     </row>
-    <row r="74" spans="1:4" ht="25.8" customHeight="1">
+    <row r="74" spans="1:4" ht="25.9" customHeight="1">
       <c r="A74" s="10"/>
       <c r="B74" s="1" t="s">
         <v>79</v>
@@ -2556,7 +2723,7 @@
       </c>
       <c r="D74" s="5"/>
     </row>
-    <row r="75" spans="1:4" ht="25.8" customHeight="1">
+    <row r="75" spans="1:4" ht="25.9" customHeight="1">
       <c r="A75" s="8" t="s">
         <v>80</v>
       </c>
@@ -2568,7 +2735,7 @@
       </c>
       <c r="D75" s="5"/>
     </row>
-    <row r="76" spans="1:4" ht="25.8" customHeight="1">
+    <row r="76" spans="1:4" ht="25.9" customHeight="1">
       <c r="A76" s="10"/>
       <c r="B76" s="1" t="s">
         <v>82</v>
@@ -2578,7 +2745,7 @@
       </c>
       <c r="D76" s="5"/>
     </row>
-    <row r="77" spans="1:4" ht="25.8" customHeight="1">
+    <row r="77" spans="1:4" ht="25.9" customHeight="1">
       <c r="A77" s="8" t="s">
         <v>83</v>
       </c>
@@ -2590,7 +2757,7 @@
       </c>
       <c r="D77" s="5"/>
     </row>
-    <row r="78" spans="1:4" ht="25.8" customHeight="1">
+    <row r="78" spans="1:4" ht="25.9" customHeight="1">
       <c r="A78" s="9"/>
       <c r="B78" s="1" t="s">
         <v>85</v>
@@ -2600,7 +2767,7 @@
       </c>
       <c r="D78" s="5"/>
     </row>
-    <row r="79" spans="1:4" ht="25.8" customHeight="1">
+    <row r="79" spans="1:4" ht="25.9" customHeight="1">
       <c r="A79" s="9"/>
       <c r="B79" s="1" t="s">
         <v>86</v>
@@ -2610,7 +2777,7 @@
       </c>
       <c r="D79" s="5"/>
     </row>
-    <row r="80" spans="1:4" ht="25.8" customHeight="1">
+    <row r="80" spans="1:4" ht="25.9" customHeight="1">
       <c r="A80" s="10"/>
       <c r="B80" s="1" t="s">
         <v>87</v>
@@ -2620,7 +2787,7 @@
       </c>
       <c r="D80" s="5"/>
     </row>
-    <row r="81" spans="1:4" ht="25.8" customHeight="1">
+    <row r="81" spans="1:4" ht="25.9" customHeight="1">
       <c r="A81" s="8" t="s">
         <v>88</v>
       </c>
@@ -2632,7 +2799,7 @@
       </c>
       <c r="D81" s="5"/>
     </row>
-    <row r="82" spans="1:4" ht="25.8" customHeight="1">
+    <row r="82" spans="1:4" ht="25.9" customHeight="1">
       <c r="A82" s="10"/>
       <c r="B82" s="1" t="s">
         <v>90</v>
@@ -2642,7 +2809,7 @@
       </c>
       <c r="D82" s="5"/>
     </row>
-    <row r="83" spans="1:4" ht="25.8" customHeight="1">
+    <row r="83" spans="1:4" ht="25.9" customHeight="1">
       <c r="A83" s="8" t="s">
         <v>91</v>
       </c>
@@ -2654,7 +2821,7 @@
       </c>
       <c r="D83" s="5"/>
     </row>
-    <row r="84" spans="1:4" ht="25.8" customHeight="1">
+    <row r="84" spans="1:4" ht="25.9" customHeight="1">
       <c r="A84" s="9"/>
       <c r="B84" s="1" t="s">
         <v>93</v>
@@ -2664,7 +2831,7 @@
       </c>
       <c r="D84" s="5"/>
     </row>
-    <row r="85" spans="1:4" ht="25.8" customHeight="1">
+    <row r="85" spans="1:4" ht="25.9" customHeight="1">
       <c r="A85" s="9"/>
       <c r="B85" s="1" t="s">
         <v>94</v>
@@ -2674,7 +2841,7 @@
       </c>
       <c r="D85" s="5"/>
     </row>
-    <row r="86" spans="1:4" ht="25.8" customHeight="1">
+    <row r="86" spans="1:4" ht="25.9" customHeight="1">
       <c r="A86" s="9"/>
       <c r="B86" s="1" t="s">
         <v>95</v>
@@ -2684,7 +2851,7 @@
       </c>
       <c r="D86" s="5"/>
     </row>
-    <row r="87" spans="1:4" ht="25.8" customHeight="1">
+    <row r="87" spans="1:4" ht="25.9" customHeight="1">
       <c r="A87" s="9"/>
       <c r="B87" s="1" t="s">
         <v>96</v>
@@ -2694,7 +2861,7 @@
       </c>
       <c r="D87" s="5"/>
     </row>
-    <row r="88" spans="1:4" ht="25.8" customHeight="1">
+    <row r="88" spans="1:4" ht="25.9" customHeight="1">
       <c r="A88" s="9"/>
       <c r="B88" s="1" t="s">
         <v>97</v>
@@ -2704,7 +2871,7 @@
       </c>
       <c r="D88" s="5"/>
     </row>
-    <row r="89" spans="1:4" ht="25.8" customHeight="1">
+    <row r="89" spans="1:4" ht="25.9" customHeight="1">
       <c r="A89" s="10"/>
       <c r="B89" s="1" t="s">
         <v>98</v>
@@ -2714,7 +2881,7 @@
       </c>
       <c r="D89" s="5"/>
     </row>
-    <row r="90" spans="1:4" ht="25.8" customHeight="1">
+    <row r="90" spans="1:4" ht="25.9" customHeight="1">
       <c r="A90" s="8" t="s">
         <v>99</v>
       </c>
@@ -2726,7 +2893,7 @@
       </c>
       <c r="D90" s="5"/>
     </row>
-    <row r="91" spans="1:4" ht="25.8" customHeight="1">
+    <row r="91" spans="1:4" ht="25.9" customHeight="1">
       <c r="A91" s="9"/>
       <c r="B91" s="1" t="s">
         <v>101</v>
@@ -2736,7 +2903,7 @@
       </c>
       <c r="D91" s="5"/>
     </row>
-    <row r="92" spans="1:4" ht="25.8" customHeight="1">
+    <row r="92" spans="1:4" ht="25.9" customHeight="1">
       <c r="A92" s="9"/>
       <c r="B92" s="1" t="s">
         <v>102</v>
@@ -2746,7 +2913,7 @@
       </c>
       <c r="D92" s="5"/>
     </row>
-    <row r="93" spans="1:4" ht="25.8" customHeight="1">
+    <row r="93" spans="1:4" ht="25.9" customHeight="1">
       <c r="A93" s="9"/>
       <c r="B93" s="1" t="s">
         <v>103</v>
@@ -2756,7 +2923,7 @@
       </c>
       <c r="D93" s="5"/>
     </row>
-    <row r="94" spans="1:4" ht="25.8" customHeight="1">
+    <row r="94" spans="1:4" ht="25.9" customHeight="1">
       <c r="A94" s="9"/>
       <c r="B94" s="1" t="s">
         <v>104</v>
@@ -2766,7 +2933,7 @@
       </c>
       <c r="D94" s="5"/>
     </row>
-    <row r="95" spans="1:4" ht="25.8" customHeight="1">
+    <row r="95" spans="1:4" ht="25.9" customHeight="1">
       <c r="A95" s="9"/>
       <c r="B95" s="1" t="s">
         <v>105</v>
@@ -2776,7 +2943,7 @@
       </c>
       <c r="D95" s="5"/>
     </row>
-    <row r="96" spans="1:4" ht="25.8" customHeight="1">
+    <row r="96" spans="1:4" ht="25.9" customHeight="1">
       <c r="A96" s="9"/>
       <c r="B96" s="1" t="s">
         <v>106</v>
@@ -2786,7 +2953,7 @@
       </c>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" spans="1:4" ht="25.8" customHeight="1">
+    <row r="97" spans="1:4" ht="25.9" customHeight="1">
       <c r="A97" s="10"/>
       <c r="B97" s="1" t="s">
         <v>107</v>
@@ -2796,7 +2963,7 @@
       </c>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="1:4" ht="25.8" customHeight="1">
+    <row r="98" spans="1:4" ht="25.9" customHeight="1">
       <c r="A98" s="8" t="s">
         <v>108</v>
       </c>
@@ -2808,7 +2975,7 @@
       </c>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" spans="1:4" ht="25.8" customHeight="1">
+    <row r="99" spans="1:4" ht="25.9" customHeight="1">
       <c r="A99" s="9"/>
       <c r="B99" s="1" t="s">
         <v>110</v>
@@ -2818,7 +2985,7 @@
       </c>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" spans="1:4" ht="25.8" customHeight="1">
+    <row r="100" spans="1:4" ht="25.9" customHeight="1">
       <c r="A100" s="9"/>
       <c r="B100" s="1" t="s">
         <v>111</v>
@@ -2828,7 +2995,7 @@
       </c>
       <c r="D100" s="5"/>
     </row>
-    <row r="101" spans="1:4" ht="25.8" customHeight="1">
+    <row r="101" spans="1:4" ht="25.9" customHeight="1">
       <c r="A101" s="10"/>
       <c r="B101" s="1" t="s">
         <v>112</v>
@@ -2838,7 +3005,7 @@
       </c>
       <c r="D101" s="5"/>
     </row>
-    <row r="102" spans="1:4" ht="25.8" customHeight="1">
+    <row r="102" spans="1:4" ht="25.9" customHeight="1">
       <c r="A102" s="8" t="s">
         <v>113</v>
       </c>
@@ -2850,7 +3017,7 @@
       </c>
       <c r="D102" s="5"/>
     </row>
-    <row r="103" spans="1:4" ht="25.8" customHeight="1">
+    <row r="103" spans="1:4" ht="25.9" customHeight="1">
       <c r="A103" s="9"/>
       <c r="B103" s="1" t="s">
         <v>115</v>
@@ -2860,7 +3027,7 @@
       </c>
       <c r="D103" s="5"/>
     </row>
-    <row r="104" spans="1:4" ht="25.8" customHeight="1">
+    <row r="104" spans="1:4" ht="25.9" customHeight="1">
       <c r="A104" s="10"/>
       <c r="B104" s="1" t="s">
         <v>116</v>
@@ -2870,7 +3037,7 @@
       </c>
       <c r="D104" s="5"/>
     </row>
-    <row r="105" spans="1:4" ht="25.8" customHeight="1">
+    <row r="105" spans="1:4" ht="25.9" customHeight="1">
       <c r="A105" s="8" t="s">
         <v>117</v>
       </c>
@@ -2882,7 +3049,7 @@
       </c>
       <c r="D105" s="5"/>
     </row>
-    <row r="106" spans="1:4" ht="25.8" customHeight="1">
+    <row r="106" spans="1:4" ht="25.9" customHeight="1">
       <c r="A106" s="10"/>
       <c r="B106" s="1" t="s">
         <v>119</v>
@@ -2892,7 +3059,7 @@
       </c>
       <c r="D106" s="5"/>
     </row>
-    <row r="107" spans="1:4" ht="25.8" customHeight="1">
+    <row r="107" spans="1:4" ht="25.9" customHeight="1">
       <c r="A107" s="8" t="s">
         <v>120</v>
       </c>
@@ -2904,7 +3071,7 @@
       </c>
       <c r="D107" s="5"/>
     </row>
-    <row r="108" spans="1:4" ht="25.8" customHeight="1">
+    <row r="108" spans="1:4" ht="25.9" customHeight="1">
       <c r="A108" s="9"/>
       <c r="B108" s="1" t="s">
         <v>122</v>
@@ -2914,7 +3081,7 @@
       </c>
       <c r="D108" s="5"/>
     </row>
-    <row r="109" spans="1:4" ht="25.8" customHeight="1">
+    <row r="109" spans="1:4" ht="25.9" customHeight="1">
       <c r="A109" s="9"/>
       <c r="B109" s="1" t="s">
         <v>123</v>
@@ -2924,7 +3091,7 @@
       </c>
       <c r="D109" s="5"/>
     </row>
-    <row r="110" spans="1:4" ht="25.8" customHeight="1">
+    <row r="110" spans="1:4" ht="25.9" customHeight="1">
       <c r="A110" s="9"/>
       <c r="B110" s="1" t="s">
         <v>124</v>
@@ -2934,7 +3101,7 @@
       </c>
       <c r="D110" s="5"/>
     </row>
-    <row r="111" spans="1:4" ht="25.8" customHeight="1">
+    <row r="111" spans="1:4" ht="25.9" customHeight="1">
       <c r="A111" s="9"/>
       <c r="B111" s="1" t="s">
         <v>125</v>
@@ -2944,7 +3111,7 @@
       </c>
       <c r="D111" s="5"/>
     </row>
-    <row r="112" spans="1:4" ht="25.8" customHeight="1">
+    <row r="112" spans="1:4" ht="25.9" customHeight="1">
       <c r="A112" s="10"/>
       <c r="B112" s="1" t="s">
         <v>126</v>
@@ -2954,7 +3121,7 @@
       </c>
       <c r="D112" s="5"/>
     </row>
-    <row r="113" spans="1:4" ht="25.8" customHeight="1">
+    <row r="113" spans="1:4" ht="25.9" customHeight="1">
       <c r="A113" s="8" t="s">
         <v>127</v>
       </c>
@@ -2966,7 +3133,7 @@
       </c>
       <c r="D113" s="5"/>
     </row>
-    <row r="114" spans="1:4" ht="25.8" customHeight="1">
+    <row r="114" spans="1:4" ht="25.9" customHeight="1">
       <c r="A114" s="9"/>
       <c r="B114" s="1" t="s">
         <v>129</v>
@@ -2976,7 +3143,7 @@
       </c>
       <c r="D114" s="5"/>
     </row>
-    <row r="115" spans="1:4" ht="25.8" customHeight="1">
+    <row r="115" spans="1:4" ht="25.9" customHeight="1">
       <c r="A115" s="10"/>
       <c r="B115" s="1" t="s">
         <v>130</v>
@@ -2986,7 +3153,7 @@
       </c>
       <c r="D115" s="5"/>
     </row>
-    <row r="116" spans="1:4" ht="25.8" customHeight="1">
+    <row r="116" spans="1:4" ht="25.9" customHeight="1">
       <c r="A116" s="8" t="s">
         <v>131</v>
       </c>
@@ -2998,7 +3165,7 @@
       </c>
       <c r="D116" s="5"/>
     </row>
-    <row r="117" spans="1:4" ht="25.8" customHeight="1">
+    <row r="117" spans="1:4" ht="25.9" customHeight="1">
       <c r="A117" s="10"/>
       <c r="B117" s="1" t="s">
         <v>133</v>
@@ -3008,7 +3175,7 @@
       </c>
       <c r="D117" s="5"/>
     </row>
-    <row r="118" spans="1:4" ht="25.8" customHeight="1">
+    <row r="118" spans="1:4" ht="25.9" customHeight="1">
       <c r="A118" s="8" t="s">
         <v>134</v>
       </c>
@@ -3020,7 +3187,7 @@
       </c>
       <c r="D118" s="5"/>
     </row>
-    <row r="119" spans="1:4" ht="25.8" customHeight="1">
+    <row r="119" spans="1:4" ht="25.9" customHeight="1">
       <c r="A119" s="10"/>
       <c r="B119" s="1" t="s">
         <v>136</v>
@@ -3030,7 +3197,7 @@
       </c>
       <c r="D119" s="5"/>
     </row>
-    <row r="120" spans="1:4" ht="25.8" customHeight="1">
+    <row r="120" spans="1:4" ht="25.9" customHeight="1">
       <c r="A120" s="8" t="s">
         <v>137</v>
       </c>
@@ -3042,7 +3209,7 @@
       </c>
       <c r="D120" s="5"/>
     </row>
-    <row r="121" spans="1:4" ht="25.8" customHeight="1">
+    <row r="121" spans="1:4" ht="25.9" customHeight="1">
       <c r="A121" s="10"/>
       <c r="B121" s="1" t="s">
         <v>139</v>
@@ -3052,7 +3219,7 @@
       </c>
       <c r="D121" s="5"/>
     </row>
-    <row r="122" spans="1:4" ht="25.8" customHeight="1">
+    <row r="122" spans="1:4" ht="25.9" customHeight="1">
       <c r="A122" s="8" t="s">
         <v>140</v>
       </c>
@@ -3064,7 +3231,7 @@
       </c>
       <c r="D122" s="5"/>
     </row>
-    <row r="123" spans="1:4" ht="25.8" customHeight="1">
+    <row r="123" spans="1:4" ht="25.9" customHeight="1">
       <c r="A123" s="9"/>
       <c r="B123" s="1" t="s">
         <v>142</v>
@@ -3074,7 +3241,7 @@
       </c>
       <c r="D123" s="5"/>
     </row>
-    <row r="124" spans="1:4" ht="25.8" customHeight="1">
+    <row r="124" spans="1:4" ht="25.9" customHeight="1">
       <c r="A124" s="9"/>
       <c r="B124" s="1" t="s">
         <v>143</v>
@@ -3084,7 +3251,7 @@
       </c>
       <c r="D124" s="5"/>
     </row>
-    <row r="125" spans="1:4" ht="25.8" customHeight="1">
+    <row r="125" spans="1:4" ht="25.9" customHeight="1">
       <c r="A125" s="9"/>
       <c r="B125" s="1" t="s">
         <v>144</v>
@@ -3094,7 +3261,7 @@
       </c>
       <c r="D125" s="5"/>
     </row>
-    <row r="126" spans="1:4" ht="25.8" customHeight="1">
+    <row r="126" spans="1:4" ht="25.9" customHeight="1">
       <c r="A126" s="9"/>
       <c r="B126" s="1" t="s">
         <v>145</v>
@@ -3104,7 +3271,7 @@
       </c>
       <c r="D126" s="5"/>
     </row>
-    <row r="127" spans="1:4" ht="25.8" customHeight="1">
+    <row r="127" spans="1:4" ht="25.9" customHeight="1">
       <c r="A127" s="9"/>
       <c r="B127" s="1" t="s">
         <v>146</v>
@@ -3114,7 +3281,7 @@
       </c>
       <c r="D127" s="5"/>
     </row>
-    <row r="128" spans="1:4" ht="25.8" customHeight="1">
+    <row r="128" spans="1:4" ht="25.9" customHeight="1">
       <c r="A128" s="9"/>
       <c r="B128" s="1" t="s">
         <v>147</v>
@@ -3124,7 +3291,7 @@
       </c>
       <c r="D128" s="5"/>
     </row>
-    <row r="129" spans="1:4" ht="25.8" customHeight="1">
+    <row r="129" spans="1:4" ht="25.9" customHeight="1">
       <c r="A129" s="9"/>
       <c r="B129" s="1" t="s">
         <v>148</v>
@@ -3134,7 +3301,7 @@
       </c>
       <c r="D129" s="5"/>
     </row>
-    <row r="130" spans="1:4" ht="25.8" customHeight="1">
+    <row r="130" spans="1:4" ht="25.9" customHeight="1">
       <c r="A130" s="9"/>
       <c r="B130" s="1" t="s">
         <v>149</v>
@@ -3144,7 +3311,7 @@
       </c>
       <c r="D130" s="5"/>
     </row>
-    <row r="131" spans="1:4" ht="25.8" customHeight="1">
+    <row r="131" spans="1:4" ht="25.9" customHeight="1">
       <c r="A131" s="9"/>
       <c r="B131" s="1" t="s">
         <v>150</v>
@@ -3154,7 +3321,7 @@
       </c>
       <c r="D131" s="5"/>
     </row>
-    <row r="132" spans="1:4" ht="25.8" customHeight="1">
+    <row r="132" spans="1:4" ht="25.9" customHeight="1">
       <c r="A132" s="9"/>
       <c r="B132" s="1" t="s">
         <v>151</v>
@@ -3164,7 +3331,7 @@
       </c>
       <c r="D132" s="5"/>
     </row>
-    <row r="133" spans="1:4" ht="25.8" customHeight="1">
+    <row r="133" spans="1:4" ht="25.9" customHeight="1">
       <c r="A133" s="9"/>
       <c r="B133" s="1" t="s">
         <v>152</v>
@@ -3174,7 +3341,7 @@
       </c>
       <c r="D133" s="5"/>
     </row>
-    <row r="134" spans="1:4" ht="25.8" customHeight="1">
+    <row r="134" spans="1:4" ht="25.9" customHeight="1">
       <c r="A134" s="9"/>
       <c r="B134" s="1" t="s">
         <v>153</v>
@@ -3184,7 +3351,7 @@
       </c>
       <c r="D134" s="5"/>
     </row>
-    <row r="135" spans="1:4" ht="25.8" customHeight="1">
+    <row r="135" spans="1:4" ht="25.9" customHeight="1">
       <c r="A135" s="9"/>
       <c r="B135" s="1" t="s">
         <v>154</v>
@@ -3194,7 +3361,7 @@
       </c>
       <c r="D135" s="5"/>
     </row>
-    <row r="136" spans="1:4" ht="25.8" customHeight="1">
+    <row r="136" spans="1:4" ht="25.9" customHeight="1">
       <c r="A136" s="9"/>
       <c r="B136" s="1" t="s">
         <v>155</v>
@@ -3204,7 +3371,7 @@
       </c>
       <c r="D136" s="5"/>
     </row>
-    <row r="137" spans="1:4" ht="25.8" customHeight="1">
+    <row r="137" spans="1:4" ht="25.9" customHeight="1">
       <c r="A137" s="9"/>
       <c r="B137" s="1" t="s">
         <v>156</v>
@@ -3214,7 +3381,7 @@
       </c>
       <c r="D137" s="5"/>
     </row>
-    <row r="138" spans="1:4" ht="25.8" customHeight="1">
+    <row r="138" spans="1:4" ht="25.9" customHeight="1">
       <c r="A138" s="9"/>
       <c r="B138" s="1" t="s">
         <v>157</v>
@@ -3224,7 +3391,7 @@
       </c>
       <c r="D138" s="5"/>
     </row>
-    <row r="139" spans="1:4" ht="25.8" customHeight="1">
+    <row r="139" spans="1:4" ht="25.9" customHeight="1">
       <c r="A139" s="9"/>
       <c r="B139" s="1" t="s">
         <v>158</v>
@@ -3234,7 +3401,7 @@
       </c>
       <c r="D139" s="5"/>
     </row>
-    <row r="140" spans="1:4" ht="25.8" customHeight="1">
+    <row r="140" spans="1:4" ht="25.9" customHeight="1">
       <c r="A140" s="9"/>
       <c r="B140" s="1" t="s">
         <v>159</v>
@@ -3244,7 +3411,7 @@
       </c>
       <c r="D140" s="5"/>
     </row>
-    <row r="141" spans="1:4" ht="25.8" customHeight="1">
+    <row r="141" spans="1:4" ht="25.9" customHeight="1">
       <c r="A141" s="9"/>
       <c r="B141" s="1" t="s">
         <v>160</v>
@@ -3254,7 +3421,7 @@
       </c>
       <c r="D141" s="5"/>
     </row>
-    <row r="142" spans="1:4" ht="25.8" customHeight="1">
+    <row r="142" spans="1:4" ht="25.9" customHeight="1">
       <c r="A142" s="9"/>
       <c r="B142" s="1" t="s">
         <v>161</v>
@@ -3264,7 +3431,7 @@
       </c>
       <c r="D142" s="5"/>
     </row>
-    <row r="143" spans="1:4" ht="25.8" customHeight="1">
+    <row r="143" spans="1:4" ht="25.9" customHeight="1">
       <c r="A143" s="9"/>
       <c r="B143" s="1" t="s">
         <v>162</v>
@@ -3274,7 +3441,7 @@
       </c>
       <c r="D143" s="5"/>
     </row>
-    <row r="144" spans="1:4" ht="25.8" customHeight="1">
+    <row r="144" spans="1:4" ht="25.9" customHeight="1">
       <c r="A144" s="9"/>
       <c r="B144" s="1" t="s">
         <v>163</v>
@@ -3284,7 +3451,7 @@
       </c>
       <c r="D144" s="5"/>
     </row>
-    <row r="145" spans="1:4" ht="25.8" customHeight="1">
+    <row r="145" spans="1:4" ht="25.9" customHeight="1">
       <c r="A145" s="9"/>
       <c r="B145" s="1" t="s">
         <v>164</v>
@@ -3294,7 +3461,7 @@
       </c>
       <c r="D145" s="5"/>
     </row>
-    <row r="146" spans="1:4" ht="25.8" customHeight="1">
+    <row r="146" spans="1:4" ht="25.9" customHeight="1">
       <c r="A146" s="9"/>
       <c r="B146" s="1" t="s">
         <v>165</v>
@@ -3304,7 +3471,7 @@
       </c>
       <c r="D146" s="5"/>
     </row>
-    <row r="147" spans="1:4" ht="25.8" customHeight="1">
+    <row r="147" spans="1:4" ht="25.9" customHeight="1">
       <c r="A147" s="9"/>
       <c r="B147" s="1" t="s">
         <v>166</v>
@@ -3314,7 +3481,7 @@
       </c>
       <c r="D147" s="5"/>
     </row>
-    <row r="148" spans="1:4" ht="25.8" customHeight="1">
+    <row r="148" spans="1:4" ht="25.9" customHeight="1">
       <c r="A148" s="9"/>
       <c r="B148" s="1" t="s">
         <v>167</v>
@@ -3324,7 +3491,7 @@
       </c>
       <c r="D148" s="5"/>
     </row>
-    <row r="149" spans="1:4" ht="25.8" customHeight="1">
+    <row r="149" spans="1:4" ht="25.9" customHeight="1">
       <c r="A149" s="9"/>
       <c r="B149" s="1" t="s">
         <v>168</v>
@@ -3334,7 +3501,7 @@
       </c>
       <c r="D149" s="5"/>
     </row>
-    <row r="150" spans="1:4" ht="25.8" customHeight="1">
+    <row r="150" spans="1:4" ht="25.9" customHeight="1">
       <c r="A150" s="9"/>
       <c r="B150" s="1" t="s">
         <v>169</v>
@@ -3344,7 +3511,7 @@
       </c>
       <c r="D150" s="5"/>
     </row>
-    <row r="151" spans="1:4" ht="25.8" customHeight="1">
+    <row r="151" spans="1:4" ht="25.9" customHeight="1">
       <c r="A151" s="9"/>
       <c r="B151" s="1" t="s">
         <v>170</v>
@@ -3354,7 +3521,7 @@
       </c>
       <c r="D151" s="5"/>
     </row>
-    <row r="152" spans="1:4" ht="25.8" customHeight="1">
+    <row r="152" spans="1:4" ht="25.9" customHeight="1">
       <c r="A152" s="9"/>
       <c r="B152" s="1" t="s">
         <v>171</v>
@@ -3364,7 +3531,7 @@
       </c>
       <c r="D152" s="5"/>
     </row>
-    <row r="153" spans="1:4" ht="25.8" customHeight="1">
+    <row r="153" spans="1:4" ht="25.9" customHeight="1">
       <c r="A153" s="9"/>
       <c r="B153" s="1" t="s">
         <v>172</v>
@@ -3374,7 +3541,7 @@
       </c>
       <c r="D153" s="5"/>
     </row>
-    <row r="154" spans="1:4" ht="25.8" customHeight="1">
+    <row r="154" spans="1:4" ht="25.9" customHeight="1">
       <c r="A154" s="10"/>
       <c r="B154" s="1" t="s">
         <v>173</v>
@@ -3384,7 +3551,7 @@
       </c>
       <c r="D154" s="5"/>
     </row>
-    <row r="155" spans="1:4" ht="25.8" customHeight="1">
+    <row r="155" spans="1:4" ht="25.9" customHeight="1">
       <c r="A155" s="8" t="s">
         <v>174</v>
       </c>
@@ -3396,7 +3563,7 @@
       </c>
       <c r="D155" s="5"/>
     </row>
-    <row r="156" spans="1:4" ht="25.8" customHeight="1">
+    <row r="156" spans="1:4" ht="25.9" customHeight="1">
       <c r="A156" s="9"/>
       <c r="B156" s="1" t="s">
         <v>176</v>
@@ -3406,7 +3573,7 @@
       </c>
       <c r="D156" s="5"/>
     </row>
-    <row r="157" spans="1:4" ht="25.8" customHeight="1">
+    <row r="157" spans="1:4" ht="25.9" customHeight="1">
       <c r="A157" s="9"/>
       <c r="B157" s="1" t="s">
         <v>177</v>
@@ -3416,7 +3583,7 @@
       </c>
       <c r="D157" s="5"/>
     </row>
-    <row r="158" spans="1:4" ht="25.8" customHeight="1">
+    <row r="158" spans="1:4" ht="25.9" customHeight="1">
       <c r="A158" s="9"/>
       <c r="B158" s="1" t="s">
         <v>178</v>
@@ -3426,7 +3593,7 @@
       </c>
       <c r="D158" s="5"/>
     </row>
-    <row r="159" spans="1:4" ht="25.8" customHeight="1">
+    <row r="159" spans="1:4" ht="25.9" customHeight="1">
       <c r="A159" s="9"/>
       <c r="B159" s="1" t="s">
         <v>179</v>
@@ -3436,7 +3603,7 @@
       </c>
       <c r="D159" s="5"/>
     </row>
-    <row r="160" spans="1:4" ht="25.8" customHeight="1">
+    <row r="160" spans="1:4" ht="25.9" customHeight="1">
       <c r="A160" s="9"/>
       <c r="B160" s="1" t="s">
         <v>180</v>
@@ -3446,7 +3613,7 @@
       </c>
       <c r="D160" s="5"/>
     </row>
-    <row r="161" spans="1:4" ht="25.8" customHeight="1">
+    <row r="161" spans="1:4" ht="25.9" customHeight="1">
       <c r="A161" s="9"/>
       <c r="B161" s="1" t="s">
         <v>181</v>
@@ -3456,7 +3623,7 @@
       </c>
       <c r="D161" s="5"/>
     </row>
-    <row r="162" spans="1:4" ht="25.8" customHeight="1">
+    <row r="162" spans="1:4" ht="25.9" customHeight="1">
       <c r="A162" s="9"/>
       <c r="B162" s="1" t="s">
         <v>182</v>
@@ -3466,7 +3633,7 @@
       </c>
       <c r="D162" s="5"/>
     </row>
-    <row r="163" spans="1:4" ht="25.8" customHeight="1">
+    <row r="163" spans="1:4" ht="25.9" customHeight="1">
       <c r="A163" s="9"/>
       <c r="B163" s="1" t="s">
         <v>183</v>
@@ -3476,7 +3643,7 @@
       </c>
       <c r="D163" s="5"/>
     </row>
-    <row r="164" spans="1:4" ht="25.8" customHeight="1">
+    <row r="164" spans="1:4" ht="25.9" customHeight="1">
       <c r="A164" s="9"/>
       <c r="B164" s="1" t="s">
         <v>184</v>
@@ -3486,7 +3653,7 @@
       </c>
       <c r="D164" s="5"/>
     </row>
-    <row r="165" spans="1:4" ht="25.8" customHeight="1">
+    <row r="165" spans="1:4" ht="25.9" customHeight="1">
       <c r="A165" s="10"/>
       <c r="B165" s="1" t="s">
         <v>185</v>
@@ -3496,7 +3663,7 @@
       </c>
       <c r="D165" s="5"/>
     </row>
-    <row r="166" spans="1:4" ht="25.8" customHeight="1">
+    <row r="166" spans="1:4" ht="25.9" customHeight="1">
       <c r="A166" s="8" t="s">
         <v>186</v>
       </c>
@@ -3508,7 +3675,7 @@
       </c>
       <c r="D166" s="5"/>
     </row>
-    <row r="167" spans="1:4" ht="25.8" customHeight="1">
+    <row r="167" spans="1:4" ht="25.9" customHeight="1">
       <c r="A167" s="10"/>
       <c r="B167" s="1" t="s">
         <v>188</v>
@@ -3518,7 +3685,7 @@
       </c>
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="1:4" ht="25.8" customHeight="1">
+    <row r="168" spans="1:4" ht="25.9" customHeight="1">
       <c r="A168" s="8" t="s">
         <v>189</v>
       </c>
@@ -3530,7 +3697,7 @@
       </c>
       <c r="D168" s="5"/>
     </row>
-    <row r="169" spans="1:4" ht="25.8" customHeight="1">
+    <row r="169" spans="1:4" ht="25.9" customHeight="1">
       <c r="A169" s="9"/>
       <c r="B169" s="1" t="s">
         <v>191</v>
@@ -3540,7 +3707,7 @@
       </c>
       <c r="D169" s="5"/>
     </row>
-    <row r="170" spans="1:4" ht="25.8" customHeight="1">
+    <row r="170" spans="1:4" ht="25.9" customHeight="1">
       <c r="A170" s="9"/>
       <c r="B170" s="1" t="s">
         <v>192</v>
@@ -3550,7 +3717,7 @@
       </c>
       <c r="D170" s="5"/>
     </row>
-    <row r="171" spans="1:4" ht="25.8" customHeight="1">
+    <row r="171" spans="1:4" ht="25.9" customHeight="1">
       <c r="A171" s="9"/>
       <c r="B171" s="1" t="s">
         <v>193</v>
@@ -3560,7 +3727,7 @@
       </c>
       <c r="D171" s="5"/>
     </row>
-    <row r="172" spans="1:4" ht="25.8" customHeight="1">
+    <row r="172" spans="1:4" ht="25.9" customHeight="1">
       <c r="A172" s="9"/>
       <c r="B172" s="1" t="s">
         <v>194</v>
@@ -3570,7 +3737,7 @@
       </c>
       <c r="D172" s="5"/>
     </row>
-    <row r="173" spans="1:4" ht="25.8" customHeight="1">
+    <row r="173" spans="1:4" ht="25.9" customHeight="1">
       <c r="A173" s="9"/>
       <c r="B173" s="1" t="s">
         <v>195</v>
@@ -3580,7 +3747,7 @@
       </c>
       <c r="D173" s="5"/>
     </row>
-    <row r="174" spans="1:4" ht="25.8" customHeight="1">
+    <row r="174" spans="1:4" ht="25.9" customHeight="1">
       <c r="A174" s="9"/>
       <c r="B174" s="1" t="s">
         <v>196</v>
@@ -3590,7 +3757,7 @@
       </c>
       <c r="D174" s="5"/>
     </row>
-    <row r="175" spans="1:4" ht="25.8" customHeight="1">
+    <row r="175" spans="1:4" ht="25.9" customHeight="1">
       <c r="A175" s="9"/>
       <c r="B175" s="1" t="s">
         <v>197</v>
@@ -3600,7 +3767,7 @@
       </c>
       <c r="D175" s="5"/>
     </row>
-    <row r="176" spans="1:4" ht="25.8" customHeight="1">
+    <row r="176" spans="1:4" ht="25.9" customHeight="1">
       <c r="A176" s="9"/>
       <c r="B176" s="1" t="s">
         <v>198</v>
@@ -3610,7 +3777,7 @@
       </c>
       <c r="D176" s="5"/>
     </row>
-    <row r="177" spans="1:4" ht="25.8" customHeight="1">
+    <row r="177" spans="1:4" ht="25.9" customHeight="1">
       <c r="A177" s="10"/>
       <c r="B177" s="1" t="s">
         <v>199</v>
@@ -3620,7 +3787,7 @@
       </c>
       <c r="D177" s="5"/>
     </row>
-    <row r="178" spans="1:4" ht="25.8" customHeight="1">
+    <row r="178" spans="1:4" ht="25.9" customHeight="1">
       <c r="A178" s="8" t="s">
         <v>200</v>
       </c>
@@ -3632,7 +3799,7 @@
       </c>
       <c r="D178" s="5"/>
     </row>
-    <row r="179" spans="1:4" ht="25.8" customHeight="1">
+    <row r="179" spans="1:4" ht="25.9" customHeight="1">
       <c r="A179" s="9"/>
       <c r="B179" s="1" t="s">
         <v>202</v>
@@ -3642,7 +3809,7 @@
       </c>
       <c r="D179" s="5"/>
     </row>
-    <row r="180" spans="1:4" ht="25.8" customHeight="1">
+    <row r="180" spans="1:4" ht="25.9" customHeight="1">
       <c r="A180" s="10"/>
       <c r="B180" s="1" t="s">
         <v>203</v>
@@ -3652,7 +3819,7 @@
       </c>
       <c r="D180" s="5"/>
     </row>
-    <row r="181" spans="1:4" ht="25.8" customHeight="1">
+    <row r="181" spans="1:4" ht="25.9" customHeight="1">
       <c r="A181" s="8" t="s">
         <v>204</v>
       </c>
@@ -3664,7 +3831,7 @@
       </c>
       <c r="D181" s="5"/>
     </row>
-    <row r="182" spans="1:4" ht="25.8" customHeight="1">
+    <row r="182" spans="1:4" ht="25.9" customHeight="1">
       <c r="A182" s="9"/>
       <c r="B182" s="1" t="s">
         <v>206</v>
@@ -3674,7 +3841,7 @@
       </c>
       <c r="D182" s="5"/>
     </row>
-    <row r="183" spans="1:4" ht="25.8" customHeight="1">
+    <row r="183" spans="1:4" ht="25.9" customHeight="1">
       <c r="A183" s="9"/>
       <c r="B183" s="1" t="s">
         <v>207</v>
@@ -3684,7 +3851,7 @@
       </c>
       <c r="D183" s="5"/>
     </row>
-    <row r="184" spans="1:4" ht="25.8" customHeight="1">
+    <row r="184" spans="1:4" ht="25.9" customHeight="1">
       <c r="A184" s="9"/>
       <c r="B184" s="1" t="s">
         <v>208</v>
@@ -3694,7 +3861,7 @@
       </c>
       <c r="D184" s="5"/>
     </row>
-    <row r="185" spans="1:4" ht="25.8" customHeight="1">
+    <row r="185" spans="1:4" ht="25.9" customHeight="1">
       <c r="A185" s="9"/>
       <c r="B185" s="1" t="s">
         <v>209</v>
@@ -3704,7 +3871,7 @@
       </c>
       <c r="D185" s="5"/>
     </row>
-    <row r="186" spans="1:4" ht="25.8" customHeight="1">
+    <row r="186" spans="1:4" ht="25.9" customHeight="1">
       <c r="A186" s="9"/>
       <c r="B186" s="1" t="s">
         <v>210</v>
@@ -3714,7 +3881,7 @@
       </c>
       <c r="D186" s="5"/>
     </row>
-    <row r="187" spans="1:4" ht="25.8" customHeight="1">
+    <row r="187" spans="1:4" ht="25.9" customHeight="1">
       <c r="A187" s="9"/>
       <c r="B187" s="1" t="s">
         <v>211</v>
@@ -3724,7 +3891,7 @@
       </c>
       <c r="D187" s="5"/>
     </row>
-    <row r="188" spans="1:4" ht="25.8" customHeight="1">
+    <row r="188" spans="1:4" ht="25.9" customHeight="1">
       <c r="A188" s="9"/>
       <c r="B188" s="1" t="s">
         <v>212</v>
@@ -3734,7 +3901,7 @@
       </c>
       <c r="D188" s="5"/>
     </row>
-    <row r="189" spans="1:4" ht="25.8" customHeight="1">
+    <row r="189" spans="1:4" ht="25.9" customHeight="1">
       <c r="A189" s="9"/>
       <c r="B189" s="1" t="s">
         <v>213</v>
@@ -3744,7 +3911,7 @@
       </c>
       <c r="D189" s="5"/>
     </row>
-    <row r="190" spans="1:4" ht="25.8" customHeight="1">
+    <row r="190" spans="1:4" ht="25.9" customHeight="1">
       <c r="A190" s="9"/>
       <c r="B190" s="1" t="s">
         <v>214</v>
@@ -3754,7 +3921,7 @@
       </c>
       <c r="D190" s="5"/>
     </row>
-    <row r="191" spans="1:4" ht="25.8" customHeight="1">
+    <row r="191" spans="1:4" ht="25.9" customHeight="1">
       <c r="A191" s="9"/>
       <c r="B191" s="1" t="s">
         <v>215</v>
@@ -3764,7 +3931,7 @@
       </c>
       <c r="D191" s="5"/>
     </row>
-    <row r="192" spans="1:4" ht="25.8" customHeight="1">
+    <row r="192" spans="1:4" ht="25.9" customHeight="1">
       <c r="A192" s="9"/>
       <c r="B192" s="1" t="s">
         <v>216</v>
@@ -3774,7 +3941,7 @@
       </c>
       <c r="D192" s="5"/>
     </row>
-    <row r="193" spans="1:4" ht="25.8" customHeight="1">
+    <row r="193" spans="1:4" ht="25.9" customHeight="1">
       <c r="A193" s="9"/>
       <c r="B193" s="1" t="s">
         <v>217</v>
@@ -3784,7 +3951,7 @@
       </c>
       <c r="D193" s="5"/>
     </row>
-    <row r="194" spans="1:4" ht="25.8" customHeight="1">
+    <row r="194" spans="1:4" ht="25.9" customHeight="1">
       <c r="A194" s="9"/>
       <c r="B194" s="1" t="s">
         <v>218</v>
@@ -3794,7 +3961,7 @@
       </c>
       <c r="D194" s="5"/>
     </row>
-    <row r="195" spans="1:4" ht="25.8" customHeight="1">
+    <row r="195" spans="1:4" ht="25.9" customHeight="1">
       <c r="A195" s="9"/>
       <c r="B195" s="1" t="s">
         <v>219</v>
@@ -3804,7 +3971,7 @@
       </c>
       <c r="D195" s="5"/>
     </row>
-    <row r="196" spans="1:4" ht="25.8" customHeight="1">
+    <row r="196" spans="1:4" ht="25.9" customHeight="1">
       <c r="A196" s="9"/>
       <c r="B196" s="1" t="s">
         <v>220</v>
@@ -3814,7 +3981,7 @@
       </c>
       <c r="D196" s="5"/>
     </row>
-    <row r="197" spans="1:4" ht="25.8" customHeight="1">
+    <row r="197" spans="1:4" ht="25.9" customHeight="1">
       <c r="A197" s="9"/>
       <c r="B197" s="1" t="s">
         <v>221</v>
@@ -3824,7 +3991,7 @@
       </c>
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="1:4" ht="25.8" customHeight="1">
+    <row r="198" spans="1:4" ht="25.9" customHeight="1">
       <c r="A198" s="9"/>
       <c r="B198" s="1" t="s">
         <v>222</v>
@@ -3834,7 +4001,7 @@
       </c>
       <c r="D198" s="5"/>
     </row>
-    <row r="199" spans="1:4" ht="25.8" customHeight="1">
+    <row r="199" spans="1:4" ht="25.9" customHeight="1">
       <c r="A199" s="9"/>
       <c r="B199" s="1" t="s">
         <v>223</v>
@@ -3844,7 +4011,7 @@
       </c>
       <c r="D199" s="5"/>
     </row>
-    <row r="200" spans="1:4" ht="25.8" customHeight="1">
+    <row r="200" spans="1:4" ht="25.9" customHeight="1">
       <c r="A200" s="10"/>
       <c r="B200" s="1" t="s">
         <v>224</v>
@@ -3854,7 +4021,7 @@
       </c>
       <c r="D200" s="5"/>
     </row>
-    <row r="201" spans="1:4" ht="25.8" customHeight="1">
+    <row r="201" spans="1:4" ht="25.9" customHeight="1">
       <c r="A201" s="8" t="s">
         <v>225</v>
       </c>
@@ -3866,7 +4033,7 @@
       </c>
       <c r="D201" s="5"/>
     </row>
-    <row r="202" spans="1:4" ht="25.8" customHeight="1">
+    <row r="202" spans="1:4" ht="25.9" customHeight="1">
       <c r="A202" s="9"/>
       <c r="B202" s="1" t="s">
         <v>227</v>
@@ -3876,7 +4043,7 @@
       </c>
       <c r="D202" s="5"/>
     </row>
-    <row r="203" spans="1:4" ht="25.8" customHeight="1">
+    <row r="203" spans="1:4" ht="25.9" customHeight="1">
       <c r="A203" s="9"/>
       <c r="B203" s="1" t="s">
         <v>228</v>
@@ -3886,7 +4053,7 @@
       </c>
       <c r="D203" s="5"/>
     </row>
-    <row r="204" spans="1:4" ht="25.8" customHeight="1">
+    <row r="204" spans="1:4" ht="25.9" customHeight="1">
       <c r="A204" s="9"/>
       <c r="B204" s="1" t="s">
         <v>229</v>
@@ -3896,7 +4063,7 @@
       </c>
       <c r="D204" s="5"/>
     </row>
-    <row r="205" spans="1:4" ht="25.8" customHeight="1">
+    <row r="205" spans="1:4" ht="25.9" customHeight="1">
       <c r="A205" s="9"/>
       <c r="B205" s="1" t="s">
         <v>230</v>
@@ -3906,7 +4073,7 @@
       </c>
       <c r="D205" s="5"/>
     </row>
-    <row r="206" spans="1:4" ht="25.8" customHeight="1">
+    <row r="206" spans="1:4" ht="25.9" customHeight="1">
       <c r="A206" s="9"/>
       <c r="B206" s="1" t="s">
         <v>231</v>
@@ -3916,7 +4083,7 @@
       </c>
       <c r="D206" s="5"/>
     </row>
-    <row r="207" spans="1:4" ht="25.8" customHeight="1">
+    <row r="207" spans="1:4" ht="25.9" customHeight="1">
       <c r="A207" s="9"/>
       <c r="B207" s="1" t="s">
         <v>232</v>
@@ -3926,7 +4093,7 @@
       </c>
       <c r="D207" s="5"/>
     </row>
-    <row r="208" spans="1:4" ht="25.8" customHeight="1">
+    <row r="208" spans="1:4" ht="25.9" customHeight="1">
       <c r="A208" s="9"/>
       <c r="B208" s="1" t="s">
         <v>233</v>
@@ -3936,7 +4103,7 @@
       </c>
       <c r="D208" s="5"/>
     </row>
-    <row r="209" spans="1:4" ht="25.8" customHeight="1">
+    <row r="209" spans="1:4" ht="25.9" customHeight="1">
       <c r="A209" s="9"/>
       <c r="B209" s="1" t="s">
         <v>234</v>
@@ -3946,7 +4113,7 @@
       </c>
       <c r="D209" s="5"/>
     </row>
-    <row r="210" spans="1:4" ht="25.8" customHeight="1">
+    <row r="210" spans="1:4" ht="25.9" customHeight="1">
       <c r="A210" s="10"/>
       <c r="B210" s="1" t="s">
         <v>235</v>
@@ -3956,7 +4123,7 @@
       </c>
       <c r="D210" s="5"/>
     </row>
-    <row r="211" spans="1:4" ht="25.8" customHeight="1">
+    <row r="211" spans="1:4" ht="25.9" customHeight="1">
       <c r="A211" s="5" t="s">
         <v>236</v>
       </c>
@@ -3968,7 +4135,7 @@
       </c>
       <c r="D211" s="5"/>
     </row>
-    <row r="212" spans="1:4" ht="25.8" customHeight="1">
+    <row r="212" spans="1:4" ht="25.9" customHeight="1">
       <c r="A212" s="8" t="s">
         <v>238</v>
       </c>
@@ -3980,7 +4147,7 @@
       </c>
       <c r="D212" s="5"/>
     </row>
-    <row r="213" spans="1:4" ht="25.8" customHeight="1">
+    <row r="213" spans="1:4" ht="25.9" customHeight="1">
       <c r="A213" s="9"/>
       <c r="B213" s="1" t="s">
         <v>240</v>
@@ -3990,7 +4157,7 @@
       </c>
       <c r="D213" s="5"/>
     </row>
-    <row r="214" spans="1:4" ht="25.8" customHeight="1">
+    <row r="214" spans="1:4" ht="25.9" customHeight="1">
       <c r="A214" s="9"/>
       <c r="B214" s="1" t="s">
         <v>241</v>
@@ -4000,7 +4167,7 @@
       </c>
       <c r="D214" s="5"/>
     </row>
-    <row r="215" spans="1:4" ht="25.8" customHeight="1">
+    <row r="215" spans="1:4" ht="25.9" customHeight="1">
       <c r="A215" s="9"/>
       <c r="B215" s="1" t="s">
         <v>242</v>
@@ -4010,7 +4177,7 @@
       </c>
       <c r="D215" s="5"/>
     </row>
-    <row r="216" spans="1:4" ht="25.8" customHeight="1">
+    <row r="216" spans="1:4" ht="25.9" customHeight="1">
       <c r="A216" s="9"/>
       <c r="B216" s="1" t="s">
         <v>243</v>
@@ -4020,7 +4187,7 @@
       </c>
       <c r="D216" s="5"/>
     </row>
-    <row r="217" spans="1:4" ht="25.8" customHeight="1">
+    <row r="217" spans="1:4" ht="25.9" customHeight="1">
       <c r="A217" s="9"/>
       <c r="B217" s="1" t="s">
         <v>244</v>
@@ -4030,7 +4197,7 @@
       </c>
       <c r="D217" s="5"/>
     </row>
-    <row r="218" spans="1:4" ht="25.8" customHeight="1">
+    <row r="218" spans="1:4" ht="25.9" customHeight="1">
       <c r="A218" s="9"/>
       <c r="B218" s="1" t="s">
         <v>245</v>
@@ -4040,7 +4207,7 @@
       </c>
       <c r="D218" s="5"/>
     </row>
-    <row r="219" spans="1:4" ht="25.8" customHeight="1">
+    <row r="219" spans="1:4" ht="25.9" customHeight="1">
       <c r="A219" s="9"/>
       <c r="B219" s="1" t="s">
         <v>246</v>
@@ -4050,7 +4217,7 @@
       </c>
       <c r="D219" s="5"/>
     </row>
-    <row r="220" spans="1:4" ht="25.8" customHeight="1">
+    <row r="220" spans="1:4" ht="25.9" customHeight="1">
       <c r="A220" s="9"/>
       <c r="B220" s="1" t="s">
         <v>247</v>
@@ -4060,7 +4227,7 @@
       </c>
       <c r="D220" s="5"/>
     </row>
-    <row r="221" spans="1:4" ht="25.8" customHeight="1">
+    <row r="221" spans="1:4" ht="25.9" customHeight="1">
       <c r="A221" s="9"/>
       <c r="B221" s="1" t="s">
         <v>248</v>
@@ -4070,7 +4237,7 @@
       </c>
       <c r="D221" s="5"/>
     </row>
-    <row r="222" spans="1:4" ht="25.8" customHeight="1">
+    <row r="222" spans="1:4" ht="25.9" customHeight="1">
       <c r="A222" s="9"/>
       <c r="B222" s="1" t="s">
         <v>249</v>
@@ -4080,7 +4247,7 @@
       </c>
       <c r="D222" s="5"/>
     </row>
-    <row r="223" spans="1:4" ht="25.8" customHeight="1">
+    <row r="223" spans="1:4" ht="25.9" customHeight="1">
       <c r="A223" s="9"/>
       <c r="B223" s="1" t="s">
         <v>250</v>
@@ -4090,7 +4257,7 @@
       </c>
       <c r="D223" s="5"/>
     </row>
-    <row r="224" spans="1:4" ht="25.8" customHeight="1">
+    <row r="224" spans="1:4" ht="25.9" customHeight="1">
       <c r="A224" s="9"/>
       <c r="B224" s="1" t="s">
         <v>251</v>
@@ -4100,7 +4267,7 @@
       </c>
       <c r="D224" s="5"/>
     </row>
-    <row r="225" spans="1:4" ht="25.8" customHeight="1">
+    <row r="225" spans="1:4" ht="25.9" customHeight="1">
       <c r="A225" s="9"/>
       <c r="B225" s="1" t="s">
         <v>252</v>
@@ -4110,7 +4277,7 @@
       </c>
       <c r="D225" s="5"/>
     </row>
-    <row r="226" spans="1:4" ht="25.8" customHeight="1">
+    <row r="226" spans="1:4" ht="25.9" customHeight="1">
       <c r="A226" s="9"/>
       <c r="B226" s="1" t="s">
         <v>253</v>
@@ -4120,7 +4287,7 @@
       </c>
       <c r="D226" s="5"/>
     </row>
-    <row r="227" spans="1:4" ht="25.8" customHeight="1">
+    <row r="227" spans="1:4" ht="25.9" customHeight="1">
       <c r="A227" s="9"/>
       <c r="B227" s="1" t="s">
         <v>254</v>
@@ -4130,7 +4297,7 @@
       </c>
       <c r="D227" s="5"/>
     </row>
-    <row r="228" spans="1:4" ht="25.8" customHeight="1">
+    <row r="228" spans="1:4" ht="25.9" customHeight="1">
       <c r="A228" s="9"/>
       <c r="B228" s="1" t="s">
         <v>255</v>
@@ -4140,7 +4307,7 @@
       </c>
       <c r="D228" s="5"/>
     </row>
-    <row r="229" spans="1:4" ht="25.8" customHeight="1">
+    <row r="229" spans="1:4" ht="25.9" customHeight="1">
       <c r="A229" s="9"/>
       <c r="B229" s="1" t="s">
         <v>256</v>
@@ -4150,7 +4317,7 @@
       </c>
       <c r="D229" s="5"/>
     </row>
-    <row r="230" spans="1:4" ht="25.8" customHeight="1">
+    <row r="230" spans="1:4" ht="25.9" customHeight="1">
       <c r="A230" s="9"/>
       <c r="B230" s="1" t="s">
         <v>257</v>
@@ -4160,7 +4327,7 @@
       </c>
       <c r="D230" s="5"/>
     </row>
-    <row r="231" spans="1:4" ht="25.8" customHeight="1">
+    <row r="231" spans="1:4" ht="25.9" customHeight="1">
       <c r="A231" s="9"/>
       <c r="B231" s="1" t="s">
         <v>258</v>
@@ -4170,7 +4337,7 @@
       </c>
       <c r="D231" s="5"/>
     </row>
-    <row r="232" spans="1:4" ht="25.8" customHeight="1">
+    <row r="232" spans="1:4" ht="25.9" customHeight="1">
       <c r="A232" s="9"/>
       <c r="B232" s="1" t="s">
         <v>259</v>
@@ -4180,7 +4347,7 @@
       </c>
       <c r="D232" s="5"/>
     </row>
-    <row r="233" spans="1:4" ht="25.8" customHeight="1">
+    <row r="233" spans="1:4" ht="25.9" customHeight="1">
       <c r="A233" s="10"/>
       <c r="B233" s="1" t="s">
         <v>260</v>
@@ -4190,7 +4357,7 @@
       </c>
       <c r="D233" s="5"/>
     </row>
-    <row r="234" spans="1:4" ht="25.8" customHeight="1">
+    <row r="234" spans="1:4" ht="25.9" customHeight="1">
       <c r="A234" s="8" t="s">
         <v>261</v>
       </c>
@@ -4202,7 +4369,7 @@
       </c>
       <c r="D234" s="5"/>
     </row>
-    <row r="235" spans="1:4" ht="25.8" customHeight="1">
+    <row r="235" spans="1:4" ht="25.9" customHeight="1">
       <c r="A235" s="9"/>
       <c r="B235" s="1" t="s">
         <v>263</v>
@@ -4212,7 +4379,7 @@
       </c>
       <c r="D235" s="5"/>
     </row>
-    <row r="236" spans="1:4" ht="25.8" customHeight="1">
+    <row r="236" spans="1:4" ht="25.9" customHeight="1">
       <c r="A236" s="9"/>
       <c r="B236" s="1" t="s">
         <v>264</v>
@@ -4222,7 +4389,7 @@
       </c>
       <c r="D236" s="5"/>
     </row>
-    <row r="237" spans="1:4" ht="25.8" customHeight="1">
+    <row r="237" spans="1:4" ht="25.9" customHeight="1">
       <c r="A237" s="9"/>
       <c r="B237" s="1" t="s">
         <v>265</v>
@@ -4232,7 +4399,7 @@
       </c>
       <c r="D237" s="5"/>
     </row>
-    <row r="238" spans="1:4" ht="25.8" customHeight="1">
+    <row r="238" spans="1:4" ht="25.9" customHeight="1">
       <c r="A238" s="10"/>
       <c r="B238" s="1" t="s">
         <v>266</v>
@@ -4242,7 +4409,7 @@
       </c>
       <c r="D238" s="5"/>
     </row>
-    <row r="239" spans="1:4" ht="25.8" customHeight="1">
+    <row r="239" spans="1:4" ht="25.9" customHeight="1">
       <c r="A239" s="8" t="s">
         <v>267</v>
       </c>
@@ -4254,7 +4421,7 @@
       </c>
       <c r="D239" s="5"/>
     </row>
-    <row r="240" spans="1:4" ht="25.8" customHeight="1">
+    <row r="240" spans="1:4" ht="25.9" customHeight="1">
       <c r="A240" s="9"/>
       <c r="B240" s="1" t="s">
         <v>269</v>
@@ -4264,7 +4431,7 @@
       </c>
       <c r="D240" s="5"/>
     </row>
-    <row r="241" spans="1:4" ht="25.8" customHeight="1">
+    <row r="241" spans="1:4" ht="25.9" customHeight="1">
       <c r="A241" s="9"/>
       <c r="B241" s="1" t="s">
         <v>270</v>
@@ -4274,7 +4441,7 @@
       </c>
       <c r="D241" s="5"/>
     </row>
-    <row r="242" spans="1:4" ht="25.8" customHeight="1">
+    <row r="242" spans="1:4" ht="25.9" customHeight="1">
       <c r="A242" s="9"/>
       <c r="B242" s="1" t="s">
         <v>271</v>
@@ -4284,7 +4451,7 @@
       </c>
       <c r="D242" s="5"/>
     </row>
-    <row r="243" spans="1:4" ht="25.8" customHeight="1">
+    <row r="243" spans="1:4" ht="25.9" customHeight="1">
       <c r="A243" s="9"/>
       <c r="B243" s="1" t="s">
         <v>272</v>
@@ -4294,7 +4461,7 @@
       </c>
       <c r="D243" s="5"/>
     </row>
-    <row r="244" spans="1:4" ht="25.8" customHeight="1">
+    <row r="244" spans="1:4" ht="25.9" customHeight="1">
       <c r="A244" s="10"/>
       <c r="B244" s="1" t="s">
         <v>273</v>
@@ -4304,7 +4471,7 @@
       </c>
       <c r="D244" s="5"/>
     </row>
-    <row r="245" spans="1:4" ht="25.8" customHeight="1">
+    <row r="245" spans="1:4" ht="25.9" customHeight="1">
       <c r="A245" s="8" t="s">
         <v>274</v>
       </c>
@@ -4316,7 +4483,7 @@
       </c>
       <c r="D245" s="5"/>
     </row>
-    <row r="246" spans="1:4" ht="25.8" customHeight="1">
+    <row r="246" spans="1:4" ht="25.9" customHeight="1">
       <c r="A246" s="10"/>
       <c r="B246" s="1" t="s">
         <v>276</v>
@@ -4326,7 +4493,7 @@
       </c>
       <c r="D246" s="5"/>
     </row>
-    <row r="247" spans="1:4" ht="25.8" customHeight="1">
+    <row r="247" spans="1:4" ht="25.9" customHeight="1">
       <c r="A247" s="8" t="s">
         <v>277</v>
       </c>
@@ -4338,7 +4505,7 @@
       </c>
       <c r="D247" s="5"/>
     </row>
-    <row r="248" spans="1:4" ht="25.8" customHeight="1">
+    <row r="248" spans="1:4" ht="25.9" customHeight="1">
       <c r="A248" s="9"/>
       <c r="B248" s="1" t="s">
         <v>279</v>
@@ -4348,7 +4515,7 @@
       </c>
       <c r="D248" s="5"/>
     </row>
-    <row r="249" spans="1:4" ht="25.8" customHeight="1">
+    <row r="249" spans="1:4" ht="25.9" customHeight="1">
       <c r="A249" s="9"/>
       <c r="B249" s="1" t="s">
         <v>280</v>
@@ -4358,7 +4525,7 @@
       </c>
       <c r="D249" s="5"/>
     </row>
-    <row r="250" spans="1:4" ht="25.8" customHeight="1">
+    <row r="250" spans="1:4" ht="25.9" customHeight="1">
       <c r="A250" s="9"/>
       <c r="B250" s="1" t="s">
         <v>281</v>
@@ -4368,7 +4535,7 @@
       </c>
       <c r="D250" s="5"/>
     </row>
-    <row r="251" spans="1:4" ht="25.8" customHeight="1">
+    <row r="251" spans="1:4" ht="25.9" customHeight="1">
       <c r="A251" s="9"/>
       <c r="B251" s="1" t="s">
         <v>282</v>
@@ -4378,7 +4545,7 @@
       </c>
       <c r="D251" s="5"/>
     </row>
-    <row r="252" spans="1:4" ht="25.8" customHeight="1">
+    <row r="252" spans="1:4" ht="25.9" customHeight="1">
       <c r="A252" s="9"/>
       <c r="B252" s="1" t="s">
         <v>283</v>
@@ -4388,7 +4555,7 @@
       </c>
       <c r="D252" s="5"/>
     </row>
-    <row r="253" spans="1:4" ht="25.8" customHeight="1">
+    <row r="253" spans="1:4" ht="25.9" customHeight="1">
       <c r="A253" s="9"/>
       <c r="B253" s="1" t="s">
         <v>284</v>
@@ -4398,7 +4565,7 @@
       </c>
       <c r="D253" s="5"/>
     </row>
-    <row r="254" spans="1:4" ht="25.8" customHeight="1">
+    <row r="254" spans="1:4" ht="25.9" customHeight="1">
       <c r="A254" s="9"/>
       <c r="B254" s="1" t="s">
         <v>285</v>
@@ -4408,7 +4575,7 @@
       </c>
       <c r="D254" s="5"/>
     </row>
-    <row r="255" spans="1:4" ht="25.8" customHeight="1">
+    <row r="255" spans="1:4" ht="25.9" customHeight="1">
       <c r="A255" s="10"/>
       <c r="B255" s="1" t="s">
         <v>286</v>
@@ -4418,7 +4585,7 @@
       </c>
       <c r="D255" s="5"/>
     </row>
-    <row r="256" spans="1:4" ht="25.8" customHeight="1">
+    <row r="256" spans="1:4" ht="25.9" customHeight="1">
       <c r="A256" s="8" t="s">
         <v>287</v>
       </c>
@@ -4430,7 +4597,7 @@
       </c>
       <c r="D256" s="5"/>
     </row>
-    <row r="257" spans="1:4" ht="25.8" customHeight="1">
+    <row r="257" spans="1:4" ht="25.9" customHeight="1">
       <c r="A257" s="9"/>
       <c r="B257" s="1" t="s">
         <v>289</v>
@@ -4440,7 +4607,7 @@
       </c>
       <c r="D257" s="5"/>
     </row>
-    <row r="258" spans="1:4" ht="25.8" customHeight="1">
+    <row r="258" spans="1:4" ht="25.9" customHeight="1">
       <c r="A258" s="10"/>
       <c r="B258" s="1" t="s">
         <v>290</v>
@@ -4450,7 +4617,7 @@
       </c>
       <c r="D258" s="5"/>
     </row>
-    <row r="259" spans="1:4" ht="25.8" customHeight="1">
+    <row r="259" spans="1:4" ht="25.9" customHeight="1">
       <c r="A259" s="8" t="s">
         <v>291</v>
       </c>
@@ -4462,7 +4629,7 @@
       </c>
       <c r="D259" s="5"/>
     </row>
-    <row r="260" spans="1:4" ht="25.8" customHeight="1">
+    <row r="260" spans="1:4" ht="25.9" customHeight="1">
       <c r="A260" s="9"/>
       <c r="B260" s="1" t="s">
         <v>293</v>
@@ -4472,7 +4639,7 @@
       </c>
       <c r="D260" s="5"/>
     </row>
-    <row r="261" spans="1:4" ht="25.8" customHeight="1">
+    <row r="261" spans="1:4" ht="25.9" customHeight="1">
       <c r="A261" s="9"/>
       <c r="B261" s="1" t="s">
         <v>294</v>
@@ -4482,7 +4649,7 @@
       </c>
       <c r="D261" s="5"/>
     </row>
-    <row r="262" spans="1:4" ht="25.8" customHeight="1">
+    <row r="262" spans="1:4" ht="25.9" customHeight="1">
       <c r="A262" s="9"/>
       <c r="B262" s="1" t="s">
         <v>295</v>
@@ -4492,7 +4659,7 @@
       </c>
       <c r="D262" s="5"/>
     </row>
-    <row r="263" spans="1:4" ht="25.8" customHeight="1">
+    <row r="263" spans="1:4" ht="25.9" customHeight="1">
       <c r="A263" s="9"/>
       <c r="B263" s="1" t="s">
         <v>296</v>
@@ -4502,7 +4669,7 @@
       </c>
       <c r="D263" s="5"/>
     </row>
-    <row r="264" spans="1:4" ht="25.8" customHeight="1">
+    <row r="264" spans="1:4" ht="25.9" customHeight="1">
       <c r="A264" s="10"/>
       <c r="B264" s="1" t="s">
         <v>297</v>
@@ -4512,7 +4679,7 @@
       </c>
       <c r="D264" s="5"/>
     </row>
-    <row r="265" spans="1:4" ht="25.8" customHeight="1">
+    <row r="265" spans="1:4" ht="25.9" customHeight="1">
       <c r="A265" s="8" t="s">
         <v>298</v>
       </c>
@@ -4524,7 +4691,7 @@
       </c>
       <c r="D265" s="5"/>
     </row>
-    <row r="266" spans="1:4" ht="25.8" customHeight="1">
+    <row r="266" spans="1:4" ht="25.9" customHeight="1">
       <c r="A266" s="9"/>
       <c r="B266" s="1" t="s">
         <v>300</v>
@@ -4534,7 +4701,7 @@
       </c>
       <c r="D266" s="5"/>
     </row>
-    <row r="267" spans="1:4" ht="25.8" customHeight="1">
+    <row r="267" spans="1:4" ht="25.9" customHeight="1">
       <c r="A267" s="9"/>
       <c r="B267" s="1" t="s">
         <v>301</v>
@@ -4544,7 +4711,7 @@
       </c>
       <c r="D267" s="5"/>
     </row>
-    <row r="268" spans="1:4" ht="25.8" customHeight="1">
+    <row r="268" spans="1:4" ht="25.9" customHeight="1">
       <c r="A268" s="9"/>
       <c r="B268" s="1" t="s">
         <v>302</v>
@@ -4554,7 +4721,7 @@
       </c>
       <c r="D268" s="5"/>
     </row>
-    <row r="269" spans="1:4" ht="25.8" customHeight="1">
+    <row r="269" spans="1:4" ht="25.9" customHeight="1">
       <c r="A269" s="10"/>
       <c r="B269" s="1" t="s">
         <v>303</v>
@@ -4564,7 +4731,7 @@
       </c>
       <c r="D269" s="5"/>
     </row>
-    <row r="270" spans="1:4" ht="25.8" customHeight="1">
+    <row r="270" spans="1:4" ht="25.9" customHeight="1">
       <c r="A270" s="8" t="s">
         <v>304</v>
       </c>
@@ -4576,7 +4743,7 @@
       </c>
       <c r="D270" s="5"/>
     </row>
-    <row r="271" spans="1:4" ht="25.8" customHeight="1">
+    <row r="271" spans="1:4" ht="25.9" customHeight="1">
       <c r="A271" s="9"/>
       <c r="B271" s="1" t="s">
         <v>306</v>
@@ -4586,7 +4753,7 @@
       </c>
       <c r="D271" s="5"/>
     </row>
-    <row r="272" spans="1:4" ht="25.8" customHeight="1">
+    <row r="272" spans="1:4" ht="25.9" customHeight="1">
       <c r="A272" s="9"/>
       <c r="B272" s="1" t="s">
         <v>307</v>
@@ -4596,7 +4763,7 @@
       </c>
       <c r="D272" s="5"/>
     </row>
-    <row r="273" spans="1:4" ht="25.8" customHeight="1">
+    <row r="273" spans="1:4" ht="25.9" customHeight="1">
       <c r="A273" s="9"/>
       <c r="B273" s="1" t="s">
         <v>308</v>
@@ -4606,7 +4773,7 @@
       </c>
       <c r="D273" s="5"/>
     </row>
-    <row r="274" spans="1:4" ht="25.8" customHeight="1">
+    <row r="274" spans="1:4" ht="25.9" customHeight="1">
       <c r="A274" s="9"/>
       <c r="B274" s="1" t="s">
         <v>309</v>
@@ -4616,7 +4783,7 @@
       </c>
       <c r="D274" s="5"/>
     </row>
-    <row r="275" spans="1:4" ht="25.8" customHeight="1">
+    <row r="275" spans="1:4" ht="25.9" customHeight="1">
       <c r="A275" s="9"/>
       <c r="B275" s="1" t="s">
         <v>310</v>
@@ -4626,7 +4793,7 @@
       </c>
       <c r="D275" s="5"/>
     </row>
-    <row r="276" spans="1:4" ht="25.8" customHeight="1">
+    <row r="276" spans="1:4" ht="25.9" customHeight="1">
       <c r="A276" s="9"/>
       <c r="B276" s="1" t="s">
         <v>311</v>
@@ -4636,7 +4803,7 @@
       </c>
       <c r="D276" s="5"/>
     </row>
-    <row r="277" spans="1:4" ht="25.8" customHeight="1">
+    <row r="277" spans="1:4" ht="25.9" customHeight="1">
       <c r="A277" s="9"/>
       <c r="B277" s="1" t="s">
         <v>312</v>
@@ -4646,7 +4813,7 @@
       </c>
       <c r="D277" s="5"/>
     </row>
-    <row r="278" spans="1:4" ht="25.8" customHeight="1">
+    <row r="278" spans="1:4" ht="25.9" customHeight="1">
       <c r="A278" s="9"/>
       <c r="B278" s="1" t="s">
         <v>313</v>
@@ -4656,7 +4823,7 @@
       </c>
       <c r="D278" s="5"/>
     </row>
-    <row r="279" spans="1:4" ht="25.8" customHeight="1">
+    <row r="279" spans="1:4" ht="25.9" customHeight="1">
       <c r="A279" s="10"/>
       <c r="B279" s="1" t="s">
         <v>314</v>
@@ -4666,7 +4833,7 @@
       </c>
       <c r="D279" s="5"/>
     </row>
-    <row r="280" spans="1:4" ht="25.8" customHeight="1">
+    <row r="280" spans="1:4" ht="25.9" customHeight="1">
       <c r="A280" s="8" t="s">
         <v>315</v>
       </c>
@@ -4678,7 +4845,7 @@
       </c>
       <c r="D280" s="5"/>
     </row>
-    <row r="281" spans="1:4" ht="25.8" customHeight="1">
+    <row r="281" spans="1:4" ht="25.9" customHeight="1">
       <c r="A281" s="10"/>
       <c r="B281" s="1" t="s">
         <v>317</v>
@@ -4688,7 +4855,7 @@
       </c>
       <c r="D281" s="5"/>
     </row>
-    <row r="282" spans="1:4" ht="25.8" customHeight="1">
+    <row r="282" spans="1:4" ht="25.9" customHeight="1">
       <c r="A282" s="8" t="s">
         <v>318</v>
       </c>
@@ -4700,7 +4867,7 @@
       </c>
       <c r="D282" s="5"/>
     </row>
-    <row r="283" spans="1:4" ht="25.8" customHeight="1">
+    <row r="283" spans="1:4" ht="25.9" customHeight="1">
       <c r="A283" s="9"/>
       <c r="B283" s="1" t="s">
         <v>320</v>
@@ -4710,7 +4877,7 @@
       </c>
       <c r="D283" s="5"/>
     </row>
-    <row r="284" spans="1:4" ht="25.8" customHeight="1">
+    <row r="284" spans="1:4" ht="25.9" customHeight="1">
       <c r="A284" s="9"/>
       <c r="B284" s="1" t="s">
         <v>321</v>
@@ -4720,7 +4887,7 @@
       </c>
       <c r="D284" s="5"/>
     </row>
-    <row r="285" spans="1:4" ht="25.8" customHeight="1">
+    <row r="285" spans="1:4" ht="25.9" customHeight="1">
       <c r="A285" s="9"/>
       <c r="B285" s="1" t="s">
         <v>322</v>
@@ -4730,7 +4897,7 @@
       </c>
       <c r="D285" s="5"/>
     </row>
-    <row r="286" spans="1:4" ht="25.8" customHeight="1">
+    <row r="286" spans="1:4" ht="25.9" customHeight="1">
       <c r="A286" s="9"/>
       <c r="B286" s="1" t="s">
         <v>323</v>
@@ -4740,7 +4907,7 @@
       </c>
       <c r="D286" s="5"/>
     </row>
-    <row r="287" spans="1:4" ht="25.8" customHeight="1">
+    <row r="287" spans="1:4" ht="25.9" customHeight="1">
       <c r="A287" s="9"/>
       <c r="B287" s="1" t="s">
         <v>324</v>
@@ -4750,7 +4917,7 @@
       </c>
       <c r="D287" s="5"/>
     </row>
-    <row r="288" spans="1:4" ht="25.8" customHeight="1">
+    <row r="288" spans="1:4" ht="25.9" customHeight="1">
       <c r="A288" s="9"/>
       <c r="B288" s="1" t="s">
         <v>325</v>
@@ -4760,7 +4927,7 @@
       </c>
       <c r="D288" s="5"/>
     </row>
-    <row r="289" spans="1:4" ht="25.8" customHeight="1">
+    <row r="289" spans="1:4" ht="25.9" customHeight="1">
       <c r="A289" s="9"/>
       <c r="B289" s="1" t="s">
         <v>326</v>
@@ -4770,7 +4937,7 @@
       </c>
       <c r="D289" s="5"/>
     </row>
-    <row r="290" spans="1:4" ht="25.8" customHeight="1">
+    <row r="290" spans="1:4" ht="25.9" customHeight="1">
       <c r="A290" s="9"/>
       <c r="B290" s="1" t="s">
         <v>327</v>
@@ -4780,7 +4947,7 @@
       </c>
       <c r="D290" s="5"/>
     </row>
-    <row r="291" spans="1:4" ht="25.8" customHeight="1">
+    <row r="291" spans="1:4" ht="25.9" customHeight="1">
       <c r="A291" s="10"/>
       <c r="B291" s="1" t="s">
         <v>328</v>
@@ -4790,7 +4957,7 @@
       </c>
       <c r="D291" s="5"/>
     </row>
-    <row r="292" spans="1:4" ht="25.8" customHeight="1">
+    <row r="292" spans="1:4" ht="25.9" customHeight="1">
       <c r="A292" s="8" t="s">
         <v>329</v>
       </c>
@@ -4802,7 +4969,7 @@
       </c>
       <c r="D292" s="5"/>
     </row>
-    <row r="293" spans="1:4" ht="25.8" customHeight="1">
+    <row r="293" spans="1:4" ht="25.9" customHeight="1">
       <c r="A293" s="9"/>
       <c r="B293" s="1" t="s">
         <v>331</v>
@@ -4812,7 +4979,7 @@
       </c>
       <c r="D293" s="5"/>
     </row>
-    <row r="294" spans="1:4" ht="25.8" customHeight="1">
+    <row r="294" spans="1:4" ht="25.9" customHeight="1">
       <c r="A294" s="9"/>
       <c r="B294" s="1" t="s">
         <v>332</v>
@@ -4822,7 +4989,7 @@
       </c>
       <c r="D294" s="5"/>
     </row>
-    <row r="295" spans="1:4" ht="25.8" customHeight="1">
+    <row r="295" spans="1:4" ht="25.9" customHeight="1">
       <c r="A295" s="9"/>
       <c r="B295" s="1" t="s">
         <v>333</v>
@@ -4832,7 +4999,7 @@
       </c>
       <c r="D295" s="5"/>
     </row>
-    <row r="296" spans="1:4" ht="25.8" customHeight="1">
+    <row r="296" spans="1:4" ht="25.9" customHeight="1">
       <c r="A296" s="9"/>
       <c r="B296" s="1" t="s">
         <v>334</v>
@@ -4842,7 +5009,7 @@
       </c>
       <c r="D296" s="5"/>
     </row>
-    <row r="297" spans="1:4" ht="25.8" customHeight="1">
+    <row r="297" spans="1:4" ht="25.9" customHeight="1">
       <c r="A297" s="9"/>
       <c r="B297" s="1" t="s">
         <v>335</v>
@@ -4852,7 +5019,7 @@
       </c>
       <c r="D297" s="5"/>
     </row>
-    <row r="298" spans="1:4" ht="25.8" customHeight="1">
+    <row r="298" spans="1:4" ht="25.9" customHeight="1">
       <c r="A298" s="9"/>
       <c r="B298" s="1" t="s">
         <v>336</v>
@@ -4862,7 +5029,7 @@
       </c>
       <c r="D298" s="5"/>
     </row>
-    <row r="299" spans="1:4" ht="25.8" customHeight="1">
+    <row r="299" spans="1:4" ht="25.9" customHeight="1">
       <c r="A299" s="9"/>
       <c r="B299" s="1" t="s">
         <v>337</v>
@@ -4872,7 +5039,7 @@
       </c>
       <c r="D299" s="5"/>
     </row>
-    <row r="300" spans="1:4" ht="25.8" customHeight="1">
+    <row r="300" spans="1:4" ht="25.9" customHeight="1">
       <c r="A300" s="9"/>
       <c r="B300" s="1" t="s">
         <v>338</v>
@@ -4882,7 +5049,7 @@
       </c>
       <c r="D300" s="5"/>
     </row>
-    <row r="301" spans="1:4" ht="25.8" customHeight="1">
+    <row r="301" spans="1:4" ht="25.9" customHeight="1">
       <c r="A301" s="9"/>
       <c r="B301" s="1" t="s">
         <v>339</v>
@@ -4892,7 +5059,7 @@
       </c>
       <c r="D301" s="5"/>
     </row>
-    <row r="302" spans="1:4" ht="25.8" customHeight="1">
+    <row r="302" spans="1:4" ht="25.9" customHeight="1">
       <c r="A302" s="9"/>
       <c r="B302" s="1" t="s">
         <v>340</v>
@@ -4902,7 +5069,7 @@
       </c>
       <c r="D302" s="5"/>
     </row>
-    <row r="303" spans="1:4" ht="25.8" customHeight="1">
+    <row r="303" spans="1:4" ht="25.9" customHeight="1">
       <c r="A303" s="9"/>
       <c r="B303" s="1" t="s">
         <v>341</v>
@@ -4912,7 +5079,7 @@
       </c>
       <c r="D303" s="5"/>
     </row>
-    <row r="304" spans="1:4" ht="25.8" customHeight="1">
+    <row r="304" spans="1:4" ht="25.9" customHeight="1">
       <c r="A304" s="9"/>
       <c r="B304" s="1" t="s">
         <v>342</v>
@@ -4922,7 +5089,7 @@
       </c>
       <c r="D304" s="5"/>
     </row>
-    <row r="305" spans="1:4" ht="25.8" customHeight="1">
+    <row r="305" spans="1:4" ht="25.9" customHeight="1">
       <c r="A305" s="9"/>
       <c r="B305" s="1" t="s">
         <v>343</v>
@@ -4932,7 +5099,7 @@
       </c>
       <c r="D305" s="5"/>
     </row>
-    <row r="306" spans="1:4" ht="25.8" customHeight="1">
+    <row r="306" spans="1:4" ht="25.9" customHeight="1">
       <c r="A306" s="9"/>
       <c r="B306" s="1" t="s">
         <v>344</v>
@@ -4942,7 +5109,7 @@
       </c>
       <c r="D306" s="5"/>
     </row>
-    <row r="307" spans="1:4" ht="25.8" customHeight="1">
+    <row r="307" spans="1:4" ht="25.9" customHeight="1">
       <c r="A307" s="9"/>
       <c r="B307" s="1" t="s">
         <v>345</v>
@@ -4952,7 +5119,7 @@
       </c>
       <c r="D307" s="5"/>
     </row>
-    <row r="308" spans="1:4" ht="25.8" customHeight="1">
+    <row r="308" spans="1:4" ht="25.9" customHeight="1">
       <c r="A308" s="9"/>
       <c r="B308" s="1" t="s">
         <v>346</v>
@@ -4962,7 +5129,7 @@
       </c>
       <c r="D308" s="5"/>
     </row>
-    <row r="309" spans="1:4" ht="25.8" customHeight="1">
+    <row r="309" spans="1:4" ht="25.9" customHeight="1">
       <c r="A309" s="9"/>
       <c r="B309" s="1" t="s">
         <v>347</v>
@@ -4972,7 +5139,7 @@
       </c>
       <c r="D309" s="5"/>
     </row>
-    <row r="310" spans="1:4" ht="25.8" customHeight="1">
+    <row r="310" spans="1:4" ht="25.9" customHeight="1">
       <c r="A310" s="9"/>
       <c r="B310" s="1" t="s">
         <v>348</v>
@@ -4982,7 +5149,7 @@
       </c>
       <c r="D310" s="5"/>
     </row>
-    <row r="311" spans="1:4" ht="25.8" customHeight="1">
+    <row r="311" spans="1:4" ht="25.9" customHeight="1">
       <c r="A311" s="9"/>
       <c r="B311" s="1" t="s">
         <v>349</v>
@@ -4992,7 +5159,7 @@
       </c>
       <c r="D311" s="5"/>
     </row>
-    <row r="312" spans="1:4" ht="25.8" customHeight="1">
+    <row r="312" spans="1:4" ht="25.9" customHeight="1">
       <c r="A312" s="10"/>
       <c r="B312" s="1" t="s">
         <v>350</v>
@@ -5002,7 +5169,7 @@
       </c>
       <c r="D312" s="5"/>
     </row>
-    <row r="313" spans="1:4" ht="25.8" customHeight="1">
+    <row r="313" spans="1:4" ht="25.9" customHeight="1">
       <c r="A313" s="5" t="s">
         <v>351</v>
       </c>
@@ -5014,7 +5181,7 @@
       </c>
       <c r="D313" s="5"/>
     </row>
-    <row r="314" spans="1:4" ht="25.8" customHeight="1">
+    <row r="314" spans="1:4" ht="25.9" customHeight="1">
       <c r="A314" s="8" t="s">
         <v>353</v>
       </c>
@@ -5026,7 +5193,7 @@
       </c>
       <c r="D314" s="5"/>
     </row>
-    <row r="315" spans="1:4" ht="25.8" customHeight="1">
+    <row r="315" spans="1:4" ht="25.9" customHeight="1">
       <c r="A315" s="9"/>
       <c r="B315" s="1" t="s">
         <v>355</v>
@@ -5036,7 +5203,7 @@
       </c>
       <c r="D315" s="5"/>
     </row>
-    <row r="316" spans="1:4" ht="25.8" customHeight="1">
+    <row r="316" spans="1:4" ht="25.9" customHeight="1">
       <c r="A316" s="9"/>
       <c r="B316" s="1" t="s">
         <v>356</v>
@@ -5046,7 +5213,7 @@
       </c>
       <c r="D316" s="5"/>
     </row>
-    <row r="317" spans="1:4" ht="25.8" customHeight="1">
+    <row r="317" spans="1:4" ht="25.9" customHeight="1">
       <c r="A317" s="9"/>
       <c r="B317" s="1" t="s">
         <v>357</v>
@@ -5056,7 +5223,7 @@
       </c>
       <c r="D317" s="5"/>
     </row>
-    <row r="318" spans="1:4" ht="25.8" customHeight="1">
+    <row r="318" spans="1:4" ht="25.9" customHeight="1">
       <c r="A318" s="9"/>
       <c r="B318" s="1" t="s">
         <v>358</v>
@@ -5066,7 +5233,7 @@
       </c>
       <c r="D318" s="5"/>
     </row>
-    <row r="319" spans="1:4" ht="25.8" customHeight="1">
+    <row r="319" spans="1:4" ht="25.9" customHeight="1">
       <c r="A319" s="9"/>
       <c r="B319" s="1" t="s">
         <v>359</v>
@@ -5076,7 +5243,7 @@
       </c>
       <c r="D319" s="5"/>
     </row>
-    <row r="320" spans="1:4" ht="25.8" customHeight="1">
+    <row r="320" spans="1:4" ht="25.9" customHeight="1">
       <c r="A320" s="9"/>
       <c r="B320" s="1" t="s">
         <v>360</v>
@@ -5086,7 +5253,7 @@
       </c>
       <c r="D320" s="5"/>
     </row>
-    <row r="321" spans="1:4" ht="25.8" customHeight="1">
+    <row r="321" spans="1:4" ht="25.9" customHeight="1">
       <c r="A321" s="10"/>
       <c r="B321" s="1" t="s">
         <v>361</v>
@@ -5096,7 +5263,7 @@
       </c>
       <c r="D321" s="5"/>
     </row>
-    <row r="322" spans="1:4" ht="25.8" customHeight="1">
+    <row r="322" spans="1:4" ht="25.9" customHeight="1">
       <c r="A322" s="5" t="s">
         <v>362</v>
       </c>
@@ -5108,7 +5275,7 @@
       </c>
       <c r="D322" s="5"/>
     </row>
-    <row r="323" spans="1:4" ht="25.8" customHeight="1">
+    <row r="323" spans="1:4" ht="25.9" customHeight="1">
       <c r="A323" s="8" t="s">
         <v>364</v>
       </c>
@@ -5120,7 +5287,7 @@
       </c>
       <c r="D323" s="5"/>
     </row>
-    <row r="324" spans="1:4" ht="25.8" customHeight="1">
+    <row r="324" spans="1:4" ht="25.9" customHeight="1">
       <c r="A324" s="9"/>
       <c r="B324" s="1" t="s">
         <v>366</v>
@@ -5130,7 +5297,7 @@
       </c>
       <c r="D324" s="5"/>
     </row>
-    <row r="325" spans="1:4" ht="25.8" customHeight="1">
+    <row r="325" spans="1:4" ht="25.9" customHeight="1">
       <c r="A325" s="9"/>
       <c r="B325" s="1" t="s">
         <v>367</v>
@@ -5140,7 +5307,7 @@
       </c>
       <c r="D325" s="5"/>
     </row>
-    <row r="326" spans="1:4" ht="25.8" customHeight="1">
+    <row r="326" spans="1:4" ht="25.9" customHeight="1">
       <c r="A326" s="9"/>
       <c r="B326" s="1" t="s">
         <v>368</v>
@@ -5150,7 +5317,7 @@
       </c>
       <c r="D326" s="5"/>
     </row>
-    <row r="327" spans="1:4" ht="25.8" customHeight="1">
+    <row r="327" spans="1:4" ht="25.9" customHeight="1">
       <c r="A327" s="9"/>
       <c r="B327" s="1" t="s">
         <v>369</v>
@@ -5160,7 +5327,7 @@
       </c>
       <c r="D327" s="5"/>
     </row>
-    <row r="328" spans="1:4" ht="25.8" customHeight="1">
+    <row r="328" spans="1:4" ht="25.9" customHeight="1">
       <c r="A328" s="10"/>
       <c r="B328" s="1" t="s">
         <v>370</v>
@@ -5170,7 +5337,7 @@
       </c>
       <c r="D328" s="5"/>
     </row>
-    <row r="329" spans="1:4" ht="25.8" customHeight="1">
+    <row r="329" spans="1:4" ht="25.9" customHeight="1">
       <c r="A329" s="8" t="s">
         <v>371</v>
       </c>
@@ -5182,7 +5349,7 @@
       </c>
       <c r="D329" s="5"/>
     </row>
-    <row r="330" spans="1:4" ht="25.8" customHeight="1">
+    <row r="330" spans="1:4" ht="25.9" customHeight="1">
       <c r="A330" s="9"/>
       <c r="B330" s="1" t="s">
         <v>373</v>
@@ -5192,7 +5359,7 @@
       </c>
       <c r="D330" s="5"/>
     </row>
-    <row r="331" spans="1:4" ht="25.8" customHeight="1">
+    <row r="331" spans="1:4" ht="25.9" customHeight="1">
       <c r="A331" s="9"/>
       <c r="B331" s="1" t="s">
         <v>374</v>
@@ -5202,7 +5369,7 @@
       </c>
       <c r="D331" s="5"/>
     </row>
-    <row r="332" spans="1:4" ht="25.8" customHeight="1">
+    <row r="332" spans="1:4" ht="25.9" customHeight="1">
       <c r="A332" s="9"/>
       <c r="B332" s="1" t="s">
         <v>375</v>
@@ -5212,7 +5379,7 @@
       </c>
       <c r="D332" s="5"/>
     </row>
-    <row r="333" spans="1:4" ht="25.8" customHeight="1">
+    <row r="333" spans="1:4" ht="25.9" customHeight="1">
       <c r="A333" s="9"/>
       <c r="B333" s="1" t="s">
         <v>376</v>
@@ -5222,7 +5389,7 @@
       </c>
       <c r="D333" s="5"/>
     </row>
-    <row r="334" spans="1:4" ht="25.8" customHeight="1">
+    <row r="334" spans="1:4" ht="25.9" customHeight="1">
       <c r="A334" s="9"/>
       <c r="B334" s="1" t="s">
         <v>377</v>
@@ -5232,7 +5399,7 @@
       </c>
       <c r="D334" s="5"/>
     </row>
-    <row r="335" spans="1:4" ht="25.8" customHeight="1">
+    <row r="335" spans="1:4" ht="25.9" customHeight="1">
       <c r="A335" s="9"/>
       <c r="B335" s="1" t="s">
         <v>378</v>
@@ -5242,7 +5409,7 @@
       </c>
       <c r="D335" s="5"/>
     </row>
-    <row r="336" spans="1:4" ht="25.8" customHeight="1">
+    <row r="336" spans="1:4" ht="25.9" customHeight="1">
       <c r="A336" s="9"/>
       <c r="B336" s="1" t="s">
         <v>379</v>
@@ -5252,7 +5419,7 @@
       </c>
       <c r="D336" s="5"/>
     </row>
-    <row r="337" spans="1:4" ht="25.8" customHeight="1">
+    <row r="337" spans="1:4" ht="25.9" customHeight="1">
       <c r="A337" s="9"/>
       <c r="B337" s="1" t="s">
         <v>380</v>
@@ -5262,7 +5429,7 @@
       </c>
       <c r="D337" s="5"/>
     </row>
-    <row r="338" spans="1:4" ht="25.8" customHeight="1">
+    <row r="338" spans="1:4" ht="25.9" customHeight="1">
       <c r="A338" s="9"/>
       <c r="B338" s="1" t="s">
         <v>381</v>
@@ -5272,7 +5439,7 @@
       </c>
       <c r="D338" s="5"/>
     </row>
-    <row r="339" spans="1:4" ht="25.8" customHeight="1">
+    <row r="339" spans="1:4" ht="25.9" customHeight="1">
       <c r="A339" s="9"/>
       <c r="B339" s="1" t="s">
         <v>382</v>
@@ -5282,7 +5449,7 @@
       </c>
       <c r="D339" s="5"/>
     </row>
-    <row r="340" spans="1:4" ht="25.8" customHeight="1">
+    <row r="340" spans="1:4" ht="25.9" customHeight="1">
       <c r="A340" s="9"/>
       <c r="B340" s="1" t="s">
         <v>383</v>
@@ -5292,7 +5459,7 @@
       </c>
       <c r="D340" s="5"/>
     </row>
-    <row r="341" spans="1:4" ht="25.8" customHeight="1">
+    <row r="341" spans="1:4" ht="25.9" customHeight="1">
       <c r="A341" s="9"/>
       <c r="B341" s="1" t="s">
         <v>384</v>
@@ -5302,7 +5469,7 @@
       </c>
       <c r="D341" s="5"/>
     </row>
-    <row r="342" spans="1:4" ht="25.8" customHeight="1">
+    <row r="342" spans="1:4" ht="25.9" customHeight="1">
       <c r="A342" s="9"/>
       <c r="B342" s="1" t="s">
         <v>385</v>
@@ -5312,7 +5479,7 @@
       </c>
       <c r="D342" s="5"/>
     </row>
-    <row r="343" spans="1:4" ht="25.8" customHeight="1">
+    <row r="343" spans="1:4" ht="25.9" customHeight="1">
       <c r="A343" s="9"/>
       <c r="B343" s="1" t="s">
         <v>386</v>
@@ -5322,7 +5489,7 @@
       </c>
       <c r="D343" s="5"/>
     </row>
-    <row r="344" spans="1:4" ht="25.8" customHeight="1">
+    <row r="344" spans="1:4" ht="25.9" customHeight="1">
       <c r="A344" s="9"/>
       <c r="B344" s="1" t="s">
         <v>387</v>
@@ -5332,7 +5499,7 @@
       </c>
       <c r="D344" s="5"/>
     </row>
-    <row r="345" spans="1:4" ht="25.8" customHeight="1">
+    <row r="345" spans="1:4" ht="25.9" customHeight="1">
       <c r="A345" s="9"/>
       <c r="B345" s="1" t="s">
         <v>388</v>
@@ -5342,7 +5509,7 @@
       </c>
       <c r="D345" s="5"/>
     </row>
-    <row r="346" spans="1:4" ht="25.8" customHeight="1">
+    <row r="346" spans="1:4" ht="25.9" customHeight="1">
       <c r="A346" s="9"/>
       <c r="B346" s="1" t="s">
         <v>389</v>
@@ -5352,7 +5519,7 @@
       </c>
       <c r="D346" s="5"/>
     </row>
-    <row r="347" spans="1:4" ht="25.8" customHeight="1">
+    <row r="347" spans="1:4" ht="25.9" customHeight="1">
       <c r="A347" s="9"/>
       <c r="B347" s="1" t="s">
         <v>390</v>
@@ -5362,7 +5529,7 @@
       </c>
       <c r="D347" s="5"/>
     </row>
-    <row r="348" spans="1:4" ht="25.8" customHeight="1">
+    <row r="348" spans="1:4" ht="25.9" customHeight="1">
       <c r="A348" s="9"/>
       <c r="B348" s="1" t="s">
         <v>391</v>
@@ -5372,7 +5539,7 @@
       </c>
       <c r="D348" s="5"/>
     </row>
-    <row r="349" spans="1:4" ht="25.8" customHeight="1">
+    <row r="349" spans="1:4" ht="25.9" customHeight="1">
       <c r="A349" s="9"/>
       <c r="B349" s="1" t="s">
         <v>392</v>
@@ -5382,7 +5549,7 @@
       </c>
       <c r="D349" s="5"/>
     </row>
-    <row r="350" spans="1:4" ht="25.8" customHeight="1">
+    <row r="350" spans="1:4" ht="25.9" customHeight="1">
       <c r="A350" s="9"/>
       <c r="B350" s="1" t="s">
         <v>393</v>
@@ -5392,7 +5559,7 @@
       </c>
       <c r="D350" s="5"/>
     </row>
-    <row r="351" spans="1:4" ht="25.8" customHeight="1">
+    <row r="351" spans="1:4" ht="25.9" customHeight="1">
       <c r="A351" s="9"/>
       <c r="B351" s="1" t="s">
         <v>394</v>
@@ -5402,7 +5569,7 @@
       </c>
       <c r="D351" s="5"/>
     </row>
-    <row r="352" spans="1:4" ht="25.8" customHeight="1">
+    <row r="352" spans="1:4" ht="25.9" customHeight="1">
       <c r="A352" s="9"/>
       <c r="B352" s="1" t="s">
         <v>395</v>
@@ -5412,7 +5579,7 @@
       </c>
       <c r="D352" s="5"/>
     </row>
-    <row r="353" spans="1:4" ht="25.8" customHeight="1">
+    <row r="353" spans="1:4" ht="25.9" customHeight="1">
       <c r="A353" s="9"/>
       <c r="B353" s="1" t="s">
         <v>396</v>
@@ -5422,7 +5589,7 @@
       </c>
       <c r="D353" s="5"/>
     </row>
-    <row r="354" spans="1:4" ht="25.8" customHeight="1">
+    <row r="354" spans="1:4" ht="25.9" customHeight="1">
       <c r="A354" s="9"/>
       <c r="B354" s="1" t="s">
         <v>397</v>
@@ -5432,7 +5599,7 @@
       </c>
       <c r="D354" s="5"/>
     </row>
-    <row r="355" spans="1:4" ht="25.8" customHeight="1">
+    <row r="355" spans="1:4" ht="25.9" customHeight="1">
       <c r="A355" s="9"/>
       <c r="B355" s="1" t="s">
         <v>398</v>
@@ -5442,7 +5609,7 @@
       </c>
       <c r="D355" s="5"/>
     </row>
-    <row r="356" spans="1:4" ht="25.8" customHeight="1">
+    <row r="356" spans="1:4" ht="25.9" customHeight="1">
       <c r="A356" s="9"/>
       <c r="B356" s="1" t="s">
         <v>399</v>
@@ -5452,7 +5619,7 @@
       </c>
       <c r="D356" s="5"/>
     </row>
-    <row r="357" spans="1:4" ht="25.8" customHeight="1">
+    <row r="357" spans="1:4" ht="25.9" customHeight="1">
       <c r="A357" s="9"/>
       <c r="B357" s="1" t="s">
         <v>400</v>
@@ -5462,7 +5629,7 @@
       </c>
       <c r="D357" s="5"/>
     </row>
-    <row r="358" spans="1:4" ht="25.8" customHeight="1">
+    <row r="358" spans="1:4" ht="25.9" customHeight="1">
       <c r="A358" s="10"/>
       <c r="B358" s="1" t="s">
         <v>401</v>
@@ -5474,6 +5641,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A90:A97"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A25:A52"/>
+    <mergeCell ref="A53:A62"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A89"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="A181:A200"/>
+    <mergeCell ref="A201:A210"/>
+    <mergeCell ref="A212:A233"/>
+    <mergeCell ref="A234:A238"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A122:A154"/>
+    <mergeCell ref="A155:A165"/>
+    <mergeCell ref="A166:A167"/>
     <mergeCell ref="A329:A358"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A270:A279"/>
@@ -5490,33 +5684,6 @@
     <mergeCell ref="A265:A269"/>
     <mergeCell ref="A168:A177"/>
     <mergeCell ref="A178:A180"/>
-    <mergeCell ref="A181:A200"/>
-    <mergeCell ref="A201:A210"/>
-    <mergeCell ref="A212:A233"/>
-    <mergeCell ref="A234:A238"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A122:A154"/>
-    <mergeCell ref="A155:A165"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A107:A112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="A68:A74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A83:A89"/>
-    <mergeCell ref="A90:A97"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="A25:A52"/>
-    <mergeCell ref="A53:A62"/>
-    <mergeCell ref="A63:A67"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C358">
@@ -5526,4 +5693,708 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="14">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="14">
+        <v>0</v>
+      </c>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="14">
+        <v>0</v>
+      </c>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="14">
+        <v>0</v>
+      </c>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="14">
+        <v>0</v>
+      </c>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="14">
+        <v>0</v>
+      </c>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="14">
+        <v>0</v>
+      </c>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="14">
+        <v>0</v>
+      </c>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="14">
+        <v>0</v>
+      </c>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="14">
+        <v>0</v>
+      </c>
+      <c r="G24" s="17"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="14">
+        <v>0</v>
+      </c>
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="14">
+        <v>0</v>
+      </c>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="14">
+        <v>0</v>
+      </c>
+      <c r="G27" s="17"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="14">
+        <v>0</v>
+      </c>
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="14">
+        <v>0</v>
+      </c>
+      <c r="G29" s="17"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="14">
+        <v>0</v>
+      </c>
+      <c r="G30" s="17"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="14">
+        <v>0</v>
+      </c>
+      <c r="G31" s="17"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="14">
+        <v>0</v>
+      </c>
+      <c r="G32" s="17"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="14">
+        <v>0</v>
+      </c>
+      <c r="G33" s="17"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="14">
+        <v>0</v>
+      </c>
+      <c r="G34" s="17"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="14">
+        <v>0</v>
+      </c>
+      <c r="G35" s="17"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="14">
+        <v>0</v>
+      </c>
+      <c r="G36" s="17"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="17"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="14">
+        <v>0</v>
+      </c>
+      <c r="G38" s="17"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="14">
+        <v>0</v>
+      </c>
+      <c r="G39" s="17"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="14">
+        <v>0</v>
+      </c>
+      <c r="G40" s="17"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="14">
+        <v>0</v>
+      </c>
+      <c r="G41" s="17"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="14">
+        <v>0</v>
+      </c>
+      <c r="G42" s="17"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="14">
+        <v>0</v>
+      </c>
+      <c r="G43" s="17"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="14">
+        <v>0</v>
+      </c>
+      <c r="G44" s="17"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="14">
+        <v>0</v>
+      </c>
+      <c r="G45" s="17"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="14"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="17"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="14">
+        <v>0</v>
+      </c>
+      <c r="G47" s="17"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="14">
+        <v>0</v>
+      </c>
+      <c r="G48" s="17"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="14">
+        <v>0</v>
+      </c>
+      <c r="G49" s="17"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="14">
+        <v>0</v>
+      </c>
+      <c r="G50" s="17"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="14">
+        <v>0</v>
+      </c>
+      <c r="G51" s="17"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="14">
+        <v>0</v>
+      </c>
+      <c r="G52" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Civilworks cost/LD/LD Annexes.xlsx
+++ b/Civilworks cost/LD/LD Annexes.xlsx
@@ -4,12 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Annex-II" sheetId="1" r:id="rId1"/>
     <sheet name="Annex-IV" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Annex-II'!$2:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Annex-IV'!$2:$4</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="462">
   <si>
     <t xml:space="preserve">HOBI/PW-01 </t>
   </si>
@@ -1330,9 +1334,6 @@
     <t xml:space="preserve"> Example:Inbetween Km 16.700 to 18.900 Local Land Owner  Obstructed Works in demand for Leand Payment</t>
   </si>
   <si>
-    <t>Annexture-2: List of Site where works stopped due to Land Acquisition</t>
-  </si>
-  <si>
     <t>Amount of Calim as per GCC 69.1(a)</t>
   </si>
   <si>
@@ -1487,6 +1488,12 @@
   </si>
   <si>
     <t>SUNM/PW-06</t>
+  </si>
+  <si>
+    <t>Annex-IV:Contractors Claims and Their Settlement</t>
+  </si>
+  <si>
+    <t>Annexture-II: List of Site where works stopped due to Land Acquisition</t>
   </si>
 </sst>
 </file>
@@ -1521,7 +1528,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1618,11 +1625,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1641,6 +1657,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1660,15 +1683,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1951,27 +1970,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D358"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="57.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="133.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="57.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="133.44140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="48.6" customHeight="1">
-      <c r="A1" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" ht="43.15" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="43.2" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>403</v>
       </c>
@@ -1985,8 +2004,8 @@
         <v>405</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1997,8 +2016,8 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A4" s="9"/>
+    <row r="4" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2007,8 +2026,8 @@
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A5" s="9"/>
+    <row r="5" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A5" s="12"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2017,8 +2036,8 @@
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A6" s="9"/>
+    <row r="6" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2029,8 +2048,8 @@
         <v>407</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A7" s="9"/>
+    <row r="7" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2039,8 +2058,8 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A8" s="10"/>
+    <row r="8" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A8" s="13"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2049,8 +2068,8 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2061,8 +2080,8 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A10" s="9"/>
+    <row r="10" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A10" s="12"/>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2071,8 +2090,8 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A11" s="9"/>
+    <row r="11" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A11" s="12"/>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2081,8 +2100,8 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A12" s="9"/>
+    <row r="12" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A12" s="12"/>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2091,8 +2110,8 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A13" s="9"/>
+    <row r="13" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A13" s="12"/>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2101,8 +2120,8 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A14" s="9"/>
+    <row r="14" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A14" s="12"/>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2111,8 +2130,8 @@
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A15" s="9"/>
+    <row r="15" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A15" s="12"/>
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2121,8 +2140,8 @@
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A16" s="10"/>
+    <row r="16" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A16" s="13"/>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2131,7 +2150,7 @@
       </c>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" ht="25.9" customHeight="1">
+    <row r="17" spans="1:4" ht="25.95" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
@@ -2143,8 +2162,8 @@
       </c>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2155,8 +2174,8 @@
       </c>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A19" s="9"/>
+    <row r="19" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A19" s="12"/>
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
@@ -2165,8 +2184,8 @@
       </c>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A20" s="9"/>
+    <row r="20" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A20" s="12"/>
       <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
@@ -2175,8 +2194,8 @@
       </c>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A21" s="9"/>
+    <row r="21" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A21" s="12"/>
       <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
@@ -2185,8 +2204,8 @@
       </c>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A22" s="9"/>
+    <row r="22" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A22" s="12"/>
       <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
@@ -2195,8 +2214,8 @@
       </c>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A23" s="9"/>
+    <row r="23" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A23" s="12"/>
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
@@ -2205,8 +2224,8 @@
       </c>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A24" s="10"/>
+    <row r="24" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A24" s="13"/>
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
@@ -2215,8 +2234,8 @@
       </c>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A25" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2227,8 +2246,8 @@
       </c>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A26" s="9"/>
+    <row r="26" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A26" s="12"/>
       <c r="B26" s="1" t="s">
         <v>28</v>
       </c>
@@ -2237,8 +2256,8 @@
       </c>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A27" s="9"/>
+    <row r="27" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A27" s="12"/>
       <c r="B27" s="1" t="s">
         <v>29</v>
       </c>
@@ -2247,8 +2266,8 @@
       </c>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A28" s="9"/>
+    <row r="28" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A28" s="12"/>
       <c r="B28" s="1" t="s">
         <v>30</v>
       </c>
@@ -2257,8 +2276,8 @@
       </c>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A29" s="9"/>
+    <row r="29" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A29" s="12"/>
       <c r="B29" s="1" t="s">
         <v>31</v>
       </c>
@@ -2267,8 +2286,8 @@
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A30" s="9"/>
+    <row r="30" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A30" s="12"/>
       <c r="B30" s="1" t="s">
         <v>32</v>
       </c>
@@ -2277,8 +2296,8 @@
       </c>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A31" s="9"/>
+    <row r="31" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A31" s="12"/>
       <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
@@ -2287,8 +2306,8 @@
       </c>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A32" s="9"/>
+    <row r="32" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A32" s="12"/>
       <c r="B32" s="1" t="s">
         <v>34</v>
       </c>
@@ -2297,8 +2316,8 @@
       </c>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A33" s="9"/>
+    <row r="33" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A33" s="12"/>
       <c r="B33" s="1" t="s">
         <v>35</v>
       </c>
@@ -2307,8 +2326,8 @@
       </c>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A34" s="9"/>
+    <row r="34" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A34" s="12"/>
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
@@ -2317,8 +2336,8 @@
       </c>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A35" s="9"/>
+    <row r="35" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A35" s="12"/>
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
@@ -2327,8 +2346,8 @@
       </c>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A36" s="9"/>
+    <row r="36" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A36" s="12"/>
       <c r="B36" s="1" t="s">
         <v>38</v>
       </c>
@@ -2337,8 +2356,8 @@
       </c>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A37" s="9"/>
+    <row r="37" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A37" s="12"/>
       <c r="B37" s="1" t="s">
         <v>39</v>
       </c>
@@ -2347,8 +2366,8 @@
       </c>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A38" s="9"/>
+    <row r="38" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A38" s="12"/>
       <c r="B38" s="1" t="s">
         <v>40</v>
       </c>
@@ -2357,8 +2376,8 @@
       </c>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A39" s="9"/>
+    <row r="39" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A39" s="12"/>
       <c r="B39" s="1" t="s">
         <v>41</v>
       </c>
@@ -2367,8 +2386,8 @@
       </c>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A40" s="9"/>
+    <row r="40" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A40" s="12"/>
       <c r="B40" s="1" t="s">
         <v>42</v>
       </c>
@@ -2377,8 +2396,8 @@
       </c>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A41" s="9"/>
+    <row r="41" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A41" s="12"/>
       <c r="B41" s="1" t="s">
         <v>43</v>
       </c>
@@ -2387,8 +2406,8 @@
       </c>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A42" s="9"/>
+    <row r="42" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A42" s="12"/>
       <c r="B42" s="1" t="s">
         <v>44</v>
       </c>
@@ -2397,8 +2416,8 @@
       </c>
       <c r="D42" s="5"/>
     </row>
-    <row r="43" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A43" s="9"/>
+    <row r="43" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A43" s="12"/>
       <c r="B43" s="1" t="s">
         <v>45</v>
       </c>
@@ -2407,8 +2426,8 @@
       </c>
       <c r="D43" s="5"/>
     </row>
-    <row r="44" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A44" s="9"/>
+    <row r="44" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A44" s="12"/>
       <c r="B44" s="1" t="s">
         <v>46</v>
       </c>
@@ -2417,8 +2436,8 @@
       </c>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A45" s="9"/>
+    <row r="45" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A45" s="12"/>
       <c r="B45" s="1" t="s">
         <v>47</v>
       </c>
@@ -2427,8 +2446,8 @@
       </c>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A46" s="9"/>
+    <row r="46" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A46" s="12"/>
       <c r="B46" s="1" t="s">
         <v>48</v>
       </c>
@@ -2437,8 +2456,8 @@
       </c>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A47" s="9"/>
+    <row r="47" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A47" s="12"/>
       <c r="B47" s="1" t="s">
         <v>49</v>
       </c>
@@ -2447,8 +2466,8 @@
       </c>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A48" s="9"/>
+    <row r="48" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A48" s="12"/>
       <c r="B48" s="1" t="s">
         <v>50</v>
       </c>
@@ -2457,8 +2476,8 @@
       </c>
       <c r="D48" s="5"/>
     </row>
-    <row r="49" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A49" s="9"/>
+    <row r="49" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A49" s="12"/>
       <c r="B49" s="1" t="s">
         <v>51</v>
       </c>
@@ -2467,8 +2486,8 @@
       </c>
       <c r="D49" s="5"/>
     </row>
-    <row r="50" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A50" s="9"/>
+    <row r="50" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A50" s="12"/>
       <c r="B50" s="1" t="s">
         <v>52</v>
       </c>
@@ -2477,8 +2496,8 @@
       </c>
       <c r="D50" s="5"/>
     </row>
-    <row r="51" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A51" s="9"/>
+    <row r="51" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A51" s="12"/>
       <c r="B51" s="1" t="s">
         <v>53</v>
       </c>
@@ -2487,8 +2506,8 @@
       </c>
       <c r="D51" s="5"/>
     </row>
-    <row r="52" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A52" s="10"/>
+    <row r="52" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A52" s="13"/>
       <c r="B52" s="1" t="s">
         <v>54</v>
       </c>
@@ -2497,8 +2516,8 @@
       </c>
       <c r="D52" s="5"/>
     </row>
-    <row r="53" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A53" s="8" t="s">
+    <row r="53" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A53" s="11" t="s">
         <v>55</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -2509,8 +2528,8 @@
       </c>
       <c r="D53" s="5"/>
     </row>
-    <row r="54" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A54" s="9"/>
+    <row r="54" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A54" s="12"/>
       <c r="B54" s="1" t="s">
         <v>57</v>
       </c>
@@ -2519,8 +2538,8 @@
       </c>
       <c r="D54" s="5"/>
     </row>
-    <row r="55" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A55" s="9"/>
+    <row r="55" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A55" s="12"/>
       <c r="B55" s="1" t="s">
         <v>58</v>
       </c>
@@ -2529,8 +2548,8 @@
       </c>
       <c r="D55" s="5"/>
     </row>
-    <row r="56" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A56" s="9"/>
+    <row r="56" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A56" s="12"/>
       <c r="B56" s="1" t="s">
         <v>59</v>
       </c>
@@ -2539,8 +2558,8 @@
       </c>
       <c r="D56" s="5"/>
     </row>
-    <row r="57" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A57" s="9"/>
+    <row r="57" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A57" s="12"/>
       <c r="B57" s="1" t="s">
         <v>60</v>
       </c>
@@ -2549,8 +2568,8 @@
       </c>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A58" s="9"/>
+    <row r="58" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A58" s="12"/>
       <c r="B58" s="1" t="s">
         <v>61</v>
       </c>
@@ -2559,8 +2578,8 @@
       </c>
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A59" s="9"/>
+    <row r="59" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A59" s="12"/>
       <c r="B59" s="1" t="s">
         <v>62</v>
       </c>
@@ -2569,8 +2588,8 @@
       </c>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A60" s="9"/>
+    <row r="60" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A60" s="12"/>
       <c r="B60" s="1" t="s">
         <v>63</v>
       </c>
@@ -2579,8 +2598,8 @@
       </c>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A61" s="9"/>
+    <row r="61" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A61" s="12"/>
       <c r="B61" s="1" t="s">
         <v>64</v>
       </c>
@@ -2589,8 +2608,8 @@
       </c>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A62" s="10"/>
+    <row r="62" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A62" s="13"/>
       <c r="B62" s="1" t="s">
         <v>65</v>
       </c>
@@ -2599,8 +2618,8 @@
       </c>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A63" s="8" t="s">
+    <row r="63" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A63" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -2611,8 +2630,8 @@
       </c>
       <c r="D63" s="5"/>
     </row>
-    <row r="64" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A64" s="9"/>
+    <row r="64" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A64" s="12"/>
       <c r="B64" s="1" t="s">
         <v>68</v>
       </c>
@@ -2621,8 +2640,8 @@
       </c>
       <c r="D64" s="5"/>
     </row>
-    <row r="65" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A65" s="9"/>
+    <row r="65" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A65" s="12"/>
       <c r="B65" s="1" t="s">
         <v>69</v>
       </c>
@@ -2631,8 +2650,8 @@
       </c>
       <c r="D65" s="5"/>
     </row>
-    <row r="66" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A66" s="9"/>
+    <row r="66" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A66" s="12"/>
       <c r="B66" s="1" t="s">
         <v>70</v>
       </c>
@@ -2641,8 +2660,8 @@
       </c>
       <c r="D66" s="5"/>
     </row>
-    <row r="67" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A67" s="10"/>
+    <row r="67" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A67" s="13"/>
       <c r="B67" s="1" t="s">
         <v>71</v>
       </c>
@@ -2651,8 +2670,8 @@
       </c>
       <c r="D67" s="5"/>
     </row>
-    <row r="68" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A68" s="8" t="s">
+    <row r="68" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A68" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -2663,8 +2682,8 @@
       </c>
       <c r="D68" s="5"/>
     </row>
-    <row r="69" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A69" s="9"/>
+    <row r="69" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A69" s="12"/>
       <c r="B69" s="1" t="s">
         <v>74</v>
       </c>
@@ -2673,8 +2692,8 @@
       </c>
       <c r="D69" s="5"/>
     </row>
-    <row r="70" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A70" s="9"/>
+    <row r="70" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A70" s="12"/>
       <c r="B70" s="1" t="s">
         <v>75</v>
       </c>
@@ -2683,8 +2702,8 @@
       </c>
       <c r="D70" s="5"/>
     </row>
-    <row r="71" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A71" s="9"/>
+    <row r="71" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A71" s="12"/>
       <c r="B71" s="1" t="s">
         <v>76</v>
       </c>
@@ -2693,8 +2712,8 @@
       </c>
       <c r="D71" s="5"/>
     </row>
-    <row r="72" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A72" s="9"/>
+    <row r="72" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A72" s="12"/>
       <c r="B72" s="1" t="s">
         <v>77</v>
       </c>
@@ -2703,8 +2722,8 @@
       </c>
       <c r="D72" s="5"/>
     </row>
-    <row r="73" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A73" s="9"/>
+    <row r="73" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A73" s="12"/>
       <c r="B73" s="1" t="s">
         <v>78</v>
       </c>
@@ -2713,8 +2732,8 @@
       </c>
       <c r="D73" s="5"/>
     </row>
-    <row r="74" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A74" s="10"/>
+    <row r="74" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A74" s="13"/>
       <c r="B74" s="1" t="s">
         <v>79</v>
       </c>
@@ -2723,8 +2742,8 @@
       </c>
       <c r="D74" s="5"/>
     </row>
-    <row r="75" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A75" s="8" t="s">
+    <row r="75" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A75" s="11" t="s">
         <v>80</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -2735,8 +2754,8 @@
       </c>
       <c r="D75" s="5"/>
     </row>
-    <row r="76" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A76" s="10"/>
+    <row r="76" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A76" s="13"/>
       <c r="B76" s="1" t="s">
         <v>82</v>
       </c>
@@ -2745,8 +2764,8 @@
       </c>
       <c r="D76" s="5"/>
     </row>
-    <row r="77" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A77" s="8" t="s">
+    <row r="77" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A77" s="11" t="s">
         <v>83</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -2757,8 +2776,8 @@
       </c>
       <c r="D77" s="5"/>
     </row>
-    <row r="78" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A78" s="9"/>
+    <row r="78" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A78" s="12"/>
       <c r="B78" s="1" t="s">
         <v>85</v>
       </c>
@@ -2767,8 +2786,8 @@
       </c>
       <c r="D78" s="5"/>
     </row>
-    <row r="79" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A79" s="9"/>
+    <row r="79" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A79" s="12"/>
       <c r="B79" s="1" t="s">
         <v>86</v>
       </c>
@@ -2777,8 +2796,8 @@
       </c>
       <c r="D79" s="5"/>
     </row>
-    <row r="80" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A80" s="10"/>
+    <row r="80" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A80" s="13"/>
       <c r="B80" s="1" t="s">
         <v>87</v>
       </c>
@@ -2787,8 +2806,8 @@
       </c>
       <c r="D80" s="5"/>
     </row>
-    <row r="81" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A81" s="8" t="s">
+    <row r="81" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A81" s="11" t="s">
         <v>88</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -2799,8 +2818,8 @@
       </c>
       <c r="D81" s="5"/>
     </row>
-    <row r="82" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A82" s="10"/>
+    <row r="82" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A82" s="13"/>
       <c r="B82" s="1" t="s">
         <v>90</v>
       </c>
@@ -2809,8 +2828,8 @@
       </c>
       <c r="D82" s="5"/>
     </row>
-    <row r="83" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A83" s="8" t="s">
+    <row r="83" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A83" s="11" t="s">
         <v>91</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -2821,8 +2840,8 @@
       </c>
       <c r="D83" s="5"/>
     </row>
-    <row r="84" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A84" s="9"/>
+    <row r="84" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A84" s="12"/>
       <c r="B84" s="1" t="s">
         <v>93</v>
       </c>
@@ -2831,8 +2850,8 @@
       </c>
       <c r="D84" s="5"/>
     </row>
-    <row r="85" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A85" s="9"/>
+    <row r="85" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A85" s="12"/>
       <c r="B85" s="1" t="s">
         <v>94</v>
       </c>
@@ -2841,8 +2860,8 @@
       </c>
       <c r="D85" s="5"/>
     </row>
-    <row r="86" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A86" s="9"/>
+    <row r="86" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A86" s="12"/>
       <c r="B86" s="1" t="s">
         <v>95</v>
       </c>
@@ -2851,8 +2870,8 @@
       </c>
       <c r="D86" s="5"/>
     </row>
-    <row r="87" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A87" s="9"/>
+    <row r="87" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A87" s="12"/>
       <c r="B87" s="1" t="s">
         <v>96</v>
       </c>
@@ -2861,8 +2880,8 @@
       </c>
       <c r="D87" s="5"/>
     </row>
-    <row r="88" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A88" s="9"/>
+    <row r="88" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A88" s="12"/>
       <c r="B88" s="1" t="s">
         <v>97</v>
       </c>
@@ -2871,8 +2890,8 @@
       </c>
       <c r="D88" s="5"/>
     </row>
-    <row r="89" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A89" s="10"/>
+    <row r="89" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A89" s="13"/>
       <c r="B89" s="1" t="s">
         <v>98</v>
       </c>
@@ -2881,8 +2900,8 @@
       </c>
       <c r="D89" s="5"/>
     </row>
-    <row r="90" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A90" s="8" t="s">
+    <row r="90" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A90" s="11" t="s">
         <v>99</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -2893,8 +2912,8 @@
       </c>
       <c r="D90" s="5"/>
     </row>
-    <row r="91" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A91" s="9"/>
+    <row r="91" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A91" s="12"/>
       <c r="B91" s="1" t="s">
         <v>101</v>
       </c>
@@ -2903,8 +2922,8 @@
       </c>
       <c r="D91" s="5"/>
     </row>
-    <row r="92" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A92" s="9"/>
+    <row r="92" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A92" s="12"/>
       <c r="B92" s="1" t="s">
         <v>102</v>
       </c>
@@ -2913,8 +2932,8 @@
       </c>
       <c r="D92" s="5"/>
     </row>
-    <row r="93" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A93" s="9"/>
+    <row r="93" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A93" s="12"/>
       <c r="B93" s="1" t="s">
         <v>103</v>
       </c>
@@ -2923,8 +2942,8 @@
       </c>
       <c r="D93" s="5"/>
     </row>
-    <row r="94" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A94" s="9"/>
+    <row r="94" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A94" s="12"/>
       <c r="B94" s="1" t="s">
         <v>104</v>
       </c>
@@ -2933,8 +2952,8 @@
       </c>
       <c r="D94" s="5"/>
     </row>
-    <row r="95" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A95" s="9"/>
+    <row r="95" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A95" s="12"/>
       <c r="B95" s="1" t="s">
         <v>105</v>
       </c>
@@ -2943,8 +2962,8 @@
       </c>
       <c r="D95" s="5"/>
     </row>
-    <row r="96" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A96" s="9"/>
+    <row r="96" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A96" s="12"/>
       <c r="B96" s="1" t="s">
         <v>106</v>
       </c>
@@ -2953,8 +2972,8 @@
       </c>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A97" s="10"/>
+    <row r="97" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A97" s="13"/>
       <c r="B97" s="1" t="s">
         <v>107</v>
       </c>
@@ -2963,8 +2982,8 @@
       </c>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A98" s="8" t="s">
+    <row r="98" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A98" s="11" t="s">
         <v>108</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -2975,8 +2994,8 @@
       </c>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A99" s="9"/>
+    <row r="99" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A99" s="12"/>
       <c r="B99" s="1" t="s">
         <v>110</v>
       </c>
@@ -2985,8 +3004,8 @@
       </c>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A100" s="9"/>
+    <row r="100" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A100" s="12"/>
       <c r="B100" s="1" t="s">
         <v>111</v>
       </c>
@@ -2995,8 +3014,8 @@
       </c>
       <c r="D100" s="5"/>
     </row>
-    <row r="101" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A101" s="10"/>
+    <row r="101" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A101" s="13"/>
       <c r="B101" s="1" t="s">
         <v>112</v>
       </c>
@@ -3005,8 +3024,8 @@
       </c>
       <c r="D101" s="5"/>
     </row>
-    <row r="102" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A102" s="8" t="s">
+    <row r="102" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A102" s="11" t="s">
         <v>113</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -3017,8 +3036,8 @@
       </c>
       <c r="D102" s="5"/>
     </row>
-    <row r="103" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A103" s="9"/>
+    <row r="103" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A103" s="12"/>
       <c r="B103" s="1" t="s">
         <v>115</v>
       </c>
@@ -3027,8 +3046,8 @@
       </c>
       <c r="D103" s="5"/>
     </row>
-    <row r="104" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A104" s="10"/>
+    <row r="104" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A104" s="13"/>
       <c r="B104" s="1" t="s">
         <v>116</v>
       </c>
@@ -3037,8 +3056,8 @@
       </c>
       <c r="D104" s="5"/>
     </row>
-    <row r="105" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A105" s="8" t="s">
+    <row r="105" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A105" s="11" t="s">
         <v>117</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -3049,8 +3068,8 @@
       </c>
       <c r="D105" s="5"/>
     </row>
-    <row r="106" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A106" s="10"/>
+    <row r="106" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A106" s="13"/>
       <c r="B106" s="1" t="s">
         <v>119</v>
       </c>
@@ -3059,8 +3078,8 @@
       </c>
       <c r="D106" s="5"/>
     </row>
-    <row r="107" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A107" s="8" t="s">
+    <row r="107" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A107" s="11" t="s">
         <v>120</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -3071,8 +3090,8 @@
       </c>
       <c r="D107" s="5"/>
     </row>
-    <row r="108" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A108" s="9"/>
+    <row r="108" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A108" s="12"/>
       <c r="B108" s="1" t="s">
         <v>122</v>
       </c>
@@ -3081,8 +3100,8 @@
       </c>
       <c r="D108" s="5"/>
     </row>
-    <row r="109" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A109" s="9"/>
+    <row r="109" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A109" s="12"/>
       <c r="B109" s="1" t="s">
         <v>123</v>
       </c>
@@ -3091,8 +3110,8 @@
       </c>
       <c r="D109" s="5"/>
     </row>
-    <row r="110" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A110" s="9"/>
+    <row r="110" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A110" s="12"/>
       <c r="B110" s="1" t="s">
         <v>124</v>
       </c>
@@ -3101,8 +3120,8 @@
       </c>
       <c r="D110" s="5"/>
     </row>
-    <row r="111" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A111" s="9"/>
+    <row r="111" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A111" s="12"/>
       <c r="B111" s="1" t="s">
         <v>125</v>
       </c>
@@ -3111,8 +3130,8 @@
       </c>
       <c r="D111" s="5"/>
     </row>
-    <row r="112" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A112" s="10"/>
+    <row r="112" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A112" s="13"/>
       <c r="B112" s="1" t="s">
         <v>126</v>
       </c>
@@ -3121,8 +3140,8 @@
       </c>
       <c r="D112" s="5"/>
     </row>
-    <row r="113" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A113" s="8" t="s">
+    <row r="113" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A113" s="11" t="s">
         <v>127</v>
       </c>
       <c r="B113" s="1" t="s">
@@ -3133,8 +3152,8 @@
       </c>
       <c r="D113" s="5"/>
     </row>
-    <row r="114" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A114" s="9"/>
+    <row r="114" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A114" s="12"/>
       <c r="B114" s="1" t="s">
         <v>129</v>
       </c>
@@ -3143,8 +3162,8 @@
       </c>
       <c r="D114" s="5"/>
     </row>
-    <row r="115" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A115" s="10"/>
+    <row r="115" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A115" s="13"/>
       <c r="B115" s="1" t="s">
         <v>130</v>
       </c>
@@ -3153,8 +3172,8 @@
       </c>
       <c r="D115" s="5"/>
     </row>
-    <row r="116" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A116" s="8" t="s">
+    <row r="116" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A116" s="11" t="s">
         <v>131</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -3165,8 +3184,8 @@
       </c>
       <c r="D116" s="5"/>
     </row>
-    <row r="117" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A117" s="10"/>
+    <row r="117" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A117" s="13"/>
       <c r="B117" s="1" t="s">
         <v>133</v>
       </c>
@@ -3175,8 +3194,8 @@
       </c>
       <c r="D117" s="5"/>
     </row>
-    <row r="118" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A118" s="8" t="s">
+    <row r="118" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A118" s="11" t="s">
         <v>134</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -3187,8 +3206,8 @@
       </c>
       <c r="D118" s="5"/>
     </row>
-    <row r="119" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A119" s="10"/>
+    <row r="119" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A119" s="13"/>
       <c r="B119" s="1" t="s">
         <v>136</v>
       </c>
@@ -3197,8 +3216,8 @@
       </c>
       <c r="D119" s="5"/>
     </row>
-    <row r="120" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A120" s="8" t="s">
+    <row r="120" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A120" s="11" t="s">
         <v>137</v>
       </c>
       <c r="B120" s="1" t="s">
@@ -3209,8 +3228,8 @@
       </c>
       <c r="D120" s="5"/>
     </row>
-    <row r="121" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A121" s="10"/>
+    <row r="121" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A121" s="13"/>
       <c r="B121" s="1" t="s">
         <v>139</v>
       </c>
@@ -3219,8 +3238,8 @@
       </c>
       <c r="D121" s="5"/>
     </row>
-    <row r="122" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A122" s="8" t="s">
+    <row r="122" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A122" s="11" t="s">
         <v>140</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -3231,8 +3250,8 @@
       </c>
       <c r="D122" s="5"/>
     </row>
-    <row r="123" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A123" s="9"/>
+    <row r="123" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A123" s="12"/>
       <c r="B123" s="1" t="s">
         <v>142</v>
       </c>
@@ -3241,8 +3260,8 @@
       </c>
       <c r="D123" s="5"/>
     </row>
-    <row r="124" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A124" s="9"/>
+    <row r="124" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A124" s="12"/>
       <c r="B124" s="1" t="s">
         <v>143</v>
       </c>
@@ -3251,8 +3270,8 @@
       </c>
       <c r="D124" s="5"/>
     </row>
-    <row r="125" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A125" s="9"/>
+    <row r="125" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A125" s="12"/>
       <c r="B125" s="1" t="s">
         <v>144</v>
       </c>
@@ -3261,8 +3280,8 @@
       </c>
       <c r="D125" s="5"/>
     </row>
-    <row r="126" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A126" s="9"/>
+    <row r="126" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A126" s="12"/>
       <c r="B126" s="1" t="s">
         <v>145</v>
       </c>
@@ -3271,8 +3290,8 @@
       </c>
       <c r="D126" s="5"/>
     </row>
-    <row r="127" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A127" s="9"/>
+    <row r="127" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A127" s="12"/>
       <c r="B127" s="1" t="s">
         <v>146</v>
       </c>
@@ -3281,8 +3300,8 @@
       </c>
       <c r="D127" s="5"/>
     </row>
-    <row r="128" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A128" s="9"/>
+    <row r="128" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A128" s="12"/>
       <c r="B128" s="1" t="s">
         <v>147</v>
       </c>
@@ -3291,8 +3310,8 @@
       </c>
       <c r="D128" s="5"/>
     </row>
-    <row r="129" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A129" s="9"/>
+    <row r="129" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A129" s="12"/>
       <c r="B129" s="1" t="s">
         <v>148</v>
       </c>
@@ -3301,8 +3320,8 @@
       </c>
       <c r="D129" s="5"/>
     </row>
-    <row r="130" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A130" s="9"/>
+    <row r="130" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A130" s="12"/>
       <c r="B130" s="1" t="s">
         <v>149</v>
       </c>
@@ -3311,8 +3330,8 @@
       </c>
       <c r="D130" s="5"/>
     </row>
-    <row r="131" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A131" s="9"/>
+    <row r="131" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A131" s="12"/>
       <c r="B131" s="1" t="s">
         <v>150</v>
       </c>
@@ -3321,8 +3340,8 @@
       </c>
       <c r="D131" s="5"/>
     </row>
-    <row r="132" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A132" s="9"/>
+    <row r="132" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A132" s="12"/>
       <c r="B132" s="1" t="s">
         <v>151</v>
       </c>
@@ -3331,8 +3350,8 @@
       </c>
       <c r="D132" s="5"/>
     </row>
-    <row r="133" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A133" s="9"/>
+    <row r="133" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A133" s="12"/>
       <c r="B133" s="1" t="s">
         <v>152</v>
       </c>
@@ -3341,8 +3360,8 @@
       </c>
       <c r="D133" s="5"/>
     </row>
-    <row r="134" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A134" s="9"/>
+    <row r="134" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A134" s="12"/>
       <c r="B134" s="1" t="s">
         <v>153</v>
       </c>
@@ -3351,8 +3370,8 @@
       </c>
       <c r="D134" s="5"/>
     </row>
-    <row r="135" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A135" s="9"/>
+    <row r="135" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A135" s="12"/>
       <c r="B135" s="1" t="s">
         <v>154</v>
       </c>
@@ -3361,8 +3380,8 @@
       </c>
       <c r="D135" s="5"/>
     </row>
-    <row r="136" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A136" s="9"/>
+    <row r="136" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A136" s="12"/>
       <c r="B136" s="1" t="s">
         <v>155</v>
       </c>
@@ -3371,8 +3390,8 @@
       </c>
       <c r="D136" s="5"/>
     </row>
-    <row r="137" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A137" s="9"/>
+    <row r="137" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A137" s="12"/>
       <c r="B137" s="1" t="s">
         <v>156</v>
       </c>
@@ -3381,8 +3400,8 @@
       </c>
       <c r="D137" s="5"/>
     </row>
-    <row r="138" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A138" s="9"/>
+    <row r="138" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A138" s="12"/>
       <c r="B138" s="1" t="s">
         <v>157</v>
       </c>
@@ -3391,8 +3410,8 @@
       </c>
       <c r="D138" s="5"/>
     </row>
-    <row r="139" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A139" s="9"/>
+    <row r="139" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A139" s="12"/>
       <c r="B139" s="1" t="s">
         <v>158</v>
       </c>
@@ -3401,8 +3420,8 @@
       </c>
       <c r="D139" s="5"/>
     </row>
-    <row r="140" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A140" s="9"/>
+    <row r="140" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A140" s="12"/>
       <c r="B140" s="1" t="s">
         <v>159</v>
       </c>
@@ -3411,8 +3430,8 @@
       </c>
       <c r="D140" s="5"/>
     </row>
-    <row r="141" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A141" s="9"/>
+    <row r="141" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A141" s="12"/>
       <c r="B141" s="1" t="s">
         <v>160</v>
       </c>
@@ -3421,8 +3440,8 @@
       </c>
       <c r="D141" s="5"/>
     </row>
-    <row r="142" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A142" s="9"/>
+    <row r="142" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A142" s="12"/>
       <c r="B142" s="1" t="s">
         <v>161</v>
       </c>
@@ -3431,8 +3450,8 @@
       </c>
       <c r="D142" s="5"/>
     </row>
-    <row r="143" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A143" s="9"/>
+    <row r="143" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A143" s="12"/>
       <c r="B143" s="1" t="s">
         <v>162</v>
       </c>
@@ -3441,8 +3460,8 @@
       </c>
       <c r="D143" s="5"/>
     </row>
-    <row r="144" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A144" s="9"/>
+    <row r="144" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A144" s="12"/>
       <c r="B144" s="1" t="s">
         <v>163</v>
       </c>
@@ -3451,8 +3470,8 @@
       </c>
       <c r="D144" s="5"/>
     </row>
-    <row r="145" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A145" s="9"/>
+    <row r="145" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A145" s="12"/>
       <c r="B145" s="1" t="s">
         <v>164</v>
       </c>
@@ -3461,8 +3480,8 @@
       </c>
       <c r="D145" s="5"/>
     </row>
-    <row r="146" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A146" s="9"/>
+    <row r="146" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A146" s="12"/>
       <c r="B146" s="1" t="s">
         <v>165</v>
       </c>
@@ -3471,8 +3490,8 @@
       </c>
       <c r="D146" s="5"/>
     </row>
-    <row r="147" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A147" s="9"/>
+    <row r="147" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A147" s="12"/>
       <c r="B147" s="1" t="s">
         <v>166</v>
       </c>
@@ -3481,8 +3500,8 @@
       </c>
       <c r="D147" s="5"/>
     </row>
-    <row r="148" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A148" s="9"/>
+    <row r="148" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A148" s="12"/>
       <c r="B148" s="1" t="s">
         <v>167</v>
       </c>
@@ -3491,8 +3510,8 @@
       </c>
       <c r="D148" s="5"/>
     </row>
-    <row r="149" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A149" s="9"/>
+    <row r="149" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A149" s="12"/>
       <c r="B149" s="1" t="s">
         <v>168</v>
       </c>
@@ -3501,8 +3520,8 @@
       </c>
       <c r="D149" s="5"/>
     </row>
-    <row r="150" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A150" s="9"/>
+    <row r="150" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A150" s="12"/>
       <c r="B150" s="1" t="s">
         <v>169</v>
       </c>
@@ -3511,8 +3530,8 @@
       </c>
       <c r="D150" s="5"/>
     </row>
-    <row r="151" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A151" s="9"/>
+    <row r="151" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A151" s="12"/>
       <c r="B151" s="1" t="s">
         <v>170</v>
       </c>
@@ -3521,8 +3540,8 @@
       </c>
       <c r="D151" s="5"/>
     </row>
-    <row r="152" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A152" s="9"/>
+    <row r="152" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A152" s="12"/>
       <c r="B152" s="1" t="s">
         <v>171</v>
       </c>
@@ -3531,8 +3550,8 @@
       </c>
       <c r="D152" s="5"/>
     </row>
-    <row r="153" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A153" s="9"/>
+    <row r="153" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A153" s="12"/>
       <c r="B153" s="1" t="s">
         <v>172</v>
       </c>
@@ -3541,8 +3560,8 @@
       </c>
       <c r="D153" s="5"/>
     </row>
-    <row r="154" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A154" s="10"/>
+    <row r="154" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A154" s="13"/>
       <c r="B154" s="1" t="s">
         <v>173</v>
       </c>
@@ -3551,8 +3570,8 @@
       </c>
       <c r="D154" s="5"/>
     </row>
-    <row r="155" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A155" s="8" t="s">
+    <row r="155" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A155" s="11" t="s">
         <v>174</v>
       </c>
       <c r="B155" s="1" t="s">
@@ -3563,8 +3582,8 @@
       </c>
       <c r="D155" s="5"/>
     </row>
-    <row r="156" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A156" s="9"/>
+    <row r="156" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A156" s="12"/>
       <c r="B156" s="1" t="s">
         <v>176</v>
       </c>
@@ -3573,8 +3592,8 @@
       </c>
       <c r="D156" s="5"/>
     </row>
-    <row r="157" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A157" s="9"/>
+    <row r="157" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A157" s="12"/>
       <c r="B157" s="1" t="s">
         <v>177</v>
       </c>
@@ -3583,8 +3602,8 @@
       </c>
       <c r="D157" s="5"/>
     </row>
-    <row r="158" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A158" s="9"/>
+    <row r="158" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A158" s="12"/>
       <c r="B158" s="1" t="s">
         <v>178</v>
       </c>
@@ -3593,8 +3612,8 @@
       </c>
       <c r="D158" s="5"/>
     </row>
-    <row r="159" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A159" s="9"/>
+    <row r="159" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A159" s="12"/>
       <c r="B159" s="1" t="s">
         <v>179</v>
       </c>
@@ -3603,8 +3622,8 @@
       </c>
       <c r="D159" s="5"/>
     </row>
-    <row r="160" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A160" s="9"/>
+    <row r="160" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A160" s="12"/>
       <c r="B160" s="1" t="s">
         <v>180</v>
       </c>
@@ -3613,8 +3632,8 @@
       </c>
       <c r="D160" s="5"/>
     </row>
-    <row r="161" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A161" s="9"/>
+    <row r="161" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A161" s="12"/>
       <c r="B161" s="1" t="s">
         <v>181</v>
       </c>
@@ -3623,8 +3642,8 @@
       </c>
       <c r="D161" s="5"/>
     </row>
-    <row r="162" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A162" s="9"/>
+    <row r="162" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A162" s="12"/>
       <c r="B162" s="1" t="s">
         <v>182</v>
       </c>
@@ -3633,8 +3652,8 @@
       </c>
       <c r="D162" s="5"/>
     </row>
-    <row r="163" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A163" s="9"/>
+    <row r="163" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A163" s="12"/>
       <c r="B163" s="1" t="s">
         <v>183</v>
       </c>
@@ -3643,8 +3662,8 @@
       </c>
       <c r="D163" s="5"/>
     </row>
-    <row r="164" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A164" s="9"/>
+    <row r="164" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A164" s="12"/>
       <c r="B164" s="1" t="s">
         <v>184</v>
       </c>
@@ -3653,8 +3672,8 @@
       </c>
       <c r="D164" s="5"/>
     </row>
-    <row r="165" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A165" s="10"/>
+    <row r="165" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A165" s="13"/>
       <c r="B165" s="1" t="s">
         <v>185</v>
       </c>
@@ -3663,8 +3682,8 @@
       </c>
       <c r="D165" s="5"/>
     </row>
-    <row r="166" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A166" s="8" t="s">
+    <row r="166" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A166" s="11" t="s">
         <v>186</v>
       </c>
       <c r="B166" s="1" t="s">
@@ -3675,8 +3694,8 @@
       </c>
       <c r="D166" s="5"/>
     </row>
-    <row r="167" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A167" s="10"/>
+    <row r="167" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A167" s="13"/>
       <c r="B167" s="1" t="s">
         <v>188</v>
       </c>
@@ -3685,8 +3704,8 @@
       </c>
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A168" s="8" t="s">
+    <row r="168" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A168" s="11" t="s">
         <v>189</v>
       </c>
       <c r="B168" s="1" t="s">
@@ -3697,8 +3716,8 @@
       </c>
       <c r="D168" s="5"/>
     </row>
-    <row r="169" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A169" s="9"/>
+    <row r="169" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A169" s="12"/>
       <c r="B169" s="1" t="s">
         <v>191</v>
       </c>
@@ -3707,8 +3726,8 @@
       </c>
       <c r="D169" s="5"/>
     </row>
-    <row r="170" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A170" s="9"/>
+    <row r="170" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A170" s="12"/>
       <c r="B170" s="1" t="s">
         <v>192</v>
       </c>
@@ -3717,8 +3736,8 @@
       </c>
       <c r="D170" s="5"/>
     </row>
-    <row r="171" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A171" s="9"/>
+    <row r="171" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A171" s="12"/>
       <c r="B171" s="1" t="s">
         <v>193</v>
       </c>
@@ -3727,8 +3746,8 @@
       </c>
       <c r="D171" s="5"/>
     </row>
-    <row r="172" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A172" s="9"/>
+    <row r="172" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A172" s="12"/>
       <c r="B172" s="1" t="s">
         <v>194</v>
       </c>
@@ -3737,8 +3756,8 @@
       </c>
       <c r="D172" s="5"/>
     </row>
-    <row r="173" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A173" s="9"/>
+    <row r="173" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A173" s="12"/>
       <c r="B173" s="1" t="s">
         <v>195</v>
       </c>
@@ -3747,8 +3766,8 @@
       </c>
       <c r="D173" s="5"/>
     </row>
-    <row r="174" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A174" s="9"/>
+    <row r="174" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A174" s="12"/>
       <c r="B174" s="1" t="s">
         <v>196</v>
       </c>
@@ -3757,8 +3776,8 @@
       </c>
       <c r="D174" s="5"/>
     </row>
-    <row r="175" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A175" s="9"/>
+    <row r="175" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A175" s="12"/>
       <c r="B175" s="1" t="s">
         <v>197</v>
       </c>
@@ -3767,8 +3786,8 @@
       </c>
       <c r="D175" s="5"/>
     </row>
-    <row r="176" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A176" s="9"/>
+    <row r="176" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A176" s="12"/>
       <c r="B176" s="1" t="s">
         <v>198</v>
       </c>
@@ -3777,8 +3796,8 @@
       </c>
       <c r="D176" s="5"/>
     </row>
-    <row r="177" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A177" s="10"/>
+    <row r="177" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A177" s="13"/>
       <c r="B177" s="1" t="s">
         <v>199</v>
       </c>
@@ -3787,8 +3806,8 @@
       </c>
       <c r="D177" s="5"/>
     </row>
-    <row r="178" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A178" s="8" t="s">
+    <row r="178" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A178" s="11" t="s">
         <v>200</v>
       </c>
       <c r="B178" s="1" t="s">
@@ -3799,8 +3818,8 @@
       </c>
       <c r="D178" s="5"/>
     </row>
-    <row r="179" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A179" s="9"/>
+    <row r="179" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A179" s="12"/>
       <c r="B179" s="1" t="s">
         <v>202</v>
       </c>
@@ -3809,8 +3828,8 @@
       </c>
       <c r="D179" s="5"/>
     </row>
-    <row r="180" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A180" s="10"/>
+    <row r="180" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A180" s="13"/>
       <c r="B180" s="1" t="s">
         <v>203</v>
       </c>
@@ -3819,8 +3838,8 @@
       </c>
       <c r="D180" s="5"/>
     </row>
-    <row r="181" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A181" s="8" t="s">
+    <row r="181" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A181" s="11" t="s">
         <v>204</v>
       </c>
       <c r="B181" s="1" t="s">
@@ -3831,8 +3850,8 @@
       </c>
       <c r="D181" s="5"/>
     </row>
-    <row r="182" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A182" s="9"/>
+    <row r="182" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A182" s="12"/>
       <c r="B182" s="1" t="s">
         <v>206</v>
       </c>
@@ -3841,8 +3860,8 @@
       </c>
       <c r="D182" s="5"/>
     </row>
-    <row r="183" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A183" s="9"/>
+    <row r="183" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A183" s="12"/>
       <c r="B183" s="1" t="s">
         <v>207</v>
       </c>
@@ -3851,8 +3870,8 @@
       </c>
       <c r="D183" s="5"/>
     </row>
-    <row r="184" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A184" s="9"/>
+    <row r="184" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A184" s="12"/>
       <c r="B184" s="1" t="s">
         <v>208</v>
       </c>
@@ -3861,8 +3880,8 @@
       </c>
       <c r="D184" s="5"/>
     </row>
-    <row r="185" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A185" s="9"/>
+    <row r="185" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A185" s="12"/>
       <c r="B185" s="1" t="s">
         <v>209</v>
       </c>
@@ -3871,8 +3890,8 @@
       </c>
       <c r="D185" s="5"/>
     </row>
-    <row r="186" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A186" s="9"/>
+    <row r="186" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A186" s="12"/>
       <c r="B186" s="1" t="s">
         <v>210</v>
       </c>
@@ -3881,8 +3900,8 @@
       </c>
       <c r="D186" s="5"/>
     </row>
-    <row r="187" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A187" s="9"/>
+    <row r="187" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A187" s="12"/>
       <c r="B187" s="1" t="s">
         <v>211</v>
       </c>
@@ -3891,8 +3910,8 @@
       </c>
       <c r="D187" s="5"/>
     </row>
-    <row r="188" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A188" s="9"/>
+    <row r="188" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A188" s="12"/>
       <c r="B188" s="1" t="s">
         <v>212</v>
       </c>
@@ -3901,8 +3920,8 @@
       </c>
       <c r="D188" s="5"/>
     </row>
-    <row r="189" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A189" s="9"/>
+    <row r="189" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A189" s="12"/>
       <c r="B189" s="1" t="s">
         <v>213</v>
       </c>
@@ -3911,8 +3930,8 @@
       </c>
       <c r="D189" s="5"/>
     </row>
-    <row r="190" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A190" s="9"/>
+    <row r="190" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A190" s="12"/>
       <c r="B190" s="1" t="s">
         <v>214</v>
       </c>
@@ -3921,8 +3940,8 @@
       </c>
       <c r="D190" s="5"/>
     </row>
-    <row r="191" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A191" s="9"/>
+    <row r="191" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A191" s="12"/>
       <c r="B191" s="1" t="s">
         <v>215</v>
       </c>
@@ -3931,8 +3950,8 @@
       </c>
       <c r="D191" s="5"/>
     </row>
-    <row r="192" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A192" s="9"/>
+    <row r="192" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A192" s="12"/>
       <c r="B192" s="1" t="s">
         <v>216</v>
       </c>
@@ -3941,8 +3960,8 @@
       </c>
       <c r="D192" s="5"/>
     </row>
-    <row r="193" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A193" s="9"/>
+    <row r="193" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A193" s="12"/>
       <c r="B193" s="1" t="s">
         <v>217</v>
       </c>
@@ -3951,8 +3970,8 @@
       </c>
       <c r="D193" s="5"/>
     </row>
-    <row r="194" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A194" s="9"/>
+    <row r="194" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A194" s="12"/>
       <c r="B194" s="1" t="s">
         <v>218</v>
       </c>
@@ -3961,8 +3980,8 @@
       </c>
       <c r="D194" s="5"/>
     </row>
-    <row r="195" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A195" s="9"/>
+    <row r="195" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A195" s="12"/>
       <c r="B195" s="1" t="s">
         <v>219</v>
       </c>
@@ -3971,8 +3990,8 @@
       </c>
       <c r="D195" s="5"/>
     </row>
-    <row r="196" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A196" s="9"/>
+    <row r="196" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A196" s="12"/>
       <c r="B196" s="1" t="s">
         <v>220</v>
       </c>
@@ -3981,8 +4000,8 @@
       </c>
       <c r="D196" s="5"/>
     </row>
-    <row r="197" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A197" s="9"/>
+    <row r="197" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A197" s="12"/>
       <c r="B197" s="1" t="s">
         <v>221</v>
       </c>
@@ -3991,8 +4010,8 @@
       </c>
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A198" s="9"/>
+    <row r="198" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A198" s="12"/>
       <c r="B198" s="1" t="s">
         <v>222</v>
       </c>
@@ -4001,8 +4020,8 @@
       </c>
       <c r="D198" s="5"/>
     </row>
-    <row r="199" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A199" s="9"/>
+    <row r="199" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A199" s="12"/>
       <c r="B199" s="1" t="s">
         <v>223</v>
       </c>
@@ -4011,8 +4030,8 @@
       </c>
       <c r="D199" s="5"/>
     </row>
-    <row r="200" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A200" s="10"/>
+    <row r="200" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A200" s="13"/>
       <c r="B200" s="1" t="s">
         <v>224</v>
       </c>
@@ -4021,8 +4040,8 @@
       </c>
       <c r="D200" s="5"/>
     </row>
-    <row r="201" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A201" s="8" t="s">
+    <row r="201" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A201" s="11" t="s">
         <v>225</v>
       </c>
       <c r="B201" s="1" t="s">
@@ -4033,8 +4052,8 @@
       </c>
       <c r="D201" s="5"/>
     </row>
-    <row r="202" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A202" s="9"/>
+    <row r="202" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A202" s="12"/>
       <c r="B202" s="1" t="s">
         <v>227</v>
       </c>
@@ -4043,8 +4062,8 @@
       </c>
       <c r="D202" s="5"/>
     </row>
-    <row r="203" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A203" s="9"/>
+    <row r="203" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A203" s="12"/>
       <c r="B203" s="1" t="s">
         <v>228</v>
       </c>
@@ -4053,8 +4072,8 @@
       </c>
       <c r="D203" s="5"/>
     </row>
-    <row r="204" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A204" s="9"/>
+    <row r="204" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A204" s="12"/>
       <c r="B204" s="1" t="s">
         <v>229</v>
       </c>
@@ -4063,8 +4082,8 @@
       </c>
       <c r="D204" s="5"/>
     </row>
-    <row r="205" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A205" s="9"/>
+    <row r="205" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A205" s="12"/>
       <c r="B205" s="1" t="s">
         <v>230</v>
       </c>
@@ -4073,8 +4092,8 @@
       </c>
       <c r="D205" s="5"/>
     </row>
-    <row r="206" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A206" s="9"/>
+    <row r="206" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A206" s="12"/>
       <c r="B206" s="1" t="s">
         <v>231</v>
       </c>
@@ -4083,8 +4102,8 @@
       </c>
       <c r="D206" s="5"/>
     </row>
-    <row r="207" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A207" s="9"/>
+    <row r="207" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A207" s="12"/>
       <c r="B207" s="1" t="s">
         <v>232</v>
       </c>
@@ -4093,8 +4112,8 @@
       </c>
       <c r="D207" s="5"/>
     </row>
-    <row r="208" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A208" s="9"/>
+    <row r="208" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A208" s="12"/>
       <c r="B208" s="1" t="s">
         <v>233</v>
       </c>
@@ -4103,8 +4122,8 @@
       </c>
       <c r="D208" s="5"/>
     </row>
-    <row r="209" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A209" s="9"/>
+    <row r="209" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A209" s="12"/>
       <c r="B209" s="1" t="s">
         <v>234</v>
       </c>
@@ -4113,8 +4132,8 @@
       </c>
       <c r="D209" s="5"/>
     </row>
-    <row r="210" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A210" s="10"/>
+    <row r="210" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A210" s="13"/>
       <c r="B210" s="1" t="s">
         <v>235</v>
       </c>
@@ -4123,7 +4142,7 @@
       </c>
       <c r="D210" s="5"/>
     </row>
-    <row r="211" spans="1:4" ht="25.9" customHeight="1">
+    <row r="211" spans="1:4" ht="25.95" customHeight="1">
       <c r="A211" s="5" t="s">
         <v>236</v>
       </c>
@@ -4135,8 +4154,8 @@
       </c>
       <c r="D211" s="5"/>
     </row>
-    <row r="212" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A212" s="8" t="s">
+    <row r="212" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A212" s="11" t="s">
         <v>238</v>
       </c>
       <c r="B212" s="1" t="s">
@@ -4147,8 +4166,8 @@
       </c>
       <c r="D212" s="5"/>
     </row>
-    <row r="213" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A213" s="9"/>
+    <row r="213" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A213" s="12"/>
       <c r="B213" s="1" t="s">
         <v>240</v>
       </c>
@@ -4157,8 +4176,8 @@
       </c>
       <c r="D213" s="5"/>
     </row>
-    <row r="214" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A214" s="9"/>
+    <row r="214" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A214" s="12"/>
       <c r="B214" s="1" t="s">
         <v>241</v>
       </c>
@@ -4167,8 +4186,8 @@
       </c>
       <c r="D214" s="5"/>
     </row>
-    <row r="215" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A215" s="9"/>
+    <row r="215" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A215" s="12"/>
       <c r="B215" s="1" t="s">
         <v>242</v>
       </c>
@@ -4177,8 +4196,8 @@
       </c>
       <c r="D215" s="5"/>
     </row>
-    <row r="216" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A216" s="9"/>
+    <row r="216" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A216" s="12"/>
       <c r="B216" s="1" t="s">
         <v>243</v>
       </c>
@@ -4187,8 +4206,8 @@
       </c>
       <c r="D216" s="5"/>
     </row>
-    <row r="217" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A217" s="9"/>
+    <row r="217" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A217" s="12"/>
       <c r="B217" s="1" t="s">
         <v>244</v>
       </c>
@@ -4197,8 +4216,8 @@
       </c>
       <c r="D217" s="5"/>
     </row>
-    <row r="218" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A218" s="9"/>
+    <row r="218" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A218" s="12"/>
       <c r="B218" s="1" t="s">
         <v>245</v>
       </c>
@@ -4207,8 +4226,8 @@
       </c>
       <c r="D218" s="5"/>
     </row>
-    <row r="219" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A219" s="9"/>
+    <row r="219" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A219" s="12"/>
       <c r="B219" s="1" t="s">
         <v>246</v>
       </c>
@@ -4217,8 +4236,8 @@
       </c>
       <c r="D219" s="5"/>
     </row>
-    <row r="220" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A220" s="9"/>
+    <row r="220" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A220" s="12"/>
       <c r="B220" s="1" t="s">
         <v>247</v>
       </c>
@@ -4227,8 +4246,8 @@
       </c>
       <c r="D220" s="5"/>
     </row>
-    <row r="221" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A221" s="9"/>
+    <row r="221" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A221" s="12"/>
       <c r="B221" s="1" t="s">
         <v>248</v>
       </c>
@@ -4237,8 +4256,8 @@
       </c>
       <c r="D221" s="5"/>
     </row>
-    <row r="222" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A222" s="9"/>
+    <row r="222" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A222" s="12"/>
       <c r="B222" s="1" t="s">
         <v>249</v>
       </c>
@@ -4247,8 +4266,8 @@
       </c>
       <c r="D222" s="5"/>
     </row>
-    <row r="223" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A223" s="9"/>
+    <row r="223" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A223" s="12"/>
       <c r="B223" s="1" t="s">
         <v>250</v>
       </c>
@@ -4257,8 +4276,8 @@
       </c>
       <c r="D223" s="5"/>
     </row>
-    <row r="224" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A224" s="9"/>
+    <row r="224" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A224" s="12"/>
       <c r="B224" s="1" t="s">
         <v>251</v>
       </c>
@@ -4267,8 +4286,8 @@
       </c>
       <c r="D224" s="5"/>
     </row>
-    <row r="225" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A225" s="9"/>
+    <row r="225" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A225" s="12"/>
       <c r="B225" s="1" t="s">
         <v>252</v>
       </c>
@@ -4277,8 +4296,8 @@
       </c>
       <c r="D225" s="5"/>
     </row>
-    <row r="226" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A226" s="9"/>
+    <row r="226" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A226" s="12"/>
       <c r="B226" s="1" t="s">
         <v>253</v>
       </c>
@@ -4287,8 +4306,8 @@
       </c>
       <c r="D226" s="5"/>
     </row>
-    <row r="227" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A227" s="9"/>
+    <row r="227" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A227" s="12"/>
       <c r="B227" s="1" t="s">
         <v>254</v>
       </c>
@@ -4297,8 +4316,8 @@
       </c>
       <c r="D227" s="5"/>
     </row>
-    <row r="228" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A228" s="9"/>
+    <row r="228" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A228" s="12"/>
       <c r="B228" s="1" t="s">
         <v>255</v>
       </c>
@@ -4307,8 +4326,8 @@
       </c>
       <c r="D228" s="5"/>
     </row>
-    <row r="229" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A229" s="9"/>
+    <row r="229" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A229" s="12"/>
       <c r="B229" s="1" t="s">
         <v>256</v>
       </c>
@@ -4317,8 +4336,8 @@
       </c>
       <c r="D229" s="5"/>
     </row>
-    <row r="230" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A230" s="9"/>
+    <row r="230" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A230" s="12"/>
       <c r="B230" s="1" t="s">
         <v>257</v>
       </c>
@@ -4327,8 +4346,8 @@
       </c>
       <c r="D230" s="5"/>
     </row>
-    <row r="231" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A231" s="9"/>
+    <row r="231" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A231" s="12"/>
       <c r="B231" s="1" t="s">
         <v>258</v>
       </c>
@@ -4337,8 +4356,8 @@
       </c>
       <c r="D231" s="5"/>
     </row>
-    <row r="232" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A232" s="9"/>
+    <row r="232" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A232" s="12"/>
       <c r="B232" s="1" t="s">
         <v>259</v>
       </c>
@@ -4347,8 +4366,8 @@
       </c>
       <c r="D232" s="5"/>
     </row>
-    <row r="233" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A233" s="10"/>
+    <row r="233" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A233" s="13"/>
       <c r="B233" s="1" t="s">
         <v>260</v>
       </c>
@@ -4357,8 +4376,8 @@
       </c>
       <c r="D233" s="5"/>
     </row>
-    <row r="234" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A234" s="8" t="s">
+    <row r="234" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A234" s="11" t="s">
         <v>261</v>
       </c>
       <c r="B234" s="1" t="s">
@@ -4369,8 +4388,8 @@
       </c>
       <c r="D234" s="5"/>
     </row>
-    <row r="235" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A235" s="9"/>
+    <row r="235" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A235" s="12"/>
       <c r="B235" s="1" t="s">
         <v>263</v>
       </c>
@@ -4379,8 +4398,8 @@
       </c>
       <c r="D235" s="5"/>
     </row>
-    <row r="236" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A236" s="9"/>
+    <row r="236" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A236" s="12"/>
       <c r="B236" s="1" t="s">
         <v>264</v>
       </c>
@@ -4389,8 +4408,8 @@
       </c>
       <c r="D236" s="5"/>
     </row>
-    <row r="237" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A237" s="9"/>
+    <row r="237" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A237" s="12"/>
       <c r="B237" s="1" t="s">
         <v>265</v>
       </c>
@@ -4399,8 +4418,8 @@
       </c>
       <c r="D237" s="5"/>
     </row>
-    <row r="238" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A238" s="10"/>
+    <row r="238" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A238" s="13"/>
       <c r="B238" s="1" t="s">
         <v>266</v>
       </c>
@@ -4409,8 +4428,8 @@
       </c>
       <c r="D238" s="5"/>
     </row>
-    <row r="239" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A239" s="8" t="s">
+    <row r="239" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A239" s="11" t="s">
         <v>267</v>
       </c>
       <c r="B239" s="1" t="s">
@@ -4421,8 +4440,8 @@
       </c>
       <c r="D239" s="5"/>
     </row>
-    <row r="240" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A240" s="9"/>
+    <row r="240" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A240" s="12"/>
       <c r="B240" s="1" t="s">
         <v>269</v>
       </c>
@@ -4431,8 +4450,8 @@
       </c>
       <c r="D240" s="5"/>
     </row>
-    <row r="241" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A241" s="9"/>
+    <row r="241" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A241" s="12"/>
       <c r="B241" s="1" t="s">
         <v>270</v>
       </c>
@@ -4441,8 +4460,8 @@
       </c>
       <c r="D241" s="5"/>
     </row>
-    <row r="242" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A242" s="9"/>
+    <row r="242" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A242" s="12"/>
       <c r="B242" s="1" t="s">
         <v>271</v>
       </c>
@@ -4451,8 +4470,8 @@
       </c>
       <c r="D242" s="5"/>
     </row>
-    <row r="243" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A243" s="9"/>
+    <row r="243" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A243" s="12"/>
       <c r="B243" s="1" t="s">
         <v>272</v>
       </c>
@@ -4461,8 +4480,8 @@
       </c>
       <c r="D243" s="5"/>
     </row>
-    <row r="244" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A244" s="10"/>
+    <row r="244" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A244" s="13"/>
       <c r="B244" s="1" t="s">
         <v>273</v>
       </c>
@@ -4471,8 +4490,8 @@
       </c>
       <c r="D244" s="5"/>
     </row>
-    <row r="245" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A245" s="8" t="s">
+    <row r="245" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A245" s="11" t="s">
         <v>274</v>
       </c>
       <c r="B245" s="1" t="s">
@@ -4483,8 +4502,8 @@
       </c>
       <c r="D245" s="5"/>
     </row>
-    <row r="246" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A246" s="10"/>
+    <row r="246" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A246" s="13"/>
       <c r="B246" s="1" t="s">
         <v>276</v>
       </c>
@@ -4493,8 +4512,8 @@
       </c>
       <c r="D246" s="5"/>
     </row>
-    <row r="247" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A247" s="8" t="s">
+    <row r="247" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A247" s="11" t="s">
         <v>277</v>
       </c>
       <c r="B247" s="1" t="s">
@@ -4505,8 +4524,8 @@
       </c>
       <c r="D247" s="5"/>
     </row>
-    <row r="248" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A248" s="9"/>
+    <row r="248" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A248" s="12"/>
       <c r="B248" s="1" t="s">
         <v>279</v>
       </c>
@@ -4515,8 +4534,8 @@
       </c>
       <c r="D248" s="5"/>
     </row>
-    <row r="249" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A249" s="9"/>
+    <row r="249" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A249" s="12"/>
       <c r="B249" s="1" t="s">
         <v>280</v>
       </c>
@@ -4525,8 +4544,8 @@
       </c>
       <c r="D249" s="5"/>
     </row>
-    <row r="250" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A250" s="9"/>
+    <row r="250" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A250" s="12"/>
       <c r="B250" s="1" t="s">
         <v>281</v>
       </c>
@@ -4535,8 +4554,8 @@
       </c>
       <c r="D250" s="5"/>
     </row>
-    <row r="251" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A251" s="9"/>
+    <row r="251" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A251" s="12"/>
       <c r="B251" s="1" t="s">
         <v>282</v>
       </c>
@@ -4545,8 +4564,8 @@
       </c>
       <c r="D251" s="5"/>
     </row>
-    <row r="252" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A252" s="9"/>
+    <row r="252" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A252" s="12"/>
       <c r="B252" s="1" t="s">
         <v>283</v>
       </c>
@@ -4555,8 +4574,8 @@
       </c>
       <c r="D252" s="5"/>
     </row>
-    <row r="253" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A253" s="9"/>
+    <row r="253" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A253" s="12"/>
       <c r="B253" s="1" t="s">
         <v>284</v>
       </c>
@@ -4565,8 +4584,8 @@
       </c>
       <c r="D253" s="5"/>
     </row>
-    <row r="254" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A254" s="9"/>
+    <row r="254" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A254" s="12"/>
       <c r="B254" s="1" t="s">
         <v>285</v>
       </c>
@@ -4575,8 +4594,8 @@
       </c>
       <c r="D254" s="5"/>
     </row>
-    <row r="255" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A255" s="10"/>
+    <row r="255" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A255" s="13"/>
       <c r="B255" s="1" t="s">
         <v>286</v>
       </c>
@@ -4585,8 +4604,8 @@
       </c>
       <c r="D255" s="5"/>
     </row>
-    <row r="256" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A256" s="8" t="s">
+    <row r="256" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A256" s="11" t="s">
         <v>287</v>
       </c>
       <c r="B256" s="1" t="s">
@@ -4597,8 +4616,8 @@
       </c>
       <c r="D256" s="5"/>
     </row>
-    <row r="257" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A257" s="9"/>
+    <row r="257" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A257" s="12"/>
       <c r="B257" s="1" t="s">
         <v>289</v>
       </c>
@@ -4607,8 +4626,8 @@
       </c>
       <c r="D257" s="5"/>
     </row>
-    <row r="258" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A258" s="10"/>
+    <row r="258" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A258" s="13"/>
       <c r="B258" s="1" t="s">
         <v>290</v>
       </c>
@@ -4617,8 +4636,8 @@
       </c>
       <c r="D258" s="5"/>
     </row>
-    <row r="259" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A259" s="8" t="s">
+    <row r="259" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A259" s="11" t="s">
         <v>291</v>
       </c>
       <c r="B259" s="1" t="s">
@@ -4629,8 +4648,8 @@
       </c>
       <c r="D259" s="5"/>
     </row>
-    <row r="260" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A260" s="9"/>
+    <row r="260" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A260" s="12"/>
       <c r="B260" s="1" t="s">
         <v>293</v>
       </c>
@@ -4639,8 +4658,8 @@
       </c>
       <c r="D260" s="5"/>
     </row>
-    <row r="261" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A261" s="9"/>
+    <row r="261" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A261" s="12"/>
       <c r="B261" s="1" t="s">
         <v>294</v>
       </c>
@@ -4649,8 +4668,8 @@
       </c>
       <c r="D261" s="5"/>
     </row>
-    <row r="262" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A262" s="9"/>
+    <row r="262" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A262" s="12"/>
       <c r="B262" s="1" t="s">
         <v>295</v>
       </c>
@@ -4659,8 +4678,8 @@
       </c>
       <c r="D262" s="5"/>
     </row>
-    <row r="263" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A263" s="9"/>
+    <row r="263" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A263" s="12"/>
       <c r="B263" s="1" t="s">
         <v>296</v>
       </c>
@@ -4669,8 +4688,8 @@
       </c>
       <c r="D263" s="5"/>
     </row>
-    <row r="264" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A264" s="10"/>
+    <row r="264" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A264" s="13"/>
       <c r="B264" s="1" t="s">
         <v>297</v>
       </c>
@@ -4679,8 +4698,8 @@
       </c>
       <c r="D264" s="5"/>
     </row>
-    <row r="265" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A265" s="8" t="s">
+    <row r="265" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A265" s="11" t="s">
         <v>298</v>
       </c>
       <c r="B265" s="1" t="s">
@@ -4691,8 +4710,8 @@
       </c>
       <c r="D265" s="5"/>
     </row>
-    <row r="266" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A266" s="9"/>
+    <row r="266" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A266" s="12"/>
       <c r="B266" s="1" t="s">
         <v>300</v>
       </c>
@@ -4701,8 +4720,8 @@
       </c>
       <c r="D266" s="5"/>
     </row>
-    <row r="267" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A267" s="9"/>
+    <row r="267" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A267" s="12"/>
       <c r="B267" s="1" t="s">
         <v>301</v>
       </c>
@@ -4711,8 +4730,8 @@
       </c>
       <c r="D267" s="5"/>
     </row>
-    <row r="268" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A268" s="9"/>
+    <row r="268" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A268" s="12"/>
       <c r="B268" s="1" t="s">
         <v>302</v>
       </c>
@@ -4721,8 +4740,8 @@
       </c>
       <c r="D268" s="5"/>
     </row>
-    <row r="269" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A269" s="10"/>
+    <row r="269" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A269" s="13"/>
       <c r="B269" s="1" t="s">
         <v>303</v>
       </c>
@@ -4731,8 +4750,8 @@
       </c>
       <c r="D269" s="5"/>
     </row>
-    <row r="270" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A270" s="8" t="s">
+    <row r="270" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A270" s="11" t="s">
         <v>304</v>
       </c>
       <c r="B270" s="1" t="s">
@@ -4743,8 +4762,8 @@
       </c>
       <c r="D270" s="5"/>
     </row>
-    <row r="271" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A271" s="9"/>
+    <row r="271" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A271" s="12"/>
       <c r="B271" s="1" t="s">
         <v>306</v>
       </c>
@@ -4753,8 +4772,8 @@
       </c>
       <c r="D271" s="5"/>
     </row>
-    <row r="272" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A272" s="9"/>
+    <row r="272" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A272" s="12"/>
       <c r="B272" s="1" t="s">
         <v>307</v>
       </c>
@@ -4763,8 +4782,8 @@
       </c>
       <c r="D272" s="5"/>
     </row>
-    <row r="273" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A273" s="9"/>
+    <row r="273" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A273" s="12"/>
       <c r="B273" s="1" t="s">
         <v>308</v>
       </c>
@@ -4773,8 +4792,8 @@
       </c>
       <c r="D273" s="5"/>
     </row>
-    <row r="274" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A274" s="9"/>
+    <row r="274" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A274" s="12"/>
       <c r="B274" s="1" t="s">
         <v>309</v>
       </c>
@@ -4783,8 +4802,8 @@
       </c>
       <c r="D274" s="5"/>
     </row>
-    <row r="275" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A275" s="9"/>
+    <row r="275" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A275" s="12"/>
       <c r="B275" s="1" t="s">
         <v>310</v>
       </c>
@@ -4793,8 +4812,8 @@
       </c>
       <c r="D275" s="5"/>
     </row>
-    <row r="276" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A276" s="9"/>
+    <row r="276" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A276" s="12"/>
       <c r="B276" s="1" t="s">
         <v>311</v>
       </c>
@@ -4803,8 +4822,8 @@
       </c>
       <c r="D276" s="5"/>
     </row>
-    <row r="277" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A277" s="9"/>
+    <row r="277" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A277" s="12"/>
       <c r="B277" s="1" t="s">
         <v>312</v>
       </c>
@@ -4813,8 +4832,8 @@
       </c>
       <c r="D277" s="5"/>
     </row>
-    <row r="278" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A278" s="9"/>
+    <row r="278" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A278" s="12"/>
       <c r="B278" s="1" t="s">
         <v>313</v>
       </c>
@@ -4823,8 +4842,8 @@
       </c>
       <c r="D278" s="5"/>
     </row>
-    <row r="279" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A279" s="10"/>
+    <row r="279" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A279" s="13"/>
       <c r="B279" s="1" t="s">
         <v>314</v>
       </c>
@@ -4833,8 +4852,8 @@
       </c>
       <c r="D279" s="5"/>
     </row>
-    <row r="280" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A280" s="8" t="s">
+    <row r="280" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A280" s="11" t="s">
         <v>315</v>
       </c>
       <c r="B280" s="1" t="s">
@@ -4845,8 +4864,8 @@
       </c>
       <c r="D280" s="5"/>
     </row>
-    <row r="281" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A281" s="10"/>
+    <row r="281" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A281" s="13"/>
       <c r="B281" s="1" t="s">
         <v>317</v>
       </c>
@@ -4855,8 +4874,8 @@
       </c>
       <c r="D281" s="5"/>
     </row>
-    <row r="282" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A282" s="8" t="s">
+    <row r="282" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A282" s="11" t="s">
         <v>318</v>
       </c>
       <c r="B282" s="1" t="s">
@@ -4867,8 +4886,8 @@
       </c>
       <c r="D282" s="5"/>
     </row>
-    <row r="283" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A283" s="9"/>
+    <row r="283" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A283" s="12"/>
       <c r="B283" s="1" t="s">
         <v>320</v>
       </c>
@@ -4877,8 +4896,8 @@
       </c>
       <c r="D283" s="5"/>
     </row>
-    <row r="284" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A284" s="9"/>
+    <row r="284" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A284" s="12"/>
       <c r="B284" s="1" t="s">
         <v>321</v>
       </c>
@@ -4887,8 +4906,8 @@
       </c>
       <c r="D284" s="5"/>
     </row>
-    <row r="285" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A285" s="9"/>
+    <row r="285" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A285" s="12"/>
       <c r="B285" s="1" t="s">
         <v>322</v>
       </c>
@@ -4897,8 +4916,8 @@
       </c>
       <c r="D285" s="5"/>
     </row>
-    <row r="286" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A286" s="9"/>
+    <row r="286" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A286" s="12"/>
       <c r="B286" s="1" t="s">
         <v>323</v>
       </c>
@@ -4907,8 +4926,8 @@
       </c>
       <c r="D286" s="5"/>
     </row>
-    <row r="287" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A287" s="9"/>
+    <row r="287" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A287" s="12"/>
       <c r="B287" s="1" t="s">
         <v>324</v>
       </c>
@@ -4917,8 +4936,8 @@
       </c>
       <c r="D287" s="5"/>
     </row>
-    <row r="288" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A288" s="9"/>
+    <row r="288" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A288" s="12"/>
       <c r="B288" s="1" t="s">
         <v>325</v>
       </c>
@@ -4927,8 +4946,8 @@
       </c>
       <c r="D288" s="5"/>
     </row>
-    <row r="289" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A289" s="9"/>
+    <row r="289" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A289" s="12"/>
       <c r="B289" s="1" t="s">
         <v>326</v>
       </c>
@@ -4937,8 +4956,8 @@
       </c>
       <c r="D289" s="5"/>
     </row>
-    <row r="290" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A290" s="9"/>
+    <row r="290" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A290" s="12"/>
       <c r="B290" s="1" t="s">
         <v>327</v>
       </c>
@@ -4947,8 +4966,8 @@
       </c>
       <c r="D290" s="5"/>
     </row>
-    <row r="291" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A291" s="10"/>
+    <row r="291" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A291" s="13"/>
       <c r="B291" s="1" t="s">
         <v>328</v>
       </c>
@@ -4957,8 +4976,8 @@
       </c>
       <c r="D291" s="5"/>
     </row>
-    <row r="292" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A292" s="8" t="s">
+    <row r="292" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A292" s="11" t="s">
         <v>329</v>
       </c>
       <c r="B292" s="1" t="s">
@@ -4969,8 +4988,8 @@
       </c>
       <c r="D292" s="5"/>
     </row>
-    <row r="293" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A293" s="9"/>
+    <row r="293" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A293" s="12"/>
       <c r="B293" s="1" t="s">
         <v>331</v>
       </c>
@@ -4979,8 +4998,8 @@
       </c>
       <c r="D293" s="5"/>
     </row>
-    <row r="294" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A294" s="9"/>
+    <row r="294" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A294" s="12"/>
       <c r="B294" s="1" t="s">
         <v>332</v>
       </c>
@@ -4989,8 +5008,8 @@
       </c>
       <c r="D294" s="5"/>
     </row>
-    <row r="295" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A295" s="9"/>
+    <row r="295" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A295" s="12"/>
       <c r="B295" s="1" t="s">
         <v>333</v>
       </c>
@@ -4999,8 +5018,8 @@
       </c>
       <c r="D295" s="5"/>
     </row>
-    <row r="296" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A296" s="9"/>
+    <row r="296" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A296" s="12"/>
       <c r="B296" s="1" t="s">
         <v>334</v>
       </c>
@@ -5009,8 +5028,8 @@
       </c>
       <c r="D296" s="5"/>
     </row>
-    <row r="297" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A297" s="9"/>
+    <row r="297" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A297" s="12"/>
       <c r="B297" s="1" t="s">
         <v>335</v>
       </c>
@@ -5019,8 +5038,8 @@
       </c>
       <c r="D297" s="5"/>
     </row>
-    <row r="298" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A298" s="9"/>
+    <row r="298" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A298" s="12"/>
       <c r="B298" s="1" t="s">
         <v>336</v>
       </c>
@@ -5029,8 +5048,8 @@
       </c>
       <c r="D298" s="5"/>
     </row>
-    <row r="299" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A299" s="9"/>
+    <row r="299" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A299" s="12"/>
       <c r="B299" s="1" t="s">
         <v>337</v>
       </c>
@@ -5039,8 +5058,8 @@
       </c>
       <c r="D299" s="5"/>
     </row>
-    <row r="300" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A300" s="9"/>
+    <row r="300" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A300" s="12"/>
       <c r="B300" s="1" t="s">
         <v>338</v>
       </c>
@@ -5049,8 +5068,8 @@
       </c>
       <c r="D300" s="5"/>
     </row>
-    <row r="301" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A301" s="9"/>
+    <row r="301" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A301" s="12"/>
       <c r="B301" s="1" t="s">
         <v>339</v>
       </c>
@@ -5059,8 +5078,8 @@
       </c>
       <c r="D301" s="5"/>
     </row>
-    <row r="302" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A302" s="9"/>
+    <row r="302" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A302" s="12"/>
       <c r="B302" s="1" t="s">
         <v>340</v>
       </c>
@@ -5069,8 +5088,8 @@
       </c>
       <c r="D302" s="5"/>
     </row>
-    <row r="303" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A303" s="9"/>
+    <row r="303" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A303" s="12"/>
       <c r="B303" s="1" t="s">
         <v>341</v>
       </c>
@@ -5079,8 +5098,8 @@
       </c>
       <c r="D303" s="5"/>
     </row>
-    <row r="304" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A304" s="9"/>
+    <row r="304" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A304" s="12"/>
       <c r="B304" s="1" t="s">
         <v>342</v>
       </c>
@@ -5089,8 +5108,8 @@
       </c>
       <c r="D304" s="5"/>
     </row>
-    <row r="305" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A305" s="9"/>
+    <row r="305" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A305" s="12"/>
       <c r="B305" s="1" t="s">
         <v>343</v>
       </c>
@@ -5099,8 +5118,8 @@
       </c>
       <c r="D305" s="5"/>
     </row>
-    <row r="306" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A306" s="9"/>
+    <row r="306" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A306" s="12"/>
       <c r="B306" s="1" t="s">
         <v>344</v>
       </c>
@@ -5109,8 +5128,8 @@
       </c>
       <c r="D306" s="5"/>
     </row>
-    <row r="307" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A307" s="9"/>
+    <row r="307" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A307" s="12"/>
       <c r="B307" s="1" t="s">
         <v>345</v>
       </c>
@@ -5119,8 +5138,8 @@
       </c>
       <c r="D307" s="5"/>
     </row>
-    <row r="308" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A308" s="9"/>
+    <row r="308" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A308" s="12"/>
       <c r="B308" s="1" t="s">
         <v>346</v>
       </c>
@@ -5129,8 +5148,8 @@
       </c>
       <c r="D308" s="5"/>
     </row>
-    <row r="309" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A309" s="9"/>
+    <row r="309" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A309" s="12"/>
       <c r="B309" s="1" t="s">
         <v>347</v>
       </c>
@@ -5139,8 +5158,8 @@
       </c>
       <c r="D309" s="5"/>
     </row>
-    <row r="310" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A310" s="9"/>
+    <row r="310" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A310" s="12"/>
       <c r="B310" s="1" t="s">
         <v>348</v>
       </c>
@@ -5149,8 +5168,8 @@
       </c>
       <c r="D310" s="5"/>
     </row>
-    <row r="311" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A311" s="9"/>
+    <row r="311" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A311" s="12"/>
       <c r="B311" s="1" t="s">
         <v>349</v>
       </c>
@@ -5159,8 +5178,8 @@
       </c>
       <c r="D311" s="5"/>
     </row>
-    <row r="312" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A312" s="10"/>
+    <row r="312" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A312" s="13"/>
       <c r="B312" s="1" t="s">
         <v>350</v>
       </c>
@@ -5169,7 +5188,7 @@
       </c>
       <c r="D312" s="5"/>
     </row>
-    <row r="313" spans="1:4" ht="25.9" customHeight="1">
+    <row r="313" spans="1:4" ht="25.95" customHeight="1">
       <c r="A313" s="5" t="s">
         <v>351</v>
       </c>
@@ -5181,8 +5200,8 @@
       </c>
       <c r="D313" s="5"/>
     </row>
-    <row r="314" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A314" s="8" t="s">
+    <row r="314" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A314" s="11" t="s">
         <v>353</v>
       </c>
       <c r="B314" s="1" t="s">
@@ -5193,8 +5212,8 @@
       </c>
       <c r="D314" s="5"/>
     </row>
-    <row r="315" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A315" s="9"/>
+    <row r="315" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A315" s="12"/>
       <c r="B315" s="1" t="s">
         <v>355</v>
       </c>
@@ -5203,8 +5222,8 @@
       </c>
       <c r="D315" s="5"/>
     </row>
-    <row r="316" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A316" s="9"/>
+    <row r="316" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A316" s="12"/>
       <c r="B316" s="1" t="s">
         <v>356</v>
       </c>
@@ -5213,8 +5232,8 @@
       </c>
       <c r="D316" s="5"/>
     </row>
-    <row r="317" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A317" s="9"/>
+    <row r="317" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A317" s="12"/>
       <c r="B317" s="1" t="s">
         <v>357</v>
       </c>
@@ -5223,8 +5242,8 @@
       </c>
       <c r="D317" s="5"/>
     </row>
-    <row r="318" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A318" s="9"/>
+    <row r="318" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A318" s="12"/>
       <c r="B318" s="1" t="s">
         <v>358</v>
       </c>
@@ -5233,8 +5252,8 @@
       </c>
       <c r="D318" s="5"/>
     </row>
-    <row r="319" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A319" s="9"/>
+    <row r="319" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A319" s="12"/>
       <c r="B319" s="1" t="s">
         <v>359</v>
       </c>
@@ -5243,8 +5262,8 @@
       </c>
       <c r="D319" s="5"/>
     </row>
-    <row r="320" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A320" s="9"/>
+    <row r="320" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A320" s="12"/>
       <c r="B320" s="1" t="s">
         <v>360</v>
       </c>
@@ -5253,8 +5272,8 @@
       </c>
       <c r="D320" s="5"/>
     </row>
-    <row r="321" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A321" s="10"/>
+    <row r="321" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A321" s="13"/>
       <c r="B321" s="1" t="s">
         <v>361</v>
       </c>
@@ -5263,7 +5282,7 @@
       </c>
       <c r="D321" s="5"/>
     </row>
-    <row r="322" spans="1:4" ht="25.9" customHeight="1">
+    <row r="322" spans="1:4" ht="25.95" customHeight="1">
       <c r="A322" s="5" t="s">
         <v>362</v>
       </c>
@@ -5275,8 +5294,8 @@
       </c>
       <c r="D322" s="5"/>
     </row>
-    <row r="323" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A323" s="8" t="s">
+    <row r="323" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A323" s="11" t="s">
         <v>364</v>
       </c>
       <c r="B323" s="1" t="s">
@@ -5287,8 +5306,8 @@
       </c>
       <c r="D323" s="5"/>
     </row>
-    <row r="324" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A324" s="9"/>
+    <row r="324" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A324" s="12"/>
       <c r="B324" s="1" t="s">
         <v>366</v>
       </c>
@@ -5297,8 +5316,8 @@
       </c>
       <c r="D324" s="5"/>
     </row>
-    <row r="325" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A325" s="9"/>
+    <row r="325" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A325" s="12"/>
       <c r="B325" s="1" t="s">
         <v>367</v>
       </c>
@@ -5307,8 +5326,8 @@
       </c>
       <c r="D325" s="5"/>
     </row>
-    <row r="326" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A326" s="9"/>
+    <row r="326" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A326" s="12"/>
       <c r="B326" s="1" t="s">
         <v>368</v>
       </c>
@@ -5317,8 +5336,8 @@
       </c>
       <c r="D326" s="5"/>
     </row>
-    <row r="327" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A327" s="9"/>
+    <row r="327" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A327" s="12"/>
       <c r="B327" s="1" t="s">
         <v>369</v>
       </c>
@@ -5327,8 +5346,8 @@
       </c>
       <c r="D327" s="5"/>
     </row>
-    <row r="328" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A328" s="10"/>
+    <row r="328" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A328" s="13"/>
       <c r="B328" s="1" t="s">
         <v>370</v>
       </c>
@@ -5337,8 +5356,8 @@
       </c>
       <c r="D328" s="5"/>
     </row>
-    <row r="329" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A329" s="8" t="s">
+    <row r="329" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A329" s="11" t="s">
         <v>371</v>
       </c>
       <c r="B329" s="1" t="s">
@@ -5349,8 +5368,8 @@
       </c>
       <c r="D329" s="5"/>
     </row>
-    <row r="330" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A330" s="9"/>
+    <row r="330" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A330" s="12"/>
       <c r="B330" s="1" t="s">
         <v>373</v>
       </c>
@@ -5359,8 +5378,8 @@
       </c>
       <c r="D330" s="5"/>
     </row>
-    <row r="331" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A331" s="9"/>
+    <row r="331" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A331" s="12"/>
       <c r="B331" s="1" t="s">
         <v>374</v>
       </c>
@@ -5369,8 +5388,8 @@
       </c>
       <c r="D331" s="5"/>
     </row>
-    <row r="332" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A332" s="9"/>
+    <row r="332" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A332" s="12"/>
       <c r="B332" s="1" t="s">
         <v>375</v>
       </c>
@@ -5379,8 +5398,8 @@
       </c>
       <c r="D332" s="5"/>
     </row>
-    <row r="333" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A333" s="9"/>
+    <row r="333" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A333" s="12"/>
       <c r="B333" s="1" t="s">
         <v>376</v>
       </c>
@@ -5389,8 +5408,8 @@
       </c>
       <c r="D333" s="5"/>
     </row>
-    <row r="334" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A334" s="9"/>
+    <row r="334" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A334" s="12"/>
       <c r="B334" s="1" t="s">
         <v>377</v>
       </c>
@@ -5399,8 +5418,8 @@
       </c>
       <c r="D334" s="5"/>
     </row>
-    <row r="335" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A335" s="9"/>
+    <row r="335" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A335" s="12"/>
       <c r="B335" s="1" t="s">
         <v>378</v>
       </c>
@@ -5409,8 +5428,8 @@
       </c>
       <c r="D335" s="5"/>
     </row>
-    <row r="336" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A336" s="9"/>
+    <row r="336" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A336" s="12"/>
       <c r="B336" s="1" t="s">
         <v>379</v>
       </c>
@@ -5419,8 +5438,8 @@
       </c>
       <c r="D336" s="5"/>
     </row>
-    <row r="337" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A337" s="9"/>
+    <row r="337" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A337" s="12"/>
       <c r="B337" s="1" t="s">
         <v>380</v>
       </c>
@@ -5429,8 +5448,8 @@
       </c>
       <c r="D337" s="5"/>
     </row>
-    <row r="338" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A338" s="9"/>
+    <row r="338" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A338" s="12"/>
       <c r="B338" s="1" t="s">
         <v>381</v>
       </c>
@@ -5439,8 +5458,8 @@
       </c>
       <c r="D338" s="5"/>
     </row>
-    <row r="339" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A339" s="9"/>
+    <row r="339" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A339" s="12"/>
       <c r="B339" s="1" t="s">
         <v>382</v>
       </c>
@@ -5449,8 +5468,8 @@
       </c>
       <c r="D339" s="5"/>
     </row>
-    <row r="340" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A340" s="9"/>
+    <row r="340" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A340" s="12"/>
       <c r="B340" s="1" t="s">
         <v>383</v>
       </c>
@@ -5459,8 +5478,8 @@
       </c>
       <c r="D340" s="5"/>
     </row>
-    <row r="341" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A341" s="9"/>
+    <row r="341" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A341" s="12"/>
       <c r="B341" s="1" t="s">
         <v>384</v>
       </c>
@@ -5469,8 +5488,8 @@
       </c>
       <c r="D341" s="5"/>
     </row>
-    <row r="342" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A342" s="9"/>
+    <row r="342" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A342" s="12"/>
       <c r="B342" s="1" t="s">
         <v>385</v>
       </c>
@@ -5479,8 +5498,8 @@
       </c>
       <c r="D342" s="5"/>
     </row>
-    <row r="343" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A343" s="9"/>
+    <row r="343" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A343" s="12"/>
       <c r="B343" s="1" t="s">
         <v>386</v>
       </c>
@@ -5489,8 +5508,8 @@
       </c>
       <c r="D343" s="5"/>
     </row>
-    <row r="344" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A344" s="9"/>
+    <row r="344" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A344" s="12"/>
       <c r="B344" s="1" t="s">
         <v>387</v>
       </c>
@@ -5499,8 +5518,8 @@
       </c>
       <c r="D344" s="5"/>
     </row>
-    <row r="345" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A345" s="9"/>
+    <row r="345" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A345" s="12"/>
       <c r="B345" s="1" t="s">
         <v>388</v>
       </c>
@@ -5509,8 +5528,8 @@
       </c>
       <c r="D345" s="5"/>
     </row>
-    <row r="346" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A346" s="9"/>
+    <row r="346" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A346" s="12"/>
       <c r="B346" s="1" t="s">
         <v>389</v>
       </c>
@@ -5519,8 +5538,8 @@
       </c>
       <c r="D346" s="5"/>
     </row>
-    <row r="347" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A347" s="9"/>
+    <row r="347" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A347" s="12"/>
       <c r="B347" s="1" t="s">
         <v>390</v>
       </c>
@@ -5529,8 +5548,8 @@
       </c>
       <c r="D347" s="5"/>
     </row>
-    <row r="348" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A348" s="9"/>
+    <row r="348" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A348" s="12"/>
       <c r="B348" s="1" t="s">
         <v>391</v>
       </c>
@@ -5539,8 +5558,8 @@
       </c>
       <c r="D348" s="5"/>
     </row>
-    <row r="349" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A349" s="9"/>
+    <row r="349" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A349" s="12"/>
       <c r="B349" s="1" t="s">
         <v>392</v>
       </c>
@@ -5549,8 +5568,8 @@
       </c>
       <c r="D349" s="5"/>
     </row>
-    <row r="350" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A350" s="9"/>
+    <row r="350" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A350" s="12"/>
       <c r="B350" s="1" t="s">
         <v>393</v>
       </c>
@@ -5559,8 +5578,8 @@
       </c>
       <c r="D350" s="5"/>
     </row>
-    <row r="351" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A351" s="9"/>
+    <row r="351" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A351" s="12"/>
       <c r="B351" s="1" t="s">
         <v>394</v>
       </c>
@@ -5569,8 +5588,8 @@
       </c>
       <c r="D351" s="5"/>
     </row>
-    <row r="352" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A352" s="9"/>
+    <row r="352" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A352" s="12"/>
       <c r="B352" s="1" t="s">
         <v>395</v>
       </c>
@@ -5579,8 +5598,8 @@
       </c>
       <c r="D352" s="5"/>
     </row>
-    <row r="353" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A353" s="9"/>
+    <row r="353" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A353" s="12"/>
       <c r="B353" s="1" t="s">
         <v>396</v>
       </c>
@@ -5589,8 +5608,8 @@
       </c>
       <c r="D353" s="5"/>
     </row>
-    <row r="354" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A354" s="9"/>
+    <row r="354" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A354" s="12"/>
       <c r="B354" s="1" t="s">
         <v>397</v>
       </c>
@@ -5599,8 +5618,8 @@
       </c>
       <c r="D354" s="5"/>
     </row>
-    <row r="355" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A355" s="9"/>
+    <row r="355" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A355" s="12"/>
       <c r="B355" s="1" t="s">
         <v>398</v>
       </c>
@@ -5609,8 +5628,8 @@
       </c>
       <c r="D355" s="5"/>
     </row>
-    <row r="356" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A356" s="9"/>
+    <row r="356" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A356" s="12"/>
       <c r="B356" s="1" t="s">
         <v>399</v>
       </c>
@@ -5619,8 +5638,8 @@
       </c>
       <c r="D356" s="5"/>
     </row>
-    <row r="357" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A357" s="9"/>
+    <row r="357" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A357" s="12"/>
       <c r="B357" s="1" t="s">
         <v>400</v>
       </c>
@@ -5629,8 +5648,8 @@
       </c>
       <c r="D357" s="5"/>
     </row>
-    <row r="358" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A358" s="10"/>
+    <row r="358" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A358" s="13"/>
       <c r="B358" s="1" t="s">
         <v>401</v>
       </c>
@@ -5641,33 +5660,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A90:A97"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="A25:A52"/>
-    <mergeCell ref="A53:A62"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A68:A74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A83:A89"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A107:A112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="A181:A200"/>
-    <mergeCell ref="A201:A210"/>
-    <mergeCell ref="A212:A233"/>
-    <mergeCell ref="A234:A238"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A122:A154"/>
-    <mergeCell ref="A155:A165"/>
-    <mergeCell ref="A166:A167"/>
     <mergeCell ref="A329:A358"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A270:A279"/>
@@ -5684,6 +5676,33 @@
     <mergeCell ref="A265:A269"/>
     <mergeCell ref="A168:A177"/>
     <mergeCell ref="A178:A180"/>
+    <mergeCell ref="A181:A200"/>
+    <mergeCell ref="A201:A210"/>
+    <mergeCell ref="A212:A233"/>
+    <mergeCell ref="A234:A238"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A122:A154"/>
+    <mergeCell ref="A155:A165"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="A90:A97"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A25:A52"/>
+    <mergeCell ref="A53:A62"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A89"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C358">
@@ -5691,710 +5710,723 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="1" max="2" width="27.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" ht="22.8" customHeight="1">
+      <c r="A1" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B2" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="G1" s="15"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="14" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="8">
         <v>0</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="14">
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="8">
         <v>0</v>
       </c>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="14" t="s">
-        <v>415</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="14">
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="8">
         <v>0</v>
       </c>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="14">
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="8">
         <v>0</v>
       </c>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="14">
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="8">
         <v>0</v>
       </c>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="14" t="s">
-        <v>418</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="14">
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="8"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="8">
         <v>0</v>
       </c>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="14">
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="8">
         <v>0</v>
       </c>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="14">
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="8">
         <v>0</v>
       </c>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="14">
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="8">
         <v>0</v>
       </c>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="14" t="s">
-        <v>422</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="14">
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="8">
         <v>0</v>
       </c>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="14">
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="8">
         <v>0</v>
       </c>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="14">
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="8">
         <v>0</v>
       </c>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="14" t="s">
-        <v>425</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="14">
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="8">
         <v>0</v>
       </c>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="14">
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="8">
         <v>0</v>
       </c>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="14">
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="8">
         <v>0</v>
       </c>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="14">
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="8">
         <v>0</v>
       </c>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="14">
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="8">
         <v>0</v>
       </c>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="14">
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="8">
         <v>0</v>
       </c>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="14">
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="8">
         <v>0</v>
       </c>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="14">
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="8">
         <v>0</v>
       </c>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="14">
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="8">
         <v>0</v>
       </c>
-      <c r="G23" s="17"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="14">
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="8">
         <v>0</v>
       </c>
-      <c r="G24" s="17"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="14">
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="8">
         <v>0</v>
       </c>
-      <c r="G25" s="17"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="14">
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="8">
         <v>0</v>
       </c>
-      <c r="G26" s="17"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="14">
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="8">
         <v>0</v>
       </c>
-      <c r="G27" s="17"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="14">
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="8">
         <v>0</v>
       </c>
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="14">
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="8">
         <v>0</v>
       </c>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="14">
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="8">
         <v>0</v>
       </c>
-      <c r="G30" s="17"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="14">
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="8">
         <v>0</v>
       </c>
-      <c r="G31" s="17"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="14">
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="8">
         <v>0</v>
       </c>
-      <c r="G32" s="17"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="14">
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="8">
         <v>0</v>
       </c>
-      <c r="G33" s="17"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="14">
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="8">
         <v>0</v>
       </c>
-      <c r="G34" s="17"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="14">
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="8"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="8">
         <v>0</v>
       </c>
-      <c r="G35" s="17"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="14" t="s">
-        <v>446</v>
-      </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="14">
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="8">
         <v>0</v>
       </c>
-      <c r="G36" s="17"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="17"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="14">
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="8">
         <v>0</v>
       </c>
-      <c r="G38" s="17"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="14">
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="8">
         <v>0</v>
       </c>
-      <c r="G39" s="17"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="14" t="s">
-        <v>449</v>
-      </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="14">
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="8">
         <v>0</v>
       </c>
-      <c r="G40" s="17"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="14">
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="8">
         <v>0</v>
       </c>
-      <c r="G41" s="17"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="14" t="s">
-        <v>451</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="14">
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="8">
         <v>0</v>
       </c>
-      <c r="G42" s="17"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="14">
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="8">
         <v>0</v>
       </c>
-      <c r="G43" s="17"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="14" t="s">
-        <v>453</v>
-      </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="14">
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="8"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="8">
         <v>0</v>
       </c>
-      <c r="G44" s="17"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="14" t="s">
-        <v>454</v>
-      </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="14">
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="8">
         <v>0</v>
       </c>
-      <c r="G45" s="17"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="14"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="17"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="14" t="s">
-        <v>455</v>
-      </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="14">
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="8">
         <v>0</v>
       </c>
-      <c r="G47" s="17"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="14">
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="8">
         <v>0</v>
       </c>
-      <c r="G48" s="17"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="14">
+      <c r="G51" s="10"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="8">
         <v>0</v>
       </c>
-      <c r="G49" s="17"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="14" t="s">
-        <v>458</v>
-      </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="14">
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="8">
         <v>0</v>
       </c>
-      <c r="G50" s="17"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="14">
-        <v>0</v>
-      </c>
-      <c r="G51" s="17"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="14" t="s">
-        <v>460</v>
-      </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="14">
-        <v>0</v>
-      </c>
-      <c r="G52" s="17"/>
+      <c r="G53" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Civilworks cost/LD/LD Annexes.xlsx
+++ b/Civilworks cost/LD/LD Annexes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Annex-II" sheetId="1" r:id="rId1"/>
@@ -1500,7 +1500,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1682,11 +1682,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1970,19 +1970,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D358"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="57.6640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="133.44140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="133.42578125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="48.6" customHeight="1">
+    <row r="1" spans="1:4" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>461</v>
       </c>
@@ -1990,7 +1990,7 @@
       <c r="C1" s="15"/>
       <c r="D1" s="16"/>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" ht="43.2" customHeight="1">
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>403</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="25.95" customHeight="1">
+    <row r="3" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="25.95" customHeight="1">
+    <row r="4" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" ht="25.95" customHeight="1">
+    <row r="5" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" ht="25.95" customHeight="1">
+    <row r="6" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -2048,7 +2048,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="25.95" customHeight="1">
+    <row r="7" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="25.95" customHeight="1">
+    <row r="8" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" ht="25.95" customHeight="1">
+    <row r="9" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" ht="25.95" customHeight="1">
+    <row r="10" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="1" t="s">
         <v>9</v>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="25.95" customHeight="1">
+    <row r="11" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="25.95" customHeight="1">
+    <row r="12" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="1" t="s">
         <v>11</v>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" ht="25.95" customHeight="1">
+    <row r="13" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="25.95" customHeight="1">
+    <row r="14" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="1" t="s">
         <v>13</v>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="25.95" customHeight="1">
+    <row r="15" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="1" t="s">
         <v>14</v>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" ht="25.95" customHeight="1">
+    <row r="16" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="1" t="s">
         <v>15</v>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" ht="25.95" customHeight="1">
+    <row r="17" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" ht="25.95" customHeight="1">
+    <row r="18" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" ht="25.95" customHeight="1">
+    <row r="19" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="1" t="s">
         <v>20</v>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" ht="25.95" customHeight="1">
+    <row r="20" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="1" t="s">
         <v>21</v>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" ht="25.95" customHeight="1">
+    <row r="21" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="1" t="s">
         <v>22</v>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" ht="25.95" customHeight="1">
+    <row r="22" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="1" t="s">
         <v>23</v>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" ht="25.95" customHeight="1">
+    <row r="23" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="1" t="s">
         <v>24</v>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" ht="25.95" customHeight="1">
+    <row r="24" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="1" t="s">
         <v>25</v>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" ht="25.95" customHeight="1">
+    <row r="25" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>26</v>
       </c>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" ht="25.95" customHeight="1">
+    <row r="26" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="1" t="s">
         <v>28</v>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" ht="25.95" customHeight="1">
+    <row r="27" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="1" t="s">
         <v>29</v>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" ht="25.95" customHeight="1">
+    <row r="28" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="1" t="s">
         <v>30</v>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" ht="25.95" customHeight="1">
+    <row r="29" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="1" t="s">
         <v>31</v>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" ht="25.95" customHeight="1">
+    <row r="30" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="1" t="s">
         <v>32</v>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" ht="25.95" customHeight="1">
+    <row r="31" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="1" t="s">
         <v>33</v>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4" ht="25.95" customHeight="1">
+    <row r="32" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="1" t="s">
         <v>34</v>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4" ht="25.95" customHeight="1">
+    <row r="33" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="1" t="s">
         <v>35</v>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" ht="25.95" customHeight="1">
+    <row r="34" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="1" t="s">
         <v>36</v>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" ht="25.95" customHeight="1">
+    <row r="35" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="1" t="s">
         <v>37</v>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4" ht="25.95" customHeight="1">
+    <row r="36" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="1" t="s">
         <v>38</v>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:4" ht="25.95" customHeight="1">
+    <row r="37" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="1" t="s">
         <v>39</v>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4" ht="25.95" customHeight="1">
+    <row r="38" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="1" t="s">
         <v>40</v>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:4" ht="25.95" customHeight="1">
+    <row r="39" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="1" t="s">
         <v>41</v>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="1:4" ht="25.95" customHeight="1">
+    <row r="40" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="1" t="s">
         <v>42</v>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="1:4" ht="25.95" customHeight="1">
+    <row r="41" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="1" t="s">
         <v>43</v>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="1:4" ht="25.95" customHeight="1">
+    <row r="42" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="1" t="s">
         <v>44</v>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="D42" s="5"/>
     </row>
-    <row r="43" spans="1:4" ht="25.95" customHeight="1">
+    <row r="43" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="1" t="s">
         <v>45</v>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="D43" s="5"/>
     </row>
-    <row r="44" spans="1:4" ht="25.95" customHeight="1">
+    <row r="44" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="1" t="s">
         <v>46</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:4" ht="25.95" customHeight="1">
+    <row r="45" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="1" t="s">
         <v>47</v>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="1:4" ht="25.95" customHeight="1">
+    <row r="46" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="1" t="s">
         <v>48</v>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:4" ht="25.95" customHeight="1">
+    <row r="47" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="1" t="s">
         <v>49</v>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="1:4" ht="25.95" customHeight="1">
+    <row r="48" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="1" t="s">
         <v>50</v>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="D48" s="5"/>
     </row>
-    <row r="49" spans="1:4" ht="25.95" customHeight="1">
+    <row r="49" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="1" t="s">
         <v>51</v>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="D49" s="5"/>
     </row>
-    <row r="50" spans="1:4" ht="25.95" customHeight="1">
+    <row r="50" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="1" t="s">
         <v>52</v>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="D50" s="5"/>
     </row>
-    <row r="51" spans="1:4" ht="25.95" customHeight="1">
+    <row r="51" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="1" t="s">
         <v>53</v>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="D51" s="5"/>
     </row>
-    <row r="52" spans="1:4" ht="25.95" customHeight="1">
+    <row r="52" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="1" t="s">
         <v>54</v>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="D52" s="5"/>
     </row>
-    <row r="53" spans="1:4" ht="25.95" customHeight="1">
+    <row r="53" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>55</v>
       </c>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="D53" s="5"/>
     </row>
-    <row r="54" spans="1:4" ht="25.95" customHeight="1">
+    <row r="54" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
       <c r="B54" s="1" t="s">
         <v>57</v>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="D54" s="5"/>
     </row>
-    <row r="55" spans="1:4" ht="25.95" customHeight="1">
+    <row r="55" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
       <c r="B55" s="1" t="s">
         <v>58</v>
@@ -2548,7 +2548,7 @@
       </c>
       <c r="D55" s="5"/>
     </row>
-    <row r="56" spans="1:4" ht="25.95" customHeight="1">
+    <row r="56" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
       <c r="B56" s="1" t="s">
         <v>59</v>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="D56" s="5"/>
     </row>
-    <row r="57" spans="1:4" ht="25.95" customHeight="1">
+    <row r="57" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
       <c r="B57" s="1" t="s">
         <v>60</v>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="1:4" ht="25.95" customHeight="1">
+    <row r="58" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
       <c r="B58" s="1" t="s">
         <v>61</v>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="1:4" ht="25.95" customHeight="1">
+    <row r="59" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="B59" s="1" t="s">
         <v>62</v>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="1:4" ht="25.95" customHeight="1">
+    <row r="60" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="1" t="s">
         <v>63</v>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" spans="1:4" ht="25.95" customHeight="1">
+    <row r="61" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="B61" s="1" t="s">
         <v>64</v>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="1:4" ht="25.95" customHeight="1">
+    <row r="62" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13"/>
       <c r="B62" s="1" t="s">
         <v>65</v>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="1:4" ht="25.95" customHeight="1">
+    <row r="63" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>66</v>
       </c>
@@ -2630,7 +2630,7 @@
       </c>
       <c r="D63" s="5"/>
     </row>
-    <row r="64" spans="1:4" ht="25.95" customHeight="1">
+    <row r="64" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
       <c r="B64" s="1" t="s">
         <v>68</v>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="D64" s="5"/>
     </row>
-    <row r="65" spans="1:4" ht="25.95" customHeight="1">
+    <row r="65" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
       <c r="B65" s="1" t="s">
         <v>69</v>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="D65" s="5"/>
     </row>
-    <row r="66" spans="1:4" ht="25.95" customHeight="1">
+    <row r="66" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
       <c r="B66" s="1" t="s">
         <v>70</v>
@@ -2660,7 +2660,7 @@
       </c>
       <c r="D66" s="5"/>
     </row>
-    <row r="67" spans="1:4" ht="25.95" customHeight="1">
+    <row r="67" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
       <c r="B67" s="1" t="s">
         <v>71</v>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="D67" s="5"/>
     </row>
-    <row r="68" spans="1:4" ht="25.95" customHeight="1">
+    <row r="68" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>72</v>
       </c>
@@ -2682,7 +2682,7 @@
       </c>
       <c r="D68" s="5"/>
     </row>
-    <row r="69" spans="1:4" ht="25.95" customHeight="1">
+    <row r="69" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
       <c r="B69" s="1" t="s">
         <v>74</v>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="D69" s="5"/>
     </row>
-    <row r="70" spans="1:4" ht="25.95" customHeight="1">
+    <row r="70" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12"/>
       <c r="B70" s="1" t="s">
         <v>75</v>
@@ -2702,7 +2702,7 @@
       </c>
       <c r="D70" s="5"/>
     </row>
-    <row r="71" spans="1:4" ht="25.95" customHeight="1">
+    <row r="71" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
       <c r="B71" s="1" t="s">
         <v>76</v>
@@ -2712,7 +2712,7 @@
       </c>
       <c r="D71" s="5"/>
     </row>
-    <row r="72" spans="1:4" ht="25.95" customHeight="1">
+    <row r="72" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12"/>
       <c r="B72" s="1" t="s">
         <v>77</v>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="D72" s="5"/>
     </row>
-    <row r="73" spans="1:4" ht="25.95" customHeight="1">
+    <row r="73" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12"/>
       <c r="B73" s="1" t="s">
         <v>78</v>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="D73" s="5"/>
     </row>
-    <row r="74" spans="1:4" ht="25.95" customHeight="1">
+    <row r="74" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13"/>
       <c r="B74" s="1" t="s">
         <v>79</v>
@@ -2742,7 +2742,7 @@
       </c>
       <c r="D74" s="5"/>
     </row>
-    <row r="75" spans="1:4" ht="25.95" customHeight="1">
+    <row r="75" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>80</v>
       </c>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="D75" s="5"/>
     </row>
-    <row r="76" spans="1:4" ht="25.95" customHeight="1">
+    <row r="76" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13"/>
       <c r="B76" s="1" t="s">
         <v>82</v>
@@ -2764,7 +2764,7 @@
       </c>
       <c r="D76" s="5"/>
     </row>
-    <row r="77" spans="1:4" ht="25.95" customHeight="1">
+    <row r="77" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>83</v>
       </c>
@@ -2776,7 +2776,7 @@
       </c>
       <c r="D77" s="5"/>
     </row>
-    <row r="78" spans="1:4" ht="25.95" customHeight="1">
+    <row r="78" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12"/>
       <c r="B78" s="1" t="s">
         <v>85</v>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="D78" s="5"/>
     </row>
-    <row r="79" spans="1:4" ht="25.95" customHeight="1">
+    <row r="79" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12"/>
       <c r="B79" s="1" t="s">
         <v>86</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="D79" s="5"/>
     </row>
-    <row r="80" spans="1:4" ht="25.95" customHeight="1">
+    <row r="80" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13"/>
       <c r="B80" s="1" t="s">
         <v>87</v>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="D80" s="5"/>
     </row>
-    <row r="81" spans="1:4" ht="25.95" customHeight="1">
+    <row r="81" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>88</v>
       </c>
@@ -2818,7 +2818,7 @@
       </c>
       <c r="D81" s="5"/>
     </row>
-    <row r="82" spans="1:4" ht="25.95" customHeight="1">
+    <row r="82" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
       <c r="B82" s="1" t="s">
         <v>90</v>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="D82" s="5"/>
     </row>
-    <row r="83" spans="1:4" ht="25.95" customHeight="1">
+    <row r="83" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>91</v>
       </c>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="D83" s="5"/>
     </row>
-    <row r="84" spans="1:4" ht="25.95" customHeight="1">
+    <row r="84" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12"/>
       <c r="B84" s="1" t="s">
         <v>93</v>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="D84" s="5"/>
     </row>
-    <row r="85" spans="1:4" ht="25.95" customHeight="1">
+    <row r="85" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12"/>
       <c r="B85" s="1" t="s">
         <v>94</v>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="D85" s="5"/>
     </row>
-    <row r="86" spans="1:4" ht="25.95" customHeight="1">
+    <row r="86" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12"/>
       <c r="B86" s="1" t="s">
         <v>95</v>
@@ -2870,7 +2870,7 @@
       </c>
       <c r="D86" s="5"/>
     </row>
-    <row r="87" spans="1:4" ht="25.95" customHeight="1">
+    <row r="87" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12"/>
       <c r="B87" s="1" t="s">
         <v>96</v>
@@ -2880,7 +2880,7 @@
       </c>
       <c r="D87" s="5"/>
     </row>
-    <row r="88" spans="1:4" ht="25.95" customHeight="1">
+    <row r="88" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12"/>
       <c r="B88" s="1" t="s">
         <v>97</v>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="D88" s="5"/>
     </row>
-    <row r="89" spans="1:4" ht="25.95" customHeight="1">
+    <row r="89" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13"/>
       <c r="B89" s="1" t="s">
         <v>98</v>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="D89" s="5"/>
     </row>
-    <row r="90" spans="1:4" ht="25.95" customHeight="1">
+    <row r="90" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>99</v>
       </c>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="D90" s="5"/>
     </row>
-    <row r="91" spans="1:4" ht="25.95" customHeight="1">
+    <row r="91" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
       <c r="B91" s="1" t="s">
         <v>101</v>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="D91" s="5"/>
     </row>
-    <row r="92" spans="1:4" ht="25.95" customHeight="1">
+    <row r="92" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12"/>
       <c r="B92" s="1" t="s">
         <v>102</v>
@@ -2932,7 +2932,7 @@
       </c>
       <c r="D92" s="5"/>
     </row>
-    <row r="93" spans="1:4" ht="25.95" customHeight="1">
+    <row r="93" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12"/>
       <c r="B93" s="1" t="s">
         <v>103</v>
@@ -2942,7 +2942,7 @@
       </c>
       <c r="D93" s="5"/>
     </row>
-    <row r="94" spans="1:4" ht="25.95" customHeight="1">
+    <row r="94" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12"/>
       <c r="B94" s="1" t="s">
         <v>104</v>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="D94" s="5"/>
     </row>
-    <row r="95" spans="1:4" ht="25.95" customHeight="1">
+    <row r="95" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12"/>
       <c r="B95" s="1" t="s">
         <v>105</v>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="D95" s="5"/>
     </row>
-    <row r="96" spans="1:4" ht="25.95" customHeight="1">
+    <row r="96" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12"/>
       <c r="B96" s="1" t="s">
         <v>106</v>
@@ -2972,7 +2972,7 @@
       </c>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" spans="1:4" ht="25.95" customHeight="1">
+    <row r="97" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="13"/>
       <c r="B97" s="1" t="s">
         <v>107</v>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="1:4" ht="25.95" customHeight="1">
+    <row r="98" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
         <v>108</v>
       </c>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" spans="1:4" ht="25.95" customHeight="1">
+    <row r="99" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12"/>
       <c r="B99" s="1" t="s">
         <v>110</v>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" spans="1:4" ht="25.95" customHeight="1">
+    <row r="100" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12"/>
       <c r="B100" s="1" t="s">
         <v>111</v>
@@ -3014,7 +3014,7 @@
       </c>
       <c r="D100" s="5"/>
     </row>
-    <row r="101" spans="1:4" ht="25.95" customHeight="1">
+    <row r="101" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
       <c r="B101" s="1" t="s">
         <v>112</v>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="D101" s="5"/>
     </row>
-    <row r="102" spans="1:4" ht="25.95" customHeight="1">
+    <row r="102" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
         <v>113</v>
       </c>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="D102" s="5"/>
     </row>
-    <row r="103" spans="1:4" ht="25.95" customHeight="1">
+    <row r="103" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12"/>
       <c r="B103" s="1" t="s">
         <v>115</v>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="D103" s="5"/>
     </row>
-    <row r="104" spans="1:4" ht="25.95" customHeight="1">
+    <row r="104" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13"/>
       <c r="B104" s="1" t="s">
         <v>116</v>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="D104" s="5"/>
     </row>
-    <row r="105" spans="1:4" ht="25.95" customHeight="1">
+    <row r="105" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
         <v>117</v>
       </c>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="D105" s="5"/>
     </row>
-    <row r="106" spans="1:4" ht="25.95" customHeight="1">
+    <row r="106" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13"/>
       <c r="B106" s="1" t="s">
         <v>119</v>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="D106" s="5"/>
     </row>
-    <row r="107" spans="1:4" ht="25.95" customHeight="1">
+    <row r="107" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>120</v>
       </c>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="D107" s="5"/>
     </row>
-    <row r="108" spans="1:4" ht="25.95" customHeight="1">
+    <row r="108" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12"/>
       <c r="B108" s="1" t="s">
         <v>122</v>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="D108" s="5"/>
     </row>
-    <row r="109" spans="1:4" ht="25.95" customHeight="1">
+    <row r="109" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="12"/>
       <c r="B109" s="1" t="s">
         <v>123</v>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="D109" s="5"/>
     </row>
-    <row r="110" spans="1:4" ht="25.95" customHeight="1">
+    <row r="110" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="12"/>
       <c r="B110" s="1" t="s">
         <v>124</v>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="D110" s="5"/>
     </row>
-    <row r="111" spans="1:4" ht="25.95" customHeight="1">
+    <row r="111" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="12"/>
       <c r="B111" s="1" t="s">
         <v>125</v>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="D111" s="5"/>
     </row>
-    <row r="112" spans="1:4" ht="25.95" customHeight="1">
+    <row r="112" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13"/>
       <c r="B112" s="1" t="s">
         <v>126</v>
@@ -3140,7 +3140,7 @@
       </c>
       <c r="D112" s="5"/>
     </row>
-    <row r="113" spans="1:4" ht="25.95" customHeight="1">
+    <row r="113" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
         <v>127</v>
       </c>
@@ -3152,7 +3152,7 @@
       </c>
       <c r="D113" s="5"/>
     </row>
-    <row r="114" spans="1:4" ht="25.95" customHeight="1">
+    <row r="114" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="1" t="s">
         <v>129</v>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="D114" s="5"/>
     </row>
-    <row r="115" spans="1:4" ht="25.95" customHeight="1">
+    <row r="115" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13"/>
       <c r="B115" s="1" t="s">
         <v>130</v>
@@ -3172,7 +3172,7 @@
       </c>
       <c r="D115" s="5"/>
     </row>
-    <row r="116" spans="1:4" ht="25.95" customHeight="1">
+    <row r="116" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
         <v>131</v>
       </c>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="D116" s="5"/>
     </row>
-    <row r="117" spans="1:4" ht="25.95" customHeight="1">
+    <row r="117" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13"/>
       <c r="B117" s="1" t="s">
         <v>133</v>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="D117" s="5"/>
     </row>
-    <row r="118" spans="1:4" ht="25.95" customHeight="1">
+    <row r="118" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
         <v>134</v>
       </c>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="D118" s="5"/>
     </row>
-    <row r="119" spans="1:4" ht="25.95" customHeight="1">
+    <row r="119" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13"/>
       <c r="B119" s="1" t="s">
         <v>136</v>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="D119" s="5"/>
     </row>
-    <row r="120" spans="1:4" ht="25.95" customHeight="1">
+    <row r="120" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
         <v>137</v>
       </c>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="D120" s="5"/>
     </row>
-    <row r="121" spans="1:4" ht="25.95" customHeight="1">
+    <row r="121" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="13"/>
       <c r="B121" s="1" t="s">
         <v>139</v>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="D121" s="5"/>
     </row>
-    <row r="122" spans="1:4" ht="25.95" customHeight="1">
+    <row r="122" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
         <v>140</v>
       </c>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="D122" s="5"/>
     </row>
-    <row r="123" spans="1:4" ht="25.95" customHeight="1">
+    <row r="123" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="12"/>
       <c r="B123" s="1" t="s">
         <v>142</v>
@@ -3260,7 +3260,7 @@
       </c>
       <c r="D123" s="5"/>
     </row>
-    <row r="124" spans="1:4" ht="25.95" customHeight="1">
+    <row r="124" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="12"/>
       <c r="B124" s="1" t="s">
         <v>143</v>
@@ -3270,7 +3270,7 @@
       </c>
       <c r="D124" s="5"/>
     </row>
-    <row r="125" spans="1:4" ht="25.95" customHeight="1">
+    <row r="125" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="12"/>
       <c r="B125" s="1" t="s">
         <v>144</v>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="D125" s="5"/>
     </row>
-    <row r="126" spans="1:4" ht="25.95" customHeight="1">
+    <row r="126" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="12"/>
       <c r="B126" s="1" t="s">
         <v>145</v>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="D126" s="5"/>
     </row>
-    <row r="127" spans="1:4" ht="25.95" customHeight="1">
+    <row r="127" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="12"/>
       <c r="B127" s="1" t="s">
         <v>146</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="D127" s="5"/>
     </row>
-    <row r="128" spans="1:4" ht="25.95" customHeight="1">
+    <row r="128" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="12"/>
       <c r="B128" s="1" t="s">
         <v>147</v>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="D128" s="5"/>
     </row>
-    <row r="129" spans="1:4" ht="25.95" customHeight="1">
+    <row r="129" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="12"/>
       <c r="B129" s="1" t="s">
         <v>148</v>
@@ -3320,7 +3320,7 @@
       </c>
       <c r="D129" s="5"/>
     </row>
-    <row r="130" spans="1:4" ht="25.95" customHeight="1">
+    <row r="130" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="12"/>
       <c r="B130" s="1" t="s">
         <v>149</v>
@@ -3330,7 +3330,7 @@
       </c>
       <c r="D130" s="5"/>
     </row>
-    <row r="131" spans="1:4" ht="25.95" customHeight="1">
+    <row r="131" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="12"/>
       <c r="B131" s="1" t="s">
         <v>150</v>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="D131" s="5"/>
     </row>
-    <row r="132" spans="1:4" ht="25.95" customHeight="1">
+    <row r="132" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="12"/>
       <c r="B132" s="1" t="s">
         <v>151</v>
@@ -3350,7 +3350,7 @@
       </c>
       <c r="D132" s="5"/>
     </row>
-    <row r="133" spans="1:4" ht="25.95" customHeight="1">
+    <row r="133" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="12"/>
       <c r="B133" s="1" t="s">
         <v>152</v>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="D133" s="5"/>
     </row>
-    <row r="134" spans="1:4" ht="25.95" customHeight="1">
+    <row r="134" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="12"/>
       <c r="B134" s="1" t="s">
         <v>153</v>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="D134" s="5"/>
     </row>
-    <row r="135" spans="1:4" ht="25.95" customHeight="1">
+    <row r="135" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="12"/>
       <c r="B135" s="1" t="s">
         <v>154</v>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="D135" s="5"/>
     </row>
-    <row r="136" spans="1:4" ht="25.95" customHeight="1">
+    <row r="136" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="12"/>
       <c r="B136" s="1" t="s">
         <v>155</v>
@@ -3390,7 +3390,7 @@
       </c>
       <c r="D136" s="5"/>
     </row>
-    <row r="137" spans="1:4" ht="25.95" customHeight="1">
+    <row r="137" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="12"/>
       <c r="B137" s="1" t="s">
         <v>156</v>
@@ -3400,7 +3400,7 @@
       </c>
       <c r="D137" s="5"/>
     </row>
-    <row r="138" spans="1:4" ht="25.95" customHeight="1">
+    <row r="138" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="12"/>
       <c r="B138" s="1" t="s">
         <v>157</v>
@@ -3410,7 +3410,7 @@
       </c>
       <c r="D138" s="5"/>
     </row>
-    <row r="139" spans="1:4" ht="25.95" customHeight="1">
+    <row r="139" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="12"/>
       <c r="B139" s="1" t="s">
         <v>158</v>
@@ -3420,7 +3420,7 @@
       </c>
       <c r="D139" s="5"/>
     </row>
-    <row r="140" spans="1:4" ht="25.95" customHeight="1">
+    <row r="140" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="12"/>
       <c r="B140" s="1" t="s">
         <v>159</v>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="D140" s="5"/>
     </row>
-    <row r="141" spans="1:4" ht="25.95" customHeight="1">
+    <row r="141" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="12"/>
       <c r="B141" s="1" t="s">
         <v>160</v>
@@ -3440,7 +3440,7 @@
       </c>
       <c r="D141" s="5"/>
     </row>
-    <row r="142" spans="1:4" ht="25.95" customHeight="1">
+    <row r="142" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="12"/>
       <c r="B142" s="1" t="s">
         <v>161</v>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="D142" s="5"/>
     </row>
-    <row r="143" spans="1:4" ht="25.95" customHeight="1">
+    <row r="143" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="12"/>
       <c r="B143" s="1" t="s">
         <v>162</v>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="D143" s="5"/>
     </row>
-    <row r="144" spans="1:4" ht="25.95" customHeight="1">
+    <row r="144" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="12"/>
       <c r="B144" s="1" t="s">
         <v>163</v>
@@ -3470,7 +3470,7 @@
       </c>
       <c r="D144" s="5"/>
     </row>
-    <row r="145" spans="1:4" ht="25.95" customHeight="1">
+    <row r="145" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="12"/>
       <c r="B145" s="1" t="s">
         <v>164</v>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="D145" s="5"/>
     </row>
-    <row r="146" spans="1:4" ht="25.95" customHeight="1">
+    <row r="146" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="12"/>
       <c r="B146" s="1" t="s">
         <v>165</v>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="D146" s="5"/>
     </row>
-    <row r="147" spans="1:4" ht="25.95" customHeight="1">
+    <row r="147" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="12"/>
       <c r="B147" s="1" t="s">
         <v>166</v>
@@ -3500,7 +3500,7 @@
       </c>
       <c r="D147" s="5"/>
     </row>
-    <row r="148" spans="1:4" ht="25.95" customHeight="1">
+    <row r="148" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="12"/>
       <c r="B148" s="1" t="s">
         <v>167</v>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="D148" s="5"/>
     </row>
-    <row r="149" spans="1:4" ht="25.95" customHeight="1">
+    <row r="149" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="12"/>
       <c r="B149" s="1" t="s">
         <v>168</v>
@@ -3520,7 +3520,7 @@
       </c>
       <c r="D149" s="5"/>
     </row>
-    <row r="150" spans="1:4" ht="25.95" customHeight="1">
+    <row r="150" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="12"/>
       <c r="B150" s="1" t="s">
         <v>169</v>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="D150" s="5"/>
     </row>
-    <row r="151" spans="1:4" ht="25.95" customHeight="1">
+    <row r="151" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="12"/>
       <c r="B151" s="1" t="s">
         <v>170</v>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="D151" s="5"/>
     </row>
-    <row r="152" spans="1:4" ht="25.95" customHeight="1">
+    <row r="152" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="12"/>
       <c r="B152" s="1" t="s">
         <v>171</v>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="D152" s="5"/>
     </row>
-    <row r="153" spans="1:4" ht="25.95" customHeight="1">
+    <row r="153" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="12"/>
       <c r="B153" s="1" t="s">
         <v>172</v>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="D153" s="5"/>
     </row>
-    <row r="154" spans="1:4" ht="25.95" customHeight="1">
+    <row r="154" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="13"/>
       <c r="B154" s="1" t="s">
         <v>173</v>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="D154" s="5"/>
     </row>
-    <row r="155" spans="1:4" ht="25.95" customHeight="1">
+    <row r="155" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
         <v>174</v>
       </c>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="D155" s="5"/>
     </row>
-    <row r="156" spans="1:4" ht="25.95" customHeight="1">
+    <row r="156" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="12"/>
       <c r="B156" s="1" t="s">
         <v>176</v>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="D156" s="5"/>
     </row>
-    <row r="157" spans="1:4" ht="25.95" customHeight="1">
+    <row r="157" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="12"/>
       <c r="B157" s="1" t="s">
         <v>177</v>
@@ -3602,7 +3602,7 @@
       </c>
       <c r="D157" s="5"/>
     </row>
-    <row r="158" spans="1:4" ht="25.95" customHeight="1">
+    <row r="158" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="12"/>
       <c r="B158" s="1" t="s">
         <v>178</v>
@@ -3612,7 +3612,7 @@
       </c>
       <c r="D158" s="5"/>
     </row>
-    <row r="159" spans="1:4" ht="25.95" customHeight="1">
+    <row r="159" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="12"/>
       <c r="B159" s="1" t="s">
         <v>179</v>
@@ -3622,7 +3622,7 @@
       </c>
       <c r="D159" s="5"/>
     </row>
-    <row r="160" spans="1:4" ht="25.95" customHeight="1">
+    <row r="160" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="12"/>
       <c r="B160" s="1" t="s">
         <v>180</v>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="D160" s="5"/>
     </row>
-    <row r="161" spans="1:4" ht="25.95" customHeight="1">
+    <row r="161" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="12"/>
       <c r="B161" s="1" t="s">
         <v>181</v>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="D161" s="5"/>
     </row>
-    <row r="162" spans="1:4" ht="25.95" customHeight="1">
+    <row r="162" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="12"/>
       <c r="B162" s="1" t="s">
         <v>182</v>
@@ -3652,7 +3652,7 @@
       </c>
       <c r="D162" s="5"/>
     </row>
-    <row r="163" spans="1:4" ht="25.95" customHeight="1">
+    <row r="163" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="12"/>
       <c r="B163" s="1" t="s">
         <v>183</v>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="D163" s="5"/>
     </row>
-    <row r="164" spans="1:4" ht="25.95" customHeight="1">
+    <row r="164" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="12"/>
       <c r="B164" s="1" t="s">
         <v>184</v>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="D164" s="5"/>
     </row>
-    <row r="165" spans="1:4" ht="25.95" customHeight="1">
+    <row r="165" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="13"/>
       <c r="B165" s="1" t="s">
         <v>185</v>
@@ -3682,7 +3682,7 @@
       </c>
       <c r="D165" s="5"/>
     </row>
-    <row r="166" spans="1:4" ht="25.95" customHeight="1">
+    <row r="166" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
         <v>186</v>
       </c>
@@ -3694,7 +3694,7 @@
       </c>
       <c r="D166" s="5"/>
     </row>
-    <row r="167" spans="1:4" ht="25.95" customHeight="1">
+    <row r="167" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="13"/>
       <c r="B167" s="1" t="s">
         <v>188</v>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="1:4" ht="25.95" customHeight="1">
+    <row r="168" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
         <v>189</v>
       </c>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="D168" s="5"/>
     </row>
-    <row r="169" spans="1:4" ht="25.95" customHeight="1">
+    <row r="169" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="12"/>
       <c r="B169" s="1" t="s">
         <v>191</v>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="D169" s="5"/>
     </row>
-    <row r="170" spans="1:4" ht="25.95" customHeight="1">
+    <row r="170" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="12"/>
       <c r="B170" s="1" t="s">
         <v>192</v>
@@ -3736,7 +3736,7 @@
       </c>
       <c r="D170" s="5"/>
     </row>
-    <row r="171" spans="1:4" ht="25.95" customHeight="1">
+    <row r="171" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="12"/>
       <c r="B171" s="1" t="s">
         <v>193</v>
@@ -3746,7 +3746,7 @@
       </c>
       <c r="D171" s="5"/>
     </row>
-    <row r="172" spans="1:4" ht="25.95" customHeight="1">
+    <row r="172" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="12"/>
       <c r="B172" s="1" t="s">
         <v>194</v>
@@ -3756,7 +3756,7 @@
       </c>
       <c r="D172" s="5"/>
     </row>
-    <row r="173" spans="1:4" ht="25.95" customHeight="1">
+    <row r="173" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="12"/>
       <c r="B173" s="1" t="s">
         <v>195</v>
@@ -3766,7 +3766,7 @@
       </c>
       <c r="D173" s="5"/>
     </row>
-    <row r="174" spans="1:4" ht="25.95" customHeight="1">
+    <row r="174" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="12"/>
       <c r="B174" s="1" t="s">
         <v>196</v>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="D174" s="5"/>
     </row>
-    <row r="175" spans="1:4" ht="25.95" customHeight="1">
+    <row r="175" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="12"/>
       <c r="B175" s="1" t="s">
         <v>197</v>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="D175" s="5"/>
     </row>
-    <row r="176" spans="1:4" ht="25.95" customHeight="1">
+    <row r="176" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="12"/>
       <c r="B176" s="1" t="s">
         <v>198</v>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="D176" s="5"/>
     </row>
-    <row r="177" spans="1:4" ht="25.95" customHeight="1">
+    <row r="177" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="13"/>
       <c r="B177" s="1" t="s">
         <v>199</v>
@@ -3806,7 +3806,7 @@
       </c>
       <c r="D177" s="5"/>
     </row>
-    <row r="178" spans="1:4" ht="25.95" customHeight="1">
+    <row r="178" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
         <v>200</v>
       </c>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="D178" s="5"/>
     </row>
-    <row r="179" spans="1:4" ht="25.95" customHeight="1">
+    <row r="179" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="12"/>
       <c r="B179" s="1" t="s">
         <v>202</v>
@@ -3828,7 +3828,7 @@
       </c>
       <c r="D179" s="5"/>
     </row>
-    <row r="180" spans="1:4" ht="25.95" customHeight="1">
+    <row r="180" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="13"/>
       <c r="B180" s="1" t="s">
         <v>203</v>
@@ -3838,7 +3838,7 @@
       </c>
       <c r="D180" s="5"/>
     </row>
-    <row r="181" spans="1:4" ht="25.95" customHeight="1">
+    <row r="181" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
         <v>204</v>
       </c>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="D181" s="5"/>
     </row>
-    <row r="182" spans="1:4" ht="25.95" customHeight="1">
+    <row r="182" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="12"/>
       <c r="B182" s="1" t="s">
         <v>206</v>
@@ -3860,7 +3860,7 @@
       </c>
       <c r="D182" s="5"/>
     </row>
-    <row r="183" spans="1:4" ht="25.95" customHeight="1">
+    <row r="183" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="12"/>
       <c r="B183" s="1" t="s">
         <v>207</v>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="D183" s="5"/>
     </row>
-    <row r="184" spans="1:4" ht="25.95" customHeight="1">
+    <row r="184" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="12"/>
       <c r="B184" s="1" t="s">
         <v>208</v>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="D184" s="5"/>
     </row>
-    <row r="185" spans="1:4" ht="25.95" customHeight="1">
+    <row r="185" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="12"/>
       <c r="B185" s="1" t="s">
         <v>209</v>
@@ -3890,7 +3890,7 @@
       </c>
       <c r="D185" s="5"/>
     </row>
-    <row r="186" spans="1:4" ht="25.95" customHeight="1">
+    <row r="186" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="12"/>
       <c r="B186" s="1" t="s">
         <v>210</v>
@@ -3900,7 +3900,7 @@
       </c>
       <c r="D186" s="5"/>
     </row>
-    <row r="187" spans="1:4" ht="25.95" customHeight="1">
+    <row r="187" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="12"/>
       <c r="B187" s="1" t="s">
         <v>211</v>
@@ -3910,7 +3910,7 @@
       </c>
       <c r="D187" s="5"/>
     </row>
-    <row r="188" spans="1:4" ht="25.95" customHeight="1">
+    <row r="188" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="12"/>
       <c r="B188" s="1" t="s">
         <v>212</v>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="D188" s="5"/>
     </row>
-    <row r="189" spans="1:4" ht="25.95" customHeight="1">
+    <row r="189" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="12"/>
       <c r="B189" s="1" t="s">
         <v>213</v>
@@ -3930,7 +3930,7 @@
       </c>
       <c r="D189" s="5"/>
     </row>
-    <row r="190" spans="1:4" ht="25.95" customHeight="1">
+    <row r="190" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="12"/>
       <c r="B190" s="1" t="s">
         <v>214</v>
@@ -3940,7 +3940,7 @@
       </c>
       <c r="D190" s="5"/>
     </row>
-    <row r="191" spans="1:4" ht="25.95" customHeight="1">
+    <row r="191" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="12"/>
       <c r="B191" s="1" t="s">
         <v>215</v>
@@ -3950,7 +3950,7 @@
       </c>
       <c r="D191" s="5"/>
     </row>
-    <row r="192" spans="1:4" ht="25.95" customHeight="1">
+    <row r="192" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="12"/>
       <c r="B192" s="1" t="s">
         <v>216</v>
@@ -3960,7 +3960,7 @@
       </c>
       <c r="D192" s="5"/>
     </row>
-    <row r="193" spans="1:4" ht="25.95" customHeight="1">
+    <row r="193" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="12"/>
       <c r="B193" s="1" t="s">
         <v>217</v>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="D193" s="5"/>
     </row>
-    <row r="194" spans="1:4" ht="25.95" customHeight="1">
+    <row r="194" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="12"/>
       <c r="B194" s="1" t="s">
         <v>218</v>
@@ -3980,7 +3980,7 @@
       </c>
       <c r="D194" s="5"/>
     </row>
-    <row r="195" spans="1:4" ht="25.95" customHeight="1">
+    <row r="195" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="12"/>
       <c r="B195" s="1" t="s">
         <v>219</v>
@@ -3990,7 +3990,7 @@
       </c>
       <c r="D195" s="5"/>
     </row>
-    <row r="196" spans="1:4" ht="25.95" customHeight="1">
+    <row r="196" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="12"/>
       <c r="B196" s="1" t="s">
         <v>220</v>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="D196" s="5"/>
     </row>
-    <row r="197" spans="1:4" ht="25.95" customHeight="1">
+    <row r="197" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="12"/>
       <c r="B197" s="1" t="s">
         <v>221</v>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="1:4" ht="25.95" customHeight="1">
+    <row r="198" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="12"/>
       <c r="B198" s="1" t="s">
         <v>222</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="D198" s="5"/>
     </row>
-    <row r="199" spans="1:4" ht="25.95" customHeight="1">
+    <row r="199" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="12"/>
       <c r="B199" s="1" t="s">
         <v>223</v>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="D199" s="5"/>
     </row>
-    <row r="200" spans="1:4" ht="25.95" customHeight="1">
+    <row r="200" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="13"/>
       <c r="B200" s="1" t="s">
         <v>224</v>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="D200" s="5"/>
     </row>
-    <row r="201" spans="1:4" ht="25.95" customHeight="1">
+    <row r="201" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="11" t="s">
         <v>225</v>
       </c>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="D201" s="5"/>
     </row>
-    <row r="202" spans="1:4" ht="25.95" customHeight="1">
+    <row r="202" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="12"/>
       <c r="B202" s="1" t="s">
         <v>227</v>
@@ -4062,7 +4062,7 @@
       </c>
       <c r="D202" s="5"/>
     </row>
-    <row r="203" spans="1:4" ht="25.95" customHeight="1">
+    <row r="203" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="12"/>
       <c r="B203" s="1" t="s">
         <v>228</v>
@@ -4072,7 +4072,7 @@
       </c>
       <c r="D203" s="5"/>
     </row>
-    <row r="204" spans="1:4" ht="25.95" customHeight="1">
+    <row r="204" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="12"/>
       <c r="B204" s="1" t="s">
         <v>229</v>
@@ -4082,7 +4082,7 @@
       </c>
       <c r="D204" s="5"/>
     </row>
-    <row r="205" spans="1:4" ht="25.95" customHeight="1">
+    <row r="205" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="12"/>
       <c r="B205" s="1" t="s">
         <v>230</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="D205" s="5"/>
     </row>
-    <row r="206" spans="1:4" ht="25.95" customHeight="1">
+    <row r="206" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="12"/>
       <c r="B206" s="1" t="s">
         <v>231</v>
@@ -4102,7 +4102,7 @@
       </c>
       <c r="D206" s="5"/>
     </row>
-    <row r="207" spans="1:4" ht="25.95" customHeight="1">
+    <row r="207" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="12"/>
       <c r="B207" s="1" t="s">
         <v>232</v>
@@ -4112,7 +4112,7 @@
       </c>
       <c r="D207" s="5"/>
     </row>
-    <row r="208" spans="1:4" ht="25.95" customHeight="1">
+    <row r="208" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="12"/>
       <c r="B208" s="1" t="s">
         <v>233</v>
@@ -4122,7 +4122,7 @@
       </c>
       <c r="D208" s="5"/>
     </row>
-    <row r="209" spans="1:4" ht="25.95" customHeight="1">
+    <row r="209" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="12"/>
       <c r="B209" s="1" t="s">
         <v>234</v>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="D209" s="5"/>
     </row>
-    <row r="210" spans="1:4" ht="25.95" customHeight="1">
+    <row r="210" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="13"/>
       <c r="B210" s="1" t="s">
         <v>235</v>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="D210" s="5"/>
     </row>
-    <row r="211" spans="1:4" ht="25.95" customHeight="1">
+    <row r="211" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>236</v>
       </c>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="D211" s="5"/>
     </row>
-    <row r="212" spans="1:4" ht="25.95" customHeight="1">
+    <row r="212" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="11" t="s">
         <v>238</v>
       </c>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="D212" s="5"/>
     </row>
-    <row r="213" spans="1:4" ht="25.95" customHeight="1">
+    <row r="213" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="12"/>
       <c r="B213" s="1" t="s">
         <v>240</v>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="D213" s="5"/>
     </row>
-    <row r="214" spans="1:4" ht="25.95" customHeight="1">
+    <row r="214" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="12"/>
       <c r="B214" s="1" t="s">
         <v>241</v>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="D214" s="5"/>
     </row>
-    <row r="215" spans="1:4" ht="25.95" customHeight="1">
+    <row r="215" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="12"/>
       <c r="B215" s="1" t="s">
         <v>242</v>
@@ -4196,7 +4196,7 @@
       </c>
       <c r="D215" s="5"/>
     </row>
-    <row r="216" spans="1:4" ht="25.95" customHeight="1">
+    <row r="216" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="12"/>
       <c r="B216" s="1" t="s">
         <v>243</v>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="D216" s="5"/>
     </row>
-    <row r="217" spans="1:4" ht="25.95" customHeight="1">
+    <row r="217" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="12"/>
       <c r="B217" s="1" t="s">
         <v>244</v>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="D217" s="5"/>
     </row>
-    <row r="218" spans="1:4" ht="25.95" customHeight="1">
+    <row r="218" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="12"/>
       <c r="B218" s="1" t="s">
         <v>245</v>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="D218" s="5"/>
     </row>
-    <row r="219" spans="1:4" ht="25.95" customHeight="1">
+    <row r="219" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="12"/>
       <c r="B219" s="1" t="s">
         <v>246</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="D219" s="5"/>
     </row>
-    <row r="220" spans="1:4" ht="25.95" customHeight="1">
+    <row r="220" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="12"/>
       <c r="B220" s="1" t="s">
         <v>247</v>
@@ -4246,7 +4246,7 @@
       </c>
       <c r="D220" s="5"/>
     </row>
-    <row r="221" spans="1:4" ht="25.95" customHeight="1">
+    <row r="221" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="12"/>
       <c r="B221" s="1" t="s">
         <v>248</v>
@@ -4256,7 +4256,7 @@
       </c>
       <c r="D221" s="5"/>
     </row>
-    <row r="222" spans="1:4" ht="25.95" customHeight="1">
+    <row r="222" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="12"/>
       <c r="B222" s="1" t="s">
         <v>249</v>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="D222" s="5"/>
     </row>
-    <row r="223" spans="1:4" ht="25.95" customHeight="1">
+    <row r="223" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="12"/>
       <c r="B223" s="1" t="s">
         <v>250</v>
@@ -4276,7 +4276,7 @@
       </c>
       <c r="D223" s="5"/>
     </row>
-    <row r="224" spans="1:4" ht="25.95" customHeight="1">
+    <row r="224" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="12"/>
       <c r="B224" s="1" t="s">
         <v>251</v>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="D224" s="5"/>
     </row>
-    <row r="225" spans="1:4" ht="25.95" customHeight="1">
+    <row r="225" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="12"/>
       <c r="B225" s="1" t="s">
         <v>252</v>
@@ -4296,7 +4296,7 @@
       </c>
       <c r="D225" s="5"/>
     </row>
-    <row r="226" spans="1:4" ht="25.95" customHeight="1">
+    <row r="226" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="12"/>
       <c r="B226" s="1" t="s">
         <v>253</v>
@@ -4306,7 +4306,7 @@
       </c>
       <c r="D226" s="5"/>
     </row>
-    <row r="227" spans="1:4" ht="25.95" customHeight="1">
+    <row r="227" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="12"/>
       <c r="B227" s="1" t="s">
         <v>254</v>
@@ -4316,7 +4316,7 @@
       </c>
       <c r="D227" s="5"/>
     </row>
-    <row r="228" spans="1:4" ht="25.95" customHeight="1">
+    <row r="228" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="12"/>
       <c r="B228" s="1" t="s">
         <v>255</v>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="D228" s="5"/>
     </row>
-    <row r="229" spans="1:4" ht="25.95" customHeight="1">
+    <row r="229" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="12"/>
       <c r="B229" s="1" t="s">
         <v>256</v>
@@ -4336,7 +4336,7 @@
       </c>
       <c r="D229" s="5"/>
     </row>
-    <row r="230" spans="1:4" ht="25.95" customHeight="1">
+    <row r="230" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="12"/>
       <c r="B230" s="1" t="s">
         <v>257</v>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="D230" s="5"/>
     </row>
-    <row r="231" spans="1:4" ht="25.95" customHeight="1">
+    <row r="231" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="12"/>
       <c r="B231" s="1" t="s">
         <v>258</v>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="D231" s="5"/>
     </row>
-    <row r="232" spans="1:4" ht="25.95" customHeight="1">
+    <row r="232" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="12"/>
       <c r="B232" s="1" t="s">
         <v>259</v>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="D232" s="5"/>
     </row>
-    <row r="233" spans="1:4" ht="25.95" customHeight="1">
+    <row r="233" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="13"/>
       <c r="B233" s="1" t="s">
         <v>260</v>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="D233" s="5"/>
     </row>
-    <row r="234" spans="1:4" ht="25.95" customHeight="1">
+    <row r="234" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="11" t="s">
         <v>261</v>
       </c>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="D234" s="5"/>
     </row>
-    <row r="235" spans="1:4" ht="25.95" customHeight="1">
+    <row r="235" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="12"/>
       <c r="B235" s="1" t="s">
         <v>263</v>
@@ -4398,7 +4398,7 @@
       </c>
       <c r="D235" s="5"/>
     </row>
-    <row r="236" spans="1:4" ht="25.95" customHeight="1">
+    <row r="236" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="12"/>
       <c r="B236" s="1" t="s">
         <v>264</v>
@@ -4408,7 +4408,7 @@
       </c>
       <c r="D236" s="5"/>
     </row>
-    <row r="237" spans="1:4" ht="25.95" customHeight="1">
+    <row r="237" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="12"/>
       <c r="B237" s="1" t="s">
         <v>265</v>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="D237" s="5"/>
     </row>
-    <row r="238" spans="1:4" ht="25.95" customHeight="1">
+    <row r="238" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="13"/>
       <c r="B238" s="1" t="s">
         <v>266</v>
@@ -4428,7 +4428,7 @@
       </c>
       <c r="D238" s="5"/>
     </row>
-    <row r="239" spans="1:4" ht="25.95" customHeight="1">
+    <row r="239" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="11" t="s">
         <v>267</v>
       </c>
@@ -4440,7 +4440,7 @@
       </c>
       <c r="D239" s="5"/>
     </row>
-    <row r="240" spans="1:4" ht="25.95" customHeight="1">
+    <row r="240" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="12"/>
       <c r="B240" s="1" t="s">
         <v>269</v>
@@ -4450,7 +4450,7 @@
       </c>
       <c r="D240" s="5"/>
     </row>
-    <row r="241" spans="1:4" ht="25.95" customHeight="1">
+    <row r="241" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="12"/>
       <c r="B241" s="1" t="s">
         <v>270</v>
@@ -4460,7 +4460,7 @@
       </c>
       <c r="D241" s="5"/>
     </row>
-    <row r="242" spans="1:4" ht="25.95" customHeight="1">
+    <row r="242" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="12"/>
       <c r="B242" s="1" t="s">
         <v>271</v>
@@ -4470,7 +4470,7 @@
       </c>
       <c r="D242" s="5"/>
     </row>
-    <row r="243" spans="1:4" ht="25.95" customHeight="1">
+    <row r="243" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="12"/>
       <c r="B243" s="1" t="s">
         <v>272</v>
@@ -4480,7 +4480,7 @@
       </c>
       <c r="D243" s="5"/>
     </row>
-    <row r="244" spans="1:4" ht="25.95" customHeight="1">
+    <row r="244" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="13"/>
       <c r="B244" s="1" t="s">
         <v>273</v>
@@ -4490,7 +4490,7 @@
       </c>
       <c r="D244" s="5"/>
     </row>
-    <row r="245" spans="1:4" ht="25.95" customHeight="1">
+    <row r="245" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="11" t="s">
         <v>274</v>
       </c>
@@ -4502,7 +4502,7 @@
       </c>
       <c r="D245" s="5"/>
     </row>
-    <row r="246" spans="1:4" ht="25.95" customHeight="1">
+    <row r="246" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="13"/>
       <c r="B246" s="1" t="s">
         <v>276</v>
@@ -4512,7 +4512,7 @@
       </c>
       <c r="D246" s="5"/>
     </row>
-    <row r="247" spans="1:4" ht="25.95" customHeight="1">
+    <row r="247" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="11" t="s">
         <v>277</v>
       </c>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="D247" s="5"/>
     </row>
-    <row r="248" spans="1:4" ht="25.95" customHeight="1">
+    <row r="248" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="12"/>
       <c r="B248" s="1" t="s">
         <v>279</v>
@@ -4534,7 +4534,7 @@
       </c>
       <c r="D248" s="5"/>
     </row>
-    <row r="249" spans="1:4" ht="25.95" customHeight="1">
+    <row r="249" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="12"/>
       <c r="B249" s="1" t="s">
         <v>280</v>
@@ -4544,7 +4544,7 @@
       </c>
       <c r="D249" s="5"/>
     </row>
-    <row r="250" spans="1:4" ht="25.95" customHeight="1">
+    <row r="250" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="12"/>
       <c r="B250" s="1" t="s">
         <v>281</v>
@@ -4554,7 +4554,7 @@
       </c>
       <c r="D250" s="5"/>
     </row>
-    <row r="251" spans="1:4" ht="25.95" customHeight="1">
+    <row r="251" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="12"/>
       <c r="B251" s="1" t="s">
         <v>282</v>
@@ -4564,7 +4564,7 @@
       </c>
       <c r="D251" s="5"/>
     </row>
-    <row r="252" spans="1:4" ht="25.95" customHeight="1">
+    <row r="252" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="12"/>
       <c r="B252" s="1" t="s">
         <v>283</v>
@@ -4574,7 +4574,7 @@
       </c>
       <c r="D252" s="5"/>
     </row>
-    <row r="253" spans="1:4" ht="25.95" customHeight="1">
+    <row r="253" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="12"/>
       <c r="B253" s="1" t="s">
         <v>284</v>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="D253" s="5"/>
     </row>
-    <row r="254" spans="1:4" ht="25.95" customHeight="1">
+    <row r="254" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="12"/>
       <c r="B254" s="1" t="s">
         <v>285</v>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="D254" s="5"/>
     </row>
-    <row r="255" spans="1:4" ht="25.95" customHeight="1">
+    <row r="255" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="13"/>
       <c r="B255" s="1" t="s">
         <v>286</v>
@@ -4604,7 +4604,7 @@
       </c>
       <c r="D255" s="5"/>
     </row>
-    <row r="256" spans="1:4" ht="25.95" customHeight="1">
+    <row r="256" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="11" t="s">
         <v>287</v>
       </c>
@@ -4616,7 +4616,7 @@
       </c>
       <c r="D256" s="5"/>
     </row>
-    <row r="257" spans="1:4" ht="25.95" customHeight="1">
+    <row r="257" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="12"/>
       <c r="B257" s="1" t="s">
         <v>289</v>
@@ -4626,7 +4626,7 @@
       </c>
       <c r="D257" s="5"/>
     </row>
-    <row r="258" spans="1:4" ht="25.95" customHeight="1">
+    <row r="258" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="13"/>
       <c r="B258" s="1" t="s">
         <v>290</v>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="D258" s="5"/>
     </row>
-    <row r="259" spans="1:4" ht="25.95" customHeight="1">
+    <row r="259" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="11" t="s">
         <v>291</v>
       </c>
@@ -4648,7 +4648,7 @@
       </c>
       <c r="D259" s="5"/>
     </row>
-    <row r="260" spans="1:4" ht="25.95" customHeight="1">
+    <row r="260" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="12"/>
       <c r="B260" s="1" t="s">
         <v>293</v>
@@ -4658,7 +4658,7 @@
       </c>
       <c r="D260" s="5"/>
     </row>
-    <row r="261" spans="1:4" ht="25.95" customHeight="1">
+    <row r="261" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="12"/>
       <c r="B261" s="1" t="s">
         <v>294</v>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="D261" s="5"/>
     </row>
-    <row r="262" spans="1:4" ht="25.95" customHeight="1">
+    <row r="262" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="12"/>
       <c r="B262" s="1" t="s">
         <v>295</v>
@@ -4678,7 +4678,7 @@
       </c>
       <c r="D262" s="5"/>
     </row>
-    <row r="263" spans="1:4" ht="25.95" customHeight="1">
+    <row r="263" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="12"/>
       <c r="B263" s="1" t="s">
         <v>296</v>
@@ -4688,7 +4688,7 @@
       </c>
       <c r="D263" s="5"/>
     </row>
-    <row r="264" spans="1:4" ht="25.95" customHeight="1">
+    <row r="264" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="13"/>
       <c r="B264" s="1" t="s">
         <v>297</v>
@@ -4698,7 +4698,7 @@
       </c>
       <c r="D264" s="5"/>
     </row>
-    <row r="265" spans="1:4" ht="25.95" customHeight="1">
+    <row r="265" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="11" t="s">
         <v>298</v>
       </c>
@@ -4710,7 +4710,7 @@
       </c>
       <c r="D265" s="5"/>
     </row>
-    <row r="266" spans="1:4" ht="25.95" customHeight="1">
+    <row r="266" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="12"/>
       <c r="B266" s="1" t="s">
         <v>300</v>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="D266" s="5"/>
     </row>
-    <row r="267" spans="1:4" ht="25.95" customHeight="1">
+    <row r="267" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="12"/>
       <c r="B267" s="1" t="s">
         <v>301</v>
@@ -4730,7 +4730,7 @@
       </c>
       <c r="D267" s="5"/>
     </row>
-    <row r="268" spans="1:4" ht="25.95" customHeight="1">
+    <row r="268" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="12"/>
       <c r="B268" s="1" t="s">
         <v>302</v>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="D268" s="5"/>
     </row>
-    <row r="269" spans="1:4" ht="25.95" customHeight="1">
+    <row r="269" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="13"/>
       <c r="B269" s="1" t="s">
         <v>303</v>
@@ -4750,7 +4750,7 @@
       </c>
       <c r="D269" s="5"/>
     </row>
-    <row r="270" spans="1:4" ht="25.95" customHeight="1">
+    <row r="270" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="11" t="s">
         <v>304</v>
       </c>
@@ -4762,7 +4762,7 @@
       </c>
       <c r="D270" s="5"/>
     </row>
-    <row r="271" spans="1:4" ht="25.95" customHeight="1">
+    <row r="271" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="12"/>
       <c r="B271" s="1" t="s">
         <v>306</v>
@@ -4772,7 +4772,7 @@
       </c>
       <c r="D271" s="5"/>
     </row>
-    <row r="272" spans="1:4" ht="25.95" customHeight="1">
+    <row r="272" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="12"/>
       <c r="B272" s="1" t="s">
         <v>307</v>
@@ -4782,7 +4782,7 @@
       </c>
       <c r="D272" s="5"/>
     </row>
-    <row r="273" spans="1:4" ht="25.95" customHeight="1">
+    <row r="273" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="12"/>
       <c r="B273" s="1" t="s">
         <v>308</v>
@@ -4792,7 +4792,7 @@
       </c>
       <c r="D273" s="5"/>
     </row>
-    <row r="274" spans="1:4" ht="25.95" customHeight="1">
+    <row r="274" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="12"/>
       <c r="B274" s="1" t="s">
         <v>309</v>
@@ -4802,7 +4802,7 @@
       </c>
       <c r="D274" s="5"/>
     </row>
-    <row r="275" spans="1:4" ht="25.95" customHeight="1">
+    <row r="275" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="12"/>
       <c r="B275" s="1" t="s">
         <v>310</v>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="D275" s="5"/>
     </row>
-    <row r="276" spans="1:4" ht="25.95" customHeight="1">
+    <row r="276" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="12"/>
       <c r="B276" s="1" t="s">
         <v>311</v>
@@ -4822,7 +4822,7 @@
       </c>
       <c r="D276" s="5"/>
     </row>
-    <row r="277" spans="1:4" ht="25.95" customHeight="1">
+    <row r="277" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="12"/>
       <c r="B277" s="1" t="s">
         <v>312</v>
@@ -4832,7 +4832,7 @@
       </c>
       <c r="D277" s="5"/>
     </row>
-    <row r="278" spans="1:4" ht="25.95" customHeight="1">
+    <row r="278" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="12"/>
       <c r="B278" s="1" t="s">
         <v>313</v>
@@ -4842,7 +4842,7 @@
       </c>
       <c r="D278" s="5"/>
     </row>
-    <row r="279" spans="1:4" ht="25.95" customHeight="1">
+    <row r="279" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="13"/>
       <c r="B279" s="1" t="s">
         <v>314</v>
@@ -4852,7 +4852,7 @@
       </c>
       <c r="D279" s="5"/>
     </row>
-    <row r="280" spans="1:4" ht="25.95" customHeight="1">
+    <row r="280" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="11" t="s">
         <v>315</v>
       </c>
@@ -4864,7 +4864,7 @@
       </c>
       <c r="D280" s="5"/>
     </row>
-    <row r="281" spans="1:4" ht="25.95" customHeight="1">
+    <row r="281" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="13"/>
       <c r="B281" s="1" t="s">
         <v>317</v>
@@ -4874,7 +4874,7 @@
       </c>
       <c r="D281" s="5"/>
     </row>
-    <row r="282" spans="1:4" ht="25.95" customHeight="1">
+    <row r="282" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="11" t="s">
         <v>318</v>
       </c>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="D282" s="5"/>
     </row>
-    <row r="283" spans="1:4" ht="25.95" customHeight="1">
+    <row r="283" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="12"/>
       <c r="B283" s="1" t="s">
         <v>320</v>
@@ -4896,7 +4896,7 @@
       </c>
       <c r="D283" s="5"/>
     </row>
-    <row r="284" spans="1:4" ht="25.95" customHeight="1">
+    <row r="284" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="12"/>
       <c r="B284" s="1" t="s">
         <v>321</v>
@@ -4906,7 +4906,7 @@
       </c>
       <c r="D284" s="5"/>
     </row>
-    <row r="285" spans="1:4" ht="25.95" customHeight="1">
+    <row r="285" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="12"/>
       <c r="B285" s="1" t="s">
         <v>322</v>
@@ -4916,7 +4916,7 @@
       </c>
       <c r="D285" s="5"/>
     </row>
-    <row r="286" spans="1:4" ht="25.95" customHeight="1">
+    <row r="286" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="12"/>
       <c r="B286" s="1" t="s">
         <v>323</v>
@@ -4926,7 +4926,7 @@
       </c>
       <c r="D286" s="5"/>
     </row>
-    <row r="287" spans="1:4" ht="25.95" customHeight="1">
+    <row r="287" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="12"/>
       <c r="B287" s="1" t="s">
         <v>324</v>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="D287" s="5"/>
     </row>
-    <row r="288" spans="1:4" ht="25.95" customHeight="1">
+    <row r="288" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="12"/>
       <c r="B288" s="1" t="s">
         <v>325</v>
@@ -4946,7 +4946,7 @@
       </c>
       <c r="D288" s="5"/>
     </row>
-    <row r="289" spans="1:4" ht="25.95" customHeight="1">
+    <row r="289" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="12"/>
       <c r="B289" s="1" t="s">
         <v>326</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="D289" s="5"/>
     </row>
-    <row r="290" spans="1:4" ht="25.95" customHeight="1">
+    <row r="290" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="12"/>
       <c r="B290" s="1" t="s">
         <v>327</v>
@@ -4966,7 +4966,7 @@
       </c>
       <c r="D290" s="5"/>
     </row>
-    <row r="291" spans="1:4" ht="25.95" customHeight="1">
+    <row r="291" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="13"/>
       <c r="B291" s="1" t="s">
         <v>328</v>
@@ -4976,7 +4976,7 @@
       </c>
       <c r="D291" s="5"/>
     </row>
-    <row r="292" spans="1:4" ht="25.95" customHeight="1">
+    <row r="292" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="11" t="s">
         <v>329</v>
       </c>
@@ -4988,7 +4988,7 @@
       </c>
       <c r="D292" s="5"/>
     </row>
-    <row r="293" spans="1:4" ht="25.95" customHeight="1">
+    <row r="293" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="12"/>
       <c r="B293" s="1" t="s">
         <v>331</v>
@@ -4998,7 +4998,7 @@
       </c>
       <c r="D293" s="5"/>
     </row>
-    <row r="294" spans="1:4" ht="25.95" customHeight="1">
+    <row r="294" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="12"/>
       <c r="B294" s="1" t="s">
         <v>332</v>
@@ -5008,7 +5008,7 @@
       </c>
       <c r="D294" s="5"/>
     </row>
-    <row r="295" spans="1:4" ht="25.95" customHeight="1">
+    <row r="295" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="12"/>
       <c r="B295" s="1" t="s">
         <v>333</v>
@@ -5018,7 +5018,7 @@
       </c>
       <c r="D295" s="5"/>
     </row>
-    <row r="296" spans="1:4" ht="25.95" customHeight="1">
+    <row r="296" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="12"/>
       <c r="B296" s="1" t="s">
         <v>334</v>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="D296" s="5"/>
     </row>
-    <row r="297" spans="1:4" ht="25.95" customHeight="1">
+    <row r="297" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="12"/>
       <c r="B297" s="1" t="s">
         <v>335</v>
@@ -5038,7 +5038,7 @@
       </c>
       <c r="D297" s="5"/>
     </row>
-    <row r="298" spans="1:4" ht="25.95" customHeight="1">
+    <row r="298" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="12"/>
       <c r="B298" s="1" t="s">
         <v>336</v>
@@ -5048,7 +5048,7 @@
       </c>
       <c r="D298" s="5"/>
     </row>
-    <row r="299" spans="1:4" ht="25.95" customHeight="1">
+    <row r="299" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="12"/>
       <c r="B299" s="1" t="s">
         <v>337</v>
@@ -5058,7 +5058,7 @@
       </c>
       <c r="D299" s="5"/>
     </row>
-    <row r="300" spans="1:4" ht="25.95" customHeight="1">
+    <row r="300" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="12"/>
       <c r="B300" s="1" t="s">
         <v>338</v>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="D300" s="5"/>
     </row>
-    <row r="301" spans="1:4" ht="25.95" customHeight="1">
+    <row r="301" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="12"/>
       <c r="B301" s="1" t="s">
         <v>339</v>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="D301" s="5"/>
     </row>
-    <row r="302" spans="1:4" ht="25.95" customHeight="1">
+    <row r="302" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="12"/>
       <c r="B302" s="1" t="s">
         <v>340</v>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="D302" s="5"/>
     </row>
-    <row r="303" spans="1:4" ht="25.95" customHeight="1">
+    <row r="303" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="12"/>
       <c r="B303" s="1" t="s">
         <v>341</v>
@@ -5098,7 +5098,7 @@
       </c>
       <c r="D303" s="5"/>
     </row>
-    <row r="304" spans="1:4" ht="25.95" customHeight="1">
+    <row r="304" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="12"/>
       <c r="B304" s="1" t="s">
         <v>342</v>
@@ -5108,7 +5108,7 @@
       </c>
       <c r="D304" s="5"/>
     </row>
-    <row r="305" spans="1:4" ht="25.95" customHeight="1">
+    <row r="305" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="12"/>
       <c r="B305" s="1" t="s">
         <v>343</v>
@@ -5118,7 +5118,7 @@
       </c>
       <c r="D305" s="5"/>
     </row>
-    <row r="306" spans="1:4" ht="25.95" customHeight="1">
+    <row r="306" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="12"/>
       <c r="B306" s="1" t="s">
         <v>344</v>
@@ -5128,7 +5128,7 @@
       </c>
       <c r="D306" s="5"/>
     </row>
-    <row r="307" spans="1:4" ht="25.95" customHeight="1">
+    <row r="307" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="12"/>
       <c r="B307" s="1" t="s">
         <v>345</v>
@@ -5138,7 +5138,7 @@
       </c>
       <c r="D307" s="5"/>
     </row>
-    <row r="308" spans="1:4" ht="25.95" customHeight="1">
+    <row r="308" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="12"/>
       <c r="B308" s="1" t="s">
         <v>346</v>
@@ -5148,7 +5148,7 @@
       </c>
       <c r="D308" s="5"/>
     </row>
-    <row r="309" spans="1:4" ht="25.95" customHeight="1">
+    <row r="309" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="12"/>
       <c r="B309" s="1" t="s">
         <v>347</v>
@@ -5158,7 +5158,7 @@
       </c>
       <c r="D309" s="5"/>
     </row>
-    <row r="310" spans="1:4" ht="25.95" customHeight="1">
+    <row r="310" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="12"/>
       <c r="B310" s="1" t="s">
         <v>348</v>
@@ -5168,7 +5168,7 @@
       </c>
       <c r="D310" s="5"/>
     </row>
-    <row r="311" spans="1:4" ht="25.95" customHeight="1">
+    <row r="311" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="12"/>
       <c r="B311" s="1" t="s">
         <v>349</v>
@@ -5178,7 +5178,7 @@
       </c>
       <c r="D311" s="5"/>
     </row>
-    <row r="312" spans="1:4" ht="25.95" customHeight="1">
+    <row r="312" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="13"/>
       <c r="B312" s="1" t="s">
         <v>350</v>
@@ -5188,7 +5188,7 @@
       </c>
       <c r="D312" s="5"/>
     </row>
-    <row r="313" spans="1:4" ht="25.95" customHeight="1">
+    <row r="313" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
         <v>351</v>
       </c>
@@ -5200,7 +5200,7 @@
       </c>
       <c r="D313" s="5"/>
     </row>
-    <row r="314" spans="1:4" ht="25.95" customHeight="1">
+    <row r="314" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="11" t="s">
         <v>353</v>
       </c>
@@ -5212,7 +5212,7 @@
       </c>
       <c r="D314" s="5"/>
     </row>
-    <row r="315" spans="1:4" ht="25.95" customHeight="1">
+    <row r="315" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="12"/>
       <c r="B315" s="1" t="s">
         <v>355</v>
@@ -5222,7 +5222,7 @@
       </c>
       <c r="D315" s="5"/>
     </row>
-    <row r="316" spans="1:4" ht="25.95" customHeight="1">
+    <row r="316" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="12"/>
       <c r="B316" s="1" t="s">
         <v>356</v>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="D316" s="5"/>
     </row>
-    <row r="317" spans="1:4" ht="25.95" customHeight="1">
+    <row r="317" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="12"/>
       <c r="B317" s="1" t="s">
         <v>357</v>
@@ -5242,7 +5242,7 @@
       </c>
       <c r="D317" s="5"/>
     </row>
-    <row r="318" spans="1:4" ht="25.95" customHeight="1">
+    <row r="318" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="12"/>
       <c r="B318" s="1" t="s">
         <v>358</v>
@@ -5252,7 +5252,7 @@
       </c>
       <c r="D318" s="5"/>
     </row>
-    <row r="319" spans="1:4" ht="25.95" customHeight="1">
+    <row r="319" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="12"/>
       <c r="B319" s="1" t="s">
         <v>359</v>
@@ -5262,7 +5262,7 @@
       </c>
       <c r="D319" s="5"/>
     </row>
-    <row r="320" spans="1:4" ht="25.95" customHeight="1">
+    <row r="320" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="12"/>
       <c r="B320" s="1" t="s">
         <v>360</v>
@@ -5272,7 +5272,7 @@
       </c>
       <c r="D320" s="5"/>
     </row>
-    <row r="321" spans="1:4" ht="25.95" customHeight="1">
+    <row r="321" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="13"/>
       <c r="B321" s="1" t="s">
         <v>361</v>
@@ -5282,7 +5282,7 @@
       </c>
       <c r="D321" s="5"/>
     </row>
-    <row r="322" spans="1:4" ht="25.95" customHeight="1">
+    <row r="322" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
         <v>362</v>
       </c>
@@ -5294,7 +5294,7 @@
       </c>
       <c r="D322" s="5"/>
     </row>
-    <row r="323" spans="1:4" ht="25.95" customHeight="1">
+    <row r="323" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="11" t="s">
         <v>364</v>
       </c>
@@ -5306,7 +5306,7 @@
       </c>
       <c r="D323" s="5"/>
     </row>
-    <row r="324" spans="1:4" ht="25.95" customHeight="1">
+    <row r="324" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="12"/>
       <c r="B324" s="1" t="s">
         <v>366</v>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="D324" s="5"/>
     </row>
-    <row r="325" spans="1:4" ht="25.95" customHeight="1">
+    <row r="325" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="12"/>
       <c r="B325" s="1" t="s">
         <v>367</v>
@@ -5326,7 +5326,7 @@
       </c>
       <c r="D325" s="5"/>
     </row>
-    <row r="326" spans="1:4" ht="25.95" customHeight="1">
+    <row r="326" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="12"/>
       <c r="B326" s="1" t="s">
         <v>368</v>
@@ -5336,7 +5336,7 @@
       </c>
       <c r="D326" s="5"/>
     </row>
-    <row r="327" spans="1:4" ht="25.95" customHeight="1">
+    <row r="327" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="12"/>
       <c r="B327" s="1" t="s">
         <v>369</v>
@@ -5346,7 +5346,7 @@
       </c>
       <c r="D327" s="5"/>
     </row>
-    <row r="328" spans="1:4" ht="25.95" customHeight="1">
+    <row r="328" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="13"/>
       <c r="B328" s="1" t="s">
         <v>370</v>
@@ -5356,7 +5356,7 @@
       </c>
       <c r="D328" s="5"/>
     </row>
-    <row r="329" spans="1:4" ht="25.95" customHeight="1">
+    <row r="329" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="11" t="s">
         <v>371</v>
       </c>
@@ -5368,7 +5368,7 @@
       </c>
       <c r="D329" s="5"/>
     </row>
-    <row r="330" spans="1:4" ht="25.95" customHeight="1">
+    <row r="330" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="12"/>
       <c r="B330" s="1" t="s">
         <v>373</v>
@@ -5378,7 +5378,7 @@
       </c>
       <c r="D330" s="5"/>
     </row>
-    <row r="331" spans="1:4" ht="25.95" customHeight="1">
+    <row r="331" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="12"/>
       <c r="B331" s="1" t="s">
         <v>374</v>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="D331" s="5"/>
     </row>
-    <row r="332" spans="1:4" ht="25.95" customHeight="1">
+    <row r="332" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="12"/>
       <c r="B332" s="1" t="s">
         <v>375</v>
@@ -5398,7 +5398,7 @@
       </c>
       <c r="D332" s="5"/>
     </row>
-    <row r="333" spans="1:4" ht="25.95" customHeight="1">
+    <row r="333" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="12"/>
       <c r="B333" s="1" t="s">
         <v>376</v>
@@ -5408,7 +5408,7 @@
       </c>
       <c r="D333" s="5"/>
     </row>
-    <row r="334" spans="1:4" ht="25.95" customHeight="1">
+    <row r="334" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="12"/>
       <c r="B334" s="1" t="s">
         <v>377</v>
@@ -5418,7 +5418,7 @@
       </c>
       <c r="D334" s="5"/>
     </row>
-    <row r="335" spans="1:4" ht="25.95" customHeight="1">
+    <row r="335" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="12"/>
       <c r="B335" s="1" t="s">
         <v>378</v>
@@ -5428,7 +5428,7 @@
       </c>
       <c r="D335" s="5"/>
     </row>
-    <row r="336" spans="1:4" ht="25.95" customHeight="1">
+    <row r="336" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="12"/>
       <c r="B336" s="1" t="s">
         <v>379</v>
@@ -5438,7 +5438,7 @@
       </c>
       <c r="D336" s="5"/>
     </row>
-    <row r="337" spans="1:4" ht="25.95" customHeight="1">
+    <row r="337" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="12"/>
       <c r="B337" s="1" t="s">
         <v>380</v>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="D337" s="5"/>
     </row>
-    <row r="338" spans="1:4" ht="25.95" customHeight="1">
+    <row r="338" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="12"/>
       <c r="B338" s="1" t="s">
         <v>381</v>
@@ -5458,7 +5458,7 @@
       </c>
       <c r="D338" s="5"/>
     </row>
-    <row r="339" spans="1:4" ht="25.95" customHeight="1">
+    <row r="339" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="12"/>
       <c r="B339" s="1" t="s">
         <v>382</v>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="D339" s="5"/>
     </row>
-    <row r="340" spans="1:4" ht="25.95" customHeight="1">
+    <row r="340" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="12"/>
       <c r="B340" s="1" t="s">
         <v>383</v>
@@ -5478,7 +5478,7 @@
       </c>
       <c r="D340" s="5"/>
     </row>
-    <row r="341" spans="1:4" ht="25.95" customHeight="1">
+    <row r="341" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="12"/>
       <c r="B341" s="1" t="s">
         <v>384</v>
@@ -5488,7 +5488,7 @@
       </c>
       <c r="D341" s="5"/>
     </row>
-    <row r="342" spans="1:4" ht="25.95" customHeight="1">
+    <row r="342" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="12"/>
       <c r="B342" s="1" t="s">
         <v>385</v>
@@ -5498,7 +5498,7 @@
       </c>
       <c r="D342" s="5"/>
     </row>
-    <row r="343" spans="1:4" ht="25.95" customHeight="1">
+    <row r="343" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="12"/>
       <c r="B343" s="1" t="s">
         <v>386</v>
@@ -5508,7 +5508,7 @@
       </c>
       <c r="D343" s="5"/>
     </row>
-    <row r="344" spans="1:4" ht="25.95" customHeight="1">
+    <row r="344" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="12"/>
       <c r="B344" s="1" t="s">
         <v>387</v>
@@ -5518,7 +5518,7 @@
       </c>
       <c r="D344" s="5"/>
     </row>
-    <row r="345" spans="1:4" ht="25.95" customHeight="1">
+    <row r="345" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="12"/>
       <c r="B345" s="1" t="s">
         <v>388</v>
@@ -5528,7 +5528,7 @@
       </c>
       <c r="D345" s="5"/>
     </row>
-    <row r="346" spans="1:4" ht="25.95" customHeight="1">
+    <row r="346" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="12"/>
       <c r="B346" s="1" t="s">
         <v>389</v>
@@ -5538,7 +5538,7 @@
       </c>
       <c r="D346" s="5"/>
     </row>
-    <row r="347" spans="1:4" ht="25.95" customHeight="1">
+    <row r="347" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="12"/>
       <c r="B347" s="1" t="s">
         <v>390</v>
@@ -5548,7 +5548,7 @@
       </c>
       <c r="D347" s="5"/>
     </row>
-    <row r="348" spans="1:4" ht="25.95" customHeight="1">
+    <row r="348" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="12"/>
       <c r="B348" s="1" t="s">
         <v>391</v>
@@ -5558,7 +5558,7 @@
       </c>
       <c r="D348" s="5"/>
     </row>
-    <row r="349" spans="1:4" ht="25.95" customHeight="1">
+    <row r="349" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="12"/>
       <c r="B349" s="1" t="s">
         <v>392</v>
@@ -5568,7 +5568,7 @@
       </c>
       <c r="D349" s="5"/>
     </row>
-    <row r="350" spans="1:4" ht="25.95" customHeight="1">
+    <row r="350" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="12"/>
       <c r="B350" s="1" t="s">
         <v>393</v>
@@ -5578,7 +5578,7 @@
       </c>
       <c r="D350" s="5"/>
     </row>
-    <row r="351" spans="1:4" ht="25.95" customHeight="1">
+    <row r="351" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="12"/>
       <c r="B351" s="1" t="s">
         <v>394</v>
@@ -5588,7 +5588,7 @@
       </c>
       <c r="D351" s="5"/>
     </row>
-    <row r="352" spans="1:4" ht="25.95" customHeight="1">
+    <row r="352" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="12"/>
       <c r="B352" s="1" t="s">
         <v>395</v>
@@ -5598,7 +5598,7 @@
       </c>
       <c r="D352" s="5"/>
     </row>
-    <row r="353" spans="1:4" ht="25.95" customHeight="1">
+    <row r="353" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="12"/>
       <c r="B353" s="1" t="s">
         <v>396</v>
@@ -5608,7 +5608,7 @@
       </c>
       <c r="D353" s="5"/>
     </row>
-    <row r="354" spans="1:4" ht="25.95" customHeight="1">
+    <row r="354" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="12"/>
       <c r="B354" s="1" t="s">
         <v>397</v>
@@ -5618,7 +5618,7 @@
       </c>
       <c r="D354" s="5"/>
     </row>
-    <row r="355" spans="1:4" ht="25.95" customHeight="1">
+    <row r="355" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="12"/>
       <c r="B355" s="1" t="s">
         <v>398</v>
@@ -5628,7 +5628,7 @@
       </c>
       <c r="D355" s="5"/>
     </row>
-    <row r="356" spans="1:4" ht="25.95" customHeight="1">
+    <row r="356" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="12"/>
       <c r="B356" s="1" t="s">
         <v>399</v>
@@ -5638,7 +5638,7 @@
       </c>
       <c r="D356" s="5"/>
     </row>
-    <row r="357" spans="1:4" ht="25.95" customHeight="1">
+    <row r="357" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="12"/>
       <c r="B357" s="1" t="s">
         <v>400</v>
@@ -5648,7 +5648,7 @@
       </c>
       <c r="D357" s="5"/>
     </row>
-    <row r="358" spans="1:4" ht="25.95" customHeight="1">
+    <row r="358" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="13"/>
       <c r="B358" s="1" t="s">
         <v>401</v>
@@ -5660,6 +5660,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A90:A97"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A25:A52"/>
+    <mergeCell ref="A53:A62"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A89"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="A181:A200"/>
+    <mergeCell ref="A201:A210"/>
+    <mergeCell ref="A212:A233"/>
+    <mergeCell ref="A234:A238"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A122:A154"/>
+    <mergeCell ref="A155:A165"/>
+    <mergeCell ref="A166:A167"/>
     <mergeCell ref="A329:A358"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A270:A279"/>
@@ -5676,33 +5703,6 @@
     <mergeCell ref="A265:A269"/>
     <mergeCell ref="A168:A177"/>
     <mergeCell ref="A178:A180"/>
-    <mergeCell ref="A181:A200"/>
-    <mergeCell ref="A201:A210"/>
-    <mergeCell ref="A212:A233"/>
-    <mergeCell ref="A234:A238"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A122:A154"/>
-    <mergeCell ref="A155:A165"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A107:A112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="A90:A97"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="A25:A52"/>
-    <mergeCell ref="A53:A62"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A68:A74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A83:A89"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C358">
@@ -5710,7 +5710,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5718,54 +5718,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A37" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="27.5546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="1" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.8" customHeight="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>460</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>403</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
         <v>409</v>
       </c>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="9" t="s">
         <v>410</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -5792,7 +5792,7 @@
       </c>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>414</v>
       </c>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>415</v>
       </c>
@@ -5818,7 +5818,7 @@
       </c>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>416</v>
       </c>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>417</v>
       </c>
@@ -5844,7 +5844,7 @@
       </c>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>418</v>
       </c>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -5866,7 +5866,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>419</v>
       </c>
@@ -5879,7 +5879,7 @@
       </c>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>420</v>
       </c>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>421</v>
       </c>
@@ -5905,7 +5905,7 @@
       </c>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>422</v>
       </c>
@@ -5918,7 +5918,7 @@
       </c>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>423</v>
       </c>
@@ -5931,7 +5931,7 @@
       </c>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>424</v>
       </c>
@@ -5944,7 +5944,7 @@
       </c>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>425</v>
       </c>
@@ -5957,7 +5957,7 @@
       </c>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>426</v>
       </c>
@@ -5970,7 +5970,7 @@
       </c>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>427</v>
       </c>
@@ -5983,7 +5983,7 @@
       </c>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>428</v>
       </c>
@@ -5996,7 +5996,7 @@
       </c>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>429</v>
       </c>
@@ -6009,7 +6009,7 @@
       </c>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>430</v>
       </c>
@@ -6022,7 +6022,7 @@
       </c>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>431</v>
       </c>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>432</v>
       </c>
@@ -6048,7 +6048,7 @@
       </c>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>433</v>
       </c>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>434</v>
       </c>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>435</v>
       </c>
@@ -6087,7 +6087,7 @@
       </c>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>436</v>
       </c>
@@ -6100,7 +6100,7 @@
       </c>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>437</v>
       </c>
@@ -6113,7 +6113,7 @@
       </c>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>438</v>
       </c>
@@ -6126,7 +6126,7 @@
       </c>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>439</v>
       </c>
@@ -6139,7 +6139,7 @@
       </c>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>440</v>
       </c>
@@ -6152,7 +6152,7 @@
       </c>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>441</v>
       </c>
@@ -6165,7 +6165,7 @@
       </c>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>442</v>
       </c>
@@ -6178,7 +6178,7 @@
       </c>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>443</v>
       </c>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>444</v>
       </c>
@@ -6204,7 +6204,7 @@
       </c>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>445</v>
       </c>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -6226,7 +6226,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>446</v>
       </c>
@@ -6239,7 +6239,7 @@
       </c>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>447</v>
       </c>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>448</v>
       </c>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>449</v>
       </c>
@@ -6278,7 +6278,7 @@
       </c>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>450</v>
       </c>
@@ -6291,7 +6291,7 @@
       </c>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>451</v>
       </c>
@@ -6304,7 +6304,7 @@
       </c>
       <c r="G44" s="10"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>452</v>
       </c>
@@ -6317,7 +6317,7 @@
       </c>
       <c r="G45" s="10"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>453</v>
       </c>
@@ -6330,7 +6330,7 @@
       </c>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -6339,7 +6339,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="10"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>454</v>
       </c>
@@ -6352,7 +6352,7 @@
       </c>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>455</v>
       </c>
@@ -6365,7 +6365,7 @@
       </c>
       <c r="G49" s="10"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>456</v>
       </c>
@@ -6378,7 +6378,7 @@
       </c>
       <c r="G50" s="10"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>457</v>
       </c>
@@ -6391,7 +6391,7 @@
       </c>
       <c r="G51" s="10"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>458</v>
       </c>
@@ -6404,7 +6404,7 @@
       </c>
       <c r="G52" s="10"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>459</v>
       </c>
@@ -6427,6 +6427,6 @@
     <mergeCell ref="B2:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Civilworks cost/LD/LD Annexes.xlsx
+++ b/Civilworks cost/LD/LD Annexes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Annex-II" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="469">
   <si>
     <t xml:space="preserve">HOBI/PW-01 </t>
   </si>
@@ -1322,18 +1322,12 @@
     <t>Contract Package Name</t>
   </si>
   <si>
-    <t>Did Hampered by Land Acquition Problems (Yes/No)</t>
-  </si>
-  <si>
     <t>Detail Description of the Problems</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t xml:space="preserve"> Example:Inbetween Km 16.700 to 18.900 Local Land Owner  Obstructed Works in demand for Leand Payment</t>
-  </si>
-  <si>
     <t>Amount of Calim as per GCC 69.1(a)</t>
   </si>
   <si>
@@ -1494,13 +1488,40 @@
   </si>
   <si>
     <t>Annexture-II: List of Site where works stopped due to Land Acquisition</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Land Ownesr obstructed Mobilization of the Contractor Before Reciept of Land Payment</t>
+  </si>
+  <si>
+    <t>Land Owners obstructed Mobilization of the Contractor Before Reciept of Land Payment</t>
+  </si>
+  <si>
+    <t>Due to LAND acquiition problems site posession could not be give at different location</t>
+  </si>
+  <si>
+    <t>Site poseesion could not be give due to LA</t>
+  </si>
+  <si>
+    <t>Work Extension.Design changed and approval process from competent authorty</t>
+  </si>
+  <si>
+    <t>Did Progress Hampered by Land Acquition Problems/Other Problems due to Employer (Yes/No)</t>
+  </si>
+  <si>
+    <t>Work Delayed due to long negotiation with Land Owners for permission to start work before receiving Land Compensation</t>
+  </si>
+  <si>
+    <t>Structure was partially damaged due to faulty assumption during planning which was reflected in design</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1519,13 +1540,34 @@
       <color theme="1"/>
       <name val="Times-Bold"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times-Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times-Bold"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -1638,7 +1680,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1687,6 +1729,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1970,27 +2054,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D358"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A352" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155:A165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="57.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="133.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="66.77734375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" customWidth="1"/>
+    <col min="4" max="4" width="69" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="48.6" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="16"/>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="64.2" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>403</v>
       </c>
@@ -1998,1579 +2082,1641 @@
         <v>402</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="1" t="s">
+      <c r="C3" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A4" s="23"/>
+      <c r="B4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="1" t="s">
+      <c r="C4" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A5" s="23"/>
+      <c r="B5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="1" t="s">
+      <c r="C5" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A6" s="23"/>
+      <c r="B6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="1" t="s">
+      <c r="C6" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A7" s="23"/>
+      <c r="B7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="1" t="s">
+      <c r="C7" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="8" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A8" s="24"/>
+      <c r="B8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="C8" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="1" t="s">
+      <c r="C9" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D9" s="22"/>
+    </row>
+    <row r="10" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A10" s="23"/>
+      <c r="B10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="1" t="s">
+      <c r="C10" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A11" s="23"/>
+      <c r="B11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="1" t="s">
+      <c r="C11" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A12" s="23"/>
+      <c r="B12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="1" t="s">
+      <c r="C12" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A13" s="23"/>
+      <c r="B13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="1" t="s">
+      <c r="C13" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A14" s="23"/>
+      <c r="B14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="1" t="s">
+      <c r="C14" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D14" s="22"/>
+    </row>
+    <row r="15" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A15" s="23"/>
+      <c r="B15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="1" t="s">
+      <c r="C15" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A16" s="24"/>
+      <c r="B16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="C16" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D16" s="22"/>
+    </row>
+    <row r="17" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A17" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="C17" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A18" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="1" t="s">
+      <c r="C18" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A19" s="30"/>
+      <c r="B19" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="1" t="s">
+      <c r="C19" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D19" s="29"/>
+    </row>
+    <row r="20" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A20" s="30"/>
+      <c r="B20" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="1" t="s">
+      <c r="C20" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D20" s="29"/>
+    </row>
+    <row r="21" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A21" s="30"/>
+      <c r="B21" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="1" t="s">
+      <c r="C21" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A22" s="30"/>
+      <c r="B22" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="1" t="s">
+      <c r="C22" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A23" s="30"/>
+      <c r="B23" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="1" t="s">
+      <c r="C23" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A24" s="31"/>
+      <c r="B24" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="C24" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D24" s="29"/>
+    </row>
+    <row r="25" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A25" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="1" t="s">
+      <c r="C25" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D25" s="29"/>
+    </row>
+    <row r="26" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A26" s="30"/>
+      <c r="B26" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="1" t="s">
+      <c r="C26" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D26" s="29"/>
+    </row>
+    <row r="27" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A27" s="30"/>
+      <c r="B27" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="1" t="s">
+      <c r="C27" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D27" s="29"/>
+    </row>
+    <row r="28" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A28" s="30"/>
+      <c r="B28" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="1" t="s">
+      <c r="C28" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D28" s="29"/>
+    </row>
+    <row r="29" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A29" s="30"/>
+      <c r="B29" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="1" t="s">
+      <c r="C29" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D29" s="29"/>
+    </row>
+    <row r="30" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A30" s="30"/>
+      <c r="B30" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="1" t="s">
+      <c r="C30" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D30" s="29"/>
+    </row>
+    <row r="31" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A31" s="30"/>
+      <c r="B31" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="1" t="s">
+      <c r="C31" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D31" s="29"/>
+    </row>
+    <row r="32" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A32" s="30"/>
+      <c r="B32" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="1" t="s">
+      <c r="C32" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D32" s="29"/>
+    </row>
+    <row r="33" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A33" s="30"/>
+      <c r="B33" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="1" t="s">
+      <c r="C33" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D33" s="29"/>
+    </row>
+    <row r="34" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A34" s="30"/>
+      <c r="B34" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="1" t="s">
+      <c r="C34" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D34" s="29"/>
+    </row>
+    <row r="35" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A35" s="30"/>
+      <c r="B35" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="1" t="s">
+      <c r="C35" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D35" s="29"/>
+    </row>
+    <row r="36" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A36" s="30"/>
+      <c r="B36" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="1" t="s">
+      <c r="C36" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D36" s="29"/>
+    </row>
+    <row r="37" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A37" s="30"/>
+      <c r="B37" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="1" t="s">
+      <c r="C37" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D37" s="29"/>
+    </row>
+    <row r="38" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A38" s="30"/>
+      <c r="B38" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="1" t="s">
+      <c r="C38" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D38" s="29"/>
+    </row>
+    <row r="39" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A39" s="30"/>
+      <c r="B39" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="1" t="s">
+      <c r="C39" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D39" s="29"/>
+    </row>
+    <row r="40" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A40" s="30"/>
+      <c r="B40" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="1" t="s">
+      <c r="C40" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D40" s="29"/>
+    </row>
+    <row r="41" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A41" s="30"/>
+      <c r="B41" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="1" t="s">
+      <c r="C41" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D41" s="29"/>
+    </row>
+    <row r="42" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A42" s="30"/>
+      <c r="B42" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="1" t="s">
+      <c r="C42" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D42" s="29"/>
+    </row>
+    <row r="43" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A43" s="30"/>
+      <c r="B43" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="1" t="s">
+      <c r="C43" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D43" s="29"/>
+    </row>
+    <row r="44" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A44" s="30"/>
+      <c r="B44" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="1" t="s">
+      <c r="C44" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D44" s="29"/>
+    </row>
+    <row r="45" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A45" s="30"/>
+      <c r="B45" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="1" t="s">
+      <c r="C45" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D45" s="29"/>
+    </row>
+    <row r="46" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A46" s="30"/>
+      <c r="B46" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="1" t="s">
+      <c r="C46" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D46" s="29"/>
+    </row>
+    <row r="47" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A47" s="30"/>
+      <c r="B47" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="1" t="s">
+      <c r="C47" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D47" s="29"/>
+    </row>
+    <row r="48" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A48" s="30"/>
+      <c r="B48" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D48" s="5"/>
-    </row>
-    <row r="49" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="1" t="s">
+      <c r="C48" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D48" s="29"/>
+    </row>
+    <row r="49" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A49" s="30"/>
+      <c r="B49" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D49" s="5"/>
-    </row>
-    <row r="50" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" s="1" t="s">
+      <c r="C49" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D49" s="29"/>
+    </row>
+    <row r="50" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A50" s="30"/>
+      <c r="B50" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D50" s="5"/>
-    </row>
-    <row r="51" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="B51" s="1" t="s">
+      <c r="C50" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A51" s="30"/>
+      <c r="B51" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D51" s="5"/>
-    </row>
-    <row r="52" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="1" t="s">
+      <c r="C51" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D51" s="29"/>
+    </row>
+    <row r="52" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A52" s="31"/>
+      <c r="B52" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D52" s="5"/>
-    </row>
-    <row r="53" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
+      <c r="C52" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D52" s="29"/>
+    </row>
+    <row r="53" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A53" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D53" s="5"/>
-    </row>
-    <row r="54" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
-      <c r="B54" s="1" t="s">
+      <c r="C53" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A54" s="30"/>
+      <c r="B54" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
-      <c r="B55" s="1" t="s">
+      <c r="C54" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D54" s="29"/>
+    </row>
+    <row r="55" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A55" s="30"/>
+      <c r="B55" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D55" s="5"/>
-    </row>
-    <row r="56" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
-      <c r="B56" s="1" t="s">
+      <c r="C55" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D55" s="29"/>
+    </row>
+    <row r="56" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A56" s="30"/>
+      <c r="B56" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D56" s="5"/>
-    </row>
-    <row r="57" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
-      <c r="B57" s="1" t="s">
+      <c r="C56" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D56" s="29"/>
+    </row>
+    <row r="57" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A57" s="30"/>
+      <c r="B57" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D57" s="5"/>
-    </row>
-    <row r="58" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
-      <c r="B58" s="1" t="s">
+      <c r="C57" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D57" s="29"/>
+    </row>
+    <row r="58" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A58" s="30"/>
+      <c r="B58" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D58" s="5"/>
-    </row>
-    <row r="59" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
-      <c r="B59" s="1" t="s">
+      <c r="C58" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A59" s="30"/>
+      <c r="B59" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D59" s="5"/>
-    </row>
-    <row r="60" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
-      <c r="B60" s="1" t="s">
+      <c r="C59" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D59" s="29"/>
+    </row>
+    <row r="60" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A60" s="30"/>
+      <c r="B60" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D60" s="5"/>
-    </row>
-    <row r="61" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
-      <c r="B61" s="1" t="s">
+      <c r="C60" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D60" s="29"/>
+    </row>
+    <row r="61" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A61" s="30"/>
+      <c r="B61" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D61" s="5"/>
-    </row>
-    <row r="62" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
-      <c r="B62" s="1" t="s">
+      <c r="C61" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D61" s="29"/>
+    </row>
+    <row r="62" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A62" s="31"/>
+      <c r="B62" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D62" s="5"/>
-    </row>
-    <row r="63" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
+      <c r="C62" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D62" s="29"/>
+    </row>
+    <row r="63" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A63" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D63" s="5"/>
-    </row>
-    <row r="64" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="12"/>
-      <c r="B64" s="1" t="s">
+      <c r="C63" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A64" s="30"/>
+      <c r="B64" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D64" s="5"/>
-    </row>
-    <row r="65" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="12"/>
-      <c r="B65" s="1" t="s">
+      <c r="C64" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A65" s="30"/>
+      <c r="B65" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D65" s="5"/>
-    </row>
-    <row r="66" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="12"/>
-      <c r="B66" s="1" t="s">
+      <c r="C65" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D65" s="29"/>
+    </row>
+    <row r="66" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A66" s="30"/>
+      <c r="B66" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D66" s="5"/>
-    </row>
-    <row r="67" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
-      <c r="B67" s="1" t="s">
+      <c r="C66" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D66" s="29"/>
+    </row>
+    <row r="67" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A67" s="31"/>
+      <c r="B67" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D67" s="5"/>
-    </row>
-    <row r="68" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
+      <c r="C67" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D67" s="29"/>
+    </row>
+    <row r="68" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A68" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D68" s="5"/>
-    </row>
-    <row r="69" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
-      <c r="B69" s="1" t="s">
+      <c r="C68" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D68" s="29"/>
+    </row>
+    <row r="69" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A69" s="30"/>
+      <c r="B69" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D69" s="5"/>
-    </row>
-    <row r="70" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="12"/>
-      <c r="B70" s="1" t="s">
+      <c r="C69" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="D69" s="29" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A70" s="30"/>
+      <c r="B70" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D70" s="5"/>
-    </row>
-    <row r="71" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="12"/>
-      <c r="B71" s="1" t="s">
+      <c r="C70" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D70" s="29"/>
+    </row>
+    <row r="71" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A71" s="30"/>
+      <c r="B71" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D71" s="5"/>
-    </row>
-    <row r="72" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="12"/>
-      <c r="B72" s="1" t="s">
+      <c r="C71" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D71" s="29"/>
+    </row>
+    <row r="72" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A72" s="30"/>
+      <c r="B72" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D72" s="5"/>
-    </row>
-    <row r="73" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="12"/>
-      <c r="B73" s="1" t="s">
+      <c r="C72" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D72" s="29"/>
+    </row>
+    <row r="73" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A73" s="30"/>
+      <c r="B73" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D73" s="5"/>
-    </row>
-    <row r="74" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="13"/>
-      <c r="B74" s="1" t="s">
+      <c r="C73" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D73" s="29"/>
+    </row>
+    <row r="74" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A74" s="31"/>
+      <c r="B74" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D74" s="5"/>
-    </row>
-    <row r="75" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
+      <c r="C74" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D74" s="29"/>
+    </row>
+    <row r="75" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A75" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D75" s="5"/>
-    </row>
-    <row r="76" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="13"/>
-      <c r="B76" s="1" t="s">
+      <c r="C75" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D75" s="32"/>
+    </row>
+    <row r="76" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A76" s="31"/>
+      <c r="B76" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D76" s="5"/>
-    </row>
-    <row r="77" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
+      <c r="C76" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A77" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D77" s="5"/>
-    </row>
-    <row r="78" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="12"/>
-      <c r="B78" s="1" t="s">
+      <c r="C77" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D77" s="29"/>
+    </row>
+    <row r="78" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A78" s="30"/>
+      <c r="B78" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D78" s="5"/>
-    </row>
-    <row r="79" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="12"/>
-      <c r="B79" s="1" t="s">
+      <c r="C78" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D78" s="29"/>
+    </row>
+    <row r="79" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A79" s="30"/>
+      <c r="B79" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D79" s="5"/>
-    </row>
-    <row r="80" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="13"/>
-      <c r="B80" s="1" t="s">
+      <c r="C79" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D79" s="29"/>
+    </row>
+    <row r="80" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A80" s="31"/>
+      <c r="B80" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D80" s="5"/>
-    </row>
-    <row r="81" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
+      <c r="C80" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="D80" s="29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A81" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D81" s="5"/>
-    </row>
-    <row r="82" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="13"/>
-      <c r="B82" s="1" t="s">
+      <c r="C81" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D81" s="29"/>
+    </row>
+    <row r="82" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A82" s="31"/>
+      <c r="B82" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D82" s="5"/>
-    </row>
-    <row r="83" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="11" t="s">
+      <c r="C82" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="D82" s="29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A83" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D83" s="5"/>
-    </row>
-    <row r="84" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="12"/>
-      <c r="B84" s="1" t="s">
+      <c r="C83" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D83" s="29"/>
+    </row>
+    <row r="84" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A84" s="30"/>
+      <c r="B84" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D84" s="5"/>
-    </row>
-    <row r="85" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="12"/>
-      <c r="B85" s="1" t="s">
+      <c r="C84" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="D84" s="29"/>
+    </row>
+    <row r="85" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A85" s="30"/>
+      <c r="B85" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D85" s="5"/>
-    </row>
-    <row r="86" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="12"/>
-      <c r="B86" s="1" t="s">
+      <c r="C85" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D85" s="29"/>
+    </row>
+    <row r="86" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A86" s="30"/>
+      <c r="B86" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D86" s="5"/>
-    </row>
-    <row r="87" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="12"/>
-      <c r="B87" s="1" t="s">
+      <c r="C86" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D86" s="29"/>
+    </row>
+    <row r="87" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A87" s="30"/>
+      <c r="B87" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D87" s="5"/>
-    </row>
-    <row r="88" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="12"/>
-      <c r="B88" s="1" t="s">
+      <c r="C87" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D87" s="29"/>
+    </row>
+    <row r="88" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A88" s="30"/>
+      <c r="B88" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D88" s="5"/>
-    </row>
-    <row r="89" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="13"/>
-      <c r="B89" s="1" t="s">
+      <c r="C88" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D88" s="29"/>
+    </row>
+    <row r="89" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A89" s="31"/>
+      <c r="B89" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D89" s="5"/>
-    </row>
-    <row r="90" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
+      <c r="C89" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D89" s="29"/>
+    </row>
+    <row r="90" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A90" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D90" s="5"/>
-    </row>
-    <row r="91" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="12"/>
-      <c r="B91" s="1" t="s">
+      <c r="C90" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D90" s="29"/>
+    </row>
+    <row r="91" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A91" s="30"/>
+      <c r="B91" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D91" s="5"/>
-    </row>
-    <row r="92" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="12"/>
-      <c r="B92" s="1" t="s">
+      <c r="C91" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D91" s="29"/>
+    </row>
+    <row r="92" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A92" s="30"/>
+      <c r="B92" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D92" s="5"/>
-    </row>
-    <row r="93" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="12"/>
-      <c r="B93" s="1" t="s">
+      <c r="C92" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D92" s="29"/>
+    </row>
+    <row r="93" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A93" s="30"/>
+      <c r="B93" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D93" s="5"/>
-    </row>
-    <row r="94" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="12"/>
-      <c r="B94" s="1" t="s">
+      <c r="C93" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D93" s="29"/>
+    </row>
+    <row r="94" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A94" s="30"/>
+      <c r="B94" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C94" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D94" s="5"/>
-    </row>
-    <row r="95" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="12"/>
-      <c r="B95" s="1" t="s">
+      <c r="C94" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D94" s="29"/>
+    </row>
+    <row r="95" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A95" s="30"/>
+      <c r="B95" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D95" s="5"/>
-    </row>
-    <row r="96" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="12"/>
-      <c r="B96" s="1" t="s">
+      <c r="C95" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="D95" s="29" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A96" s="30"/>
+      <c r="B96" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D96" s="5"/>
-    </row>
-    <row r="97" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="13"/>
-      <c r="B97" s="1" t="s">
+      <c r="C96" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="D96" s="29" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A97" s="31"/>
+      <c r="B97" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D97" s="5"/>
-    </row>
-    <row r="98" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
+      <c r="C97" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="D97" s="29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A98" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D98" s="5"/>
-    </row>
-    <row r="99" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="12"/>
-      <c r="B99" s="1" t="s">
+      <c r="C98" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D98" s="29"/>
+    </row>
+    <row r="99" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A99" s="30"/>
+      <c r="B99" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D99" s="5"/>
-    </row>
-    <row r="100" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="12"/>
-      <c r="B100" s="1" t="s">
+      <c r="C99" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D99" s="29"/>
+    </row>
+    <row r="100" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A100" s="30"/>
+      <c r="B100" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D100" s="5"/>
-    </row>
-    <row r="101" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="13"/>
-      <c r="B101" s="1" t="s">
+      <c r="C100" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="D100" s="29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A101" s="31"/>
+      <c r="B101" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D101" s="5"/>
-    </row>
-    <row r="102" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="11" t="s">
+      <c r="C101" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D101" s="29"/>
+    </row>
+    <row r="102" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A102" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="C102" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D102" s="5"/>
-    </row>
-    <row r="103" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="12"/>
-      <c r="B103" s="1" t="s">
+      <c r="C102" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="D102" s="29"/>
+    </row>
+    <row r="103" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A103" s="30"/>
+      <c r="B103" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="C103" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D103" s="5"/>
-    </row>
-    <row r="104" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="13"/>
-      <c r="B104" s="1" t="s">
+      <c r="C103" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="D103" s="29"/>
+    </row>
+    <row r="104" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A104" s="31"/>
+      <c r="B104" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C104" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D104" s="5"/>
-    </row>
-    <row r="105" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="11" t="s">
+      <c r="C104" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="D104" s="29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A105" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D105" s="5"/>
-    </row>
-    <row r="106" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="13"/>
-      <c r="B106" s="1" t="s">
+      <c r="C105" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D105" s="29"/>
+    </row>
+    <row r="106" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A106" s="31"/>
+      <c r="B106" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="C106" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D106" s="5"/>
-    </row>
-    <row r="107" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="11" t="s">
+      <c r="C106" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="D106" s="29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A107" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="C107" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D107" s="5"/>
-    </row>
-    <row r="108" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="12"/>
-      <c r="B108" s="1" t="s">
+      <c r="C107" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="D107" s="29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A108" s="30"/>
+      <c r="B108" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="C108" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D108" s="5"/>
-    </row>
-    <row r="109" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="12"/>
-      <c r="B109" s="1" t="s">
+      <c r="C108" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D108" s="29"/>
+    </row>
+    <row r="109" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A109" s="30"/>
+      <c r="B109" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="C109" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D109" s="5"/>
-    </row>
-    <row r="110" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="12"/>
-      <c r="B110" s="1" t="s">
+      <c r="C109" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="D109" s="29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A110" s="30"/>
+      <c r="B110" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="C110" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D110" s="5"/>
-    </row>
-    <row r="111" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="12"/>
-      <c r="B111" s="1" t="s">
+      <c r="C110" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D110" s="29"/>
+    </row>
+    <row r="111" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A111" s="30"/>
+      <c r="B111" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="C111" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D111" s="5"/>
-    </row>
-    <row r="112" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="13"/>
-      <c r="B112" s="1" t="s">
+      <c r="C111" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D111" s="29"/>
+    </row>
+    <row r="112" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A112" s="31"/>
+      <c r="B112" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="C112" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D112" s="5"/>
-    </row>
-    <row r="113" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="11" t="s">
+      <c r="C112" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D112" s="29"/>
+    </row>
+    <row r="113" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A113" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="C113" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D113" s="5"/>
-    </row>
-    <row r="114" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="12"/>
-      <c r="B114" s="1" t="s">
+      <c r="C113" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D113" s="29"/>
+    </row>
+    <row r="114" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A114" s="30"/>
+      <c r="B114" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="C114" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D114" s="5"/>
-    </row>
-    <row r="115" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="13"/>
-      <c r="B115" s="1" t="s">
+      <c r="C114" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="D114" s="29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A115" s="31"/>
+      <c r="B115" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="C115" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D115" s="5"/>
-    </row>
-    <row r="116" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="11" t="s">
+      <c r="C115" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="D115" s="29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A116" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="C116" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D116" s="5"/>
-    </row>
-    <row r="117" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="13"/>
-      <c r="B117" s="1" t="s">
+      <c r="C116" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="D116" s="29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A117" s="31"/>
+      <c r="B117" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="C117" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D117" s="5"/>
-    </row>
-    <row r="118" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="11" t="s">
+      <c r="C117" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="D117" s="29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A118" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="C118" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D118" s="5"/>
-    </row>
-    <row r="119" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="13"/>
-      <c r="B119" s="1" t="s">
+      <c r="C118" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="D118" s="29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A119" s="31"/>
+      <c r="B119" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="C119" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D119" s="5"/>
-    </row>
-    <row r="120" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="11" t="s">
+      <c r="C119" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D119" s="29"/>
+    </row>
+    <row r="120" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A120" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="C120" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D120" s="5"/>
-    </row>
-    <row r="121" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="13"/>
-      <c r="B121" s="1" t="s">
+      <c r="C120" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="D120" s="29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A121" s="31"/>
+      <c r="B121" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="C121" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D121" s="5"/>
-    </row>
-    <row r="122" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="11" t="s">
+      <c r="C121" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D121" s="29"/>
+    </row>
+    <row r="122" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A122" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="C122" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D122" s="5"/>
-    </row>
-    <row r="123" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="12"/>
-      <c r="B123" s="1" t="s">
+      <c r="C122" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D122" s="29"/>
+    </row>
+    <row r="123" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A123" s="30"/>
+      <c r="B123" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="C123" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D123" s="5"/>
-    </row>
-    <row r="124" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="12"/>
-      <c r="B124" s="1" t="s">
+      <c r="C123" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D123" s="29"/>
+    </row>
+    <row r="124" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A124" s="30"/>
+      <c r="B124" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="C124" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D124" s="5"/>
-    </row>
-    <row r="125" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="12"/>
-      <c r="B125" s="1" t="s">
+      <c r="C124" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D124" s="29"/>
+    </row>
+    <row r="125" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A125" s="30"/>
+      <c r="B125" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C125" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D125" s="5"/>
-    </row>
-    <row r="126" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="12"/>
-      <c r="B126" s="1" t="s">
+      <c r="C125" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D125" s="29"/>
+    </row>
+    <row r="126" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A126" s="30"/>
+      <c r="B126" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="C126" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D126" s="5"/>
-    </row>
-    <row r="127" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="12"/>
-      <c r="B127" s="1" t="s">
+      <c r="C126" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D126" s="29"/>
+    </row>
+    <row r="127" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A127" s="30"/>
+      <c r="B127" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="C127" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D127" s="5"/>
-    </row>
-    <row r="128" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="12"/>
-      <c r="B128" s="1" t="s">
+      <c r="C127" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D127" s="29"/>
+    </row>
+    <row r="128" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A128" s="30"/>
+      <c r="B128" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="C128" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D128" s="5"/>
-    </row>
-    <row r="129" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="12"/>
-      <c r="B129" s="1" t="s">
+      <c r="C128" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D128" s="29"/>
+    </row>
+    <row r="129" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A129" s="30"/>
+      <c r="B129" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="C129" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D129" s="5"/>
-    </row>
-    <row r="130" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="12"/>
-      <c r="B130" s="1" t="s">
+      <c r="C129" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D129" s="29"/>
+    </row>
+    <row r="130" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A130" s="30"/>
+      <c r="B130" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="C130" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D130" s="5"/>
-    </row>
-    <row r="131" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="12"/>
-      <c r="B131" s="1" t="s">
+      <c r="C130" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D130" s="29"/>
+    </row>
+    <row r="131" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A131" s="30"/>
+      <c r="B131" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="C131" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D131" s="5"/>
-    </row>
-    <row r="132" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="12"/>
-      <c r="B132" s="1" t="s">
+      <c r="C131" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D131" s="29"/>
+    </row>
+    <row r="132" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A132" s="30"/>
+      <c r="B132" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="C132" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D132" s="5"/>
-    </row>
-    <row r="133" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="12"/>
-      <c r="B133" s="1" t="s">
+      <c r="C132" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D132" s="29"/>
+    </row>
+    <row r="133" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A133" s="30"/>
+      <c r="B133" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="C133" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D133" s="5"/>
-    </row>
-    <row r="134" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="12"/>
-      <c r="B134" s="1" t="s">
+      <c r="C133" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D133" s="29"/>
+    </row>
+    <row r="134" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A134" s="30"/>
+      <c r="B134" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="C134" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D134" s="5"/>
-    </row>
-    <row r="135" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="12"/>
-      <c r="B135" s="1" t="s">
+      <c r="C134" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D134" s="29"/>
+    </row>
+    <row r="135" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A135" s="30"/>
+      <c r="B135" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C135" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D135" s="5"/>
-    </row>
-    <row r="136" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="12"/>
-      <c r="B136" s="1" t="s">
+      <c r="C135" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D135" s="29"/>
+    </row>
+    <row r="136" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A136" s="30"/>
+      <c r="B136" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="C136" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D136" s="5"/>
-    </row>
-    <row r="137" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="12"/>
-      <c r="B137" s="1" t="s">
+      <c r="C136" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D136" s="29"/>
+    </row>
+    <row r="137" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A137" s="30"/>
+      <c r="B137" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="C137" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D137" s="5"/>
-    </row>
-    <row r="138" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="12"/>
-      <c r="B138" s="1" t="s">
+      <c r="C137" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D137" s="29"/>
+    </row>
+    <row r="138" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A138" s="30"/>
+      <c r="B138" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="C138" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D138" s="5"/>
-    </row>
-    <row r="139" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="12"/>
-      <c r="B139" s="1" t="s">
+      <c r="C138" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D138" s="29"/>
+    </row>
+    <row r="139" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A139" s="30"/>
+      <c r="B139" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C139" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D139" s="5"/>
-    </row>
-    <row r="140" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="12"/>
-      <c r="B140" s="1" t="s">
+      <c r="C139" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D139" s="29"/>
+    </row>
+    <row r="140" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A140" s="30"/>
+      <c r="B140" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="C140" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D140" s="5"/>
-    </row>
-    <row r="141" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="12"/>
-      <c r="B141" s="1" t="s">
+      <c r="C140" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D140" s="29"/>
+    </row>
+    <row r="141" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A141" s="30"/>
+      <c r="B141" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="C141" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D141" s="5"/>
-    </row>
-    <row r="142" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="12"/>
-      <c r="B142" s="1" t="s">
+      <c r="C141" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D141" s="29"/>
+    </row>
+    <row r="142" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A142" s="30"/>
+      <c r="B142" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="C142" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D142" s="5"/>
-    </row>
-    <row r="143" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="12"/>
-      <c r="B143" s="1" t="s">
+      <c r="C142" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D142" s="29"/>
+    </row>
+    <row r="143" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A143" s="30"/>
+      <c r="B143" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="C143" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D143" s="5"/>
-    </row>
-    <row r="144" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="12"/>
-      <c r="B144" s="1" t="s">
+      <c r="C143" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D143" s="29"/>
+    </row>
+    <row r="144" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A144" s="30"/>
+      <c r="B144" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="C144" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D144" s="5"/>
-    </row>
-    <row r="145" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="12"/>
-      <c r="B145" s="1" t="s">
+      <c r="C144" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D144" s="29"/>
+    </row>
+    <row r="145" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A145" s="30"/>
+      <c r="B145" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="C145" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D145" s="5"/>
-    </row>
-    <row r="146" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="12"/>
-      <c r="B146" s="1" t="s">
+      <c r="C145" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D145" s="29"/>
+    </row>
+    <row r="146" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A146" s="30"/>
+      <c r="B146" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="C146" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D146" s="5"/>
-    </row>
-    <row r="147" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="12"/>
-      <c r="B147" s="1" t="s">
+      <c r="C146" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D146" s="29"/>
+    </row>
+    <row r="147" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A147" s="30"/>
+      <c r="B147" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="C147" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D147" s="5"/>
-    </row>
-    <row r="148" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="12"/>
-      <c r="B148" s="1" t="s">
+      <c r="C147" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D147" s="29"/>
+    </row>
+    <row r="148" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A148" s="30"/>
+      <c r="B148" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="C148" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D148" s="5"/>
-    </row>
-    <row r="149" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="12"/>
-      <c r="B149" s="1" t="s">
+      <c r="C148" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="D148" s="29" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A149" s="30"/>
+      <c r="B149" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="C149" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D149" s="5"/>
-    </row>
-    <row r="150" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="12"/>
-      <c r="B150" s="1" t="s">
+      <c r="C149" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D149" s="29"/>
+    </row>
+    <row r="150" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A150" s="30"/>
+      <c r="B150" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C150" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D150" s="5"/>
-    </row>
-    <row r="151" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="12"/>
-      <c r="B151" s="1" t="s">
+      <c r="C150" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D150" s="29"/>
+    </row>
+    <row r="151" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A151" s="30"/>
+      <c r="B151" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="C151" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D151" s="5"/>
-    </row>
-    <row r="152" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="12"/>
-      <c r="B152" s="1" t="s">
+      <c r="C151" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D151" s="29"/>
+    </row>
+    <row r="152" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A152" s="30"/>
+      <c r="B152" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="C152" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D152" s="5"/>
-    </row>
-    <row r="153" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="12"/>
-      <c r="B153" s="1" t="s">
+      <c r="C152" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D152" s="29"/>
+    </row>
+    <row r="153" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A153" s="30"/>
+      <c r="B153" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="C153" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D153" s="5"/>
-    </row>
-    <row r="154" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="13"/>
-      <c r="B154" s="1" t="s">
+      <c r="C153" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D153" s="29"/>
+    </row>
+    <row r="154" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A154" s="31"/>
+      <c r="B154" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="C154" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D154" s="5"/>
-    </row>
-    <row r="155" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C154" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D154" s="29"/>
+    </row>
+    <row r="155" spans="1:4" ht="25.95" customHeight="1">
       <c r="A155" s="11" t="s">
         <v>174</v>
       </c>
@@ -3578,111 +3724,111 @@
         <v>175</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D155" s="5"/>
     </row>
-    <row r="156" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" ht="25.95" customHeight="1">
       <c r="A156" s="12"/>
       <c r="B156" s="1" t="s">
         <v>176</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D156" s="5"/>
     </row>
-    <row r="157" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" ht="25.95" customHeight="1">
       <c r="A157" s="12"/>
       <c r="B157" s="1" t="s">
         <v>177</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D157" s="5"/>
     </row>
-    <row r="158" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" ht="25.95" customHeight="1">
       <c r="A158" s="12"/>
       <c r="B158" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D158" s="5"/>
     </row>
-    <row r="159" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" ht="25.95" customHeight="1">
       <c r="A159" s="12"/>
       <c r="B159" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D159" s="5"/>
     </row>
-    <row r="160" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" ht="25.95" customHeight="1">
       <c r="A160" s="12"/>
       <c r="B160" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D160" s="5"/>
     </row>
-    <row r="161" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" ht="25.95" customHeight="1">
       <c r="A161" s="12"/>
       <c r="B161" s="1" t="s">
         <v>181</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D161" s="5"/>
     </row>
-    <row r="162" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" ht="25.95" customHeight="1">
       <c r="A162" s="12"/>
       <c r="B162" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D162" s="5"/>
     </row>
-    <row r="163" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" ht="25.95" customHeight="1">
       <c r="A163" s="12"/>
       <c r="B163" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D163" s="5"/>
     </row>
-    <row r="164" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" ht="25.95" customHeight="1">
       <c r="A164" s="12"/>
       <c r="B164" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D164" s="5"/>
     </row>
-    <row r="165" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" ht="25.95" customHeight="1">
       <c r="A165" s="13"/>
       <c r="B165" s="1" t="s">
         <v>185</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D165" s="5"/>
     </row>
-    <row r="166" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" ht="25.95" customHeight="1">
       <c r="A166" s="11" t="s">
         <v>186</v>
       </c>
@@ -3690,21 +3836,21 @@
         <v>187</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D166" s="5"/>
     </row>
-    <row r="167" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" ht="25.95" customHeight="1">
       <c r="A167" s="13"/>
       <c r="B167" s="1" t="s">
         <v>188</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" ht="25.95" customHeight="1">
       <c r="A168" s="11" t="s">
         <v>189</v>
       </c>
@@ -3712,101 +3858,101 @@
         <v>190</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D168" s="5"/>
     </row>
-    <row r="169" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="25.95" customHeight="1">
       <c r="A169" s="12"/>
       <c r="B169" s="1" t="s">
         <v>191</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D169" s="5"/>
     </row>
-    <row r="170" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" ht="25.95" customHeight="1">
       <c r="A170" s="12"/>
       <c r="B170" s="1" t="s">
         <v>192</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D170" s="5"/>
     </row>
-    <row r="171" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="25.95" customHeight="1">
       <c r="A171" s="12"/>
       <c r="B171" s="1" t="s">
         <v>193</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D171" s="5"/>
     </row>
-    <row r="172" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" ht="25.95" customHeight="1">
       <c r="A172" s="12"/>
       <c r="B172" s="1" t="s">
         <v>194</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D172" s="5"/>
     </row>
-    <row r="173" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" ht="25.95" customHeight="1">
       <c r="A173" s="12"/>
       <c r="B173" s="1" t="s">
         <v>195</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D173" s="5"/>
     </row>
-    <row r="174" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" ht="25.95" customHeight="1">
       <c r="A174" s="12"/>
       <c r="B174" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D174" s="5"/>
     </row>
-    <row r="175" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" ht="25.95" customHeight="1">
       <c r="A175" s="12"/>
       <c r="B175" s="1" t="s">
         <v>197</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D175" s="5"/>
     </row>
-    <row r="176" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" ht="25.95" customHeight="1">
       <c r="A176" s="12"/>
       <c r="B176" s="1" t="s">
         <v>198</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D176" s="5"/>
     </row>
-    <row r="177" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" ht="25.95" customHeight="1">
       <c r="A177" s="13"/>
       <c r="B177" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D177" s="5"/>
     </row>
-    <row r="178" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" ht="25.95" customHeight="1">
       <c r="A178" s="11" t="s">
         <v>200</v>
       </c>
@@ -3814,31 +3960,31 @@
         <v>201</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D178" s="5"/>
     </row>
-    <row r="179" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" ht="25.95" customHeight="1">
       <c r="A179" s="12"/>
       <c r="B179" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D179" s="5"/>
     </row>
-    <row r="180" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" ht="25.95" customHeight="1">
       <c r="A180" s="13"/>
       <c r="B180" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D180" s="5"/>
     </row>
-    <row r="181" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" ht="25.95" customHeight="1">
       <c r="A181" s="11" t="s">
         <v>204</v>
       </c>
@@ -3846,201 +3992,201 @@
         <v>205</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D181" s="5"/>
     </row>
-    <row r="182" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" ht="25.95" customHeight="1">
       <c r="A182" s="12"/>
       <c r="B182" s="1" t="s">
         <v>206</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D182" s="5"/>
     </row>
-    <row r="183" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" ht="25.95" customHeight="1">
       <c r="A183" s="12"/>
       <c r="B183" s="1" t="s">
         <v>207</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D183" s="5"/>
     </row>
-    <row r="184" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" ht="25.95" customHeight="1">
       <c r="A184" s="12"/>
       <c r="B184" s="1" t="s">
         <v>208</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D184" s="5"/>
     </row>
-    <row r="185" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" ht="25.95" customHeight="1">
       <c r="A185" s="12"/>
       <c r="B185" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D185" s="5"/>
     </row>
-    <row r="186" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="25.95" customHeight="1">
       <c r="A186" s="12"/>
       <c r="B186" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D186" s="5"/>
     </row>
-    <row r="187" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" ht="25.95" customHeight="1">
       <c r="A187" s="12"/>
       <c r="B187" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D187" s="5"/>
     </row>
-    <row r="188" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" ht="25.95" customHeight="1">
       <c r="A188" s="12"/>
       <c r="B188" s="1" t="s">
         <v>212</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D188" s="5"/>
     </row>
-    <row r="189" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" ht="25.95" customHeight="1">
       <c r="A189" s="12"/>
       <c r="B189" s="1" t="s">
         <v>213</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D189" s="5"/>
     </row>
-    <row r="190" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" ht="25.95" customHeight="1">
       <c r="A190" s="12"/>
       <c r="B190" s="1" t="s">
         <v>214</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D190" s="5"/>
     </row>
-    <row r="191" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" ht="25.95" customHeight="1">
       <c r="A191" s="12"/>
       <c r="B191" s="1" t="s">
         <v>215</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D191" s="5"/>
     </row>
-    <row r="192" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" ht="25.95" customHeight="1">
       <c r="A192" s="12"/>
       <c r="B192" s="1" t="s">
         <v>216</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D192" s="5"/>
     </row>
-    <row r="193" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" ht="25.95" customHeight="1">
       <c r="A193" s="12"/>
       <c r="B193" s="1" t="s">
         <v>217</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D193" s="5"/>
     </row>
-    <row r="194" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" ht="25.95" customHeight="1">
       <c r="A194" s="12"/>
       <c r="B194" s="1" t="s">
         <v>218</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D194" s="5"/>
     </row>
-    <row r="195" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" ht="25.95" customHeight="1">
       <c r="A195" s="12"/>
       <c r="B195" s="1" t="s">
         <v>219</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D195" s="5"/>
     </row>
-    <row r="196" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" ht="25.95" customHeight="1">
       <c r="A196" s="12"/>
       <c r="B196" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D196" s="5"/>
     </row>
-    <row r="197" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" ht="25.95" customHeight="1">
       <c r="A197" s="12"/>
       <c r="B197" s="1" t="s">
         <v>221</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" ht="25.95" customHeight="1">
       <c r="A198" s="12"/>
       <c r="B198" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D198" s="5"/>
     </row>
-    <row r="199" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" ht="25.95" customHeight="1">
       <c r="A199" s="12"/>
       <c r="B199" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D199" s="5"/>
     </row>
-    <row r="200" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" ht="25.95" customHeight="1">
       <c r="A200" s="13"/>
       <c r="B200" s="1" t="s">
         <v>224</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D200" s="5"/>
     </row>
-    <row r="201" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" ht="25.95" customHeight="1">
       <c r="A201" s="11" t="s">
         <v>225</v>
       </c>
@@ -4048,101 +4194,101 @@
         <v>226</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D201" s="5"/>
     </row>
-    <row r="202" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" ht="25.95" customHeight="1">
       <c r="A202" s="12"/>
       <c r="B202" s="1" t="s">
         <v>227</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D202" s="5"/>
     </row>
-    <row r="203" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" ht="25.95" customHeight="1">
       <c r="A203" s="12"/>
       <c r="B203" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D203" s="5"/>
     </row>
-    <row r="204" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" ht="25.95" customHeight="1">
       <c r="A204" s="12"/>
       <c r="B204" s="1" t="s">
         <v>229</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D204" s="5"/>
     </row>
-    <row r="205" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" ht="25.95" customHeight="1">
       <c r="A205" s="12"/>
       <c r="B205" s="1" t="s">
         <v>230</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D205" s="5"/>
     </row>
-    <row r="206" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" ht="25.95" customHeight="1">
       <c r="A206" s="12"/>
       <c r="B206" s="1" t="s">
         <v>231</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D206" s="5"/>
     </row>
-    <row r="207" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" ht="25.95" customHeight="1">
       <c r="A207" s="12"/>
       <c r="B207" s="1" t="s">
         <v>232</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D207" s="5"/>
     </row>
-    <row r="208" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" ht="25.95" customHeight="1">
       <c r="A208" s="12"/>
       <c r="B208" s="1" t="s">
         <v>233</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D208" s="5"/>
     </row>
-    <row r="209" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" ht="25.95" customHeight="1">
       <c r="A209" s="12"/>
       <c r="B209" s="1" t="s">
         <v>234</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D209" s="5"/>
     </row>
-    <row r="210" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" ht="25.95" customHeight="1">
       <c r="A210" s="13"/>
       <c r="B210" s="1" t="s">
         <v>235</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D210" s="5"/>
     </row>
-    <row r="211" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" ht="25.95" customHeight="1">
       <c r="A211" s="5" t="s">
         <v>236</v>
       </c>
@@ -4150,11 +4296,11 @@
         <v>237</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D211" s="5"/>
     </row>
-    <row r="212" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" ht="25.95" customHeight="1">
       <c r="A212" s="11" t="s">
         <v>238</v>
       </c>
@@ -4162,221 +4308,221 @@
         <v>239</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D212" s="5"/>
     </row>
-    <row r="213" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" ht="25.95" customHeight="1">
       <c r="A213" s="12"/>
       <c r="B213" s="1" t="s">
         <v>240</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D213" s="5"/>
     </row>
-    <row r="214" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" ht="25.95" customHeight="1">
       <c r="A214" s="12"/>
       <c r="B214" s="1" t="s">
         <v>241</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D214" s="5"/>
     </row>
-    <row r="215" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" ht="25.95" customHeight="1">
       <c r="A215" s="12"/>
       <c r="B215" s="1" t="s">
         <v>242</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D215" s="5"/>
     </row>
-    <row r="216" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" ht="25.95" customHeight="1">
       <c r="A216" s="12"/>
       <c r="B216" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D216" s="5"/>
     </row>
-    <row r="217" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" ht="25.95" customHeight="1">
       <c r="A217" s="12"/>
       <c r="B217" s="1" t="s">
         <v>244</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D217" s="5"/>
     </row>
-    <row r="218" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" ht="25.95" customHeight="1">
       <c r="A218" s="12"/>
       <c r="B218" s="1" t="s">
         <v>245</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D218" s="5"/>
     </row>
-    <row r="219" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" ht="25.95" customHeight="1">
       <c r="A219" s="12"/>
       <c r="B219" s="1" t="s">
         <v>246</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D219" s="5"/>
     </row>
-    <row r="220" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" ht="25.95" customHeight="1">
       <c r="A220" s="12"/>
       <c r="B220" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D220" s="5"/>
     </row>
-    <row r="221" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" ht="25.95" customHeight="1">
       <c r="A221" s="12"/>
       <c r="B221" s="1" t="s">
         <v>248</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D221" s="5"/>
     </row>
-    <row r="222" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" ht="25.95" customHeight="1">
       <c r="A222" s="12"/>
       <c r="B222" s="1" t="s">
         <v>249</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D222" s="5"/>
     </row>
-    <row r="223" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" ht="25.95" customHeight="1">
       <c r="A223" s="12"/>
       <c r="B223" s="1" t="s">
         <v>250</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D223" s="5"/>
     </row>
-    <row r="224" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" ht="25.95" customHeight="1">
       <c r="A224" s="12"/>
       <c r="B224" s="1" t="s">
         <v>251</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D224" s="5"/>
     </row>
-    <row r="225" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" ht="25.95" customHeight="1">
       <c r="A225" s="12"/>
       <c r="B225" s="1" t="s">
         <v>252</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D225" s="5"/>
     </row>
-    <row r="226" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" ht="25.95" customHeight="1">
       <c r="A226" s="12"/>
       <c r="B226" s="1" t="s">
         <v>253</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D226" s="5"/>
     </row>
-    <row r="227" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" ht="25.95" customHeight="1">
       <c r="A227" s="12"/>
       <c r="B227" s="1" t="s">
         <v>254</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D227" s="5"/>
     </row>
-    <row r="228" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" ht="25.95" customHeight="1">
       <c r="A228" s="12"/>
       <c r="B228" s="1" t="s">
         <v>255</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D228" s="5"/>
     </row>
-    <row r="229" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" ht="25.95" customHeight="1">
       <c r="A229" s="12"/>
       <c r="B229" s="1" t="s">
         <v>256</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D229" s="5"/>
     </row>
-    <row r="230" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" ht="25.95" customHeight="1">
       <c r="A230" s="12"/>
       <c r="B230" s="1" t="s">
         <v>257</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D230" s="5"/>
     </row>
-    <row r="231" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" ht="25.95" customHeight="1">
       <c r="A231" s="12"/>
       <c r="B231" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D231" s="5"/>
     </row>
-    <row r="232" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" ht="25.95" customHeight="1">
       <c r="A232" s="12"/>
       <c r="B232" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D232" s="5"/>
     </row>
-    <row r="233" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" ht="25.95" customHeight="1">
       <c r="A233" s="13"/>
       <c r="B233" s="1" t="s">
         <v>260</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D233" s="5"/>
     </row>
-    <row r="234" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" ht="25.95" customHeight="1">
       <c r="A234" s="11" t="s">
         <v>261</v>
       </c>
@@ -4384,51 +4530,51 @@
         <v>262</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D234" s="5"/>
     </row>
-    <row r="235" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" ht="25.95" customHeight="1">
       <c r="A235" s="12"/>
       <c r="B235" s="1" t="s">
         <v>263</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D235" s="5"/>
     </row>
-    <row r="236" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" ht="25.95" customHeight="1">
       <c r="A236" s="12"/>
       <c r="B236" s="1" t="s">
         <v>264</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D236" s="5"/>
     </row>
-    <row r="237" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" ht="25.95" customHeight="1">
       <c r="A237" s="12"/>
       <c r="B237" s="1" t="s">
         <v>265</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D237" s="5"/>
     </row>
-    <row r="238" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" ht="25.95" customHeight="1">
       <c r="A238" s="13"/>
       <c r="B238" s="1" t="s">
         <v>266</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D238" s="5"/>
     </row>
-    <row r="239" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" ht="25.95" customHeight="1">
       <c r="A239" s="11" t="s">
         <v>267</v>
       </c>
@@ -4436,61 +4582,61 @@
         <v>268</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D239" s="5"/>
     </row>
-    <row r="240" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" ht="25.95" customHeight="1">
       <c r="A240" s="12"/>
       <c r="B240" s="1" t="s">
         <v>269</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D240" s="5"/>
     </row>
-    <row r="241" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" ht="25.95" customHeight="1">
       <c r="A241" s="12"/>
       <c r="B241" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D241" s="5"/>
     </row>
-    <row r="242" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" ht="25.95" customHeight="1">
       <c r="A242" s="12"/>
       <c r="B242" s="1" t="s">
         <v>271</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D242" s="5"/>
     </row>
-    <row r="243" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" ht="25.95" customHeight="1">
       <c r="A243" s="12"/>
       <c r="B243" s="1" t="s">
         <v>272</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D243" s="5"/>
     </row>
-    <row r="244" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" ht="25.95" customHeight="1">
       <c r="A244" s="13"/>
       <c r="B244" s="1" t="s">
         <v>273</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D244" s="5"/>
     </row>
-    <row r="245" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" ht="25.95" customHeight="1">
       <c r="A245" s="11" t="s">
         <v>274</v>
       </c>
@@ -4498,21 +4644,21 @@
         <v>275</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D245" s="5"/>
     </row>
-    <row r="246" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" ht="25.95" customHeight="1">
       <c r="A246" s="13"/>
       <c r="B246" s="1" t="s">
         <v>276</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D246" s="5"/>
     </row>
-    <row r="247" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" ht="25.95" customHeight="1">
       <c r="A247" s="11" t="s">
         <v>277</v>
       </c>
@@ -4520,91 +4666,91 @@
         <v>278</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D247" s="5"/>
     </row>
-    <row r="248" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" ht="25.95" customHeight="1">
       <c r="A248" s="12"/>
       <c r="B248" s="1" t="s">
         <v>279</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D248" s="5"/>
     </row>
-    <row r="249" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" ht="25.95" customHeight="1">
       <c r="A249" s="12"/>
       <c r="B249" s="1" t="s">
         <v>280</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D249" s="5"/>
     </row>
-    <row r="250" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" ht="25.95" customHeight="1">
       <c r="A250" s="12"/>
       <c r="B250" s="1" t="s">
         <v>281</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D250" s="5"/>
     </row>
-    <row r="251" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" ht="25.95" customHeight="1">
       <c r="A251" s="12"/>
       <c r="B251" s="1" t="s">
         <v>282</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D251" s="5"/>
     </row>
-    <row r="252" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" ht="25.95" customHeight="1">
       <c r="A252" s="12"/>
       <c r="B252" s="1" t="s">
         <v>283</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D252" s="5"/>
     </row>
-    <row r="253" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" ht="25.95" customHeight="1">
       <c r="A253" s="12"/>
       <c r="B253" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D253" s="5"/>
     </row>
-    <row r="254" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" ht="25.95" customHeight="1">
       <c r="A254" s="12"/>
       <c r="B254" s="1" t="s">
         <v>285</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D254" s="5"/>
     </row>
-    <row r="255" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" ht="25.95" customHeight="1">
       <c r="A255" s="13"/>
       <c r="B255" s="1" t="s">
         <v>286</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D255" s="5"/>
     </row>
-    <row r="256" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" ht="25.95" customHeight="1">
       <c r="A256" s="11" t="s">
         <v>287</v>
       </c>
@@ -4612,31 +4758,31 @@
         <v>288</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D256" s="5"/>
     </row>
-    <row r="257" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" ht="25.95" customHeight="1">
       <c r="A257" s="12"/>
       <c r="B257" s="1" t="s">
         <v>289</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D257" s="5"/>
     </row>
-    <row r="258" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" ht="25.95" customHeight="1">
       <c r="A258" s="13"/>
       <c r="B258" s="1" t="s">
         <v>290</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D258" s="5"/>
     </row>
-    <row r="259" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" ht="25.95" customHeight="1">
       <c r="A259" s="11" t="s">
         <v>291</v>
       </c>
@@ -4644,61 +4790,61 @@
         <v>292</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D259" s="5"/>
     </row>
-    <row r="260" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" ht="25.95" customHeight="1">
       <c r="A260" s="12"/>
       <c r="B260" s="1" t="s">
         <v>293</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D260" s="5"/>
     </row>
-    <row r="261" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" ht="25.95" customHeight="1">
       <c r="A261" s="12"/>
       <c r="B261" s="1" t="s">
         <v>294</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D261" s="5"/>
     </row>
-    <row r="262" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" ht="25.95" customHeight="1">
       <c r="A262" s="12"/>
       <c r="B262" s="1" t="s">
         <v>295</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D262" s="5"/>
     </row>
-    <row r="263" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" ht="25.95" customHeight="1">
       <c r="A263" s="12"/>
       <c r="B263" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D263" s="5"/>
     </row>
-    <row r="264" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" ht="25.95" customHeight="1">
       <c r="A264" s="13"/>
       <c r="B264" s="1" t="s">
         <v>297</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D264" s="5"/>
     </row>
-    <row r="265" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" ht="25.95" customHeight="1">
       <c r="A265" s="11" t="s">
         <v>298</v>
       </c>
@@ -4706,51 +4852,51 @@
         <v>299</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D265" s="5"/>
     </row>
-    <row r="266" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" ht="25.95" customHeight="1">
       <c r="A266" s="12"/>
       <c r="B266" s="1" t="s">
         <v>300</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D266" s="5"/>
     </row>
-    <row r="267" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" ht="25.95" customHeight="1">
       <c r="A267" s="12"/>
       <c r="B267" s="1" t="s">
         <v>301</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D267" s="5"/>
     </row>
-    <row r="268" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" ht="25.95" customHeight="1">
       <c r="A268" s="12"/>
       <c r="B268" s="1" t="s">
         <v>302</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D268" s="5"/>
     </row>
-    <row r="269" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" ht="25.95" customHeight="1">
       <c r="A269" s="13"/>
       <c r="B269" s="1" t="s">
         <v>303</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D269" s="5"/>
     </row>
-    <row r="270" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" ht="25.95" customHeight="1">
       <c r="A270" s="11" t="s">
         <v>304</v>
       </c>
@@ -4758,101 +4904,101 @@
         <v>305</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D270" s="5"/>
     </row>
-    <row r="271" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" ht="25.95" customHeight="1">
       <c r="A271" s="12"/>
       <c r="B271" s="1" t="s">
         <v>306</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D271" s="5"/>
     </row>
-    <row r="272" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" ht="25.95" customHeight="1">
       <c r="A272" s="12"/>
       <c r="B272" s="1" t="s">
         <v>307</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D272" s="5"/>
     </row>
-    <row r="273" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" ht="25.95" customHeight="1">
       <c r="A273" s="12"/>
       <c r="B273" s="1" t="s">
         <v>308</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D273" s="5"/>
     </row>
-    <row r="274" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" ht="25.95" customHeight="1">
       <c r="A274" s="12"/>
       <c r="B274" s="1" t="s">
         <v>309</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D274" s="5"/>
     </row>
-    <row r="275" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" ht="25.95" customHeight="1">
       <c r="A275" s="12"/>
       <c r="B275" s="1" t="s">
         <v>310</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D275" s="5"/>
     </row>
-    <row r="276" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" ht="25.95" customHeight="1">
       <c r="A276" s="12"/>
       <c r="B276" s="1" t="s">
         <v>311</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D276" s="5"/>
     </row>
-    <row r="277" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" ht="25.95" customHeight="1">
       <c r="A277" s="12"/>
       <c r="B277" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D277" s="5"/>
     </row>
-    <row r="278" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" ht="25.95" customHeight="1">
       <c r="A278" s="12"/>
       <c r="B278" s="1" t="s">
         <v>313</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D278" s="5"/>
     </row>
-    <row r="279" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" ht="25.95" customHeight="1">
       <c r="A279" s="13"/>
       <c r="B279" s="1" t="s">
         <v>314</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D279" s="5"/>
     </row>
-    <row r="280" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" ht="25.95" customHeight="1">
       <c r="A280" s="11" t="s">
         <v>315</v>
       </c>
@@ -4860,21 +5006,21 @@
         <v>316</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D280" s="5"/>
     </row>
-    <row r="281" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" ht="25.95" customHeight="1">
       <c r="A281" s="13"/>
       <c r="B281" s="1" t="s">
         <v>317</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D281" s="5"/>
     </row>
-    <row r="282" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" ht="25.95" customHeight="1">
       <c r="A282" s="11" t="s">
         <v>318</v>
       </c>
@@ -4882,101 +5028,101 @@
         <v>319</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D282" s="5"/>
     </row>
-    <row r="283" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" ht="25.95" customHeight="1">
       <c r="A283" s="12"/>
       <c r="B283" s="1" t="s">
         <v>320</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D283" s="5"/>
     </row>
-    <row r="284" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" ht="25.95" customHeight="1">
       <c r="A284" s="12"/>
       <c r="B284" s="1" t="s">
         <v>321</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D284" s="5"/>
     </row>
-    <row r="285" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" ht="25.95" customHeight="1">
       <c r="A285" s="12"/>
       <c r="B285" s="1" t="s">
         <v>322</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D285" s="5"/>
     </row>
-    <row r="286" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" ht="25.95" customHeight="1">
       <c r="A286" s="12"/>
       <c r="B286" s="1" t="s">
         <v>323</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D286" s="5"/>
     </row>
-    <row r="287" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" ht="25.95" customHeight="1">
       <c r="A287" s="12"/>
       <c r="B287" s="1" t="s">
         <v>324</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D287" s="5"/>
     </row>
-    <row r="288" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" ht="25.95" customHeight="1">
       <c r="A288" s="12"/>
       <c r="B288" s="1" t="s">
         <v>325</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D288" s="5"/>
     </row>
-    <row r="289" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" ht="25.95" customHeight="1">
       <c r="A289" s="12"/>
       <c r="B289" s="1" t="s">
         <v>326</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D289" s="5"/>
     </row>
-    <row r="290" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" ht="25.95" customHeight="1">
       <c r="A290" s="12"/>
       <c r="B290" s="1" t="s">
         <v>327</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D290" s="5"/>
     </row>
-    <row r="291" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" ht="25.95" customHeight="1">
       <c r="A291" s="13"/>
       <c r="B291" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D291" s="5"/>
     </row>
-    <row r="292" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" ht="25.95" customHeight="1">
       <c r="A292" s="11" t="s">
         <v>329</v>
       </c>
@@ -4984,211 +5130,211 @@
         <v>330</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D292" s="5"/>
     </row>
-    <row r="293" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" ht="25.95" customHeight="1">
       <c r="A293" s="12"/>
       <c r="B293" s="1" t="s">
         <v>331</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D293" s="5"/>
     </row>
-    <row r="294" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" ht="25.95" customHeight="1">
       <c r="A294" s="12"/>
       <c r="B294" s="1" t="s">
         <v>332</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D294" s="5"/>
     </row>
-    <row r="295" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" ht="25.95" customHeight="1">
       <c r="A295" s="12"/>
       <c r="B295" s="1" t="s">
         <v>333</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D295" s="5"/>
     </row>
-    <row r="296" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" ht="25.95" customHeight="1">
       <c r="A296" s="12"/>
       <c r="B296" s="1" t="s">
         <v>334</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D296" s="5"/>
     </row>
-    <row r="297" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" ht="25.95" customHeight="1">
       <c r="A297" s="12"/>
       <c r="B297" s="1" t="s">
         <v>335</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D297" s="5"/>
     </row>
-    <row r="298" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" ht="25.95" customHeight="1">
       <c r="A298" s="12"/>
       <c r="B298" s="1" t="s">
         <v>336</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D298" s="5"/>
     </row>
-    <row r="299" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" ht="25.95" customHeight="1">
       <c r="A299" s="12"/>
       <c r="B299" s="1" t="s">
         <v>337</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D299" s="5"/>
     </row>
-    <row r="300" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" ht="25.95" customHeight="1">
       <c r="A300" s="12"/>
       <c r="B300" s="1" t="s">
         <v>338</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D300" s="5"/>
     </row>
-    <row r="301" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" ht="25.95" customHeight="1">
       <c r="A301" s="12"/>
       <c r="B301" s="1" t="s">
         <v>339</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D301" s="5"/>
     </row>
-    <row r="302" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" ht="25.95" customHeight="1">
       <c r="A302" s="12"/>
       <c r="B302" s="1" t="s">
         <v>340</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D302" s="5"/>
     </row>
-    <row r="303" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" ht="25.95" customHeight="1">
       <c r="A303" s="12"/>
       <c r="B303" s="1" t="s">
         <v>341</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D303" s="5"/>
     </row>
-    <row r="304" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" ht="25.95" customHeight="1">
       <c r="A304" s="12"/>
       <c r="B304" s="1" t="s">
         <v>342</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D304" s="5"/>
     </row>
-    <row r="305" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" ht="25.95" customHeight="1">
       <c r="A305" s="12"/>
       <c r="B305" s="1" t="s">
         <v>343</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D305" s="5"/>
     </row>
-    <row r="306" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" ht="25.95" customHeight="1">
       <c r="A306" s="12"/>
       <c r="B306" s="1" t="s">
         <v>344</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D306" s="5"/>
     </row>
-    <row r="307" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" ht="25.95" customHeight="1">
       <c r="A307" s="12"/>
       <c r="B307" s="1" t="s">
         <v>345</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D307" s="5"/>
     </row>
-    <row r="308" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" ht="25.95" customHeight="1">
       <c r="A308" s="12"/>
       <c r="B308" s="1" t="s">
         <v>346</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D308" s="5"/>
     </row>
-    <row r="309" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" ht="25.95" customHeight="1">
       <c r="A309" s="12"/>
       <c r="B309" s="1" t="s">
         <v>347</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D309" s="5"/>
     </row>
-    <row r="310" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" ht="25.95" customHeight="1">
       <c r="A310" s="12"/>
       <c r="B310" s="1" t="s">
         <v>348</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D310" s="5"/>
     </row>
-    <row r="311" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" ht="25.95" customHeight="1">
       <c r="A311" s="12"/>
       <c r="B311" s="1" t="s">
         <v>349</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D311" s="5"/>
     </row>
-    <row r="312" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" ht="25.95" customHeight="1">
       <c r="A312" s="13"/>
       <c r="B312" s="1" t="s">
         <v>350</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D312" s="5"/>
     </row>
-    <row r="313" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" ht="25.95" customHeight="1">
       <c r="A313" s="5" t="s">
         <v>351</v>
       </c>
@@ -5196,11 +5342,11 @@
         <v>352</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D313" s="5"/>
     </row>
-    <row r="314" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" ht="25.95" customHeight="1">
       <c r="A314" s="11" t="s">
         <v>353</v>
       </c>
@@ -5208,81 +5354,81 @@
         <v>354</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D314" s="5"/>
     </row>
-    <row r="315" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" ht="25.95" customHeight="1">
       <c r="A315" s="12"/>
       <c r="B315" s="1" t="s">
         <v>355</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D315" s="5"/>
     </row>
-    <row r="316" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" ht="25.95" customHeight="1">
       <c r="A316" s="12"/>
       <c r="B316" s="1" t="s">
         <v>356</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D316" s="5"/>
     </row>
-    <row r="317" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" ht="25.95" customHeight="1">
       <c r="A317" s="12"/>
       <c r="B317" s="1" t="s">
         <v>357</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D317" s="5"/>
     </row>
-    <row r="318" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" ht="25.95" customHeight="1">
       <c r="A318" s="12"/>
       <c r="B318" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D318" s="5"/>
     </row>
-    <row r="319" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" ht="25.95" customHeight="1">
       <c r="A319" s="12"/>
       <c r="B319" s="1" t="s">
         <v>359</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D319" s="5"/>
     </row>
-    <row r="320" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" ht="25.95" customHeight="1">
       <c r="A320" s="12"/>
       <c r="B320" s="1" t="s">
         <v>360</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D320" s="5"/>
     </row>
-    <row r="321" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" ht="25.95" customHeight="1">
       <c r="A321" s="13"/>
       <c r="B321" s="1" t="s">
         <v>361</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D321" s="5"/>
     </row>
-    <row r="322" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" ht="25.95" customHeight="1">
       <c r="A322" s="5" t="s">
         <v>362</v>
       </c>
@@ -5290,11 +5436,11 @@
         <v>363</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D322" s="5"/>
     </row>
-    <row r="323" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" ht="25.95" customHeight="1">
       <c r="A323" s="11" t="s">
         <v>364</v>
       </c>
@@ -5302,61 +5448,61 @@
         <v>365</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D323" s="5"/>
     </row>
-    <row r="324" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" ht="25.95" customHeight="1">
       <c r="A324" s="12"/>
       <c r="B324" s="1" t="s">
         <v>366</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D324" s="5"/>
     </row>
-    <row r="325" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" ht="25.95" customHeight="1">
       <c r="A325" s="12"/>
       <c r="B325" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D325" s="5"/>
     </row>
-    <row r="326" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" ht="25.95" customHeight="1">
       <c r="A326" s="12"/>
       <c r="B326" s="1" t="s">
         <v>368</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D326" s="5"/>
     </row>
-    <row r="327" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" ht="25.95" customHeight="1">
       <c r="A327" s="12"/>
       <c r="B327" s="1" t="s">
         <v>369</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D327" s="5"/>
     </row>
-    <row r="328" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" ht="25.95" customHeight="1">
       <c r="A328" s="13"/>
       <c r="B328" s="1" t="s">
         <v>370</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D328" s="5"/>
     </row>
-    <row r="329" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" ht="25.95" customHeight="1">
       <c r="A329" s="11" t="s">
         <v>371</v>
       </c>
@@ -5364,329 +5510,302 @@
         <v>372</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D329" s="5"/>
     </row>
-    <row r="330" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" ht="25.95" customHeight="1">
       <c r="A330" s="12"/>
       <c r="B330" s="1" t="s">
         <v>373</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D330" s="5"/>
     </row>
-    <row r="331" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" ht="25.95" customHeight="1">
       <c r="A331" s="12"/>
       <c r="B331" s="1" t="s">
         <v>374</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D331" s="5"/>
     </row>
-    <row r="332" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" ht="25.95" customHeight="1">
       <c r="A332" s="12"/>
       <c r="B332" s="1" t="s">
         <v>375</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D332" s="5"/>
     </row>
-    <row r="333" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" ht="25.95" customHeight="1">
       <c r="A333" s="12"/>
       <c r="B333" s="1" t="s">
         <v>376</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D333" s="5"/>
     </row>
-    <row r="334" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" ht="25.95" customHeight="1">
       <c r="A334" s="12"/>
       <c r="B334" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D334" s="5"/>
     </row>
-    <row r="335" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" ht="25.95" customHeight="1">
       <c r="A335" s="12"/>
       <c r="B335" s="1" t="s">
         <v>378</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D335" s="5"/>
     </row>
-    <row r="336" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" ht="25.95" customHeight="1">
       <c r="A336" s="12"/>
       <c r="B336" s="1" t="s">
         <v>379</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D336" s="5"/>
     </row>
-    <row r="337" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" ht="25.95" customHeight="1">
       <c r="A337" s="12"/>
       <c r="B337" s="1" t="s">
         <v>380</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D337" s="5"/>
     </row>
-    <row r="338" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" ht="25.95" customHeight="1">
       <c r="A338" s="12"/>
       <c r="B338" s="1" t="s">
         <v>381</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D338" s="5"/>
     </row>
-    <row r="339" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" ht="25.95" customHeight="1">
       <c r="A339" s="12"/>
       <c r="B339" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D339" s="5"/>
     </row>
-    <row r="340" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" ht="25.95" customHeight="1">
       <c r="A340" s="12"/>
       <c r="B340" s="1" t="s">
         <v>383</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D340" s="5"/>
     </row>
-    <row r="341" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" ht="25.95" customHeight="1">
       <c r="A341" s="12"/>
       <c r="B341" s="1" t="s">
         <v>384</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D341" s="5"/>
     </row>
-    <row r="342" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" ht="25.95" customHeight="1">
       <c r="A342" s="12"/>
       <c r="B342" s="1" t="s">
         <v>385</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D342" s="5"/>
     </row>
-    <row r="343" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" ht="25.95" customHeight="1">
       <c r="A343" s="12"/>
       <c r="B343" s="1" t="s">
         <v>386</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D343" s="5"/>
     </row>
-    <row r="344" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" ht="25.95" customHeight="1">
       <c r="A344" s="12"/>
       <c r="B344" s="1" t="s">
         <v>387</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D344" s="5"/>
     </row>
-    <row r="345" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" ht="25.95" customHeight="1">
       <c r="A345" s="12"/>
       <c r="B345" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D345" s="5"/>
     </row>
-    <row r="346" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" ht="25.95" customHeight="1">
       <c r="A346" s="12"/>
       <c r="B346" s="1" t="s">
         <v>389</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D346" s="5"/>
     </row>
-    <row r="347" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" ht="25.95" customHeight="1">
       <c r="A347" s="12"/>
       <c r="B347" s="1" t="s">
         <v>390</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D347" s="5"/>
     </row>
-    <row r="348" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" ht="25.95" customHeight="1">
       <c r="A348" s="12"/>
       <c r="B348" s="1" t="s">
         <v>391</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D348" s="5"/>
     </row>
-    <row r="349" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" ht="25.95" customHeight="1">
       <c r="A349" s="12"/>
       <c r="B349" s="1" t="s">
         <v>392</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D349" s="5"/>
     </row>
-    <row r="350" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" ht="25.95" customHeight="1">
       <c r="A350" s="12"/>
       <c r="B350" s="1" t="s">
         <v>393</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D350" s="5"/>
     </row>
-    <row r="351" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" ht="25.95" customHeight="1">
       <c r="A351" s="12"/>
       <c r="B351" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D351" s="5"/>
     </row>
-    <row r="352" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" ht="25.95" customHeight="1">
       <c r="A352" s="12"/>
       <c r="B352" s="1" t="s">
         <v>395</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D352" s="5"/>
     </row>
-    <row r="353" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" ht="25.95" customHeight="1">
       <c r="A353" s="12"/>
       <c r="B353" s="1" t="s">
         <v>396</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D353" s="5"/>
     </row>
-    <row r="354" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" ht="25.95" customHeight="1">
       <c r="A354" s="12"/>
       <c r="B354" s="1" t="s">
         <v>397</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D354" s="5"/>
     </row>
-    <row r="355" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" ht="25.95" customHeight="1">
       <c r="A355" s="12"/>
       <c r="B355" s="1" t="s">
         <v>398</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D355" s="5"/>
     </row>
-    <row r="356" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" ht="25.95" customHeight="1">
       <c r="A356" s="12"/>
       <c r="B356" s="1" t="s">
         <v>399</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D356" s="5"/>
     </row>
-    <row r="357" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" ht="25.95" customHeight="1">
       <c r="A357" s="12"/>
       <c r="B357" s="1" t="s">
         <v>400</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D357" s="5"/>
     </row>
-    <row r="358" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" ht="25.95" customHeight="1">
       <c r="A358" s="13"/>
       <c r="B358" s="1" t="s">
         <v>401</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D358" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A90:A97"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="A25:A52"/>
-    <mergeCell ref="A53:A62"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A68:A74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A83:A89"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A107:A112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="A181:A200"/>
-    <mergeCell ref="A201:A210"/>
-    <mergeCell ref="A212:A233"/>
-    <mergeCell ref="A234:A238"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A122:A154"/>
-    <mergeCell ref="A155:A165"/>
-    <mergeCell ref="A166:A167"/>
     <mergeCell ref="A329:A358"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A270:A279"/>
@@ -5703,6 +5822,33 @@
     <mergeCell ref="A265:A269"/>
     <mergeCell ref="A168:A177"/>
     <mergeCell ref="A178:A180"/>
+    <mergeCell ref="A181:A200"/>
+    <mergeCell ref="A201:A210"/>
+    <mergeCell ref="A212:A233"/>
+    <mergeCell ref="A234:A238"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A122:A154"/>
+    <mergeCell ref="A155:A165"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="A90:A97"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A25:A52"/>
+    <mergeCell ref="A53:A62"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A89"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C358">
@@ -5718,23 +5864,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A37" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="1" max="2" width="27.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="22.95" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -5743,43 +5889,43 @@
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="18" t="s">
         <v>403</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="18" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -5792,9 +5938,9 @@
       </c>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -5805,9 +5951,9 @@
       </c>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -5818,9 +5964,9 @@
       </c>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -5831,9 +5977,9 @@
       </c>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -5844,9 +5990,9 @@
       </c>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -5857,7 +6003,7 @@
       </c>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="8"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -5866,9 +6012,9 @@
       <c r="F10" s="8"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="8" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -5879,9 +6025,9 @@
       </c>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -5892,9 +6038,9 @@
       </c>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -5905,9 +6051,9 @@
       </c>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -5918,9 +6064,9 @@
       </c>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -5931,9 +6077,9 @@
       </c>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -5944,9 +6090,9 @@
       </c>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -5957,9 +6103,9 @@
       </c>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -5970,9 +6116,9 @@
       </c>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -5983,9 +6129,9 @@
       </c>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -5996,9 +6142,9 @@
       </c>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="8" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -6009,9 +6155,9 @@
       </c>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -6022,9 +6168,9 @@
       </c>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -6035,9 +6181,9 @@
       </c>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -6048,9 +6194,9 @@
       </c>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="8" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -6061,9 +6207,9 @@
       </c>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -6074,9 +6220,9 @@
       </c>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -6087,9 +6233,9 @@
       </c>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -6100,9 +6246,9 @@
       </c>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -6113,9 +6259,9 @@
       </c>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -6126,9 +6272,9 @@
       </c>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="8" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -6139,9 +6285,9 @@
       </c>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -6152,9 +6298,9 @@
       </c>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -6165,9 +6311,9 @@
       </c>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -6178,9 +6324,9 @@
       </c>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -6191,9 +6337,9 @@
       </c>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -6204,9 +6350,9 @@
       </c>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="8" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -6217,7 +6363,7 @@
       </c>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="8"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -6226,9 +6372,9 @@
       <c r="F38" s="8"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -6239,9 +6385,9 @@
       </c>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="8" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -6252,9 +6398,9 @@
       </c>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -6265,9 +6411,9 @@
       </c>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="8" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -6278,9 +6424,9 @@
       </c>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -6291,9 +6437,9 @@
       </c>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -6304,9 +6450,9 @@
       </c>
       <c r="G44" s="10"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -6317,9 +6463,9 @@
       </c>
       <c r="G45" s="10"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -6330,7 +6476,7 @@
       </c>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="8"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -6339,9 +6485,9 @@
       <c r="F47" s="8"/>
       <c r="G47" s="10"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -6352,9 +6498,9 @@
       </c>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -6365,9 +6511,9 @@
       </c>
       <c r="G49" s="10"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -6378,9 +6524,9 @@
       </c>
       <c r="G50" s="10"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -6391,9 +6537,9 @@
       </c>
       <c r="G51" s="10"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -6404,9 +6550,9 @@
       </c>
       <c r="G52" s="10"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>

--- a/Civilworks cost/LD/LD Annexes.xlsx
+++ b/Civilworks cost/LD/LD Annexes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Annex-II" sheetId="1" r:id="rId1"/>
@@ -1707,24 +1707,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1734,17 +1716,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1755,12 +1728,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1769,6 +1736,39 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2052,27 +2052,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D358"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C361" sqref="C361"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="91.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="91.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="69" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="22.9" customHeight="1">
+      <c r="A1" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="64.2" customHeight="1">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="64.150000000000006" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>395</v>
       </c>
@@ -2086,3836 +2086,3863 @@
         <v>396</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A4" s="18"/>
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A4" s="26"/>
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="15" t="s">
+    <row r="5" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A5" s="26"/>
+      <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="D5" s="17"/>
-    </row>
-    <row r="6" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="15" t="s">
+      <c r="C5" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A6" s="26"/>
+      <c r="B6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="15" t="s">
+      <c r="C6" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A7" s="26"/>
+      <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="D7" s="17"/>
-    </row>
-    <row r="8" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="15" t="s">
+      <c r="C7" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A8" s="27"/>
+      <c r="B8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="D8" s="17"/>
-    </row>
-    <row r="9" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A9" s="14" t="s">
+      <c r="C8" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A9" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="D9" s="17"/>
-    </row>
-    <row r="10" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="15" t="s">
+      <c r="C9" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A10" s="26"/>
+      <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="D10" s="17"/>
-    </row>
-    <row r="11" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="15" t="s">
+      <c r="C10" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A11" s="26"/>
+      <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="D11" s="17" t="s">
+      <c r="C11" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="15" t="s">
+    <row r="12" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A12" s="26"/>
+      <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="D12" s="20"/>
-    </row>
-    <row r="13" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="15" t="s">
+      <c r="C12" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A13" s="26"/>
+      <c r="B13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="15" t="s">
+      <c r="C13" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A14" s="26"/>
+      <c r="B14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="D14" s="17"/>
-    </row>
-    <row r="15" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="15" t="s">
+      <c r="C14" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A15" s="26"/>
+      <c r="B15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="D15" s="17"/>
-    </row>
-    <row r="16" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="15" t="s">
+      <c r="C15" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A16" s="27"/>
+      <c r="B16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="D16" s="17"/>
-    </row>
-    <row r="17" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A17" s="17" t="s">
+      <c r="C16" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="D17" s="17" t="s">
+      <c r="C17" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A18" s="21" t="s">
+    <row r="18" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A18" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D18" s="24" t="s">
+      <c r="C18" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A19" s="25"/>
-      <c r="B19" s="22" t="s">
+    <row r="19" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A19" s="20"/>
+      <c r="B19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A20" s="25"/>
-      <c r="B20" s="22" t="s">
+      <c r="C19" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A20" s="20"/>
+      <c r="B20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A21" s="25"/>
-      <c r="B21" s="22" t="s">
+      <c r="C20" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A21" s="20"/>
+      <c r="B21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D21" s="24" t="s">
+      <c r="C21" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A22" s="25"/>
-      <c r="B22" s="22" t="s">
+    <row r="22" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A22" s="20"/>
+      <c r="B22" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D22" s="24" t="s">
+      <c r="C22" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A23" s="25"/>
-      <c r="B23" s="22" t="s">
+    <row r="23" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A23" s="20"/>
+      <c r="B23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D23" s="24" t="s">
+      <c r="C23" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A24" s="26"/>
-      <c r="B24" s="22" t="s">
+    <row r="24" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A24" s="21"/>
+      <c r="B24" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D24" s="24"/>
-    </row>
-    <row r="25" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A25" s="21" t="s">
+      <c r="C24" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A25" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D25" s="24"/>
-    </row>
-    <row r="26" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A26" s="25"/>
-      <c r="B26" s="22" t="s">
+      <c r="C25" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D25" s="15"/>
+    </row>
+    <row r="26" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A26" s="20"/>
+      <c r="B26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D26" s="24"/>
-    </row>
-    <row r="27" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A27" s="25"/>
-      <c r="B27" s="22" t="s">
+      <c r="C26" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A27" s="20"/>
+      <c r="B27" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D27" s="24"/>
-    </row>
-    <row r="28" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A28" s="25"/>
-      <c r="B28" s="22" t="s">
+      <c r="C27" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A28" s="20"/>
+      <c r="B28" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D28" s="24"/>
-    </row>
-    <row r="29" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A29" s="25"/>
-      <c r="B29" s="22" t="s">
+      <c r="C28" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A29" s="20"/>
+      <c r="B29" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D29" s="24"/>
-    </row>
-    <row r="30" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A30" s="25"/>
-      <c r="B30" s="22" t="s">
+      <c r="C29" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D29" s="15"/>
+    </row>
+    <row r="30" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A30" s="20"/>
+      <c r="B30" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D30" s="24"/>
-    </row>
-    <row r="31" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A31" s="25"/>
-      <c r="B31" s="22" t="s">
+      <c r="C30" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A31" s="20"/>
+      <c r="B31" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D31" s="24"/>
-    </row>
-    <row r="32" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A32" s="25"/>
-      <c r="B32" s="22" t="s">
+      <c r="C31" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A32" s="20"/>
+      <c r="B32" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D32" s="24"/>
-    </row>
-    <row r="33" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22" t="s">
+      <c r="C32" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D32" s="15"/>
+    </row>
+    <row r="33" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A33" s="20"/>
+      <c r="B33" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D33" s="24"/>
-    </row>
-    <row r="34" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A34" s="25"/>
-      <c r="B34" s="22" t="s">
+      <c r="C33" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D33" s="15"/>
+    </row>
+    <row r="34" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A34" s="20"/>
+      <c r="B34" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D34" s="24"/>
-    </row>
-    <row r="35" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A35" s="25"/>
-      <c r="B35" s="22" t="s">
+      <c r="C34" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D34" s="15"/>
+    </row>
+    <row r="35" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A35" s="20"/>
+      <c r="B35" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D35" s="24"/>
-    </row>
-    <row r="36" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A36" s="25"/>
-      <c r="B36" s="22" t="s">
+      <c r="C35" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D35" s="15"/>
+    </row>
+    <row r="36" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A36" s="20"/>
+      <c r="B36" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D36" s="24"/>
-    </row>
-    <row r="37" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A37" s="25"/>
-      <c r="B37" s="22" t="s">
+      <c r="C36" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A37" s="20"/>
+      <c r="B37" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D37" s="24"/>
-    </row>
-    <row r="38" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A38" s="25"/>
-      <c r="B38" s="22" t="s">
+      <c r="C37" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A38" s="20"/>
+      <c r="B38" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D38" s="24"/>
-    </row>
-    <row r="39" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A39" s="25"/>
-      <c r="B39" s="22" t="s">
+      <c r="C38" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D38" s="15"/>
+    </row>
+    <row r="39" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A39" s="20"/>
+      <c r="B39" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D39" s="24"/>
-    </row>
-    <row r="40" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A40" s="25"/>
-      <c r="B40" s="22" t="s">
+      <c r="C39" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D39" s="15"/>
+    </row>
+    <row r="40" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A40" s="20"/>
+      <c r="B40" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D40" s="24"/>
-    </row>
-    <row r="41" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A41" s="25"/>
-      <c r="B41" s="22" t="s">
+      <c r="C40" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D40" s="15"/>
+    </row>
+    <row r="41" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A41" s="20"/>
+      <c r="B41" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D41" s="24"/>
-    </row>
-    <row r="42" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A42" s="25"/>
-      <c r="B42" s="22" t="s">
+      <c r="C41" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D41" s="15"/>
+    </row>
+    <row r="42" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A42" s="20"/>
+      <c r="B42" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D42" s="24"/>
-    </row>
-    <row r="43" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A43" s="25"/>
-      <c r="B43" s="22" t="s">
+      <c r="C42" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D42" s="15"/>
+    </row>
+    <row r="43" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A43" s="20"/>
+      <c r="B43" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D43" s="24"/>
-    </row>
-    <row r="44" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A44" s="25"/>
-      <c r="B44" s="22" t="s">
+      <c r="C43" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D43" s="15"/>
+    </row>
+    <row r="44" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A44" s="20"/>
+      <c r="B44" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D44" s="24"/>
-    </row>
-    <row r="45" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A45" s="25"/>
-      <c r="B45" s="22" t="s">
+      <c r="C44" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D44" s="15"/>
+    </row>
+    <row r="45" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A45" s="20"/>
+      <c r="B45" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D45" s="24"/>
-    </row>
-    <row r="46" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A46" s="25"/>
-      <c r="B46" s="22" t="s">
+      <c r="C45" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D45" s="15"/>
+    </row>
+    <row r="46" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A46" s="20"/>
+      <c r="B46" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D46" s="24"/>
-    </row>
-    <row r="47" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22" t="s">
+      <c r="C46" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D46" s="15"/>
+    </row>
+    <row r="47" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A47" s="20"/>
+      <c r="B47" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D47" s="24"/>
-    </row>
-    <row r="48" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A48" s="25"/>
-      <c r="B48" s="22" t="s">
+      <c r="C47" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D47" s="15"/>
+    </row>
+    <row r="48" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A48" s="20"/>
+      <c r="B48" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D48" s="24"/>
-    </row>
-    <row r="49" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A49" s="25"/>
-      <c r="B49" s="22" t="s">
+      <c r="C48" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D48" s="15"/>
+    </row>
+    <row r="49" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A49" s="20"/>
+      <c r="B49" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D49" s="24"/>
-    </row>
-    <row r="50" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A50" s="25"/>
-      <c r="B50" s="22" t="s">
+      <c r="C49" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D49" s="15"/>
+    </row>
+    <row r="50" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A50" s="20"/>
+      <c r="B50" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D50" s="24" t="s">
+      <c r="C50" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D50" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A51" s="25"/>
-      <c r="B51" s="22" t="s">
+    <row r="51" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A51" s="20"/>
+      <c r="B51" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D51" s="24"/>
-    </row>
-    <row r="52" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A52" s="26"/>
-      <c r="B52" s="22" t="s">
+      <c r="C51" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D51" s="15"/>
+    </row>
+    <row r="52" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A52" s="21"/>
+      <c r="B52" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D52" s="24"/>
-    </row>
-    <row r="53" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A53" s="21" t="s">
+      <c r="C52" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D52" s="15"/>
+    </row>
+    <row r="53" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A53" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D53" s="24" t="s">
+      <c r="C53" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D53" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22" t="s">
+    <row r="54" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A54" s="20"/>
+      <c r="B54" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D54" s="24"/>
-    </row>
-    <row r="55" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A55" s="25"/>
-      <c r="B55" s="22" t="s">
+      <c r="C54" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D54" s="15"/>
+    </row>
+    <row r="55" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A55" s="20"/>
+      <c r="B55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D55" s="24"/>
-    </row>
-    <row r="56" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A56" s="25"/>
-      <c r="B56" s="22" t="s">
+      <c r="C55" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D55" s="15"/>
+    </row>
+    <row r="56" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A56" s="20"/>
+      <c r="B56" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D56" s="24"/>
-    </row>
-    <row r="57" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A57" s="25"/>
-      <c r="B57" s="22" t="s">
+      <c r="C56" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D56" s="15"/>
+    </row>
+    <row r="57" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A57" s="20"/>
+      <c r="B57" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D57" s="24"/>
-    </row>
-    <row r="58" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A58" s="25"/>
-      <c r="B58" s="22" t="s">
+      <c r="C57" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D57" s="15"/>
+    </row>
+    <row r="58" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A58" s="20"/>
+      <c r="B58" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D58" s="24" t="s">
+      <c r="C58" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D58" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A59" s="25"/>
-      <c r="B59" s="22" t="s">
+    <row r="59" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A59" s="20"/>
+      <c r="B59" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D59" s="24"/>
-    </row>
-    <row r="60" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A60" s="25"/>
-      <c r="B60" s="22" t="s">
+      <c r="C59" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D59" s="15"/>
+    </row>
+    <row r="60" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A60" s="20"/>
+      <c r="B60" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D60" s="24"/>
-    </row>
-    <row r="61" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22" t="s">
+      <c r="C60" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D60" s="15"/>
+    </row>
+    <row r="61" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A61" s="20"/>
+      <c r="B61" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D61" s="24"/>
-    </row>
-    <row r="62" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A62" s="26"/>
-      <c r="B62" s="22" t="s">
+      <c r="C61" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D61" s="15"/>
+    </row>
+    <row r="62" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A62" s="21"/>
+      <c r="B62" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D62" s="24"/>
-    </row>
-    <row r="63" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A63" s="21" t="s">
+      <c r="C62" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D62" s="15"/>
+    </row>
+    <row r="63" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A63" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="B63" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D63" s="24" t="s">
+      <c r="C63" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D63" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A64" s="25"/>
-      <c r="B64" s="22" t="s">
+    <row r="64" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A64" s="20"/>
+      <c r="B64" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D64" s="24" t="s">
+      <c r="C64" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D64" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A65" s="25"/>
-      <c r="B65" s="22" t="s">
+    <row r="65" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A65" s="20"/>
+      <c r="B65" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D65" s="24"/>
-    </row>
-    <row r="66" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A66" s="25"/>
-      <c r="B66" s="22" t="s">
+      <c r="C65" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D65" s="15"/>
+    </row>
+    <row r="66" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A66" s="20"/>
+      <c r="B66" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D66" s="24"/>
-    </row>
-    <row r="67" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A67" s="26"/>
-      <c r="B67" s="22" t="s">
+      <c r="C66" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D66" s="15"/>
+    </row>
+    <row r="67" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A67" s="21"/>
+      <c r="B67" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C67" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D67" s="24"/>
-    </row>
-    <row r="68" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A68" s="21" t="s">
+      <c r="C67" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D67" s="15"/>
+    </row>
+    <row r="68" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A68" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D68" s="24"/>
-    </row>
-    <row r="69" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A69" s="25"/>
-      <c r="B69" s="22" t="s">
+      <c r="C68" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D68" s="15"/>
+    </row>
+    <row r="69" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A69" s="20"/>
+      <c r="B69" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D69" s="24" t="s">
+      <c r="C69" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D69" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A70" s="25"/>
-      <c r="B70" s="22" t="s">
+    <row r="70" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A70" s="20"/>
+      <c r="B70" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C70" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D70" s="24"/>
-    </row>
-    <row r="71" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A71" s="25"/>
-      <c r="B71" s="22" t="s">
+      <c r="C70" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D70" s="15"/>
+    </row>
+    <row r="71" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A71" s="20"/>
+      <c r="B71" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C71" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D71" s="24"/>
-    </row>
-    <row r="72" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A72" s="25"/>
-      <c r="B72" s="22" t="s">
+      <c r="C71" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D71" s="15"/>
+    </row>
+    <row r="72" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A72" s="20"/>
+      <c r="B72" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C72" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D72" s="24"/>
-    </row>
-    <row r="73" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A73" s="25"/>
-      <c r="B73" s="22" t="s">
+      <c r="C72" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D72" s="15"/>
+    </row>
+    <row r="73" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A73" s="20"/>
+      <c r="B73" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C73" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D73" s="24"/>
-    </row>
-    <row r="74" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A74" s="26"/>
-      <c r="B74" s="22" t="s">
+      <c r="C73" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D73" s="15"/>
+    </row>
+    <row r="74" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A74" s="21"/>
+      <c r="B74" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C74" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D74" s="24"/>
-    </row>
-    <row r="75" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A75" s="21" t="s">
+      <c r="C74" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D74" s="15"/>
+    </row>
+    <row r="75" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A75" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C75" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D75" s="27"/>
-    </row>
-    <row r="76" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A76" s="26"/>
-      <c r="B76" s="22" t="s">
+      <c r="C75" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D75" s="16"/>
+    </row>
+    <row r="76" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A76" s="21"/>
+      <c r="B76" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C76" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D76" s="24" t="s">
+      <c r="C76" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D76" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A77" s="21" t="s">
+    <row r="77" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A77" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D77" s="24"/>
-    </row>
-    <row r="78" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A78" s="25"/>
-      <c r="B78" s="22" t="s">
+      <c r="C77" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D77" s="15"/>
+    </row>
+    <row r="78" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A78" s="20"/>
+      <c r="B78" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C78" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D78" s="24"/>
-    </row>
-    <row r="79" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A79" s="25"/>
-      <c r="B79" s="22" t="s">
+      <c r="C78" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D78" s="15"/>
+    </row>
+    <row r="79" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A79" s="20"/>
+      <c r="B79" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C79" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D79" s="24"/>
-    </row>
-    <row r="80" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A80" s="26"/>
-      <c r="B80" s="22" t="s">
+      <c r="C79" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D79" s="15"/>
+    </row>
+    <row r="80" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A80" s="21"/>
+      <c r="B80" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C80" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D80" s="24" t="s">
+      <c r="C80" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D80" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A81" s="21" t="s">
+    <row r="81" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A81" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B81" s="22" t="s">
+      <c r="B81" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C81" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D81" s="24"/>
-    </row>
-    <row r="82" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A82" s="26"/>
-      <c r="B82" s="22" t="s">
+      <c r="C81" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D81" s="15"/>
+    </row>
+    <row r="82" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A82" s="21"/>
+      <c r="B82" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C82" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D82" s="24" t="s">
+      <c r="C82" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D82" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A83" s="21" t="s">
+    <row r="83" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A83" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B83" s="22" t="s">
+      <c r="B83" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C83" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D83" s="24"/>
-    </row>
-    <row r="84" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A84" s="25"/>
-      <c r="B84" s="22" t="s">
+      <c r="C83" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D83" s="15"/>
+    </row>
+    <row r="84" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A84" s="20"/>
+      <c r="B84" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D84" s="24"/>
-    </row>
-    <row r="85" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A85" s="25"/>
-      <c r="B85" s="22" t="s">
+      <c r="C84" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D84" s="15"/>
+    </row>
+    <row r="85" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A85" s="20"/>
+      <c r="B85" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C85" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D85" s="24"/>
-    </row>
-    <row r="86" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A86" s="25"/>
-      <c r="B86" s="22" t="s">
+      <c r="C85" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D85" s="15"/>
+    </row>
+    <row r="86" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A86" s="20"/>
+      <c r="B86" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C86" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D86" s="24"/>
-    </row>
-    <row r="87" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A87" s="25"/>
-      <c r="B87" s="22" t="s">
+      <c r="C86" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D86" s="15"/>
+    </row>
+    <row r="87" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A87" s="20"/>
+      <c r="B87" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C87" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D87" s="24"/>
-    </row>
-    <row r="88" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A88" s="25"/>
-      <c r="B88" s="22" t="s">
+      <c r="C87" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D87" s="15"/>
+    </row>
+    <row r="88" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A88" s="20"/>
+      <c r="B88" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C88" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D88" s="24"/>
-    </row>
-    <row r="89" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A89" s="26"/>
-      <c r="B89" s="22" t="s">
+      <c r="C88" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D88" s="15"/>
+    </row>
+    <row r="89" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A89" s="21"/>
+      <c r="B89" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C89" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D89" s="24"/>
-    </row>
-    <row r="90" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A90" s="21" t="s">
+      <c r="C89" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D89" s="15"/>
+    </row>
+    <row r="90" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A90" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B90" s="22" t="s">
+      <c r="B90" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C90" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D90" s="24"/>
-    </row>
-    <row r="91" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A91" s="25"/>
-      <c r="B91" s="22" t="s">
+      <c r="C90" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D90" s="15"/>
+    </row>
+    <row r="91" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A91" s="20"/>
+      <c r="B91" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C91" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D91" s="24"/>
-    </row>
-    <row r="92" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A92" s="25"/>
-      <c r="B92" s="22" t="s">
+      <c r="C91" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D91" s="15"/>
+    </row>
+    <row r="92" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A92" s="20"/>
+      <c r="B92" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C92" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D92" s="24"/>
-    </row>
-    <row r="93" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A93" s="25"/>
-      <c r="B93" s="22" t="s">
+      <c r="C92" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D92" s="15"/>
+    </row>
+    <row r="93" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A93" s="20"/>
+      <c r="B93" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C93" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D93" s="24"/>
-    </row>
-    <row r="94" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A94" s="25"/>
-      <c r="B94" s="22" t="s">
+      <c r="C93" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D93" s="15"/>
+    </row>
+    <row r="94" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A94" s="20"/>
+      <c r="B94" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C94" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D94" s="24"/>
-    </row>
-    <row r="95" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A95" s="25"/>
-      <c r="B95" s="22" t="s">
+      <c r="C94" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D94" s="15"/>
+    </row>
+    <row r="95" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A95" s="20"/>
+      <c r="B95" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C95" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D95" s="24" t="s">
+      <c r="C95" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D95" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A96" s="25"/>
-      <c r="B96" s="22" t="s">
+    <row r="96" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A96" s="20"/>
+      <c r="B96" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C96" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D96" s="24" t="s">
+      <c r="C96" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D96" s="15" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A97" s="26"/>
-      <c r="B97" s="22" t="s">
+    <row r="97" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A97" s="21"/>
+      <c r="B97" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C97" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D97" s="24" t="s">
+      <c r="C97" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D97" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A98" s="21" t="s">
+    <row r="98" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A98" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B98" s="22" t="s">
+      <c r="B98" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C98" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D98" s="24"/>
-    </row>
-    <row r="99" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A99" s="25"/>
-      <c r="B99" s="22" t="s">
+      <c r="C98" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D98" s="15"/>
+    </row>
+    <row r="99" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A99" s="20"/>
+      <c r="B99" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C99" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D99" s="24"/>
-    </row>
-    <row r="100" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A100" s="25"/>
-      <c r="B100" s="22" t="s">
+      <c r="C99" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D99" s="15"/>
+    </row>
+    <row r="100" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A100" s="20"/>
+      <c r="B100" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D100" s="24" t="s">
+      <c r="C100" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D100" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A101" s="26"/>
-      <c r="B101" s="22" t="s">
+    <row r="101" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A101" s="21"/>
+      <c r="B101" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C101" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D101" s="24"/>
-    </row>
-    <row r="102" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A102" s="21" t="s">
+      <c r="C101" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D101" s="15"/>
+    </row>
+    <row r="102" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A102" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B102" s="22" t="s">
+      <c r="B102" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C102" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D102" s="24"/>
-    </row>
-    <row r="103" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A103" s="25"/>
-      <c r="B103" s="22" t="s">
+      <c r="C102" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D102" s="15"/>
+    </row>
+    <row r="103" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A103" s="20"/>
+      <c r="B103" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C103" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D103" s="24"/>
-    </row>
-    <row r="104" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A104" s="26"/>
-      <c r="B104" s="22" t="s">
+      <c r="C103" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D103" s="15"/>
+    </row>
+    <row r="104" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A104" s="21"/>
+      <c r="B104" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C104" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D104" s="24" t="s">
+      <c r="C104" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D104" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A105" s="21" t="s">
+    <row r="105" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A105" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="B105" s="22" t="s">
+      <c r="B105" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C105" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D105" s="24"/>
-    </row>
-    <row r="106" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A106" s="26"/>
-      <c r="B106" s="22" t="s">
+      <c r="C105" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D105" s="15"/>
+    </row>
+    <row r="106" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A106" s="21"/>
+      <c r="B106" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C106" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D106" s="24" t="s">
+      <c r="C106" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D106" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A107" s="21" t="s">
+    <row r="107" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A107" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="B107" s="22" t="s">
+      <c r="B107" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C107" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D107" s="24" t="s">
+      <c r="C107" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D107" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A108" s="25"/>
-      <c r="B108" s="22" t="s">
+    <row r="108" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A108" s="20"/>
+      <c r="B108" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C108" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D108" s="24"/>
-    </row>
-    <row r="109" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A109" s="25"/>
-      <c r="B109" s="22" t="s">
+      <c r="C108" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D108" s="15"/>
+    </row>
+    <row r="109" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A109" s="20"/>
+      <c r="B109" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C109" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D109" s="24" t="s">
+      <c r="C109" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D109" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A110" s="25"/>
-      <c r="B110" s="22" t="s">
+    <row r="110" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A110" s="20"/>
+      <c r="B110" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C110" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D110" s="24"/>
-    </row>
-    <row r="111" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A111" s="25"/>
-      <c r="B111" s="22" t="s">
+      <c r="C110" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D110" s="15"/>
+    </row>
+    <row r="111" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A111" s="20"/>
+      <c r="B111" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C111" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D111" s="24"/>
-    </row>
-    <row r="112" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A112" s="26"/>
-      <c r="B112" s="22" t="s">
+      <c r="C111" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D111" s="15"/>
+    </row>
+    <row r="112" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A112" s="21"/>
+      <c r="B112" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C112" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D112" s="24"/>
-    </row>
-    <row r="113" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A113" s="21" t="s">
+      <c r="C112" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D112" s="15"/>
+    </row>
+    <row r="113" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A113" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B113" s="22" t="s">
+      <c r="B113" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C113" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D113" s="24"/>
-    </row>
-    <row r="114" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A114" s="25"/>
-      <c r="B114" s="22" t="s">
+      <c r="C113" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D113" s="15"/>
+    </row>
+    <row r="114" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A114" s="20"/>
+      <c r="B114" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C114" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D114" s="24" t="s">
+      <c r="C114" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D114" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A115" s="26"/>
-      <c r="B115" s="22" t="s">
+    <row r="115" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A115" s="21"/>
+      <c r="B115" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C115" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D115" s="24" t="s">
+      <c r="C115" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D115" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A116" s="21" t="s">
+    <row r="116" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A116" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="B116" s="22" t="s">
+      <c r="B116" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C116" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D116" s="24" t="s">
+      <c r="C116" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D116" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A117" s="26"/>
-      <c r="B117" s="22" t="s">
+    <row r="117" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A117" s="21"/>
+      <c r="B117" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C117" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D117" s="24" t="s">
+      <c r="C117" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D117" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A118" s="21" t="s">
+    <row r="118" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A118" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B118" s="22" t="s">
+      <c r="B118" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C118" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D118" s="24" t="s">
+      <c r="C118" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D118" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A119" s="26"/>
-      <c r="B119" s="22" t="s">
+    <row r="119" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A119" s="21"/>
+      <c r="B119" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C119" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D119" s="24"/>
-    </row>
-    <row r="120" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A120" s="21" t="s">
+      <c r="C119" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D119" s="15"/>
+    </row>
+    <row r="120" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A120" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="B120" s="22" t="s">
+      <c r="B120" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C120" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D120" s="24" t="s">
+      <c r="C120" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D120" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A121" s="26"/>
-      <c r="B121" s="22" t="s">
+    <row r="121" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A121" s="21"/>
+      <c r="B121" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C121" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D121" s="24"/>
-    </row>
-    <row r="122" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A122" s="21" t="s">
+      <c r="C121" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D121" s="15"/>
+    </row>
+    <row r="122" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A122" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="B122" s="22" t="s">
+      <c r="B122" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C122" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D122" s="24"/>
-    </row>
-    <row r="123" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A123" s="25"/>
-      <c r="B123" s="22" t="s">
+      <c r="C122" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D122" s="15"/>
+    </row>
+    <row r="123" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A123" s="20"/>
+      <c r="B123" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C123" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D123" s="24"/>
-    </row>
-    <row r="124" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A124" s="25"/>
-      <c r="B124" s="22" t="s">
+      <c r="C123" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D123" s="15"/>
+    </row>
+    <row r="124" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A124" s="20"/>
+      <c r="B124" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C124" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D124" s="24"/>
-    </row>
-    <row r="125" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A125" s="25"/>
-      <c r="B125" s="22" t="s">
+      <c r="C124" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D124" s="15"/>
+    </row>
+    <row r="125" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A125" s="20"/>
+      <c r="B125" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="C125" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D125" s="24"/>
-    </row>
-    <row r="126" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A126" s="25"/>
-      <c r="B126" s="22" t="s">
+      <c r="C125" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D125" s="15"/>
+    </row>
+    <row r="126" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A126" s="20"/>
+      <c r="B126" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C126" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D126" s="24"/>
-    </row>
-    <row r="127" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A127" s="25"/>
-      <c r="B127" s="22" t="s">
+      <c r="C126" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D126" s="15"/>
+    </row>
+    <row r="127" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A127" s="20"/>
+      <c r="B127" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C127" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D127" s="24"/>
-    </row>
-    <row r="128" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A128" s="25"/>
-      <c r="B128" s="22" t="s">
+      <c r="C127" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D127" s="15"/>
+    </row>
+    <row r="128" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A128" s="20"/>
+      <c r="B128" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C128" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D128" s="24"/>
-    </row>
-    <row r="129" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A129" s="25"/>
-      <c r="B129" s="22" t="s">
+      <c r="C128" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D128" s="15"/>
+    </row>
+    <row r="129" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A129" s="20"/>
+      <c r="B129" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C129" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D129" s="24"/>
-    </row>
-    <row r="130" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A130" s="25"/>
-      <c r="B130" s="22" t="s">
+      <c r="C129" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D129" s="15"/>
+    </row>
+    <row r="130" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A130" s="20"/>
+      <c r="B130" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C130" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D130" s="24"/>
-    </row>
-    <row r="131" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A131" s="25"/>
-      <c r="B131" s="22" t="s">
+      <c r="C130" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D130" s="15"/>
+    </row>
+    <row r="131" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A131" s="20"/>
+      <c r="B131" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="C131" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D131" s="24"/>
-    </row>
-    <row r="132" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A132" s="25"/>
-      <c r="B132" s="22" t="s">
+      <c r="C131" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D131" s="15"/>
+    </row>
+    <row r="132" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A132" s="20"/>
+      <c r="B132" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C132" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D132" s="24"/>
-    </row>
-    <row r="133" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A133" s="25"/>
-      <c r="B133" s="22" t="s">
+      <c r="C132" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D132" s="15"/>
+    </row>
+    <row r="133" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A133" s="20"/>
+      <c r="B133" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C133" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D133" s="24"/>
-    </row>
-    <row r="134" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A134" s="25"/>
-      <c r="B134" s="22" t="s">
+      <c r="C133" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D133" s="15"/>
+    </row>
+    <row r="134" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A134" s="20"/>
+      <c r="B134" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C134" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D134" s="24"/>
-    </row>
-    <row r="135" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A135" s="25"/>
-      <c r="B135" s="22" t="s">
+      <c r="C134" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D134" s="15"/>
+    </row>
+    <row r="135" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A135" s="20"/>
+      <c r="B135" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="C135" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D135" s="24"/>
-    </row>
-    <row r="136" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A136" s="25"/>
-      <c r="B136" s="22" t="s">
+      <c r="C135" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D135" s="15"/>
+    </row>
+    <row r="136" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A136" s="20"/>
+      <c r="B136" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C136" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D136" s="24"/>
-    </row>
-    <row r="137" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A137" s="25"/>
-      <c r="B137" s="22" t="s">
+      <c r="C136" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D136" s="15"/>
+    </row>
+    <row r="137" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A137" s="20"/>
+      <c r="B137" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C137" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D137" s="24"/>
-    </row>
-    <row r="138" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A138" s="25"/>
-      <c r="B138" s="22" t="s">
+      <c r="C137" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D137" s="15"/>
+    </row>
+    <row r="138" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A138" s="20"/>
+      <c r="B138" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C138" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D138" s="24"/>
-    </row>
-    <row r="139" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A139" s="25"/>
-      <c r="B139" s="22" t="s">
+      <c r="C138" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D138" s="15"/>
+    </row>
+    <row r="139" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A139" s="20"/>
+      <c r="B139" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C139" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D139" s="24"/>
-    </row>
-    <row r="140" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A140" s="25"/>
-      <c r="B140" s="22" t="s">
+      <c r="C139" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D139" s="15"/>
+    </row>
+    <row r="140" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A140" s="20"/>
+      <c r="B140" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C140" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D140" s="24"/>
-    </row>
-    <row r="141" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A141" s="25"/>
-      <c r="B141" s="22" t="s">
+      <c r="C140" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D140" s="15"/>
+    </row>
+    <row r="141" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A141" s="20"/>
+      <c r="B141" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C141" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D141" s="24"/>
-    </row>
-    <row r="142" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A142" s="25"/>
-      <c r="B142" s="22" t="s">
+      <c r="C141" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D141" s="15"/>
+    </row>
+    <row r="142" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A142" s="20"/>
+      <c r="B142" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C142" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D142" s="24"/>
-    </row>
-    <row r="143" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A143" s="25"/>
-      <c r="B143" s="22" t="s">
+      <c r="C142" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D142" s="15"/>
+    </row>
+    <row r="143" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A143" s="20"/>
+      <c r="B143" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C143" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D143" s="24"/>
-    </row>
-    <row r="144" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A144" s="25"/>
-      <c r="B144" s="22" t="s">
+      <c r="C143" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D143" s="15"/>
+    </row>
+    <row r="144" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A144" s="20"/>
+      <c r="B144" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C144" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D144" s="24"/>
-    </row>
-    <row r="145" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A145" s="25"/>
-      <c r="B145" s="22" t="s">
+      <c r="C144" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D144" s="15"/>
+    </row>
+    <row r="145" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A145" s="20"/>
+      <c r="B145" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C145" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D145" s="24"/>
-    </row>
-    <row r="146" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A146" s="25"/>
-      <c r="B146" s="22" t="s">
+      <c r="C145" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D145" s="15"/>
+    </row>
+    <row r="146" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A146" s="20"/>
+      <c r="B146" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C146" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D146" s="24"/>
-    </row>
-    <row r="147" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A147" s="25"/>
-      <c r="B147" s="22" t="s">
+      <c r="C146" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D146" s="15"/>
+    </row>
+    <row r="147" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A147" s="20"/>
+      <c r="B147" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C147" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D147" s="24"/>
-    </row>
-    <row r="148" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A148" s="25"/>
-      <c r="B148" s="22" t="s">
+      <c r="C147" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D147" s="15"/>
+    </row>
+    <row r="148" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A148" s="20"/>
+      <c r="B148" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C148" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D148" s="24" t="s">
+      <c r="C148" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D148" s="15" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A149" s="25"/>
-      <c r="B149" s="22" t="s">
+    <row r="149" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A149" s="20"/>
+      <c r="B149" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C149" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D149" s="24"/>
-    </row>
-    <row r="150" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A150" s="25"/>
-      <c r="B150" s="22" t="s">
+      <c r="C149" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D149" s="15"/>
+    </row>
+    <row r="150" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A150" s="20"/>
+      <c r="B150" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C150" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D150" s="24"/>
-    </row>
-    <row r="151" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A151" s="25"/>
-      <c r="B151" s="22" t="s">
+      <c r="C150" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D150" s="15"/>
+    </row>
+    <row r="151" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A151" s="20"/>
+      <c r="B151" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="C151" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D151" s="24"/>
-    </row>
-    <row r="152" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A152" s="25"/>
-      <c r="B152" s="22" t="s">
+      <c r="C151" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D151" s="15"/>
+    </row>
+    <row r="152" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A152" s="20"/>
+      <c r="B152" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C152" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D152" s="24"/>
-    </row>
-    <row r="153" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A153" s="25"/>
-      <c r="B153" s="22" t="s">
+      <c r="C152" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D152" s="15"/>
+    </row>
+    <row r="153" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A153" s="20"/>
+      <c r="B153" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C153" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D153" s="24"/>
-    </row>
-    <row r="154" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A154" s="26"/>
-      <c r="B154" s="22" t="s">
+      <c r="C153" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D153" s="15"/>
+    </row>
+    <row r="154" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A154" s="21"/>
+      <c r="B154" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C154" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D154" s="24"/>
-    </row>
-    <row r="155" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A155" s="21" t="s">
+      <c r="C154" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D154" s="15"/>
+    </row>
+    <row r="155" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A155" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="B155" s="22" t="s">
+      <c r="B155" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C155" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D155" s="24" t="s">
+      <c r="C155" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D155" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A156" s="25"/>
-      <c r="B156" s="22" t="s">
+    <row r="156" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A156" s="20"/>
+      <c r="B156" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="C156" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D156" s="24"/>
-    </row>
-    <row r="157" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A157" s="25"/>
-      <c r="B157" s="22" t="s">
+      <c r="C156" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D156" s="15"/>
+    </row>
+    <row r="157" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A157" s="20"/>
+      <c r="B157" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="C157" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D157" s="24"/>
-    </row>
-    <row r="158" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A158" s="25"/>
-      <c r="B158" s="22" t="s">
+      <c r="C157" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D157" s="15"/>
+    </row>
+    <row r="158" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A158" s="20"/>
+      <c r="B158" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="C158" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D158" s="24"/>
-    </row>
-    <row r="159" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A159" s="25"/>
-      <c r="B159" s="22" t="s">
+      <c r="C158" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D158" s="15"/>
+    </row>
+    <row r="159" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A159" s="20"/>
+      <c r="B159" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="C159" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D159" s="24"/>
-    </row>
-    <row r="160" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A160" s="25"/>
-      <c r="B160" s="22" t="s">
+      <c r="C159" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D159" s="15"/>
+    </row>
+    <row r="160" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A160" s="20"/>
+      <c r="B160" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="C160" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D160" s="24" t="s">
+      <c r="C160" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D160" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A161" s="25"/>
-      <c r="B161" s="22" t="s">
+    <row r="161" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A161" s="20"/>
+      <c r="B161" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C161" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D161" s="24" t="s">
+      <c r="C161" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D161" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A162" s="25"/>
-      <c r="B162" s="22" t="s">
+    <row r="162" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A162" s="20"/>
+      <c r="B162" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="C162" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D162" s="24" t="s">
+      <c r="C162" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D162" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A163" s="25"/>
-      <c r="B163" s="22" t="s">
+    <row r="163" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A163" s="20"/>
+      <c r="B163" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="C163" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D163" s="24"/>
-    </row>
-    <row r="164" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A164" s="25"/>
-      <c r="B164" s="22" t="s">
+      <c r="C163" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D163" s="15"/>
+    </row>
+    <row r="164" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A164" s="20"/>
+      <c r="B164" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="C164" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D164" s="24"/>
-    </row>
-    <row r="165" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A165" s="26"/>
-      <c r="B165" s="22" t="s">
+      <c r="C164" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D164" s="15"/>
+    </row>
+    <row r="165" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A165" s="21"/>
+      <c r="B165" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C165" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D165" s="24"/>
-    </row>
-    <row r="166" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A166" s="21" t="s">
+      <c r="C165" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D165" s="15"/>
+    </row>
+    <row r="166" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A166" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="B166" s="22" t="s">
+      <c r="B166" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C166" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D166" s="24" t="s">
+      <c r="C166" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D166" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A167" s="26"/>
-      <c r="B167" s="22" t="s">
+    <row r="167" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A167" s="21"/>
+      <c r="B167" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C167" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D167" s="24" t="s">
+      <c r="C167" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D167" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A168" s="21" t="s">
+    <row r="168" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A168" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="B168" s="22" t="s">
+      <c r="B168" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="C168" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D168" s="24"/>
-    </row>
-    <row r="169" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A169" s="25"/>
-      <c r="B169" s="22" t="s">
+      <c r="C168" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D168" s="15"/>
+    </row>
+    <row r="169" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A169" s="20"/>
+      <c r="B169" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="C169" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D169" s="24"/>
-    </row>
-    <row r="170" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A170" s="25"/>
-      <c r="B170" s="22" t="s">
+      <c r="C169" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D169" s="15"/>
+    </row>
+    <row r="170" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A170" s="20"/>
+      <c r="B170" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="C170" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D170" s="24" t="s">
+      <c r="C170" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D170" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A171" s="25"/>
-      <c r="B171" s="22" t="s">
+    <row r="171" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A171" s="20"/>
+      <c r="B171" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C171" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D171" s="24"/>
-    </row>
-    <row r="172" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A172" s="25"/>
-      <c r="B172" s="22" t="s">
+      <c r="C171" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D171" s="15"/>
+    </row>
+    <row r="172" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A172" s="20"/>
+      <c r="B172" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="C172" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D172" s="24"/>
-    </row>
-    <row r="173" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A173" s="25"/>
-      <c r="B173" s="22" t="s">
+      <c r="C172" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D172" s="15"/>
+    </row>
+    <row r="173" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A173" s="20"/>
+      <c r="B173" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="C173" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D173" s="24"/>
-    </row>
-    <row r="174" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A174" s="25"/>
-      <c r="B174" s="22" t="s">
+      <c r="C173" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D173" s="15"/>
+    </row>
+    <row r="174" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A174" s="20"/>
+      <c r="B174" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="C174" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D174" s="24"/>
-    </row>
-    <row r="175" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A175" s="25"/>
-      <c r="B175" s="22" t="s">
+      <c r="C174" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D174" s="15"/>
+    </row>
+    <row r="175" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A175" s="20"/>
+      <c r="B175" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C175" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D175" s="24"/>
-    </row>
-    <row r="176" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A176" s="25"/>
-      <c r="B176" s="22" t="s">
+      <c r="C175" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D175" s="15"/>
+    </row>
+    <row r="176" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A176" s="20"/>
+      <c r="B176" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="C176" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D176" s="24"/>
-    </row>
-    <row r="177" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A177" s="26"/>
-      <c r="B177" s="22" t="s">
+      <c r="C176" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D176" s="15"/>
+    </row>
+    <row r="177" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A177" s="21"/>
+      <c r="B177" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="C177" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D177" s="24" t="s">
+      <c r="C177" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D177" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A178" s="21" t="s">
+    <row r="178" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A178" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="B178" s="22" t="s">
+      <c r="B178" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C178" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D178" s="24"/>
-    </row>
-    <row r="179" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A179" s="25"/>
-      <c r="B179" s="22" t="s">
+      <c r="C178" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D178" s="15"/>
+    </row>
+    <row r="179" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A179" s="20"/>
+      <c r="B179" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C179" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D179" s="24"/>
-    </row>
-    <row r="180" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A180" s="26"/>
-      <c r="B180" s="22" t="s">
+      <c r="C179" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D179" s="15"/>
+    </row>
+    <row r="180" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A180" s="21"/>
+      <c r="B180" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C180" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D180" s="24" t="s">
+      <c r="C180" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D180" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A181" s="21" t="s">
+    <row r="181" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A181" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="B181" s="22" t="s">
+      <c r="B181" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C181" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D181" s="24"/>
-    </row>
-    <row r="182" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A182" s="25"/>
-      <c r="B182" s="22" t="s">
+      <c r="C181" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D181" s="15"/>
+    </row>
+    <row r="182" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A182" s="20"/>
+      <c r="B182" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="C182" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D182" s="24"/>
-    </row>
-    <row r="183" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A183" s="25"/>
-      <c r="B183" s="22" t="s">
+      <c r="C182" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D182" s="15"/>
+    </row>
+    <row r="183" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A183" s="20"/>
+      <c r="B183" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C183" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D183" s="24"/>
-    </row>
-    <row r="184" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A184" s="25"/>
-      <c r="B184" s="22" t="s">
+      <c r="C183" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D183" s="15"/>
+    </row>
+    <row r="184" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A184" s="20"/>
+      <c r="B184" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="C184" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D184" s="24"/>
-    </row>
-    <row r="185" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A185" s="25"/>
-      <c r="B185" s="22" t="s">
+      <c r="C184" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D184" s="15"/>
+    </row>
+    <row r="185" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A185" s="20"/>
+      <c r="B185" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="C185" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D185" s="24"/>
-    </row>
-    <row r="186" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A186" s="25"/>
-      <c r="B186" s="22" t="s">
+      <c r="C185" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D185" s="15"/>
+    </row>
+    <row r="186" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A186" s="20"/>
+      <c r="B186" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="C186" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D186" s="24"/>
-    </row>
-    <row r="187" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A187" s="25"/>
-      <c r="B187" s="22" t="s">
+      <c r="C186" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D186" s="15"/>
+    </row>
+    <row r="187" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A187" s="20"/>
+      <c r="B187" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C187" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D187" s="24"/>
-    </row>
-    <row r="188" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A188" s="25"/>
-      <c r="B188" s="22" t="s">
+      <c r="C187" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D187" s="15"/>
+    </row>
+    <row r="188" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A188" s="20"/>
+      <c r="B188" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="C188" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D188" s="24"/>
-    </row>
-    <row r="189" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A189" s="25"/>
-      <c r="B189" s="22" t="s">
+      <c r="C188" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D188" s="15"/>
+    </row>
+    <row r="189" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A189" s="20"/>
+      <c r="B189" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="C189" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D189" s="24"/>
-    </row>
-    <row r="190" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A190" s="25"/>
-      <c r="B190" s="22" t="s">
+      <c r="C189" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D189" s="15"/>
+    </row>
+    <row r="190" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A190" s="20"/>
+      <c r="B190" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C190" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D190" s="24"/>
-    </row>
-    <row r="191" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A191" s="25"/>
-      <c r="B191" s="22" t="s">
+      <c r="C190" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D190" s="15"/>
+    </row>
+    <row r="191" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A191" s="20"/>
+      <c r="B191" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="C191" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D191" s="24"/>
-    </row>
-    <row r="192" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A192" s="25"/>
-      <c r="B192" s="22" t="s">
+      <c r="C191" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D191" s="15"/>
+    </row>
+    <row r="192" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A192" s="20"/>
+      <c r="B192" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="C192" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D192" s="24"/>
-    </row>
-    <row r="193" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A193" s="25"/>
-      <c r="B193" s="22" t="s">
+      <c r="C192" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D192" s="15"/>
+    </row>
+    <row r="193" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A193" s="20"/>
+      <c r="B193" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="C193" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D193" s="24"/>
-    </row>
-    <row r="194" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A194" s="25"/>
-      <c r="B194" s="22" t="s">
+      <c r="C193" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D193" s="15"/>
+    </row>
+    <row r="194" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A194" s="20"/>
+      <c r="B194" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="C194" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D194" s="24"/>
-    </row>
-    <row r="195" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A195" s="25"/>
-      <c r="B195" s="22" t="s">
+      <c r="C194" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D194" s="15"/>
+    </row>
+    <row r="195" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A195" s="20"/>
+      <c r="B195" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="C195" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D195" s="24"/>
-    </row>
-    <row r="196" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A196" s="25"/>
-      <c r="B196" s="22" t="s">
+      <c r="C195" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D195" s="15"/>
+    </row>
+    <row r="196" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A196" s="20"/>
+      <c r="B196" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="C196" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D196" s="24"/>
-    </row>
-    <row r="197" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A197" s="25"/>
-      <c r="B197" s="22" t="s">
+      <c r="C196" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D196" s="15"/>
+    </row>
+    <row r="197" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A197" s="20"/>
+      <c r="B197" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="C197" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D197" s="24"/>
-    </row>
-    <row r="198" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A198" s="25"/>
-      <c r="B198" s="22" t="s">
+      <c r="C197" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D197" s="15"/>
+    </row>
+    <row r="198" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A198" s="20"/>
+      <c r="B198" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C198" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D198" s="24"/>
-    </row>
-    <row r="199" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A199" s="25"/>
-      <c r="B199" s="22" t="s">
+      <c r="C198" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D198" s="15"/>
+    </row>
+    <row r="199" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A199" s="20"/>
+      <c r="B199" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C199" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D199" s="24"/>
-    </row>
-    <row r="200" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A200" s="26"/>
-      <c r="B200" s="22" t="s">
+      <c r="C199" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D199" s="15"/>
+    </row>
+    <row r="200" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A200" s="21"/>
+      <c r="B200" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C200" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D200" s="24" t="s">
+      <c r="C200" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D200" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A201" s="21" t="s">
+    <row r="201" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A201" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="B201" s="22" t="s">
+      <c r="B201" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="C201" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D201" s="24"/>
-    </row>
-    <row r="202" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A202" s="25"/>
-      <c r="B202" s="22" t="s">
+      <c r="C201" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D201" s="15"/>
+    </row>
+    <row r="202" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A202" s="20"/>
+      <c r="B202" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="C202" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D202" s="24"/>
-    </row>
-    <row r="203" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A203" s="25"/>
-      <c r="B203" s="22" t="s">
+      <c r="C202" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D202" s="15"/>
+    </row>
+    <row r="203" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A203" s="20"/>
+      <c r="B203" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="C203" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D203" s="24"/>
-    </row>
-    <row r="204" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A204" s="25"/>
-      <c r="B204" s="22" t="s">
+      <c r="C203" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D203" s="15"/>
+    </row>
+    <row r="204" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A204" s="20"/>
+      <c r="B204" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="C204" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D204" s="24"/>
-    </row>
-    <row r="205" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A205" s="25"/>
-      <c r="B205" s="22" t="s">
+      <c r="C204" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D204" s="15"/>
+    </row>
+    <row r="205" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A205" s="20"/>
+      <c r="B205" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="C205" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D205" s="24" t="s">
+      <c r="C205" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D205" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A206" s="25"/>
-      <c r="B206" s="22" t="s">
+    <row r="206" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A206" s="20"/>
+      <c r="B206" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="C206" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D206" s="24" t="s">
+      <c r="C206" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D206" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A207" s="25"/>
-      <c r="B207" s="22" t="s">
+    <row r="207" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A207" s="20"/>
+      <c r="B207" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="C207" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D207" s="24"/>
-    </row>
-    <row r="208" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A208" s="25"/>
-      <c r="B208" s="22" t="s">
+      <c r="C207" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D207" s="15"/>
+    </row>
+    <row r="208" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A208" s="20"/>
+      <c r="B208" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="C208" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D208" s="24"/>
-    </row>
-    <row r="209" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A209" s="25"/>
-      <c r="B209" s="22" t="s">
+      <c r="C208" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D208" s="15"/>
+    </row>
+    <row r="209" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A209" s="20"/>
+      <c r="B209" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="C209" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D209" s="24" t="s">
+      <c r="C209" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D209" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A210" s="26"/>
-      <c r="B210" s="22" t="s">
+    <row r="210" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A210" s="21"/>
+      <c r="B210" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="C210" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D210" s="24"/>
-    </row>
-    <row r="211" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A211" s="24" t="s">
+      <c r="C210" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D210" s="15"/>
+    </row>
+    <row r="211" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A211" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="B211" s="22" t="s">
+      <c r="B211" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="C211" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D211" s="24" t="s">
+      <c r="C211" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D211" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A212" s="21" t="s">
+    <row r="212" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A212" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="B212" s="22" t="s">
+      <c r="B212" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="C212" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D212" s="24"/>
-    </row>
-    <row r="213" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A213" s="25"/>
-      <c r="B213" s="22" t="s">
+      <c r="C212" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D212" s="15"/>
+    </row>
+    <row r="213" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A213" s="20"/>
+      <c r="B213" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="C213" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D213" s="24"/>
-    </row>
-    <row r="214" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A214" s="25"/>
-      <c r="B214" s="22" t="s">
+      <c r="C213" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D213" s="15"/>
+    </row>
+    <row r="214" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A214" s="20"/>
+      <c r="B214" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="C214" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D214" s="24"/>
-    </row>
-    <row r="215" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A215" s="25"/>
-      <c r="B215" s="22" t="s">
+      <c r="C214" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D214" s="15"/>
+    </row>
+    <row r="215" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A215" s="20"/>
+      <c r="B215" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="C215" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D215" s="24"/>
-    </row>
-    <row r="216" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A216" s="25"/>
-      <c r="B216" s="22" t="s">
+      <c r="C215" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D215" s="15"/>
+    </row>
+    <row r="216" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A216" s="20"/>
+      <c r="B216" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="C216" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D216" s="24"/>
-    </row>
-    <row r="217" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A217" s="25"/>
-      <c r="B217" s="22" t="s">
+      <c r="C216" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D216" s="15"/>
+    </row>
+    <row r="217" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A217" s="20"/>
+      <c r="B217" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="C217" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D217" s="24"/>
-    </row>
-    <row r="218" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A218" s="25"/>
-      <c r="B218" s="22" t="s">
+      <c r="C217" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D217" s="15"/>
+    </row>
+    <row r="218" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A218" s="20"/>
+      <c r="B218" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="C218" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D218" s="24"/>
-    </row>
-    <row r="219" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A219" s="25"/>
-      <c r="B219" s="22" t="s">
+      <c r="C218" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D218" s="15"/>
+    </row>
+    <row r="219" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A219" s="20"/>
+      <c r="B219" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="C219" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D219" s="24"/>
-    </row>
-    <row r="220" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A220" s="25"/>
-      <c r="B220" s="22" t="s">
+      <c r="C219" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D219" s="15"/>
+    </row>
+    <row r="220" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A220" s="20"/>
+      <c r="B220" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="C220" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D220" s="24"/>
-    </row>
-    <row r="221" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A221" s="25"/>
-      <c r="B221" s="22" t="s">
+      <c r="C220" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D220" s="15"/>
+    </row>
+    <row r="221" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A221" s="20"/>
+      <c r="B221" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="C221" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D221" s="24"/>
-    </row>
-    <row r="222" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A222" s="25"/>
-      <c r="B222" s="22" t="s">
+      <c r="C221" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D221" s="15"/>
+    </row>
+    <row r="222" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A222" s="20"/>
+      <c r="B222" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="C222" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D222" s="24" t="s">
+      <c r="C222" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D222" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A223" s="25"/>
-      <c r="B223" s="22" t="s">
+    <row r="223" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A223" s="20"/>
+      <c r="B223" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="C223" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D223" s="24"/>
-    </row>
-    <row r="224" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A224" s="25"/>
-      <c r="B224" s="22" t="s">
+      <c r="C223" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D223" s="15"/>
+    </row>
+    <row r="224" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A224" s="20"/>
+      <c r="B224" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="C224" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D224" s="24"/>
-    </row>
-    <row r="225" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A225" s="25"/>
-      <c r="B225" s="22" t="s">
+      <c r="C224" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D224" s="15"/>
+    </row>
+    <row r="225" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A225" s="20"/>
+      <c r="B225" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="C225" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D225" s="24"/>
-    </row>
-    <row r="226" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A226" s="25"/>
-      <c r="B226" s="22" t="s">
+      <c r="C225" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D225" s="15"/>
+    </row>
+    <row r="226" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A226" s="20"/>
+      <c r="B226" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="C226" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D226" s="24"/>
-    </row>
-    <row r="227" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A227" s="25"/>
-      <c r="B227" s="22" t="s">
+      <c r="C226" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D226" s="15"/>
+    </row>
+    <row r="227" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A227" s="20"/>
+      <c r="B227" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="C227" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D227" s="24" t="s">
+      <c r="C227" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D227" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A228" s="25"/>
-      <c r="B228" s="22" t="s">
+    <row r="228" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A228" s="20"/>
+      <c r="B228" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="C228" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D228" s="24" t="s">
+      <c r="C228" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D228" s="15" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A229" s="25"/>
-      <c r="B229" s="22" t="s">
+    <row r="229" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A229" s="20"/>
+      <c r="B229" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="C229" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D229" s="24"/>
-    </row>
-    <row r="230" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A230" s="25"/>
-      <c r="B230" s="22" t="s">
+      <c r="C229" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D229" s="15"/>
+    </row>
+    <row r="230" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A230" s="20"/>
+      <c r="B230" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="C230" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D230" s="24" t="s">
+      <c r="C230" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D230" s="15" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A231" s="25"/>
-      <c r="B231" s="22" t="s">
+    <row r="231" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A231" s="20"/>
+      <c r="B231" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="C231" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D231" s="24"/>
-    </row>
-    <row r="232" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A232" s="25"/>
-      <c r="B232" s="22" t="s">
+      <c r="C231" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D231" s="15"/>
+    </row>
+    <row r="232" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A232" s="20"/>
+      <c r="B232" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="C232" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D232" s="24"/>
-    </row>
-    <row r="233" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A233" s="26"/>
-      <c r="B233" s="22" t="s">
+      <c r="C232" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D232" s="15"/>
+    </row>
+    <row r="233" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A233" s="21"/>
+      <c r="B233" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="C233" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D233" s="24"/>
-    </row>
-    <row r="234" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A234" s="21" t="s">
+      <c r="C233" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D233" s="15"/>
+    </row>
+    <row r="234" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A234" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="B234" s="22" t="s">
+      <c r="B234" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="C234" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D234" s="24"/>
-    </row>
-    <row r="235" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A235" s="25"/>
-      <c r="B235" s="22" t="s">
+      <c r="C234" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D234" s="15"/>
+    </row>
+    <row r="235" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A235" s="20"/>
+      <c r="B235" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="C235" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D235" s="24"/>
-    </row>
-    <row r="236" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A236" s="25"/>
-      <c r="B236" s="22" t="s">
+      <c r="C235" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D235" s="15"/>
+    </row>
+    <row r="236" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A236" s="20"/>
+      <c r="B236" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="C236" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D236" s="24" t="s">
+      <c r="C236" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D236" s="15" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A237" s="25"/>
-      <c r="B237" s="22" t="s">
+    <row r="237" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A237" s="20"/>
+      <c r="B237" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="C237" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D237" s="24"/>
-    </row>
-    <row r="238" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A238" s="26"/>
-      <c r="B238" s="22" t="s">
+      <c r="C237" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D237" s="15"/>
+    </row>
+    <row r="238" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A238" s="21"/>
+      <c r="B238" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="C238" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D238" s="24"/>
-    </row>
-    <row r="239" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A239" s="21" t="s">
+      <c r="C238" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D238" s="15"/>
+    </row>
+    <row r="239" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A239" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="B239" s="22" t="s">
+      <c r="B239" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="C239" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D239" s="28" t="s">
+      <c r="C239" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D239" s="17" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A240" s="25"/>
-      <c r="B240" s="22" t="s">
+    <row r="240" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A240" s="20"/>
+      <c r="B240" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="C240" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D240" s="24"/>
-    </row>
-    <row r="241" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A241" s="25"/>
-      <c r="B241" s="22" t="s">
+      <c r="C240" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D240" s="15"/>
+    </row>
+    <row r="241" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A241" s="20"/>
+      <c r="B241" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="C241" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D241" s="24"/>
-    </row>
-    <row r="242" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A242" s="25"/>
-      <c r="B242" s="22" t="s">
+      <c r="C241" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D241" s="15"/>
+    </row>
+    <row r="242" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A242" s="20"/>
+      <c r="B242" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="C242" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D242" s="24"/>
-    </row>
-    <row r="243" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A243" s="25"/>
-      <c r="B243" s="22" t="s">
+      <c r="C242" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D242" s="15"/>
+    </row>
+    <row r="243" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A243" s="20"/>
+      <c r="B243" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C243" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D243" s="24"/>
-    </row>
-    <row r="244" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A244" s="26"/>
-      <c r="B244" s="22" t="s">
+      <c r="C243" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D243" s="15"/>
+    </row>
+    <row r="244" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A244" s="21"/>
+      <c r="B244" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="C244" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D244" s="24"/>
-    </row>
-    <row r="245" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A245" s="21" t="s">
+      <c r="C244" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D244" s="15"/>
+    </row>
+    <row r="245" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A245" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="B245" s="22" t="s">
+      <c r="B245" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="C245" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D245" s="24" t="s">
+      <c r="C245" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D245" s="15" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A246" s="26"/>
-      <c r="B246" s="22" t="s">
+    <row r="246" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A246" s="21"/>
+      <c r="B246" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="C246" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D246" s="24" t="s">
+      <c r="C246" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D246" s="15" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A247" s="21" t="s">
+    <row r="247" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A247" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="B247" s="22" t="s">
+      <c r="B247" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="C247" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D247" s="24"/>
-    </row>
-    <row r="248" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A248" s="25"/>
-      <c r="B248" s="22" t="s">
+      <c r="C247" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D247" s="15"/>
+    </row>
+    <row r="248" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A248" s="20"/>
+      <c r="B248" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="C248" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D248" s="24"/>
-    </row>
-    <row r="249" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A249" s="25"/>
-      <c r="B249" s="22" t="s">
+      <c r="C248" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D248" s="15"/>
+    </row>
+    <row r="249" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A249" s="20"/>
+      <c r="B249" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="C249" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D249" s="24" t="s">
+      <c r="C249" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D249" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A250" s="25"/>
-      <c r="B250" s="22" t="s">
+    <row r="250" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A250" s="20"/>
+      <c r="B250" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="C250" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D250" s="24"/>
-    </row>
-    <row r="251" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A251" s="25"/>
-      <c r="B251" s="22" t="s">
+      <c r="C250" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D250" s="15"/>
+    </row>
+    <row r="251" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A251" s="20"/>
+      <c r="B251" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="C251" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D251" s="24"/>
-    </row>
-    <row r="252" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A252" s="25"/>
-      <c r="B252" s="22" t="s">
+      <c r="C251" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D251" s="15"/>
+    </row>
+    <row r="252" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A252" s="20"/>
+      <c r="B252" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="C252" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D252" s="24"/>
-    </row>
-    <row r="253" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A253" s="25"/>
-      <c r="B253" s="22" t="s">
+      <c r="C252" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D252" s="15"/>
+    </row>
+    <row r="253" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A253" s="20"/>
+      <c r="B253" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="C253" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D253" s="24"/>
-    </row>
-    <row r="254" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A254" s="25"/>
-      <c r="B254" s="22" t="s">
+      <c r="C253" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D253" s="15"/>
+    </row>
+    <row r="254" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A254" s="20"/>
+      <c r="B254" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="C254" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D254" s="24" t="s">
+      <c r="C254" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D254" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A255" s="26"/>
-      <c r="B255" s="29" t="s">
+    <row r="255" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A255" s="21"/>
+      <c r="B255" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="C255" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D255" s="24"/>
+      <c r="C255" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D255" s="15"/>
     </row>
     <row r="256" spans="1:4" ht="21" customHeight="1">
-      <c r="A256" s="21" t="s">
+      <c r="A256" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="B256" s="29" t="s">
+      <c r="B256" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="C256" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D256" s="24" t="s">
+      <c r="C256" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D256" s="15" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="21" customHeight="1">
-      <c r="A257" s="25"/>
-      <c r="B257" s="29" t="s">
+      <c r="A257" s="20"/>
+      <c r="B257" s="18" t="s">
         <v>465</v>
       </c>
-      <c r="C257" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D257" s="24"/>
+      <c r="C257" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D257" s="15"/>
     </row>
     <row r="258" spans="1:4" ht="21" customHeight="1">
-      <c r="A258" s="26"/>
-      <c r="B258" s="29" t="s">
+      <c r="A258" s="21"/>
+      <c r="B258" s="18" t="s">
         <v>466</v>
       </c>
-      <c r="C258" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D258" s="24"/>
-    </row>
-    <row r="259" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A259" s="21" t="s">
+      <c r="C258" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D258" s="15"/>
+    </row>
+    <row r="259" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A259" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="B259" s="29" t="s">
+      <c r="B259" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="C259" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D259" s="24"/>
-    </row>
-    <row r="260" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A260" s="25"/>
-      <c r="B260" s="29" t="s">
+      <c r="C259" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D259" s="15"/>
+    </row>
+    <row r="260" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A260" s="20"/>
+      <c r="B260" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="C260" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D260" s="24"/>
-    </row>
-    <row r="261" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A261" s="25"/>
-      <c r="B261" s="29" t="s">
+      <c r="C260" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D260" s="15"/>
+    </row>
+    <row r="261" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A261" s="20"/>
+      <c r="B261" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="C261" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D261" s="24"/>
-    </row>
-    <row r="262" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A262" s="25"/>
-      <c r="B262" s="29" t="s">
+      <c r="C261" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D261" s="15"/>
+    </row>
+    <row r="262" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A262" s="20"/>
+      <c r="B262" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="C262" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D262" s="24"/>
-    </row>
-    <row r="263" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A263" s="25"/>
-      <c r="B263" s="29" t="s">
+      <c r="C262" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D262" s="15"/>
+    </row>
+    <row r="263" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A263" s="20"/>
+      <c r="B263" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="C263" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D263" s="24" t="s">
+      <c r="C263" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D263" s="15" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A264" s="26"/>
-      <c r="B264" s="29" t="s">
+    <row r="264" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A264" s="21"/>
+      <c r="B264" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="C264" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D264" s="24"/>
+      <c r="C264" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D264" s="15"/>
     </row>
     <row r="265" spans="1:4" ht="27.6" customHeight="1">
-      <c r="A265" s="21" t="s">
+      <c r="A265" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="B265" s="22" t="s">
+      <c r="B265" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="C265" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D265" s="24"/>
+      <c r="C265" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D265" s="15"/>
     </row>
     <row r="266" spans="1:4" ht="27.6" customHeight="1">
-      <c r="A266" s="25"/>
-      <c r="B266" s="22" t="s">
+      <c r="A266" s="20"/>
+      <c r="B266" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="C266" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D266" s="24"/>
+      <c r="C266" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D266" s="15"/>
     </row>
     <row r="267" spans="1:4" ht="27.6" customHeight="1">
-      <c r="A267" s="25"/>
-      <c r="B267" s="22" t="s">
+      <c r="A267" s="20"/>
+      <c r="B267" s="13" t="s">
         <v>469</v>
       </c>
-      <c r="C267" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D267" s="24"/>
+      <c r="C267" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D267" s="15"/>
     </row>
     <row r="268" spans="1:4" ht="27.6" customHeight="1">
-      <c r="A268" s="25"/>
-      <c r="B268" s="22" t="s">
+      <c r="A268" s="20"/>
+      <c r="B268" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="C268" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D268" s="24"/>
+      <c r="C268" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D268" s="15"/>
     </row>
     <row r="269" spans="1:4" ht="27.6" customHeight="1">
-      <c r="A269" s="26"/>
-      <c r="B269" s="22" t="s">
+      <c r="A269" s="21"/>
+      <c r="B269" s="13" t="s">
         <v>471</v>
       </c>
-      <c r="C269" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D269" s="24" t="s">
+      <c r="C269" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D269" s="15" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A270" s="21" t="s">
+    <row r="270" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A270" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="B270" s="22" t="s">
+      <c r="B270" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="C270" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D270" s="24"/>
-    </row>
-    <row r="271" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A271" s="25"/>
-      <c r="B271" s="22" t="s">
+      <c r="C270" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D270" s="15"/>
+    </row>
+    <row r="271" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A271" s="20"/>
+      <c r="B271" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="C271" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D271" s="24"/>
-    </row>
-    <row r="272" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A272" s="25"/>
-      <c r="B272" s="22" t="s">
+      <c r="C271" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D271" s="15"/>
+    </row>
+    <row r="272" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A272" s="20"/>
+      <c r="B272" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="C272" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D272" s="24"/>
-    </row>
-    <row r="273" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A273" s="25"/>
-      <c r="B273" s="22" t="s">
+      <c r="C272" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D272" s="15"/>
+    </row>
+    <row r="273" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A273" s="20"/>
+      <c r="B273" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="C273" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D273" s="24" t="s">
+      <c r="C273" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D273" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A274" s="25"/>
-      <c r="B274" s="22" t="s">
+    <row r="274" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A274" s="20"/>
+      <c r="B274" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="C274" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D274" s="24"/>
-    </row>
-    <row r="275" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A275" s="25"/>
-      <c r="B275" s="22" t="s">
+      <c r="C274" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D274" s="15"/>
+    </row>
+    <row r="275" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A275" s="20"/>
+      <c r="B275" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="C275" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D275" s="24"/>
-    </row>
-    <row r="276" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A276" s="25"/>
-      <c r="B276" s="22" t="s">
+      <c r="C275" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D275" s="15"/>
+    </row>
+    <row r="276" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A276" s="20"/>
+      <c r="B276" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="C276" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D276" s="24"/>
-    </row>
-    <row r="277" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A277" s="25"/>
-      <c r="B277" s="22" t="s">
+      <c r="C276" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D276" s="15"/>
+    </row>
+    <row r="277" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A277" s="20"/>
+      <c r="B277" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="C277" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D277" s="24" t="s">
+      <c r="C277" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D277" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A278" s="25"/>
-      <c r="B278" s="22" t="s">
+    <row r="278" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A278" s="20"/>
+      <c r="B278" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="C278" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D278" s="24"/>
-    </row>
-    <row r="279" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A279" s="26"/>
-      <c r="B279" s="22" t="s">
+      <c r="C278" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D278" s="15"/>
+    </row>
+    <row r="279" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A279" s="21"/>
+      <c r="B279" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="C279" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D279" s="24"/>
-    </row>
-    <row r="280" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A280" s="21" t="s">
+      <c r="C279" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D279" s="15"/>
+    </row>
+    <row r="280" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A280" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="B280" s="22" t="s">
+      <c r="B280" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="C280" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D280" s="24" t="s">
+      <c r="C280" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D280" s="15" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A281" s="26"/>
-      <c r="B281" s="22" t="s">
+    <row r="281" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A281" s="21"/>
+      <c r="B281" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="C281" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D281" s="24" t="s">
+      <c r="C281" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D281" s="15" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A282" s="21" t="s">
+    <row r="282" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A282" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="B282" s="22" t="s">
+      <c r="B282" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="C282" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D282" s="24"/>
-    </row>
-    <row r="283" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A283" s="25"/>
-      <c r="B283" s="22" t="s">
+      <c r="C282" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D282" s="15"/>
+    </row>
+    <row r="283" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A283" s="20"/>
+      <c r="B283" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="C283" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D283" s="24"/>
-    </row>
-    <row r="284" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A284" s="25"/>
-      <c r="B284" s="22" t="s">
+      <c r="C283" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D283" s="15"/>
+    </row>
+    <row r="284" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A284" s="20"/>
+      <c r="B284" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="C284" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D284" s="24"/>
-    </row>
-    <row r="285" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A285" s="25"/>
-      <c r="B285" s="22" t="s">
+      <c r="C284" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D284" s="15"/>
+    </row>
+    <row r="285" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A285" s="20"/>
+      <c r="B285" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="C285" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D285" s="24"/>
-    </row>
-    <row r="286" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A286" s="25"/>
-      <c r="B286" s="22" t="s">
+      <c r="C285" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D285" s="15"/>
+    </row>
+    <row r="286" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A286" s="20"/>
+      <c r="B286" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="C286" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D286" s="24" t="s">
+      <c r="C286" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D286" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A287" s="25"/>
-      <c r="B287" s="22" t="s">
+    <row r="287" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A287" s="20"/>
+      <c r="B287" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="C287" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D287" s="24"/>
-    </row>
-    <row r="288" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A288" s="25"/>
-      <c r="B288" s="22" t="s">
+      <c r="C287" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D287" s="15"/>
+    </row>
+    <row r="288" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A288" s="20"/>
+      <c r="B288" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="C288" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D288" s="24"/>
-    </row>
-    <row r="289" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A289" s="25"/>
-      <c r="B289" s="22" t="s">
+      <c r="C288" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D288" s="15"/>
+    </row>
+    <row r="289" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A289" s="20"/>
+      <c r="B289" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="C289" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D289" s="24"/>
-    </row>
-    <row r="290" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A290" s="25"/>
-      <c r="B290" s="22" t="s">
+      <c r="C289" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D289" s="15"/>
+    </row>
+    <row r="290" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A290" s="20"/>
+      <c r="B290" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="C290" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D290" s="24"/>
-    </row>
-    <row r="291" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A291" s="26"/>
-      <c r="B291" s="22" t="s">
+      <c r="C290" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D290" s="15"/>
+    </row>
+    <row r="291" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A291" s="21"/>
+      <c r="B291" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="C291" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D291" s="24"/>
-    </row>
-    <row r="292" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A292" s="21" t="s">
+      <c r="C291" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D291" s="15"/>
+    </row>
+    <row r="292" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A292" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="B292" s="22" t="s">
+      <c r="B292" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="C292" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D292" s="24"/>
-    </row>
-    <row r="293" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A293" s="25"/>
-      <c r="B293" s="22" t="s">
+      <c r="C292" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D292" s="15"/>
+    </row>
+    <row r="293" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A293" s="20"/>
+      <c r="B293" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="C293" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D293" s="24"/>
-    </row>
-    <row r="294" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A294" s="25"/>
-      <c r="B294" s="22" t="s">
+      <c r="C293" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D293" s="15"/>
+    </row>
+    <row r="294" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A294" s="20"/>
+      <c r="B294" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="C294" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D294" s="24"/>
-    </row>
-    <row r="295" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A295" s="25"/>
-      <c r="B295" s="22" t="s">
+      <c r="C294" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D294" s="15"/>
+    </row>
+    <row r="295" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A295" s="20"/>
+      <c r="B295" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="C295" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D295" s="24"/>
-    </row>
-    <row r="296" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A296" s="25"/>
-      <c r="B296" s="22" t="s">
+      <c r="C295" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D295" s="15"/>
+    </row>
+    <row r="296" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A296" s="20"/>
+      <c r="B296" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="C296" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D296" s="24"/>
-    </row>
-    <row r="297" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A297" s="25"/>
-      <c r="B297" s="22" t="s">
+      <c r="C296" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D296" s="15"/>
+    </row>
+    <row r="297" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A297" s="20"/>
+      <c r="B297" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="C297" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D297" s="24"/>
-    </row>
-    <row r="298" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A298" s="25"/>
-      <c r="B298" s="22" t="s">
+      <c r="C297" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D297" s="15"/>
+    </row>
+    <row r="298" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A298" s="20"/>
+      <c r="B298" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="C298" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D298" s="24"/>
-    </row>
-    <row r="299" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A299" s="25"/>
-      <c r="B299" s="22" t="s">
+      <c r="C298" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D298" s="15"/>
+    </row>
+    <row r="299" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A299" s="20"/>
+      <c r="B299" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="C299" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D299" s="24"/>
-    </row>
-    <row r="300" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A300" s="25"/>
-      <c r="B300" s="22" t="s">
+      <c r="C299" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D299" s="15"/>
+    </row>
+    <row r="300" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A300" s="20"/>
+      <c r="B300" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="C300" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D300" s="24"/>
-    </row>
-    <row r="301" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A301" s="25"/>
-      <c r="B301" s="22" t="s">
+      <c r="C300" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D300" s="15"/>
+    </row>
+    <row r="301" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A301" s="20"/>
+      <c r="B301" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="C301" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D301" s="24"/>
-    </row>
-    <row r="302" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A302" s="25"/>
-      <c r="B302" s="22" t="s">
+      <c r="C301" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D301" s="15"/>
+    </row>
+    <row r="302" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A302" s="20"/>
+      <c r="B302" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="C302" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D302" s="24"/>
-    </row>
-    <row r="303" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A303" s="25"/>
-      <c r="B303" s="22" t="s">
+      <c r="C302" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D302" s="15"/>
+    </row>
+    <row r="303" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A303" s="20"/>
+      <c r="B303" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="C303" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D303" s="24"/>
-    </row>
-    <row r="304" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A304" s="25"/>
-      <c r="B304" s="22" t="s">
+      <c r="C303" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D303" s="15"/>
+    </row>
+    <row r="304" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A304" s="20"/>
+      <c r="B304" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="C304" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D304" s="24"/>
-    </row>
-    <row r="305" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A305" s="25"/>
-      <c r="B305" s="22" t="s">
+      <c r="C304" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D304" s="15"/>
+    </row>
+    <row r="305" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A305" s="20"/>
+      <c r="B305" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="C305" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D305" s="24"/>
-    </row>
-    <row r="306" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A306" s="25"/>
-      <c r="B306" s="22" t="s">
+      <c r="C305" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D305" s="15"/>
+    </row>
+    <row r="306" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A306" s="20"/>
+      <c r="B306" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="C306" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D306" s="24"/>
-    </row>
-    <row r="307" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A307" s="25"/>
-      <c r="B307" s="22" t="s">
+      <c r="C306" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D306" s="15"/>
+    </row>
+    <row r="307" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A307" s="20"/>
+      <c r="B307" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="C307" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D307" s="24"/>
-    </row>
-    <row r="308" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A308" s="25"/>
-      <c r="B308" s="22" t="s">
+      <c r="C307" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D307" s="15"/>
+    </row>
+    <row r="308" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A308" s="20"/>
+      <c r="B308" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="C308" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D308" s="24"/>
-    </row>
-    <row r="309" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A309" s="25"/>
-      <c r="B309" s="22" t="s">
+      <c r="C308" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D308" s="15"/>
+    </row>
+    <row r="309" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A309" s="20"/>
+      <c r="B309" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="C309" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D309" s="24"/>
-    </row>
-    <row r="310" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A310" s="25"/>
-      <c r="B310" s="22" t="s">
+      <c r="C309" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D309" s="15"/>
+    </row>
+    <row r="310" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A310" s="20"/>
+      <c r="B310" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="C310" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D310" s="24"/>
-    </row>
-    <row r="311" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A311" s="25"/>
-      <c r="B311" s="22" t="s">
+      <c r="C310" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D310" s="15"/>
+    </row>
+    <row r="311" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A311" s="20"/>
+      <c r="B311" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="C311" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D311" s="24"/>
-    </row>
-    <row r="312" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A312" s="26"/>
-      <c r="B312" s="22" t="s">
+      <c r="C311" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D311" s="15"/>
+    </row>
+    <row r="312" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A312" s="21"/>
+      <c r="B312" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="C312" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D312" s="24" t="s">
+      <c r="C312" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D312" s="15" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A313" s="24" t="s">
+    <row r="313" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A313" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="B313" s="22" t="s">
+      <c r="B313" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="C313" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D313" s="24" t="s">
+      <c r="C313" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D313" s="15" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A314" s="21" t="s">
+    <row r="314" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A314" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="B314" s="22" t="s">
+      <c r="B314" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="C314" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D314" s="24"/>
-    </row>
-    <row r="315" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A315" s="25"/>
-      <c r="B315" s="22" t="s">
+      <c r="C314" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D314" s="15"/>
+    </row>
+    <row r="315" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A315" s="20"/>
+      <c r="B315" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C315" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D315" s="24"/>
-    </row>
-    <row r="316" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A316" s="25"/>
-      <c r="B316" s="22" t="s">
+      <c r="C315" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D315" s="15"/>
+    </row>
+    <row r="316" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A316" s="20"/>
+      <c r="B316" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="C316" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D316" s="24"/>
-    </row>
-    <row r="317" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A317" s="25"/>
-      <c r="B317" s="22" t="s">
+      <c r="C316" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D316" s="15"/>
+    </row>
+    <row r="317" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A317" s="20"/>
+      <c r="B317" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="C317" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D317" s="24"/>
-    </row>
-    <row r="318" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A318" s="25"/>
-      <c r="B318" s="22" t="s">
+      <c r="C317" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D317" s="15"/>
+    </row>
+    <row r="318" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A318" s="20"/>
+      <c r="B318" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="C318" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D318" s="24" t="s">
+      <c r="C318" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D318" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A319" s="25"/>
-      <c r="B319" s="22" t="s">
+    <row r="319" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A319" s="20"/>
+      <c r="B319" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="C319" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D319" s="24"/>
-    </row>
-    <row r="320" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A320" s="25"/>
-      <c r="B320" s="22" t="s">
+      <c r="C319" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D319" s="15"/>
+    </row>
+    <row r="320" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A320" s="20"/>
+      <c r="B320" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="C320" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D320" s="24" t="s">
+      <c r="C320" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D320" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A321" s="26"/>
-      <c r="B321" s="22" t="s">
+    <row r="321" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A321" s="21"/>
+      <c r="B321" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="C321" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D321" s="24" t="s">
+      <c r="C321" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D321" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A322" s="24" t="s">
+    <row r="322" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A322" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="B322" s="22" t="s">
+      <c r="B322" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="C322" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D322" s="24" t="s">
+      <c r="C322" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D322" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A323" s="21" t="s">
+    <row r="323" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A323" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="B323" s="22" t="s">
+      <c r="B323" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="C323" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D323" s="24"/>
-    </row>
-    <row r="324" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A324" s="25"/>
-      <c r="B324" s="22" t="s">
+      <c r="C323" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D323" s="15"/>
+    </row>
+    <row r="324" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A324" s="20"/>
+      <c r="B324" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="C324" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D324" s="24" t="s">
+      <c r="C324" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D324" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A325" s="25"/>
-      <c r="B325" s="22" t="s">
+    <row r="325" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A325" s="20"/>
+      <c r="B325" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="C325" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D325" s="24" t="s">
+      <c r="C325" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D325" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A326" s="25"/>
-      <c r="B326" s="22" t="s">
+    <row r="326" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A326" s="20"/>
+      <c r="B326" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="C326" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D326" s="24"/>
-    </row>
-    <row r="327" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A327" s="25"/>
-      <c r="B327" s="22" t="s">
+      <c r="C326" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D326" s="15"/>
+    </row>
+    <row r="327" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A327" s="20"/>
+      <c r="B327" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="C327" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D327" s="24"/>
-    </row>
-    <row r="328" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A328" s="26"/>
-      <c r="B328" s="22" t="s">
+      <c r="C327" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D327" s="15"/>
+    </row>
+    <row r="328" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A328" s="21"/>
+      <c r="B328" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="C328" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D328" s="24"/>
-    </row>
-    <row r="329" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A329" s="21" t="s">
+      <c r="C328" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D328" s="15"/>
+    </row>
+    <row r="329" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A329" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="B329" s="22" t="s">
+      <c r="B329" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="C329" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D329" s="24" t="s">
+      <c r="C329" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D329" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A330" s="25"/>
-      <c r="B330" s="22" t="s">
+    <row r="330" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A330" s="20"/>
+      <c r="B330" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="C330" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D330" s="24" t="s">
+      <c r="C330" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D330" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A331" s="25"/>
-      <c r="B331" s="22" t="s">
+    <row r="331" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A331" s="20"/>
+      <c r="B331" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="C331" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D331" s="24" t="s">
+      <c r="C331" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D331" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A332" s="25"/>
-      <c r="B332" s="22" t="s">
+    <row r="332" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A332" s="20"/>
+      <c r="B332" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="C332" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D332" s="24" t="s">
+      <c r="C332" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D332" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A333" s="25"/>
-      <c r="B333" s="22" t="s">
+    <row r="333" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A333" s="20"/>
+      <c r="B333" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="C333" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D333" s="24" t="s">
+      <c r="C333" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D333" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A334" s="25"/>
-      <c r="B334" s="22" t="s">
+    <row r="334" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A334" s="20"/>
+      <c r="B334" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="C334" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D334" s="24" t="s">
+      <c r="C334" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D334" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A335" s="25"/>
-      <c r="B335" s="22" t="s">
+    <row r="335" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A335" s="20"/>
+      <c r="B335" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="C335" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D335" s="24" t="s">
+      <c r="C335" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D335" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A336" s="25"/>
-      <c r="B336" s="22" t="s">
+    <row r="336" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A336" s="20"/>
+      <c r="B336" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="C336" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D336" s="24" t="s">
+      <c r="C336" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D336" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A337" s="25"/>
-      <c r="B337" s="22" t="s">
+    <row r="337" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A337" s="20"/>
+      <c r="B337" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="C337" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D337" s="24" t="s">
+      <c r="C337" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D337" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A338" s="25"/>
-      <c r="B338" s="22" t="s">
+    <row r="338" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A338" s="20"/>
+      <c r="B338" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="C338" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D338" s="24" t="s">
+      <c r="C338" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D338" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A339" s="25"/>
-      <c r="B339" s="22" t="s">
+    <row r="339" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A339" s="20"/>
+      <c r="B339" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="C339" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D339" s="24" t="s">
+      <c r="C339" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D339" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A340" s="25"/>
-      <c r="B340" s="22" t="s">
+    <row r="340" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A340" s="20"/>
+      <c r="B340" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="C340" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D340" s="24" t="s">
+      <c r="C340" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D340" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A341" s="25"/>
-      <c r="B341" s="22" t="s">
+    <row r="341" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A341" s="20"/>
+      <c r="B341" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="C341" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D341" s="24" t="s">
+      <c r="C341" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D341" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A342" s="25"/>
-      <c r="B342" s="22" t="s">
+    <row r="342" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A342" s="20"/>
+      <c r="B342" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="C342" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D342" s="24"/>
-    </row>
-    <row r="343" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A343" s="25"/>
-      <c r="B343" s="22" t="s">
+      <c r="C342" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D342" s="15"/>
+    </row>
+    <row r="343" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A343" s="20"/>
+      <c r="B343" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="C343" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D343" s="24"/>
-    </row>
-    <row r="344" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A344" s="25"/>
-      <c r="B344" s="22" t="s">
+      <c r="C343" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D343" s="15"/>
+    </row>
+    <row r="344" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A344" s="20"/>
+      <c r="B344" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="C344" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D344" s="24"/>
-    </row>
-    <row r="345" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A345" s="25"/>
-      <c r="B345" s="22" t="s">
+      <c r="C344" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D344" s="15"/>
+    </row>
+    <row r="345" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A345" s="20"/>
+      <c r="B345" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="C345" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D345" s="24"/>
-    </row>
-    <row r="346" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A346" s="25"/>
-      <c r="B346" s="22" t="s">
+      <c r="C345" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D345" s="15"/>
+    </row>
+    <row r="346" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A346" s="20"/>
+      <c r="B346" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="C346" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D346" s="24"/>
-    </row>
-    <row r="347" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A347" s="25"/>
-      <c r="B347" s="22" t="s">
+      <c r="C346" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D346" s="15"/>
+    </row>
+    <row r="347" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A347" s="20"/>
+      <c r="B347" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="C347" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D347" s="24"/>
-    </row>
-    <row r="348" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A348" s="25"/>
-      <c r="B348" s="22" t="s">
+      <c r="C347" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D347" s="15"/>
+    </row>
+    <row r="348" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A348" s="20"/>
+      <c r="B348" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="C348" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D348" s="24" t="s">
+      <c r="C348" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D348" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A349" s="25"/>
-      <c r="B349" s="22" t="s">
+    <row r="349" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A349" s="20"/>
+      <c r="B349" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="C349" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D349" s="24"/>
-    </row>
-    <row r="350" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A350" s="25"/>
-      <c r="B350" s="22" t="s">
+      <c r="C349" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D349" s="15"/>
+    </row>
+    <row r="350" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A350" s="20"/>
+      <c r="B350" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="C350" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D350" s="24" t="s">
+      <c r="C350" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D350" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A351" s="25"/>
-      <c r="B351" s="22" t="s">
+    <row r="351" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A351" s="20"/>
+      <c r="B351" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="C351" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D351" s="24"/>
-    </row>
-    <row r="352" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A352" s="25"/>
-      <c r="B352" s="22" t="s">
+      <c r="C351" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D351" s="15"/>
+    </row>
+    <row r="352" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A352" s="20"/>
+      <c r="B352" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="C352" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D352" s="24"/>
-    </row>
-    <row r="353" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A353" s="25"/>
-      <c r="B353" s="22" t="s">
+      <c r="C352" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D352" s="15"/>
+    </row>
+    <row r="353" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A353" s="20"/>
+      <c r="B353" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="C353" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D353" s="24"/>
-    </row>
-    <row r="354" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A354" s="25"/>
-      <c r="B354" s="22" t="s">
+      <c r="C353" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D353" s="15"/>
+    </row>
+    <row r="354" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A354" s="20"/>
+      <c r="B354" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="C354" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D354" s="24"/>
-    </row>
-    <row r="355" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A355" s="25"/>
-      <c r="B355" s="22" t="s">
+      <c r="C354" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D354" s="15"/>
+    </row>
+    <row r="355" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A355" s="20"/>
+      <c r="B355" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="C355" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D355" s="24" t="s">
+      <c r="C355" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D355" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A356" s="25"/>
-      <c r="B356" s="22" t="s">
+    <row r="356" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A356" s="20"/>
+      <c r="B356" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="C356" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D356" s="24"/>
-    </row>
-    <row r="357" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A357" s="25"/>
-      <c r="B357" s="22" t="s">
+      <c r="C356" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D356" s="15"/>
+    </row>
+    <row r="357" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A357" s="20"/>
+      <c r="B357" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="C357" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D357" s="24"/>
-    </row>
-    <row r="358" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A358" s="26"/>
-      <c r="B358" s="22" t="s">
+      <c r="C357" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D357" s="15"/>
+    </row>
+    <row r="358" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A358" s="21"/>
+      <c r="B358" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="C358" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D358" s="24"/>
+      <c r="C358" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D358" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A90:A97"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A25:A52"/>
+    <mergeCell ref="A53:A62"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A89"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="A181:A200"/>
+    <mergeCell ref="A201:A210"/>
+    <mergeCell ref="A212:A233"/>
+    <mergeCell ref="A234:A238"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A122:A154"/>
+    <mergeCell ref="A155:A165"/>
+    <mergeCell ref="A166:A167"/>
     <mergeCell ref="A329:A358"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A270:A279"/>
@@ -5932,33 +5959,6 @@
     <mergeCell ref="A265:A269"/>
     <mergeCell ref="A168:A177"/>
     <mergeCell ref="A178:A180"/>
-    <mergeCell ref="A181:A200"/>
-    <mergeCell ref="A201:A210"/>
-    <mergeCell ref="A212:A233"/>
-    <mergeCell ref="A234:A238"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A122:A154"/>
-    <mergeCell ref="A155:A165"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A107:A112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="A90:A97"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="A25:A52"/>
-    <mergeCell ref="A53:A62"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A68:A74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A83:A89"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C358">
@@ -5974,54 +5974,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="27.5546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="1" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.95" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:7" ht="22.9" customHeight="1">
+      <c r="A1" s="28" t="s">
         <v>450</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="29" t="s">
         <v>395</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="29" t="s">
         <v>402</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="29" t="s">
         <v>398</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="7" t="s">
         <v>400</v>
       </c>

--- a/Civilworks cost/LD/LD Annexes.xlsx
+++ b/Civilworks cost/LD/LD Annexes.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Annex-II" sheetId="1" r:id="rId1"/>
     <sheet name="Annex-IV" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Annex-IV'!$A$1:$G$53</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Annex-II'!$2:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Annex-IV'!$2:$4</definedName>
   </definedNames>
@@ -1687,7 +1688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1707,6 +1708,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1746,6 +1750,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1755,20 +1768,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2052,27 +2068,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D358"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C361" sqref="C361"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="91.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="91.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
     <col min="4" max="4" width="69" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.9" customHeight="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A1" s="26" t="s">
         <v>451</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="64.150000000000006" customHeight="1">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="64.2" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>395</v>
       </c>
@@ -2086,3863 +2102,3836 @@
         <v>396</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A4" s="26"/>
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A4" s="24"/>
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A5" s="24"/>
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A6" s="26"/>
-      <c r="B6" s="9" t="s">
+      <c r="C5" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A6" s="24"/>
+      <c r="B6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A7" s="26"/>
-      <c r="B7" s="9" t="s">
+      <c r="C6" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A7" s="24"/>
+      <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="9" t="s">
+      <c r="C7" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A9" s="25" t="s">
+      <c r="C8" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A9" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="9" t="s">
+      <c r="C9" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A10" s="24"/>
+      <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A11" s="26"/>
-      <c r="B11" s="9" t="s">
+      <c r="C10" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A11" s="24"/>
+      <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A12" s="26"/>
-      <c r="B12" s="9" t="s">
+    <row r="12" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A12" s="24"/>
+      <c r="B12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A13" s="26"/>
-      <c r="B13" s="9" t="s">
+      <c r="C12" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A13" s="24"/>
+      <c r="B13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A14" s="26"/>
-      <c r="B14" s="9" t="s">
+      <c r="C13" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A14" s="24"/>
+      <c r="B14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A15" s="26"/>
-      <c r="B15" s="9" t="s">
+      <c r="C14" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A15" s="24"/>
+      <c r="B15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="9" t="s">
+      <c r="C15" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A16" s="25"/>
+      <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A17" s="11" t="s">
+      <c r="C16" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A18" s="19" t="s">
+    <row r="18" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A18" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D18" s="15" t="s">
+      <c r="C18" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A19" s="20"/>
-      <c r="B19" s="13" t="s">
+    <row r="19" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A19" s="21"/>
+      <c r="B19" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D19" s="15"/>
-    </row>
-    <row r="20" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A20" s="20"/>
-      <c r="B20" s="13" t="s">
+      <c r="C19" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A20" s="21"/>
+      <c r="B20" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A21" s="20"/>
-      <c r="B21" s="13" t="s">
+      <c r="C20" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A21" s="21"/>
+      <c r="B21" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D21" s="15" t="s">
+      <c r="C21" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D21" s="16" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A22" s="20"/>
-      <c r="B22" s="13" t="s">
+    <row r="22" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A22" s="21"/>
+      <c r="B22" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D22" s="15" t="s">
+      <c r="C22" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D22" s="16" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A23" s="20"/>
-      <c r="B23" s="13" t="s">
+    <row r="23" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A23" s="21"/>
+      <c r="B23" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D23" s="15" t="s">
+      <c r="C23" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A24" s="21"/>
-      <c r="B24" s="13" t="s">
+    <row r="24" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A24" s="22"/>
+      <c r="B24" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A25" s="19" t="s">
+      <c r="C24" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A25" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D25" s="15"/>
-    </row>
-    <row r="26" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A26" s="20"/>
-      <c r="B26" s="13" t="s">
+      <c r="C25" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A26" s="21"/>
+      <c r="B26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A27" s="20"/>
-      <c r="B27" s="13" t="s">
+      <c r="C26" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A27" s="21"/>
+      <c r="B27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D27" s="15"/>
-    </row>
-    <row r="28" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A28" s="20"/>
-      <c r="B28" s="13" t="s">
+      <c r="C27" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D27" s="16"/>
+    </row>
+    <row r="28" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A28" s="21"/>
+      <c r="B28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D28" s="15"/>
-    </row>
-    <row r="29" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A29" s="20"/>
-      <c r="B29" s="13" t="s">
+      <c r="C28" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D28" s="16"/>
+    </row>
+    <row r="29" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A29" s="21"/>
+      <c r="B29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D29" s="15"/>
-    </row>
-    <row r="30" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A30" s="20"/>
-      <c r="B30" s="13" t="s">
+      <c r="C29" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D29" s="16"/>
+    </row>
+    <row r="30" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A30" s="21"/>
+      <c r="B30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D30" s="15"/>
-    </row>
-    <row r="31" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A31" s="20"/>
-      <c r="B31" s="13" t="s">
+      <c r="C30" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D30" s="16"/>
+    </row>
+    <row r="31" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A31" s="21"/>
+      <c r="B31" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D31" s="15"/>
-    </row>
-    <row r="32" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A32" s="20"/>
-      <c r="B32" s="13" t="s">
+      <c r="C31" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D31" s="16"/>
+    </row>
+    <row r="32" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A32" s="21"/>
+      <c r="B32" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D32" s="15"/>
-    </row>
-    <row r="33" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A33" s="20"/>
-      <c r="B33" s="13" t="s">
+      <c r="C32" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D32" s="16"/>
+    </row>
+    <row r="33" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A33" s="21"/>
+      <c r="B33" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D33" s="15"/>
-    </row>
-    <row r="34" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A34" s="20"/>
-      <c r="B34" s="13" t="s">
+      <c r="C33" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D33" s="16"/>
+    </row>
+    <row r="34" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A34" s="21"/>
+      <c r="B34" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D34" s="15"/>
-    </row>
-    <row r="35" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A35" s="20"/>
-      <c r="B35" s="13" t="s">
+      <c r="C34" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D34" s="16"/>
+    </row>
+    <row r="35" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A35" s="21"/>
+      <c r="B35" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D35" s="15"/>
-    </row>
-    <row r="36" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A36" s="20"/>
-      <c r="B36" s="13" t="s">
+      <c r="C35" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D35" s="16"/>
+    </row>
+    <row r="36" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A36" s="21"/>
+      <c r="B36" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D36" s="15"/>
-    </row>
-    <row r="37" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A37" s="20"/>
-      <c r="B37" s="13" t="s">
+      <c r="C36" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D36" s="16"/>
+    </row>
+    <row r="37" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A37" s="21"/>
+      <c r="B37" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D37" s="15"/>
-    </row>
-    <row r="38" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A38" s="20"/>
-      <c r="B38" s="13" t="s">
+      <c r="C37" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D37" s="16"/>
+    </row>
+    <row r="38" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A38" s="21"/>
+      <c r="B38" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D38" s="15"/>
-    </row>
-    <row r="39" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A39" s="20"/>
-      <c r="B39" s="13" t="s">
+      <c r="C38" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D38" s="16"/>
+    </row>
+    <row r="39" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A39" s="21"/>
+      <c r="B39" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D39" s="15"/>
-    </row>
-    <row r="40" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A40" s="20"/>
-      <c r="B40" s="13" t="s">
+      <c r="C39" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D39" s="16"/>
+    </row>
+    <row r="40" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A40" s="21"/>
+      <c r="B40" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D40" s="15"/>
-    </row>
-    <row r="41" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A41" s="20"/>
-      <c r="B41" s="13" t="s">
+      <c r="C40" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D40" s="16"/>
+    </row>
+    <row r="41" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A41" s="21"/>
+      <c r="B41" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D41" s="15"/>
-    </row>
-    <row r="42" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A42" s="20"/>
-      <c r="B42" s="13" t="s">
+      <c r="C41" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D41" s="16"/>
+    </row>
+    <row r="42" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A42" s="21"/>
+      <c r="B42" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D42" s="15"/>
-    </row>
-    <row r="43" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A43" s="20"/>
-      <c r="B43" s="13" t="s">
+      <c r="C42" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D42" s="16"/>
+    </row>
+    <row r="43" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A43" s="21"/>
+      <c r="B43" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D43" s="15"/>
-    </row>
-    <row r="44" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A44" s="20"/>
-      <c r="B44" s="13" t="s">
+      <c r="C43" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D43" s="16"/>
+    </row>
+    <row r="44" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A44" s="21"/>
+      <c r="B44" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D44" s="15"/>
-    </row>
-    <row r="45" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A45" s="20"/>
-      <c r="B45" s="13" t="s">
+      <c r="C44" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D44" s="16"/>
+    </row>
+    <row r="45" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A45" s="21"/>
+      <c r="B45" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D45" s="15"/>
-    </row>
-    <row r="46" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A46" s="20"/>
-      <c r="B46" s="13" t="s">
+      <c r="C45" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D45" s="16"/>
+    </row>
+    <row r="46" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A46" s="21"/>
+      <c r="B46" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D46" s="15"/>
-    </row>
-    <row r="47" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A47" s="20"/>
-      <c r="B47" s="13" t="s">
+      <c r="C46" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D46" s="16"/>
+    </row>
+    <row r="47" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A47" s="21"/>
+      <c r="B47" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D47" s="15"/>
-    </row>
-    <row r="48" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A48" s="20"/>
-      <c r="B48" s="13" t="s">
+      <c r="C47" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D47" s="16"/>
+    </row>
+    <row r="48" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A48" s="21"/>
+      <c r="B48" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D48" s="15"/>
-    </row>
-    <row r="49" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A49" s="20"/>
-      <c r="B49" s="13" t="s">
+      <c r="C48" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D48" s="16"/>
+    </row>
+    <row r="49" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A49" s="21"/>
+      <c r="B49" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D49" s="15"/>
-    </row>
-    <row r="50" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A50" s="20"/>
-      <c r="B50" s="13" t="s">
+      <c r="C49" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D49" s="16"/>
+    </row>
+    <row r="50" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A50" s="21"/>
+      <c r="B50" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D50" s="15" t="s">
+      <c r="C50" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D50" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A51" s="20"/>
-      <c r="B51" s="13" t="s">
+    <row r="51" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A51" s="21"/>
+      <c r="B51" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D51" s="15"/>
-    </row>
-    <row r="52" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A52" s="21"/>
-      <c r="B52" s="13" t="s">
+      <c r="C51" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D51" s="16"/>
+    </row>
+    <row r="52" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A52" s="22"/>
+      <c r="B52" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D52" s="15"/>
-    </row>
-    <row r="53" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A53" s="19" t="s">
+      <c r="C52" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D52" s="16"/>
+    </row>
+    <row r="53" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A53" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D53" s="15" t="s">
+      <c r="C53" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D53" s="16" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A54" s="20"/>
-      <c r="B54" s="13" t="s">
+    <row r="54" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A54" s="21"/>
+      <c r="B54" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D54" s="15"/>
-    </row>
-    <row r="55" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A55" s="20"/>
-      <c r="B55" s="13" t="s">
+      <c r="C54" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D54" s="16"/>
+    </row>
+    <row r="55" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A55" s="21"/>
+      <c r="B55" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D55" s="15"/>
-    </row>
-    <row r="56" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A56" s="20"/>
-      <c r="B56" s="13" t="s">
+      <c r="C55" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D55" s="16"/>
+    </row>
+    <row r="56" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A56" s="21"/>
+      <c r="B56" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D56" s="15"/>
-    </row>
-    <row r="57" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A57" s="20"/>
-      <c r="B57" s="13" t="s">
+      <c r="C56" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D56" s="16"/>
+    </row>
+    <row r="57" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A57" s="21"/>
+      <c r="B57" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D57" s="15"/>
-    </row>
-    <row r="58" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A58" s="20"/>
-      <c r="B58" s="13" t="s">
+      <c r="C57" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D57" s="16"/>
+    </row>
+    <row r="58" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A58" s="21"/>
+      <c r="B58" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D58" s="15" t="s">
+      <c r="C58" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D58" s="16" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A59" s="20"/>
-      <c r="B59" s="13" t="s">
+    <row r="59" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A59" s="21"/>
+      <c r="B59" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D59" s="15"/>
-    </row>
-    <row r="60" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A60" s="20"/>
-      <c r="B60" s="13" t="s">
+      <c r="C59" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D59" s="16"/>
+    </row>
+    <row r="60" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A60" s="21"/>
+      <c r="B60" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D60" s="15"/>
-    </row>
-    <row r="61" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A61" s="20"/>
-      <c r="B61" s="13" t="s">
+      <c r="C60" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D60" s="16"/>
+    </row>
+    <row r="61" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A61" s="21"/>
+      <c r="B61" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D61" s="15"/>
-    </row>
-    <row r="62" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A62" s="21"/>
-      <c r="B62" s="13" t="s">
+      <c r="C61" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D61" s="16"/>
+    </row>
+    <row r="62" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A62" s="22"/>
+      <c r="B62" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D62" s="15"/>
-    </row>
-    <row r="63" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A63" s="19" t="s">
+      <c r="C62" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D62" s="16"/>
+    </row>
+    <row r="63" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A63" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D63" s="15" t="s">
+      <c r="C63" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D63" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A64" s="20"/>
-      <c r="B64" s="13" t="s">
+    <row r="64" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A64" s="21"/>
+      <c r="B64" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D64" s="15" t="s">
+      <c r="C64" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D64" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A65" s="20"/>
-      <c r="B65" s="13" t="s">
+    <row r="65" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A65" s="21"/>
+      <c r="B65" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D65" s="15"/>
-    </row>
-    <row r="66" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A66" s="20"/>
-      <c r="B66" s="13" t="s">
+      <c r="C65" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D65" s="16"/>
+    </row>
+    <row r="66" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A66" s="21"/>
+      <c r="B66" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D66" s="15"/>
-    </row>
-    <row r="67" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A67" s="21"/>
-      <c r="B67" s="13" t="s">
+      <c r="C66" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D66" s="16"/>
+    </row>
+    <row r="67" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A67" s="22"/>
+      <c r="B67" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C67" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D67" s="15"/>
-    </row>
-    <row r="68" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A68" s="19" t="s">
+      <c r="C67" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D67" s="16"/>
+    </row>
+    <row r="68" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A68" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D68" s="15"/>
-    </row>
-    <row r="69" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A69" s="20"/>
-      <c r="B69" s="13" t="s">
+      <c r="C68" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D68" s="16"/>
+    </row>
+    <row r="69" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A69" s="21"/>
+      <c r="B69" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D69" s="15" t="s">
+      <c r="C69" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D69" s="16" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A70" s="20"/>
-      <c r="B70" s="13" t="s">
+    <row r="70" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A70" s="21"/>
+      <c r="B70" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C70" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D70" s="15"/>
-    </row>
-    <row r="71" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A71" s="20"/>
-      <c r="B71" s="13" t="s">
+      <c r="C70" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D70" s="16"/>
+    </row>
+    <row r="71" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A71" s="21"/>
+      <c r="B71" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C71" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D71" s="15"/>
-    </row>
-    <row r="72" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A72" s="20"/>
-      <c r="B72" s="13" t="s">
+      <c r="C71" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D71" s="16"/>
+    </row>
+    <row r="72" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A72" s="21"/>
+      <c r="B72" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C72" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D72" s="15"/>
-    </row>
-    <row r="73" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A73" s="20"/>
-      <c r="B73" s="13" t="s">
+      <c r="C72" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D72" s="16"/>
+    </row>
+    <row r="73" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A73" s="21"/>
+      <c r="B73" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C73" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D73" s="15"/>
-    </row>
-    <row r="74" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A74" s="21"/>
-      <c r="B74" s="13" t="s">
+      <c r="C73" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D73" s="16"/>
+    </row>
+    <row r="74" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A74" s="22"/>
+      <c r="B74" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C74" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D74" s="15"/>
-    </row>
-    <row r="75" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A75" s="19" t="s">
+      <c r="C74" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D74" s="16"/>
+    </row>
+    <row r="75" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A75" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C75" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D75" s="16"/>
-    </row>
-    <row r="76" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A76" s="21"/>
-      <c r="B76" s="13" t="s">
+      <c r="C75" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D75" s="17"/>
+    </row>
+    <row r="76" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A76" s="22"/>
+      <c r="B76" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C76" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D76" s="15" t="s">
+      <c r="C76" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D76" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A77" s="19" t="s">
+    <row r="77" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A77" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D77" s="15"/>
-    </row>
-    <row r="78" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A78" s="20"/>
-      <c r="B78" s="13" t="s">
+      <c r="C77" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D77" s="16"/>
+    </row>
+    <row r="78" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A78" s="21"/>
+      <c r="B78" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C78" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D78" s="15"/>
-    </row>
-    <row r="79" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A79" s="20"/>
-      <c r="B79" s="13" t="s">
+      <c r="C78" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D78" s="16"/>
+    </row>
+    <row r="79" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A79" s="21"/>
+      <c r="B79" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C79" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D79" s="15"/>
-    </row>
-    <row r="80" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A80" s="21"/>
-      <c r="B80" s="13" t="s">
+      <c r="C79" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D79" s="16"/>
+    </row>
+    <row r="80" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A80" s="22"/>
+      <c r="B80" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C80" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D80" s="15" t="s">
+      <c r="C80" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D80" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A81" s="19" t="s">
+    <row r="81" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A81" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C81" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D81" s="15"/>
-    </row>
-    <row r="82" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A82" s="21"/>
-      <c r="B82" s="13" t="s">
+      <c r="C81" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D81" s="16"/>
+    </row>
+    <row r="82" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A82" s="22"/>
+      <c r="B82" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C82" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D82" s="15" t="s">
+      <c r="C82" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D82" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A83" s="19" t="s">
+    <row r="83" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A83" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C83" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D83" s="15"/>
-    </row>
-    <row r="84" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A84" s="20"/>
-      <c r="B84" s="13" t="s">
+      <c r="C83" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D83" s="16"/>
+    </row>
+    <row r="84" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A84" s="21"/>
+      <c r="B84" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D84" s="15"/>
-    </row>
-    <row r="85" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A85" s="20"/>
-      <c r="B85" s="13" t="s">
+      <c r="C84" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D84" s="16"/>
+    </row>
+    <row r="85" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A85" s="21"/>
+      <c r="B85" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C85" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D85" s="15"/>
-    </row>
-    <row r="86" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A86" s="20"/>
-      <c r="B86" s="13" t="s">
+      <c r="C85" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D85" s="16"/>
+    </row>
+    <row r="86" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A86" s="21"/>
+      <c r="B86" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C86" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D86" s="15"/>
-    </row>
-    <row r="87" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A87" s="20"/>
-      <c r="B87" s="13" t="s">
+      <c r="C86" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D86" s="16"/>
+    </row>
+    <row r="87" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A87" s="21"/>
+      <c r="B87" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C87" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D87" s="15"/>
-    </row>
-    <row r="88" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A88" s="20"/>
-      <c r="B88" s="13" t="s">
+      <c r="C87" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D87" s="16"/>
+    </row>
+    <row r="88" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A88" s="21"/>
+      <c r="B88" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C88" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D88" s="15"/>
-    </row>
-    <row r="89" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A89" s="21"/>
-      <c r="B89" s="13" t="s">
+      <c r="C88" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D88" s="16"/>
+    </row>
+    <row r="89" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A89" s="22"/>
+      <c r="B89" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C89" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D89" s="15"/>
-    </row>
-    <row r="90" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A90" s="19" t="s">
+      <c r="C89" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D89" s="16"/>
+    </row>
+    <row r="90" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A90" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B90" s="13" t="s">
+      <c r="B90" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C90" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D90" s="15"/>
-    </row>
-    <row r="91" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A91" s="20"/>
-      <c r="B91" s="13" t="s">
+      <c r="C90" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D90" s="16"/>
+    </row>
+    <row r="91" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A91" s="21"/>
+      <c r="B91" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C91" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D91" s="15"/>
-    </row>
-    <row r="92" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A92" s="20"/>
-      <c r="B92" s="13" t="s">
+      <c r="C91" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D91" s="16"/>
+    </row>
+    <row r="92" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A92" s="21"/>
+      <c r="B92" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C92" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D92" s="15"/>
-    </row>
-    <row r="93" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A93" s="20"/>
-      <c r="B93" s="13" t="s">
+      <c r="C92" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D92" s="16"/>
+    </row>
+    <row r="93" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A93" s="21"/>
+      <c r="B93" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C93" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D93" s="15"/>
-    </row>
-    <row r="94" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A94" s="20"/>
-      <c r="B94" s="13" t="s">
+      <c r="C93" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D93" s="16"/>
+    </row>
+    <row r="94" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A94" s="21"/>
+      <c r="B94" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C94" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D94" s="15"/>
-    </row>
-    <row r="95" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A95" s="20"/>
-      <c r="B95" s="13" t="s">
+      <c r="C94" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D94" s="16"/>
+    </row>
+    <row r="95" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A95" s="21"/>
+      <c r="B95" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C95" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D95" s="15" t="s">
+      <c r="C95" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D95" s="16" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A96" s="20"/>
-      <c r="B96" s="13" t="s">
+    <row r="96" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A96" s="21"/>
+      <c r="B96" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C96" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D96" s="15" t="s">
+      <c r="C96" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D96" s="16" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A97" s="21"/>
-      <c r="B97" s="13" t="s">
+    <row r="97" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A97" s="22"/>
+      <c r="B97" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C97" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D97" s="15" t="s">
+      <c r="C97" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D97" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A98" s="19" t="s">
+    <row r="98" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A98" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="B98" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C98" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D98" s="15"/>
-    </row>
-    <row r="99" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A99" s="20"/>
-      <c r="B99" s="13" t="s">
+      <c r="C98" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D98" s="16"/>
+    </row>
+    <row r="99" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A99" s="21"/>
+      <c r="B99" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C99" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D99" s="15"/>
-    </row>
-    <row r="100" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A100" s="20"/>
-      <c r="B100" s="13" t="s">
+      <c r="C99" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D99" s="16"/>
+    </row>
+    <row r="100" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A100" s="21"/>
+      <c r="B100" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D100" s="15" t="s">
+      <c r="C100" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D100" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A101" s="21"/>
-      <c r="B101" s="13" t="s">
+    <row r="101" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A101" s="22"/>
+      <c r="B101" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C101" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D101" s="15"/>
-    </row>
-    <row r="102" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A102" s="19" t="s">
+      <c r="C101" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D101" s="16"/>
+    </row>
+    <row r="102" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A102" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B102" s="13" t="s">
+      <c r="B102" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C102" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D102" s="15"/>
-    </row>
-    <row r="103" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A103" s="20"/>
-      <c r="B103" s="13" t="s">
+      <c r="C102" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D102" s="16"/>
+    </row>
+    <row r="103" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A103" s="21"/>
+      <c r="B103" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C103" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D103" s="15"/>
-    </row>
-    <row r="104" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A104" s="21"/>
-      <c r="B104" s="13" t="s">
+      <c r="C103" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D103" s="16"/>
+    </row>
+    <row r="104" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A104" s="22"/>
+      <c r="B104" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C104" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D104" s="15" t="s">
+      <c r="C104" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D104" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A105" s="19" t="s">
+    <row r="105" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A105" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B105" s="13" t="s">
+      <c r="B105" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C105" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D105" s="15"/>
-    </row>
-    <row r="106" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A106" s="21"/>
-      <c r="B106" s="13" t="s">
+      <c r="C105" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D105" s="16"/>
+    </row>
+    <row r="106" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A106" s="22"/>
+      <c r="B106" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C106" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D106" s="15" t="s">
+      <c r="C106" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D106" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A107" s="19" t="s">
+    <row r="107" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A107" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B107" s="13" t="s">
+      <c r="B107" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C107" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D107" s="15" t="s">
+      <c r="C107" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D107" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A108" s="20"/>
-      <c r="B108" s="13" t="s">
+    <row r="108" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A108" s="21"/>
+      <c r="B108" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C108" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D108" s="15"/>
-    </row>
-    <row r="109" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A109" s="20"/>
-      <c r="B109" s="13" t="s">
+      <c r="C108" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D108" s="16"/>
+    </row>
+    <row r="109" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A109" s="21"/>
+      <c r="B109" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C109" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D109" s="15" t="s">
+      <c r="C109" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D109" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A110" s="20"/>
-      <c r="B110" s="13" t="s">
+    <row r="110" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A110" s="21"/>
+      <c r="B110" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C110" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D110" s="15"/>
-    </row>
-    <row r="111" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A111" s="20"/>
-      <c r="B111" s="13" t="s">
+      <c r="C110" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D110" s="16"/>
+    </row>
+    <row r="111" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A111" s="21"/>
+      <c r="B111" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C111" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D111" s="15"/>
-    </row>
-    <row r="112" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A112" s="21"/>
-      <c r="B112" s="13" t="s">
+      <c r="C111" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D111" s="16"/>
+    </row>
+    <row r="112" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A112" s="22"/>
+      <c r="B112" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C112" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D112" s="15"/>
-    </row>
-    <row r="113" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A113" s="19" t="s">
+      <c r="C112" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D112" s="16"/>
+    </row>
+    <row r="113" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A113" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B113" s="13" t="s">
+      <c r="B113" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C113" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D113" s="15"/>
-    </row>
-    <row r="114" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A114" s="20"/>
-      <c r="B114" s="13" t="s">
+      <c r="C113" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D113" s="16"/>
+    </row>
+    <row r="114" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A114" s="21"/>
+      <c r="B114" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C114" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D114" s="15" t="s">
+      <c r="C114" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D114" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A115" s="21"/>
-      <c r="B115" s="13" t="s">
+    <row r="115" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A115" s="22"/>
+      <c r="B115" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C115" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D115" s="15" t="s">
+      <c r="C115" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D115" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A116" s="19" t="s">
+    <row r="116" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A116" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="B116" s="13" t="s">
+      <c r="B116" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C116" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D116" s="15" t="s">
+      <c r="C116" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D116" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A117" s="21"/>
-      <c r="B117" s="13" t="s">
+    <row r="117" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A117" s="22"/>
+      <c r="B117" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="C117" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D117" s="15" t="s">
+      <c r="C117" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D117" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A118" s="19" t="s">
+    <row r="118" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A118" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="B118" s="13" t="s">
+      <c r="B118" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C118" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D118" s="15" t="s">
+      <c r="C118" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D118" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A119" s="21"/>
-      <c r="B119" s="13" t="s">
+    <row r="119" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A119" s="22"/>
+      <c r="B119" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C119" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D119" s="15"/>
-    </row>
-    <row r="120" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A120" s="19" t="s">
+      <c r="C119" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D119" s="16"/>
+    </row>
+    <row r="120" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A120" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="B120" s="13" t="s">
+      <c r="B120" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C120" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D120" s="15" t="s">
+      <c r="C120" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D120" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A121" s="21"/>
-      <c r="B121" s="13" t="s">
+    <row r="121" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A121" s="22"/>
+      <c r="B121" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C121" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D121" s="15"/>
-    </row>
-    <row r="122" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A122" s="19" t="s">
+      <c r="C121" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D121" s="16"/>
+    </row>
+    <row r="122" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A122" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="B122" s="13" t="s">
+      <c r="B122" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C122" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D122" s="15"/>
-    </row>
-    <row r="123" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A123" s="20"/>
-      <c r="B123" s="13" t="s">
+      <c r="C122" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D122" s="16"/>
+    </row>
+    <row r="123" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A123" s="21"/>
+      <c r="B123" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C123" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D123" s="15"/>
-    </row>
-    <row r="124" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A124" s="20"/>
-      <c r="B124" s="13" t="s">
+      <c r="C123" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D123" s="16"/>
+    </row>
+    <row r="124" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A124" s="21"/>
+      <c r="B124" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C124" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D124" s="15"/>
-    </row>
-    <row r="125" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A125" s="20"/>
-      <c r="B125" s="13" t="s">
+      <c r="C124" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D124" s="16"/>
+    </row>
+    <row r="125" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A125" s="21"/>
+      <c r="B125" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C125" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D125" s="15"/>
-    </row>
-    <row r="126" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A126" s="20"/>
-      <c r="B126" s="13" t="s">
+      <c r="C125" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D125" s="16"/>
+    </row>
+    <row r="126" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A126" s="21"/>
+      <c r="B126" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C126" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D126" s="15"/>
-    </row>
-    <row r="127" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A127" s="20"/>
-      <c r="B127" s="13" t="s">
+      <c r="C126" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D126" s="16"/>
+    </row>
+    <row r="127" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A127" s="21"/>
+      <c r="B127" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C127" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D127" s="15"/>
-    </row>
-    <row r="128" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A128" s="20"/>
-      <c r="B128" s="13" t="s">
+      <c r="C127" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D127" s="16"/>
+    </row>
+    <row r="128" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A128" s="21"/>
+      <c r="B128" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C128" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D128" s="15"/>
-    </row>
-    <row r="129" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A129" s="20"/>
-      <c r="B129" s="13" t="s">
+      <c r="C128" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D128" s="16"/>
+    </row>
+    <row r="129" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A129" s="21"/>
+      <c r="B129" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C129" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D129" s="15"/>
-    </row>
-    <row r="130" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A130" s="20"/>
-      <c r="B130" s="13" t="s">
+      <c r="C129" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D129" s="16"/>
+    </row>
+    <row r="130" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A130" s="21"/>
+      <c r="B130" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C130" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D130" s="15"/>
-    </row>
-    <row r="131" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A131" s="20"/>
-      <c r="B131" s="13" t="s">
+      <c r="C130" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D130" s="16"/>
+    </row>
+    <row r="131" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A131" s="21"/>
+      <c r="B131" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C131" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D131" s="15"/>
-    </row>
-    <row r="132" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A132" s="20"/>
-      <c r="B132" s="13" t="s">
+      <c r="C131" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D131" s="16"/>
+    </row>
+    <row r="132" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A132" s="21"/>
+      <c r="B132" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C132" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D132" s="15"/>
-    </row>
-    <row r="133" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A133" s="20"/>
-      <c r="B133" s="13" t="s">
+      <c r="C132" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D132" s="16"/>
+    </row>
+    <row r="133" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A133" s="21"/>
+      <c r="B133" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C133" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D133" s="15"/>
-    </row>
-    <row r="134" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A134" s="20"/>
-      <c r="B134" s="13" t="s">
+      <c r="C133" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D133" s="16"/>
+    </row>
+    <row r="134" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A134" s="21"/>
+      <c r="B134" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C134" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D134" s="15"/>
-    </row>
-    <row r="135" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A135" s="20"/>
-      <c r="B135" s="13" t="s">
+      <c r="C134" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D134" s="16"/>
+    </row>
+    <row r="135" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A135" s="21"/>
+      <c r="B135" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="C135" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D135" s="15"/>
-    </row>
-    <row r="136" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A136" s="20"/>
-      <c r="B136" s="13" t="s">
+      <c r="C135" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D135" s="16"/>
+    </row>
+    <row r="136" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A136" s="21"/>
+      <c r="B136" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C136" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D136" s="15"/>
-    </row>
-    <row r="137" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A137" s="20"/>
-      <c r="B137" s="13" t="s">
+      <c r="C136" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D136" s="16"/>
+    </row>
+    <row r="137" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A137" s="21"/>
+      <c r="B137" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C137" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D137" s="15"/>
-    </row>
-    <row r="138" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A138" s="20"/>
-      <c r="B138" s="13" t="s">
+      <c r="C137" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D137" s="16"/>
+    </row>
+    <row r="138" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A138" s="21"/>
+      <c r="B138" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="C138" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D138" s="15"/>
-    </row>
-    <row r="139" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A139" s="20"/>
-      <c r="B139" s="13" t="s">
+      <c r="C138" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D138" s="16"/>
+    </row>
+    <row r="139" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A139" s="21"/>
+      <c r="B139" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C139" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D139" s="15"/>
-    </row>
-    <row r="140" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A140" s="20"/>
-      <c r="B140" s="13" t="s">
+      <c r="C139" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D139" s="16"/>
+    </row>
+    <row r="140" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A140" s="21"/>
+      <c r="B140" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C140" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D140" s="15"/>
-    </row>
-    <row r="141" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A141" s="20"/>
-      <c r="B141" s="13" t="s">
+      <c r="C140" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D140" s="16"/>
+    </row>
+    <row r="141" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A141" s="21"/>
+      <c r="B141" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C141" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D141" s="15"/>
-    </row>
-    <row r="142" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A142" s="20"/>
-      <c r="B142" s="13" t="s">
+      <c r="C141" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D141" s="16"/>
+    </row>
+    <row r="142" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A142" s="21"/>
+      <c r="B142" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C142" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D142" s="15"/>
-    </row>
-    <row r="143" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A143" s="20"/>
-      <c r="B143" s="13" t="s">
+      <c r="C142" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D142" s="16"/>
+    </row>
+    <row r="143" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A143" s="21"/>
+      <c r="B143" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C143" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D143" s="15"/>
-    </row>
-    <row r="144" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A144" s="20"/>
-      <c r="B144" s="13" t="s">
+      <c r="C143" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D143" s="16"/>
+    </row>
+    <row r="144" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A144" s="21"/>
+      <c r="B144" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C144" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D144" s="15"/>
-    </row>
-    <row r="145" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A145" s="20"/>
-      <c r="B145" s="13" t="s">
+      <c r="C144" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D144" s="16"/>
+    </row>
+    <row r="145" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A145" s="21"/>
+      <c r="B145" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C145" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D145" s="15"/>
-    </row>
-    <row r="146" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A146" s="20"/>
-      <c r="B146" s="13" t="s">
+      <c r="C145" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D145" s="16"/>
+    </row>
+    <row r="146" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A146" s="21"/>
+      <c r="B146" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C146" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D146" s="15"/>
-    </row>
-    <row r="147" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A147" s="20"/>
-      <c r="B147" s="13" t="s">
+      <c r="C146" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D146" s="16"/>
+    </row>
+    <row r="147" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A147" s="21"/>
+      <c r="B147" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="C147" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D147" s="15"/>
-    </row>
-    <row r="148" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A148" s="20"/>
-      <c r="B148" s="13" t="s">
+      <c r="C147" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D147" s="16"/>
+    </row>
+    <row r="148" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A148" s="21"/>
+      <c r="B148" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="C148" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D148" s="15" t="s">
+      <c r="C148" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D148" s="16" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A149" s="20"/>
-      <c r="B149" s="13" t="s">
+    <row r="149" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A149" s="21"/>
+      <c r="B149" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C149" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D149" s="15"/>
-    </row>
-    <row r="150" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A150" s="20"/>
-      <c r="B150" s="13" t="s">
+      <c r="C149" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D149" s="16"/>
+    </row>
+    <row r="150" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A150" s="21"/>
+      <c r="B150" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C150" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D150" s="15"/>
-    </row>
-    <row r="151" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A151" s="20"/>
-      <c r="B151" s="13" t="s">
+      <c r="C150" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D150" s="16"/>
+    </row>
+    <row r="151" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A151" s="21"/>
+      <c r="B151" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C151" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D151" s="15"/>
-    </row>
-    <row r="152" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A152" s="20"/>
-      <c r="B152" s="13" t="s">
+      <c r="C151" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D151" s="16"/>
+    </row>
+    <row r="152" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A152" s="21"/>
+      <c r="B152" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C152" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D152" s="15"/>
-    </row>
-    <row r="153" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A153" s="20"/>
-      <c r="B153" s="13" t="s">
+      <c r="C152" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D152" s="16"/>
+    </row>
+    <row r="153" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A153" s="21"/>
+      <c r="B153" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="C153" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D153" s="15"/>
-    </row>
-    <row r="154" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A154" s="21"/>
-      <c r="B154" s="13" t="s">
+      <c r="C153" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D153" s="16"/>
+    </row>
+    <row r="154" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A154" s="22"/>
+      <c r="B154" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C154" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D154" s="15"/>
-    </row>
-    <row r="155" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A155" s="19" t="s">
+      <c r="C154" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D154" s="16"/>
+    </row>
+    <row r="155" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A155" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="B155" s="13" t="s">
+      <c r="B155" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="C155" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D155" s="15" t="s">
+      <c r="C155" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D155" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A156" s="20"/>
-      <c r="B156" s="13" t="s">
+    <row r="156" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A156" s="21"/>
+      <c r="B156" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="C156" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D156" s="15"/>
-    </row>
-    <row r="157" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A157" s="20"/>
-      <c r="B157" s="13" t="s">
+      <c r="C156" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D156" s="16"/>
+    </row>
+    <row r="157" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A157" s="21"/>
+      <c r="B157" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="C157" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D157" s="15"/>
-    </row>
-    <row r="158" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A158" s="20"/>
-      <c r="B158" s="13" t="s">
+      <c r="C157" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D157" s="16"/>
+    </row>
+    <row r="158" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A158" s="21"/>
+      <c r="B158" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="C158" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D158" s="15"/>
-    </row>
-    <row r="159" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A159" s="20"/>
-      <c r="B159" s="13" t="s">
+      <c r="C158" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D158" s="16"/>
+    </row>
+    <row r="159" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A159" s="21"/>
+      <c r="B159" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="C159" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D159" s="15"/>
-    </row>
-    <row r="160" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A160" s="20"/>
-      <c r="B160" s="13" t="s">
+      <c r="C159" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D159" s="16"/>
+    </row>
+    <row r="160" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A160" s="21"/>
+      <c r="B160" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="C160" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D160" s="15" t="s">
+      <c r="C160" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D160" s="16" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A161" s="20"/>
-      <c r="B161" s="13" t="s">
+    <row r="161" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A161" s="21"/>
+      <c r="B161" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="C161" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D161" s="15" t="s">
+      <c r="C161" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D161" s="16" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A162" s="20"/>
-      <c r="B162" s="13" t="s">
+    <row r="162" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A162" s="21"/>
+      <c r="B162" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="C162" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D162" s="15" t="s">
+      <c r="C162" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D162" s="16" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A163" s="20"/>
-      <c r="B163" s="13" t="s">
+    <row r="163" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A163" s="21"/>
+      <c r="B163" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="C163" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D163" s="15"/>
-    </row>
-    <row r="164" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A164" s="20"/>
-      <c r="B164" s="13" t="s">
+      <c r="C163" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D163" s="16"/>
+    </row>
+    <row r="164" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A164" s="21"/>
+      <c r="B164" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="C164" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D164" s="15"/>
-    </row>
-    <row r="165" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A165" s="21"/>
-      <c r="B165" s="13" t="s">
+      <c r="C164" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D164" s="16"/>
+    </row>
+    <row r="165" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A165" s="22"/>
+      <c r="B165" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="C165" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D165" s="15"/>
-    </row>
-    <row r="166" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A166" s="19" t="s">
+      <c r="C165" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D165" s="16"/>
+    </row>
+    <row r="166" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A166" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="B166" s="13" t="s">
+      <c r="B166" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="C166" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D166" s="15" t="s">
+      <c r="C166" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D166" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A167" s="21"/>
-      <c r="B167" s="13" t="s">
+    <row r="167" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A167" s="22"/>
+      <c r="B167" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="C167" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D167" s="15" t="s">
+      <c r="C167" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D167" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A168" s="19" t="s">
+    <row r="168" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A168" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="B168" s="13" t="s">
+      <c r="B168" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="C168" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D168" s="15"/>
-    </row>
-    <row r="169" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A169" s="20"/>
-      <c r="B169" s="13" t="s">
+      <c r="C168" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D168" s="16"/>
+    </row>
+    <row r="169" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A169" s="21"/>
+      <c r="B169" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C169" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D169" s="15"/>
-    </row>
-    <row r="170" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A170" s="20"/>
-      <c r="B170" s="13" t="s">
+      <c r="C169" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D169" s="16"/>
+    </row>
+    <row r="170" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A170" s="21"/>
+      <c r="B170" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="C170" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D170" s="15" t="s">
+      <c r="C170" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D170" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A171" s="20"/>
-      <c r="B171" s="13" t="s">
+    <row r="171" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A171" s="21"/>
+      <c r="B171" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="C171" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D171" s="15"/>
-    </row>
-    <row r="172" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A172" s="20"/>
-      <c r="B172" s="13" t="s">
+      <c r="C171" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D171" s="16"/>
+    </row>
+    <row r="172" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A172" s="21"/>
+      <c r="B172" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C172" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D172" s="15"/>
-    </row>
-    <row r="173" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A173" s="20"/>
-      <c r="B173" s="13" t="s">
+      <c r="C172" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D172" s="16"/>
+    </row>
+    <row r="173" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A173" s="21"/>
+      <c r="B173" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="C173" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D173" s="15"/>
-    </row>
-    <row r="174" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A174" s="20"/>
-      <c r="B174" s="13" t="s">
+      <c r="C173" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D173" s="16"/>
+    </row>
+    <row r="174" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A174" s="21"/>
+      <c r="B174" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="C174" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D174" s="15"/>
-    </row>
-    <row r="175" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A175" s="20"/>
-      <c r="B175" s="13" t="s">
+      <c r="C174" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D174" s="16"/>
+    </row>
+    <row r="175" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A175" s="21"/>
+      <c r="B175" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="C175" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D175" s="15"/>
-    </row>
-    <row r="176" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A176" s="20"/>
-      <c r="B176" s="13" t="s">
+      <c r="C175" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D175" s="16"/>
+    </row>
+    <row r="176" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A176" s="21"/>
+      <c r="B176" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="C176" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D176" s="15"/>
-    </row>
-    <row r="177" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A177" s="21"/>
-      <c r="B177" s="13" t="s">
+      <c r="C176" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D176" s="16"/>
+    </row>
+    <row r="177" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A177" s="22"/>
+      <c r="B177" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="C177" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D177" s="15" t="s">
+      <c r="C177" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D177" s="16" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A178" s="19" t="s">
+    <row r="178" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A178" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="B178" s="13" t="s">
+      <c r="B178" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="C178" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D178" s="15"/>
-    </row>
-    <row r="179" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A179" s="20"/>
-      <c r="B179" s="13" t="s">
+      <c r="C178" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D178" s="16"/>
+    </row>
+    <row r="179" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A179" s="21"/>
+      <c r="B179" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="C179" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D179" s="15"/>
-    </row>
-    <row r="180" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A180" s="21"/>
-      <c r="B180" s="13" t="s">
+      <c r="C179" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D179" s="16"/>
+    </row>
+    <row r="180" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A180" s="22"/>
+      <c r="B180" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="C180" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D180" s="15" t="s">
+      <c r="C180" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D180" s="16" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A181" s="19" t="s">
+    <row r="181" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A181" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="B181" s="13" t="s">
+      <c r="B181" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="C181" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D181" s="15"/>
-    </row>
-    <row r="182" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A182" s="20"/>
-      <c r="B182" s="13" t="s">
+      <c r="C181" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D181" s="16"/>
+    </row>
+    <row r="182" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A182" s="21"/>
+      <c r="B182" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="C182" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D182" s="15"/>
-    </row>
-    <row r="183" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A183" s="20"/>
-      <c r="B183" s="13" t="s">
+      <c r="C182" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D182" s="16"/>
+    </row>
+    <row r="183" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A183" s="21"/>
+      <c r="B183" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="C183" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D183" s="15"/>
-    </row>
-    <row r="184" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A184" s="20"/>
-      <c r="B184" s="13" t="s">
+      <c r="C183" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D183" s="16"/>
+    </row>
+    <row r="184" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A184" s="21"/>
+      <c r="B184" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="C184" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D184" s="15"/>
-    </row>
-    <row r="185" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A185" s="20"/>
-      <c r="B185" s="13" t="s">
+      <c r="C184" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D184" s="16"/>
+    </row>
+    <row r="185" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A185" s="21"/>
+      <c r="B185" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="C185" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D185" s="15"/>
-    </row>
-    <row r="186" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A186" s="20"/>
-      <c r="B186" s="13" t="s">
+      <c r="C185" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D185" s="16"/>
+    </row>
+    <row r="186" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A186" s="21"/>
+      <c r="B186" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="C186" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D186" s="15"/>
-    </row>
-    <row r="187" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A187" s="20"/>
-      <c r="B187" s="13" t="s">
+      <c r="C186" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D186" s="16"/>
+    </row>
+    <row r="187" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A187" s="21"/>
+      <c r="B187" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="C187" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D187" s="15"/>
-    </row>
-    <row r="188" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A188" s="20"/>
-      <c r="B188" s="13" t="s">
+      <c r="C187" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D187" s="16"/>
+    </row>
+    <row r="188" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A188" s="21"/>
+      <c r="B188" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="C188" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D188" s="15"/>
-    </row>
-    <row r="189" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A189" s="20"/>
-      <c r="B189" s="13" t="s">
+      <c r="C188" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D188" s="16"/>
+    </row>
+    <row r="189" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A189" s="21"/>
+      <c r="B189" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="C189" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D189" s="15"/>
-    </row>
-    <row r="190" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A190" s="20"/>
-      <c r="B190" s="13" t="s">
+      <c r="C189" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D189" s="16"/>
+    </row>
+    <row r="190" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A190" s="21"/>
+      <c r="B190" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="C190" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D190" s="15"/>
-    </row>
-    <row r="191" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A191" s="20"/>
-      <c r="B191" s="13" t="s">
+      <c r="C190" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D190" s="16"/>
+    </row>
+    <row r="191" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A191" s="21"/>
+      <c r="B191" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="C191" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D191" s="15"/>
-    </row>
-    <row r="192" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A192" s="20"/>
-      <c r="B192" s="13" t="s">
+      <c r="C191" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D191" s="16"/>
+    </row>
+    <row r="192" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A192" s="21"/>
+      <c r="B192" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="C192" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D192" s="15"/>
-    </row>
-    <row r="193" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A193" s="20"/>
-      <c r="B193" s="13" t="s">
+      <c r="C192" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D192" s="16"/>
+    </row>
+    <row r="193" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A193" s="21"/>
+      <c r="B193" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="C193" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D193" s="15"/>
-    </row>
-    <row r="194" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A194" s="20"/>
-      <c r="B194" s="13" t="s">
+      <c r="C193" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D193" s="16"/>
+    </row>
+    <row r="194" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A194" s="21"/>
+      <c r="B194" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C194" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D194" s="15"/>
-    </row>
-    <row r="195" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A195" s="20"/>
-      <c r="B195" s="13" t="s">
+      <c r="C194" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D194" s="16"/>
+    </row>
+    <row r="195" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A195" s="21"/>
+      <c r="B195" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C195" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D195" s="15"/>
-    </row>
-    <row r="196" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A196" s="20"/>
-      <c r="B196" s="13" t="s">
+      <c r="C195" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D195" s="16"/>
+    </row>
+    <row r="196" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A196" s="21"/>
+      <c r="B196" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="C196" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D196" s="15"/>
-    </row>
-    <row r="197" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A197" s="20"/>
-      <c r="B197" s="13" t="s">
+      <c r="C196" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D196" s="16"/>
+    </row>
+    <row r="197" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A197" s="21"/>
+      <c r="B197" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="C197" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D197" s="15"/>
-    </row>
-    <row r="198" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A198" s="20"/>
-      <c r="B198" s="13" t="s">
+      <c r="C197" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D197" s="16"/>
+    </row>
+    <row r="198" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A198" s="21"/>
+      <c r="B198" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="C198" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D198" s="15"/>
-    </row>
-    <row r="199" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A199" s="20"/>
-      <c r="B199" s="13" t="s">
+      <c r="C198" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D198" s="16"/>
+    </row>
+    <row r="199" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A199" s="21"/>
+      <c r="B199" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="C199" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D199" s="15"/>
-    </row>
-    <row r="200" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A200" s="21"/>
-      <c r="B200" s="13" t="s">
+      <c r="C199" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D199" s="16"/>
+    </row>
+    <row r="200" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A200" s="22"/>
+      <c r="B200" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="C200" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D200" s="15" t="s">
+      <c r="C200" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D200" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A201" s="19" t="s">
+    <row r="201" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A201" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="B201" s="13" t="s">
+      <c r="B201" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="C201" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D201" s="15"/>
-    </row>
-    <row r="202" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A202" s="20"/>
-      <c r="B202" s="13" t="s">
+      <c r="C201" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D201" s="16"/>
+    </row>
+    <row r="202" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A202" s="21"/>
+      <c r="B202" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="C202" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D202" s="15"/>
-    </row>
-    <row r="203" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A203" s="20"/>
-      <c r="B203" s="13" t="s">
+      <c r="C202" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D202" s="16"/>
+    </row>
+    <row r="203" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A203" s="21"/>
+      <c r="B203" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="C203" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D203" s="15"/>
-    </row>
-    <row r="204" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A204" s="20"/>
-      <c r="B204" s="13" t="s">
+      <c r="C203" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D203" s="16"/>
+    </row>
+    <row r="204" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A204" s="21"/>
+      <c r="B204" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="C204" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D204" s="15"/>
-    </row>
-    <row r="205" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A205" s="20"/>
-      <c r="B205" s="13" t="s">
+      <c r="C204" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D204" s="16"/>
+    </row>
+    <row r="205" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A205" s="21"/>
+      <c r="B205" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="C205" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D205" s="15" t="s">
+      <c r="C205" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D205" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A206" s="20"/>
-      <c r="B206" s="13" t="s">
+    <row r="206" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A206" s="21"/>
+      <c r="B206" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="C206" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D206" s="15" t="s">
+      <c r="C206" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D206" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A207" s="20"/>
-      <c r="B207" s="13" t="s">
+    <row r="207" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A207" s="21"/>
+      <c r="B207" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="C207" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D207" s="15"/>
-    </row>
-    <row r="208" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A208" s="20"/>
-      <c r="B208" s="13" t="s">
+      <c r="C207" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D207" s="16"/>
+    </row>
+    <row r="208" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A208" s="21"/>
+      <c r="B208" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="C208" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D208" s="15"/>
-    </row>
-    <row r="209" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A209" s="20"/>
-      <c r="B209" s="13" t="s">
+      <c r="C208" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D208" s="16"/>
+    </row>
+    <row r="209" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A209" s="21"/>
+      <c r="B209" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="C209" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D209" s="15" t="s">
+      <c r="C209" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D209" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A210" s="21"/>
-      <c r="B210" s="13" t="s">
+    <row r="210" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A210" s="22"/>
+      <c r="B210" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="C210" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D210" s="15"/>
-    </row>
-    <row r="211" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A211" s="15" t="s">
+      <c r="C210" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D210" s="16"/>
+    </row>
+    <row r="211" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A211" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="B211" s="13" t="s">
+      <c r="B211" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="C211" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D211" s="15" t="s">
+      <c r="C211" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D211" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A212" s="19" t="s">
+    <row r="212" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A212" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="B212" s="13" t="s">
+      <c r="B212" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="C212" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D212" s="15"/>
-    </row>
-    <row r="213" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A213" s="20"/>
-      <c r="B213" s="13" t="s">
+      <c r="C212" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D212" s="16"/>
+    </row>
+    <row r="213" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A213" s="21"/>
+      <c r="B213" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="C213" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D213" s="15"/>
-    </row>
-    <row r="214" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A214" s="20"/>
-      <c r="B214" s="13" t="s">
+      <c r="C213" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D213" s="16"/>
+    </row>
+    <row r="214" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A214" s="21"/>
+      <c r="B214" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="C214" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D214" s="15"/>
-    </row>
-    <row r="215" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A215" s="20"/>
-      <c r="B215" s="13" t="s">
+      <c r="C214" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D214" s="16"/>
+    </row>
+    <row r="215" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A215" s="21"/>
+      <c r="B215" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C215" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D215" s="15"/>
-    </row>
-    <row r="216" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A216" s="20"/>
-      <c r="B216" s="13" t="s">
+      <c r="C215" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D215" s="16"/>
+    </row>
+    <row r="216" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A216" s="21"/>
+      <c r="B216" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C216" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D216" s="15"/>
-    </row>
-    <row r="217" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A217" s="20"/>
-      <c r="B217" s="13" t="s">
+      <c r="C216" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D216" s="16"/>
+    </row>
+    <row r="217" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A217" s="21"/>
+      <c r="B217" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="C217" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D217" s="15"/>
-    </row>
-    <row r="218" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A218" s="20"/>
-      <c r="B218" s="13" t="s">
+      <c r="C217" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D217" s="16"/>
+    </row>
+    <row r="218" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A218" s="21"/>
+      <c r="B218" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="C218" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D218" s="15"/>
-    </row>
-    <row r="219" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A219" s="20"/>
-      <c r="B219" s="13" t="s">
+      <c r="C218" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D218" s="16"/>
+    </row>
+    <row r="219" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A219" s="21"/>
+      <c r="B219" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="C219" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D219" s="15"/>
-    </row>
-    <row r="220" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A220" s="20"/>
-      <c r="B220" s="13" t="s">
+      <c r="C219" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D219" s="16"/>
+    </row>
+    <row r="220" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A220" s="21"/>
+      <c r="B220" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="C220" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D220" s="15"/>
-    </row>
-    <row r="221" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A221" s="20"/>
-      <c r="B221" s="13" t="s">
+      <c r="C220" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D220" s="16"/>
+    </row>
+    <row r="221" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A221" s="21"/>
+      <c r="B221" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C221" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D221" s="15"/>
-    </row>
-    <row r="222" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A222" s="20"/>
-      <c r="B222" s="13" t="s">
+      <c r="C221" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D221" s="16"/>
+    </row>
+    <row r="222" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A222" s="21"/>
+      <c r="B222" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="C222" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D222" s="15" t="s">
+      <c r="C222" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D222" s="16" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A223" s="20"/>
-      <c r="B223" s="13" t="s">
+    <row r="223" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A223" s="21"/>
+      <c r="B223" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="C223" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D223" s="15"/>
-    </row>
-    <row r="224" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A224" s="20"/>
-      <c r="B224" s="13" t="s">
+      <c r="C223" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D223" s="16"/>
+    </row>
+    <row r="224" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A224" s="21"/>
+      <c r="B224" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="C224" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D224" s="15"/>
-    </row>
-    <row r="225" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A225" s="20"/>
-      <c r="B225" s="13" t="s">
+      <c r="C224" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D224" s="16"/>
+    </row>
+    <row r="225" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A225" s="21"/>
+      <c r="B225" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="C225" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D225" s="15"/>
-    </row>
-    <row r="226" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A226" s="20"/>
-      <c r="B226" s="13" t="s">
+      <c r="C225" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D225" s="16"/>
+    </row>
+    <row r="226" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A226" s="21"/>
+      <c r="B226" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C226" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D226" s="15"/>
-    </row>
-    <row r="227" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A227" s="20"/>
-      <c r="B227" s="13" t="s">
+      <c r="C226" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D226" s="16"/>
+    </row>
+    <row r="227" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A227" s="21"/>
+      <c r="B227" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="C227" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D227" s="15" t="s">
+      <c r="C227" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D227" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A228" s="20"/>
-      <c r="B228" s="13" t="s">
+    <row r="228" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A228" s="21"/>
+      <c r="B228" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="C228" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D228" s="15" t="s">
+      <c r="C228" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D228" s="16" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A229" s="20"/>
-      <c r="B229" s="13" t="s">
+    <row r="229" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A229" s="21"/>
+      <c r="B229" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="C229" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D229" s="15"/>
-    </row>
-    <row r="230" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A230" s="20"/>
-      <c r="B230" s="13" t="s">
+      <c r="C229" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D229" s="16"/>
+    </row>
+    <row r="230" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A230" s="21"/>
+      <c r="B230" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="C230" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D230" s="15" t="s">
+      <c r="C230" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D230" s="16" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A231" s="20"/>
-      <c r="B231" s="13" t="s">
+    <row r="231" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A231" s="21"/>
+      <c r="B231" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="C231" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D231" s="15"/>
-    </row>
-    <row r="232" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A232" s="20"/>
-      <c r="B232" s="13" t="s">
+      <c r="C231" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D231" s="16"/>
+    </row>
+    <row r="232" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A232" s="21"/>
+      <c r="B232" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="C232" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D232" s="15"/>
-    </row>
-    <row r="233" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A233" s="21"/>
-      <c r="B233" s="13" t="s">
+      <c r="C232" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D232" s="16"/>
+    </row>
+    <row r="233" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A233" s="22"/>
+      <c r="B233" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C233" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D233" s="15"/>
-    </row>
-    <row r="234" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A234" s="19" t="s">
+      <c r="C233" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D233" s="16"/>
+    </row>
+    <row r="234" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A234" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="B234" s="13" t="s">
+      <c r="B234" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="C234" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D234" s="15"/>
-    </row>
-    <row r="235" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A235" s="20"/>
-      <c r="B235" s="13" t="s">
+      <c r="C234" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D234" s="16"/>
+    </row>
+    <row r="235" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A235" s="21"/>
+      <c r="B235" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="C235" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D235" s="15"/>
-    </row>
-    <row r="236" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A236" s="20"/>
-      <c r="B236" s="13" t="s">
+      <c r="C235" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D235" s="16"/>
+    </row>
+    <row r="236" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A236" s="21"/>
+      <c r="B236" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="C236" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D236" s="15" t="s">
+      <c r="C236" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D236" s="16" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A237" s="20"/>
-      <c r="B237" s="13" t="s">
+    <row r="237" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A237" s="21"/>
+      <c r="B237" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C237" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D237" s="15"/>
-    </row>
-    <row r="238" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A238" s="21"/>
-      <c r="B238" s="13" t="s">
+      <c r="C237" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D237" s="16"/>
+    </row>
+    <row r="238" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A238" s="22"/>
+      <c r="B238" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C238" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D238" s="15"/>
-    </row>
-    <row r="239" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A239" s="19" t="s">
+      <c r="C238" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D238" s="16"/>
+    </row>
+    <row r="239" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A239" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="B239" s="13" t="s">
+      <c r="B239" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="C239" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D239" s="17" t="s">
+      <c r="C239" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D239" s="18" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A240" s="20"/>
-      <c r="B240" s="13" t="s">
+    <row r="240" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A240" s="21"/>
+      <c r="B240" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="C240" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D240" s="15"/>
-    </row>
-    <row r="241" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A241" s="20"/>
-      <c r="B241" s="13" t="s">
+      <c r="C240" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D240" s="16"/>
+    </row>
+    <row r="241" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A241" s="21"/>
+      <c r="B241" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="C241" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D241" s="15"/>
-    </row>
-    <row r="242" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A242" s="20"/>
-      <c r="B242" s="13" t="s">
+      <c r="C241" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D241" s="16"/>
+    </row>
+    <row r="242" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A242" s="21"/>
+      <c r="B242" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="C242" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D242" s="15"/>
-    </row>
-    <row r="243" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A243" s="20"/>
-      <c r="B243" s="13" t="s">
+      <c r="C242" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D242" s="16"/>
+    </row>
+    <row r="243" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A243" s="21"/>
+      <c r="B243" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="C243" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D243" s="15"/>
-    </row>
-    <row r="244" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A244" s="21"/>
-      <c r="B244" s="13" t="s">
+      <c r="C243" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D243" s="16"/>
+    </row>
+    <row r="244" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A244" s="22"/>
+      <c r="B244" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="C244" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D244" s="15"/>
-    </row>
-    <row r="245" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A245" s="19" t="s">
+      <c r="C244" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D244" s="16"/>
+    </row>
+    <row r="245" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A245" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="B245" s="13" t="s">
+      <c r="B245" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="C245" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D245" s="15" t="s">
+      <c r="C245" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D245" s="16" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A246" s="21"/>
-      <c r="B246" s="13" t="s">
+    <row r="246" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A246" s="22"/>
+      <c r="B246" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="C246" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D246" s="15" t="s">
+      <c r="C246" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D246" s="16" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A247" s="19" t="s">
+    <row r="247" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A247" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="B247" s="13" t="s">
+      <c r="B247" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="C247" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D247" s="15"/>
-    </row>
-    <row r="248" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A248" s="20"/>
-      <c r="B248" s="13" t="s">
+      <c r="C247" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D247" s="16"/>
+    </row>
+    <row r="248" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A248" s="21"/>
+      <c r="B248" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="C248" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D248" s="15"/>
-    </row>
-    <row r="249" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A249" s="20"/>
-      <c r="B249" s="13" t="s">
+      <c r="C248" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D248" s="16"/>
+    </row>
+    <row r="249" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A249" s="21"/>
+      <c r="B249" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="C249" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D249" s="15" t="s">
+      <c r="C249" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D249" s="16" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A250" s="20"/>
-      <c r="B250" s="13" t="s">
+    <row r="250" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A250" s="21"/>
+      <c r="B250" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="C250" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D250" s="15"/>
-    </row>
-    <row r="251" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A251" s="20"/>
-      <c r="B251" s="13" t="s">
+      <c r="C250" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D250" s="16"/>
+    </row>
+    <row r="251" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A251" s="21"/>
+      <c r="B251" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="C251" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D251" s="15"/>
-    </row>
-    <row r="252" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A252" s="20"/>
-      <c r="B252" s="13" t="s">
+      <c r="C251" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D251" s="16"/>
+    </row>
+    <row r="252" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A252" s="21"/>
+      <c r="B252" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="C252" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D252" s="15"/>
-    </row>
-    <row r="253" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A253" s="20"/>
-      <c r="B253" s="13" t="s">
+      <c r="C252" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D252" s="16"/>
+    </row>
+    <row r="253" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A253" s="21"/>
+      <c r="B253" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="C253" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D253" s="15"/>
-    </row>
-    <row r="254" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A254" s="20"/>
-      <c r="B254" s="13" t="s">
+      <c r="C253" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D253" s="16"/>
+    </row>
+    <row r="254" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A254" s="21"/>
+      <c r="B254" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="C254" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D254" s="15" t="s">
+      <c r="C254" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D254" s="16" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A255" s="21"/>
-      <c r="B255" s="18" t="s">
+    <row r="255" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A255" s="22"/>
+      <c r="B255" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="C255" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D255" s="15"/>
+      <c r="C255" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D255" s="16"/>
     </row>
     <row r="256" spans="1:4" ht="21" customHeight="1">
-      <c r="A256" s="19" t="s">
+      <c r="A256" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="B256" s="18" t="s">
+      <c r="B256" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="C256" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D256" s="15" t="s">
+      <c r="C256" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D256" s="16" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="21" customHeight="1">
-      <c r="A257" s="20"/>
-      <c r="B257" s="18" t="s">
+      <c r="A257" s="21"/>
+      <c r="B257" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="C257" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D257" s="15"/>
+      <c r="C257" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D257" s="16"/>
     </row>
     <row r="258" spans="1:4" ht="21" customHeight="1">
-      <c r="A258" s="21"/>
-      <c r="B258" s="18" t="s">
+      <c r="A258" s="22"/>
+      <c r="B258" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="C258" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D258" s="15"/>
-    </row>
-    <row r="259" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A259" s="19" t="s">
+      <c r="C258" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D258" s="16"/>
+    </row>
+    <row r="259" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A259" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="B259" s="18" t="s">
+      <c r="B259" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="C259" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D259" s="15"/>
-    </row>
-    <row r="260" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A260" s="20"/>
-      <c r="B260" s="18" t="s">
+      <c r="C259" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D259" s="16"/>
+    </row>
+    <row r="260" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A260" s="21"/>
+      <c r="B260" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="C260" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D260" s="15"/>
-    </row>
-    <row r="261" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A261" s="20"/>
-      <c r="B261" s="18" t="s">
+      <c r="C260" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D260" s="16"/>
+    </row>
+    <row r="261" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A261" s="21"/>
+      <c r="B261" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="C261" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D261" s="15"/>
-    </row>
-    <row r="262" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A262" s="20"/>
-      <c r="B262" s="18" t="s">
+      <c r="C261" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D261" s="16"/>
+    </row>
+    <row r="262" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A262" s="21"/>
+      <c r="B262" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="C262" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D262" s="15"/>
-    </row>
-    <row r="263" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A263" s="20"/>
-      <c r="B263" s="18" t="s">
+      <c r="C262" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D262" s="16"/>
+    </row>
+    <row r="263" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A263" s="21"/>
+      <c r="B263" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="C263" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D263" s="15" t="s">
+      <c r="C263" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D263" s="16" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A264" s="21"/>
-      <c r="B264" s="18" t="s">
+    <row r="264" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A264" s="22"/>
+      <c r="B264" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="C264" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D264" s="15"/>
+      <c r="C264" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D264" s="16"/>
     </row>
     <row r="265" spans="1:4" ht="27.6" customHeight="1">
-      <c r="A265" s="19" t="s">
+      <c r="A265" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="B265" s="13" t="s">
+      <c r="B265" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="C265" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D265" s="15"/>
+      <c r="C265" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D265" s="16"/>
     </row>
     <row r="266" spans="1:4" ht="27.6" customHeight="1">
-      <c r="A266" s="20"/>
-      <c r="B266" s="13" t="s">
+      <c r="A266" s="21"/>
+      <c r="B266" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="C266" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D266" s="15"/>
+      <c r="C266" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D266" s="16"/>
     </row>
     <row r="267" spans="1:4" ht="27.6" customHeight="1">
-      <c r="A267" s="20"/>
-      <c r="B267" s="13" t="s">
+      <c r="A267" s="21"/>
+      <c r="B267" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="C267" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D267" s="15"/>
+      <c r="C267" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D267" s="16"/>
     </row>
     <row r="268" spans="1:4" ht="27.6" customHeight="1">
-      <c r="A268" s="20"/>
-      <c r="B268" s="13" t="s">
+      <c r="A268" s="21"/>
+      <c r="B268" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="C268" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D268" s="15"/>
+      <c r="C268" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D268" s="16"/>
     </row>
     <row r="269" spans="1:4" ht="27.6" customHeight="1">
-      <c r="A269" s="21"/>
-      <c r="B269" s="13" t="s">
+      <c r="A269" s="22"/>
+      <c r="B269" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="C269" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D269" s="15" t="s">
+      <c r="C269" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D269" s="16" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A270" s="19" t="s">
+    <row r="270" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A270" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="B270" s="13" t="s">
+      <c r="B270" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="C270" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D270" s="15"/>
-    </row>
-    <row r="271" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A271" s="20"/>
-      <c r="B271" s="13" t="s">
+      <c r="C270" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D270" s="16"/>
+    </row>
+    <row r="271" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A271" s="21"/>
+      <c r="B271" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="C271" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D271" s="15"/>
-    </row>
-    <row r="272" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A272" s="20"/>
-      <c r="B272" s="13" t="s">
+      <c r="C271" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D271" s="16"/>
+    </row>
+    <row r="272" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A272" s="21"/>
+      <c r="B272" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="C272" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D272" s="15"/>
-    </row>
-    <row r="273" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A273" s="20"/>
-      <c r="B273" s="13" t="s">
+      <c r="C272" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D272" s="16"/>
+    </row>
+    <row r="273" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A273" s="21"/>
+      <c r="B273" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C273" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D273" s="15" t="s">
+      <c r="C273" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D273" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A274" s="20"/>
-      <c r="B274" s="13" t="s">
+    <row r="274" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A274" s="21"/>
+      <c r="B274" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="C274" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D274" s="15"/>
-    </row>
-    <row r="275" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A275" s="20"/>
-      <c r="B275" s="13" t="s">
+      <c r="C274" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D274" s="16"/>
+    </row>
+    <row r="275" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A275" s="21"/>
+      <c r="B275" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="C275" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D275" s="15"/>
-    </row>
-    <row r="276" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A276" s="20"/>
-      <c r="B276" s="13" t="s">
+      <c r="C275" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D275" s="16"/>
+    </row>
+    <row r="276" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A276" s="21"/>
+      <c r="B276" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="C276" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D276" s="15"/>
-    </row>
-    <row r="277" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A277" s="20"/>
-      <c r="B277" s="13" t="s">
+      <c r="C276" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D276" s="16"/>
+    </row>
+    <row r="277" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A277" s="21"/>
+      <c r="B277" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C277" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D277" s="15" t="s">
+      <c r="C277" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D277" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A278" s="20"/>
-      <c r="B278" s="13" t="s">
+    <row r="278" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A278" s="21"/>
+      <c r="B278" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="C278" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D278" s="15"/>
-    </row>
-    <row r="279" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A279" s="21"/>
-      <c r="B279" s="13" t="s">
+      <c r="C278" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D278" s="16"/>
+    </row>
+    <row r="279" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A279" s="22"/>
+      <c r="B279" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="C279" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D279" s="15"/>
-    </row>
-    <row r="280" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A280" s="19" t="s">
+      <c r="C279" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D279" s="16"/>
+    </row>
+    <row r="280" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A280" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="B280" s="13" t="s">
+      <c r="B280" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="C280" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D280" s="15" t="s">
+      <c r="C280" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D280" s="16" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A281" s="21"/>
-      <c r="B281" s="13" t="s">
+    <row r="281" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A281" s="22"/>
+      <c r="B281" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="C281" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D281" s="15" t="s">
+      <c r="C281" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D281" s="16" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A282" s="19" t="s">
+    <row r="282" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A282" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="B282" s="13" t="s">
+      <c r="B282" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="C282" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D282" s="15"/>
-    </row>
-    <row r="283" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A283" s="20"/>
-      <c r="B283" s="13" t="s">
+      <c r="C282" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D282" s="16"/>
+    </row>
+    <row r="283" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A283" s="21"/>
+      <c r="B283" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="C283" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D283" s="15"/>
-    </row>
-    <row r="284" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A284" s="20"/>
-      <c r="B284" s="13" t="s">
+      <c r="C283" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D283" s="16"/>
+    </row>
+    <row r="284" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A284" s="21"/>
+      <c r="B284" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="C284" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D284" s="15"/>
-    </row>
-    <row r="285" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A285" s="20"/>
-      <c r="B285" s="13" t="s">
+      <c r="C284" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D284" s="16"/>
+    </row>
+    <row r="285" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A285" s="21"/>
+      <c r="B285" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="C285" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D285" s="15"/>
-    </row>
-    <row r="286" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A286" s="20"/>
-      <c r="B286" s="13" t="s">
+      <c r="C285" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D285" s="16"/>
+    </row>
+    <row r="286" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A286" s="21"/>
+      <c r="B286" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="C286" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D286" s="15" t="s">
+      <c r="C286" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D286" s="16" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A287" s="20"/>
-      <c r="B287" s="13" t="s">
+    <row r="287" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A287" s="21"/>
+      <c r="B287" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="C287" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D287" s="15"/>
-    </row>
-    <row r="288" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A288" s="20"/>
-      <c r="B288" s="13" t="s">
+      <c r="C287" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D287" s="16"/>
+    </row>
+    <row r="288" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A288" s="21"/>
+      <c r="B288" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="C288" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D288" s="15"/>
-    </row>
-    <row r="289" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A289" s="20"/>
-      <c r="B289" s="13" t="s">
+      <c r="C288" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D288" s="16"/>
+    </row>
+    <row r="289" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A289" s="21"/>
+      <c r="B289" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="C289" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D289" s="15"/>
-    </row>
-    <row r="290" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A290" s="20"/>
-      <c r="B290" s="13" t="s">
+      <c r="C289" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D289" s="16"/>
+    </row>
+    <row r="290" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A290" s="21"/>
+      <c r="B290" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="C290" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D290" s="15"/>
-    </row>
-    <row r="291" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A291" s="21"/>
-      <c r="B291" s="13" t="s">
+      <c r="C290" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D290" s="16"/>
+    </row>
+    <row r="291" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A291" s="22"/>
+      <c r="B291" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="C291" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D291" s="15"/>
-    </row>
-    <row r="292" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A292" s="19" t="s">
+      <c r="C291" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D291" s="16"/>
+    </row>
+    <row r="292" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A292" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="B292" s="13" t="s">
+      <c r="B292" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="C292" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D292" s="15"/>
-    </row>
-    <row r="293" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A293" s="20"/>
-      <c r="B293" s="13" t="s">
+      <c r="C292" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D292" s="16"/>
+    </row>
+    <row r="293" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A293" s="21"/>
+      <c r="B293" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="C293" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D293" s="15"/>
-    </row>
-    <row r="294" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A294" s="20"/>
-      <c r="B294" s="13" t="s">
+      <c r="C293" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D293" s="16"/>
+    </row>
+    <row r="294" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A294" s="21"/>
+      <c r="B294" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="C294" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D294" s="15"/>
-    </row>
-    <row r="295" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A295" s="20"/>
-      <c r="B295" s="13" t="s">
+      <c r="C294" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D294" s="16"/>
+    </row>
+    <row r="295" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A295" s="21"/>
+      <c r="B295" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="C295" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D295" s="15"/>
-    </row>
-    <row r="296" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A296" s="20"/>
-      <c r="B296" s="13" t="s">
+      <c r="C295" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D295" s="16"/>
+    </row>
+    <row r="296" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A296" s="21"/>
+      <c r="B296" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="C296" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D296" s="15"/>
-    </row>
-    <row r="297" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A297" s="20"/>
-      <c r="B297" s="13" t="s">
+      <c r="C296" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D296" s="16"/>
+    </row>
+    <row r="297" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A297" s="21"/>
+      <c r="B297" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="C297" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D297" s="15"/>
-    </row>
-    <row r="298" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A298" s="20"/>
-      <c r="B298" s="13" t="s">
+      <c r="C297" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D297" s="16"/>
+    </row>
+    <row r="298" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A298" s="21"/>
+      <c r="B298" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="C298" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D298" s="15"/>
-    </row>
-    <row r="299" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A299" s="20"/>
-      <c r="B299" s="13" t="s">
+      <c r="C298" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D298" s="16"/>
+    </row>
+    <row r="299" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A299" s="21"/>
+      <c r="B299" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="C299" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D299" s="15"/>
-    </row>
-    <row r="300" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A300" s="20"/>
-      <c r="B300" s="13" t="s">
+      <c r="C299" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D299" s="16"/>
+    </row>
+    <row r="300" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A300" s="21"/>
+      <c r="B300" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="C300" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D300" s="15"/>
-    </row>
-    <row r="301" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A301" s="20"/>
-      <c r="B301" s="13" t="s">
+      <c r="C300" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D300" s="16"/>
+    </row>
+    <row r="301" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A301" s="21"/>
+      <c r="B301" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="C301" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D301" s="15"/>
-    </row>
-    <row r="302" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A302" s="20"/>
-      <c r="B302" s="13" t="s">
+      <c r="C301" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D301" s="16"/>
+    </row>
+    <row r="302" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A302" s="21"/>
+      <c r="B302" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="C302" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D302" s="15"/>
-    </row>
-    <row r="303" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A303" s="20"/>
-      <c r="B303" s="13" t="s">
+      <c r="C302" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D302" s="16"/>
+    </row>
+    <row r="303" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A303" s="21"/>
+      <c r="B303" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="C303" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D303" s="15"/>
-    </row>
-    <row r="304" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A304" s="20"/>
-      <c r="B304" s="13" t="s">
+      <c r="C303" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D303" s="16"/>
+    </row>
+    <row r="304" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A304" s="21"/>
+      <c r="B304" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="C304" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D304" s="15"/>
-    </row>
-    <row r="305" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A305" s="20"/>
-      <c r="B305" s="13" t="s">
+      <c r="C304" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D304" s="16"/>
+    </row>
+    <row r="305" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A305" s="21"/>
+      <c r="B305" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="C305" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D305" s="15"/>
-    </row>
-    <row r="306" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A306" s="20"/>
-      <c r="B306" s="13" t="s">
+      <c r="C305" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D305" s="16"/>
+    </row>
+    <row r="306" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A306" s="21"/>
+      <c r="B306" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="C306" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D306" s="15"/>
-    </row>
-    <row r="307" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A307" s="20"/>
-      <c r="B307" s="13" t="s">
+      <c r="C306" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D306" s="16"/>
+    </row>
+    <row r="307" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A307" s="21"/>
+      <c r="B307" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="C307" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D307" s="15"/>
-    </row>
-    <row r="308" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A308" s="20"/>
-      <c r="B308" s="13" t="s">
+      <c r="C307" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D307" s="16"/>
+    </row>
+    <row r="308" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A308" s="21"/>
+      <c r="B308" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="C308" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D308" s="15"/>
-    </row>
-    <row r="309" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A309" s="20"/>
-      <c r="B309" s="13" t="s">
+      <c r="C308" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D308" s="16"/>
+    </row>
+    <row r="309" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A309" s="21"/>
+      <c r="B309" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="C309" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D309" s="15"/>
-    </row>
-    <row r="310" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A310" s="20"/>
-      <c r="B310" s="13" t="s">
+      <c r="C309" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D309" s="16"/>
+    </row>
+    <row r="310" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A310" s="21"/>
+      <c r="B310" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="C310" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D310" s="15"/>
-    </row>
-    <row r="311" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A311" s="20"/>
-      <c r="B311" s="13" t="s">
+      <c r="C310" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D310" s="16"/>
+    </row>
+    <row r="311" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A311" s="21"/>
+      <c r="B311" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="C311" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D311" s="15"/>
-    </row>
-    <row r="312" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A312" s="21"/>
-      <c r="B312" s="13" t="s">
+      <c r="C311" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D311" s="16"/>
+    </row>
+    <row r="312" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A312" s="22"/>
+      <c r="B312" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="C312" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D312" s="15" t="s">
+      <c r="C312" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D312" s="16" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A313" s="15" t="s">
+    <row r="313" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A313" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="B313" s="13" t="s">
+      <c r="B313" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="C313" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D313" s="15" t="s">
+      <c r="C313" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D313" s="16" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A314" s="19" t="s">
+    <row r="314" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A314" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="B314" s="13" t="s">
+      <c r="B314" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="C314" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D314" s="15"/>
-    </row>
-    <row r="315" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A315" s="20"/>
-      <c r="B315" s="13" t="s">
+      <c r="C314" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D314" s="16"/>
+    </row>
+    <row r="315" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A315" s="21"/>
+      <c r="B315" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="C315" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D315" s="15"/>
-    </row>
-    <row r="316" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A316" s="20"/>
-      <c r="B316" s="13" t="s">
+      <c r="C315" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D315" s="16"/>
+    </row>
+    <row r="316" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A316" s="21"/>
+      <c r="B316" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="C316" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D316" s="15"/>
-    </row>
-    <row r="317" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A317" s="20"/>
-      <c r="B317" s="13" t="s">
+      <c r="C316" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D316" s="16"/>
+    </row>
+    <row r="317" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A317" s="21"/>
+      <c r="B317" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="C317" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D317" s="15"/>
-    </row>
-    <row r="318" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A318" s="20"/>
-      <c r="B318" s="13" t="s">
+      <c r="C317" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D317" s="16"/>
+    </row>
+    <row r="318" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A318" s="21"/>
+      <c r="B318" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="C318" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D318" s="15" t="s">
+      <c r="C318" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D318" s="16" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A319" s="20"/>
-      <c r="B319" s="13" t="s">
+    <row r="319" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A319" s="21"/>
+      <c r="B319" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="C319" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D319" s="15"/>
-    </row>
-    <row r="320" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A320" s="20"/>
-      <c r="B320" s="13" t="s">
+      <c r="C319" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D319" s="16"/>
+    </row>
+    <row r="320" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A320" s="21"/>
+      <c r="B320" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="C320" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D320" s="15" t="s">
+      <c r="C320" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D320" s="16" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A321" s="21"/>
-      <c r="B321" s="13" t="s">
+    <row r="321" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A321" s="22"/>
+      <c r="B321" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="C321" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D321" s="15" t="s">
+      <c r="C321" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D321" s="16" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A322" s="15" t="s">
+    <row r="322" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A322" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="B322" s="13" t="s">
+      <c r="B322" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="C322" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D322" s="15" t="s">
+      <c r="C322" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D322" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A323" s="19" t="s">
+    <row r="323" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A323" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="B323" s="13" t="s">
+      <c r="B323" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="C323" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D323" s="15"/>
-    </row>
-    <row r="324" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A324" s="20"/>
-      <c r="B324" s="13" t="s">
+      <c r="C323" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D323" s="16"/>
+    </row>
+    <row r="324" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A324" s="21"/>
+      <c r="B324" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="C324" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D324" s="15" t="s">
+      <c r="C324" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D324" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A325" s="20"/>
-      <c r="B325" s="13" t="s">
+    <row r="325" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A325" s="21"/>
+      <c r="B325" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="C325" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D325" s="15" t="s">
+      <c r="C325" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D325" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A326" s="20"/>
-      <c r="B326" s="13" t="s">
+    <row r="326" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A326" s="21"/>
+      <c r="B326" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="C326" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D326" s="15"/>
-    </row>
-    <row r="327" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A327" s="20"/>
-      <c r="B327" s="13" t="s">
+      <c r="C326" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D326" s="16"/>
+    </row>
+    <row r="327" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A327" s="21"/>
+      <c r="B327" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="C327" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D327" s="15"/>
-    </row>
-    <row r="328" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A328" s="21"/>
-      <c r="B328" s="13" t="s">
+      <c r="C327" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D327" s="16"/>
+    </row>
+    <row r="328" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A328" s="22"/>
+      <c r="B328" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="C328" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D328" s="15"/>
-    </row>
-    <row r="329" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A329" s="19" t="s">
+      <c r="C328" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D328" s="16"/>
+    </row>
+    <row r="329" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A329" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="B329" s="13" t="s">
+      <c r="B329" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="C329" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D329" s="15" t="s">
+      <c r="C329" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D329" s="16" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A330" s="20"/>
-      <c r="B330" s="13" t="s">
+    <row r="330" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A330" s="21"/>
+      <c r="B330" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="C330" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D330" s="15" t="s">
+      <c r="C330" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D330" s="16" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A331" s="20"/>
-      <c r="B331" s="13" t="s">
+    <row r="331" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A331" s="21"/>
+      <c r="B331" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="C331" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D331" s="15" t="s">
+      <c r="C331" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D331" s="16" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A332" s="20"/>
-      <c r="B332" s="13" t="s">
+    <row r="332" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A332" s="21"/>
+      <c r="B332" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="C332" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D332" s="15" t="s">
+      <c r="C332" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D332" s="16" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A333" s="20"/>
-      <c r="B333" s="13" t="s">
+    <row r="333" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A333" s="21"/>
+      <c r="B333" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="C333" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D333" s="15" t="s">
+      <c r="C333" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D333" s="16" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A334" s="20"/>
-      <c r="B334" s="13" t="s">
+    <row r="334" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A334" s="21"/>
+      <c r="B334" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="C334" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D334" s="15" t="s">
+      <c r="C334" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D334" s="16" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A335" s="20"/>
-      <c r="B335" s="13" t="s">
+    <row r="335" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A335" s="21"/>
+      <c r="B335" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="C335" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D335" s="15" t="s">
+      <c r="C335" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D335" s="16" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A336" s="20"/>
-      <c r="B336" s="13" t="s">
+    <row r="336" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A336" s="21"/>
+      <c r="B336" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="C336" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D336" s="15" t="s">
+      <c r="C336" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D336" s="16" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A337" s="20"/>
-      <c r="B337" s="13" t="s">
+    <row r="337" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A337" s="21"/>
+      <c r="B337" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="C337" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D337" s="15" t="s">
+      <c r="C337" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D337" s="16" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A338" s="20"/>
-      <c r="B338" s="13" t="s">
+    <row r="338" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A338" s="21"/>
+      <c r="B338" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="C338" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D338" s="15" t="s">
+      <c r="C338" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D338" s="16" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A339" s="20"/>
-      <c r="B339" s="13" t="s">
+    <row r="339" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A339" s="21"/>
+      <c r="B339" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="C339" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D339" s="15" t="s">
+      <c r="C339" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D339" s="16" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A340" s="20"/>
-      <c r="B340" s="13" t="s">
+    <row r="340" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A340" s="21"/>
+      <c r="B340" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="C340" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D340" s="15" t="s">
+      <c r="C340" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D340" s="16" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A341" s="20"/>
-      <c r="B341" s="13" t="s">
+    <row r="341" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A341" s="21"/>
+      <c r="B341" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="C341" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D341" s="15" t="s">
+      <c r="C341" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D341" s="16" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A342" s="20"/>
-      <c r="B342" s="13" t="s">
+    <row r="342" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A342" s="21"/>
+      <c r="B342" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="C342" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D342" s="15"/>
-    </row>
-    <row r="343" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A343" s="20"/>
-      <c r="B343" s="13" t="s">
+      <c r="C342" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D342" s="16"/>
+    </row>
+    <row r="343" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A343" s="21"/>
+      <c r="B343" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="C343" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D343" s="15"/>
-    </row>
-    <row r="344" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A344" s="20"/>
-      <c r="B344" s="13" t="s">
+      <c r="C343" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D343" s="16"/>
+    </row>
+    <row r="344" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A344" s="21"/>
+      <c r="B344" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="C344" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D344" s="15"/>
-    </row>
-    <row r="345" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A345" s="20"/>
-      <c r="B345" s="13" t="s">
+      <c r="C344" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D344" s="16"/>
+    </row>
+    <row r="345" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A345" s="21"/>
+      <c r="B345" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="C345" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D345" s="15"/>
-    </row>
-    <row r="346" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A346" s="20"/>
-      <c r="B346" s="13" t="s">
+      <c r="C345" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D345" s="16"/>
+    </row>
+    <row r="346" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A346" s="21"/>
+      <c r="B346" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="C346" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D346" s="15"/>
-    </row>
-    <row r="347" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A347" s="20"/>
-      <c r="B347" s="13" t="s">
+      <c r="C346" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D346" s="16"/>
+    </row>
+    <row r="347" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A347" s="21"/>
+      <c r="B347" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="C347" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D347" s="15"/>
-    </row>
-    <row r="348" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A348" s="20"/>
-      <c r="B348" s="13" t="s">
+      <c r="C347" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D347" s="16"/>
+    </row>
+    <row r="348" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A348" s="21"/>
+      <c r="B348" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="C348" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D348" s="15" t="s">
+      <c r="C348" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D348" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A349" s="20"/>
-      <c r="B349" s="13" t="s">
+    <row r="349" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A349" s="21"/>
+      <c r="B349" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="C349" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D349" s="15"/>
-    </row>
-    <row r="350" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A350" s="20"/>
-      <c r="B350" s="13" t="s">
+      <c r="C349" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D349" s="16"/>
+    </row>
+    <row r="350" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A350" s="21"/>
+      <c r="B350" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="C350" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D350" s="15" t="s">
+      <c r="C350" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D350" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A351" s="20"/>
-      <c r="B351" s="13" t="s">
+    <row r="351" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A351" s="21"/>
+      <c r="B351" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="C351" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D351" s="15"/>
-    </row>
-    <row r="352" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A352" s="20"/>
-      <c r="B352" s="13" t="s">
+      <c r="C351" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D351" s="16"/>
+    </row>
+    <row r="352" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A352" s="21"/>
+      <c r="B352" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="C352" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D352" s="15"/>
-    </row>
-    <row r="353" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A353" s="20"/>
-      <c r="B353" s="13" t="s">
+      <c r="C352" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D352" s="16"/>
+    </row>
+    <row r="353" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A353" s="21"/>
+      <c r="B353" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="C353" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D353" s="15"/>
-    </row>
-    <row r="354" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A354" s="20"/>
-      <c r="B354" s="13" t="s">
+      <c r="C353" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D353" s="16"/>
+    </row>
+    <row r="354" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A354" s="21"/>
+      <c r="B354" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="C354" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D354" s="15"/>
-    </row>
-    <row r="355" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A355" s="20"/>
-      <c r="B355" s="13" t="s">
+      <c r="C354" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D354" s="16"/>
+    </row>
+    <row r="355" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A355" s="21"/>
+      <c r="B355" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="C355" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D355" s="15" t="s">
+      <c r="C355" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D355" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A356" s="20"/>
-      <c r="B356" s="13" t="s">
+    <row r="356" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A356" s="21"/>
+      <c r="B356" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="C356" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D356" s="15"/>
-    </row>
-    <row r="357" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A357" s="20"/>
-      <c r="B357" s="13" t="s">
+      <c r="C356" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D356" s="16"/>
+    </row>
+    <row r="357" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A357" s="21"/>
+      <c r="B357" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="C357" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D357" s="15"/>
-    </row>
-    <row r="358" spans="1:4" ht="25.9" customHeight="1">
-      <c r="A358" s="21"/>
-      <c r="B358" s="13" t="s">
+      <c r="C357" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D357" s="16"/>
+    </row>
+    <row r="358" spans="1:4" ht="25.95" customHeight="1">
+      <c r="A358" s="22"/>
+      <c r="B358" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="C358" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D358" s="15"/>
+      <c r="C358" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D358" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A90:A97"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="A25:A52"/>
-    <mergeCell ref="A53:A62"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A68:A74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A83:A89"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A107:A112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="A181:A200"/>
-    <mergeCell ref="A201:A210"/>
-    <mergeCell ref="A212:A233"/>
-    <mergeCell ref="A234:A238"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A122:A154"/>
-    <mergeCell ref="A155:A165"/>
-    <mergeCell ref="A166:A167"/>
     <mergeCell ref="A329:A358"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A270:A279"/>
@@ -5959,6 +5948,33 @@
     <mergeCell ref="A265:A269"/>
     <mergeCell ref="A168:A177"/>
     <mergeCell ref="A178:A180"/>
+    <mergeCell ref="A181:A200"/>
+    <mergeCell ref="A201:A210"/>
+    <mergeCell ref="A212:A233"/>
+    <mergeCell ref="A234:A238"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A122:A154"/>
+    <mergeCell ref="A155:A165"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="A90:A97"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A25:A52"/>
+    <mergeCell ref="A53:A62"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A89"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C358">
@@ -5972,56 +5988,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A31" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.9" customHeight="1">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:10" ht="22.95" customHeight="1">
+      <c r="A1" s="29" t="s">
         <v>450</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="29" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="I1" s="34"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="30" t="s">
         <v>395</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>403</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="30" t="s">
         <v>398</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30" t="s">
         <v>399</v>
       </c>
-      <c r="G2" s="29"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
+      <c r="G2" s="30"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="33"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="7" t="s">
         <v>400</v>
       </c>
@@ -6031,647 +6052,946 @@
       <c r="F3" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="9" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3" s="36"/>
+      <c r="J3" s="33"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="D4" s="6">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6">
+        <v>506</v>
+      </c>
       <c r="F4" s="6">
         <v>0</v>
       </c>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="6"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="33"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="6" t="s">
         <v>404</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="6">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6">
+        <v>436</v>
+      </c>
       <c r="F5" s="6">
         <v>0</v>
       </c>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="6"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="6" t="s">
         <v>405</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="D6" s="6">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6">
+        <v>474</v>
+      </c>
       <c r="F6" s="6">
         <v>0</v>
       </c>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="6"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="6" t="s">
         <v>406</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="D7" s="6">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6">
+        <v>437</v>
+      </c>
       <c r="F7" s="6">
         <v>0</v>
       </c>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="6"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="6" t="s">
         <v>407</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="D8" s="6">
+        <v>13</v>
+      </c>
+      <c r="E8" s="6">
+        <v>450</v>
+      </c>
       <c r="F8" s="6">
         <v>0</v>
       </c>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="6"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="33"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="6" t="s">
         <v>408</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="D9" s="6">
+        <v>12</v>
+      </c>
+      <c r="E9" s="6">
+        <v>470</v>
+      </c>
       <c r="F9" s="6">
         <v>0</v>
       </c>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="6"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="33"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="6"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="D10" s="6">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="6"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="6" t="s">
         <v>409</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="D11" s="6">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6">
+        <v>428</v>
+      </c>
       <c r="F11" s="6">
         <v>0</v>
       </c>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="6"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="33"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32">
+        <v>7</v>
+      </c>
+      <c r="E12" s="32">
+        <v>474</v>
+      </c>
+      <c r="F12" s="32">
         <v>0</v>
       </c>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="32">
+        <v>777</v>
+      </c>
+      <c r="I12" s="36"/>
+      <c r="J12" s="33"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6">
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32">
+        <v>6</v>
+      </c>
+      <c r="E13" s="32">
+        <v>450</v>
+      </c>
+      <c r="F13" s="32">
         <v>0</v>
       </c>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="32">
+        <v>762</v>
+      </c>
+      <c r="I13" s="36"/>
+      <c r="J13" s="33"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6">
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32">
+        <v>13</v>
+      </c>
+      <c r="E14" s="32">
+        <v>413</v>
+      </c>
+      <c r="F14" s="32">
         <v>0</v>
       </c>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="32">
+        <v>701</v>
+      </c>
+      <c r="I14" s="36"/>
+      <c r="J14" s="33"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="6">
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32">
+        <v>9</v>
+      </c>
+      <c r="E15" s="32">
+        <v>510</v>
+      </c>
+      <c r="F15" s="32">
         <v>0</v>
       </c>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="32">
+        <v>685</v>
+      </c>
+      <c r="I15" s="36"/>
+      <c r="J15" s="33"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6">
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32">
+        <v>9</v>
+      </c>
+      <c r="E16" s="32">
+        <v>480</v>
+      </c>
+      <c r="F16" s="32">
         <v>0</v>
       </c>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="32">
+        <v>390</v>
+      </c>
+      <c r="I16" s="36"/>
+      <c r="J16" s="33"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="6">
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32">
+        <v>7</v>
+      </c>
+      <c r="E17" s="32">
+        <v>408</v>
+      </c>
+      <c r="F17" s="32">
         <v>0</v>
       </c>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="32">
+        <v>1112</v>
+      </c>
+      <c r="I17" s="36"/>
+      <c r="J17" s="33"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="6">
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32">
+        <v>11</v>
+      </c>
+      <c r="E18" s="32">
+        <v>399</v>
+      </c>
+      <c r="F18" s="32">
         <v>0</v>
       </c>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="32">
+        <v>347</v>
+      </c>
+      <c r="I18" s="36"/>
+      <c r="J18" s="33"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="6">
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32">
+        <v>11</v>
+      </c>
+      <c r="E19" s="32">
+        <v>421</v>
+      </c>
+      <c r="F19" s="32">
         <v>0</v>
       </c>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="32">
+        <v>356</v>
+      </c>
+      <c r="I19" s="36"/>
+      <c r="J19" s="33"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="6">
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32">
+        <v>6</v>
+      </c>
+      <c r="E20" s="32">
+        <v>453</v>
+      </c>
+      <c r="F20" s="32">
         <v>0</v>
       </c>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="32">
+        <v>356</v>
+      </c>
+      <c r="I20" s="36"/>
+      <c r="J20" s="33"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="6">
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32">
+        <v>8</v>
+      </c>
+      <c r="E21" s="32">
+        <v>388</v>
+      </c>
+      <c r="F21" s="32">
         <v>0</v>
       </c>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="32">
+        <v>406</v>
+      </c>
+      <c r="I21" s="36"/>
+      <c r="J21" s="33"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="6">
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32">
+        <v>11</v>
+      </c>
+      <c r="E22" s="32">
+        <v>470</v>
+      </c>
+      <c r="F22" s="32">
         <v>0</v>
       </c>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" s="32">
+        <v>762</v>
+      </c>
+      <c r="I22" s="34"/>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="6">
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32">
+        <v>11</v>
+      </c>
+      <c r="E23" s="32">
+        <v>449</v>
+      </c>
+      <c r="F23" s="32">
         <v>0</v>
       </c>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="G23" s="32">
+        <v>728</v>
+      </c>
+      <c r="I23" s="34"/>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="6">
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32">
+        <v>441</v>
+      </c>
+      <c r="F24" s="32">
         <v>0</v>
       </c>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="32"/>
+      <c r="I24" s="34"/>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="6">
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32">
+        <v>7</v>
+      </c>
+      <c r="E25" s="32">
+        <v>408</v>
+      </c>
+      <c r="F25" s="32">
         <v>0</v>
       </c>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="32">
+        <v>382</v>
+      </c>
+      <c r="I25" s="34"/>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="6">
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32">
+        <v>8</v>
+      </c>
+      <c r="E26" s="32">
+        <v>491</v>
+      </c>
+      <c r="F26" s="32">
         <v>0</v>
       </c>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="G26" s="32">
+        <v>382</v>
+      </c>
+      <c r="I26" s="34"/>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="6">
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32">
+        <v>13</v>
+      </c>
+      <c r="E27" s="32">
+        <v>434</v>
+      </c>
+      <c r="F27" s="32">
         <v>0</v>
       </c>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="G27" s="32">
+        <v>424</v>
+      </c>
+      <c r="I27" s="34"/>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="6">
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32">
+        <v>10</v>
+      </c>
+      <c r="E28" s="32">
+        <v>411</v>
+      </c>
+      <c r="F28" s="32">
         <v>0</v>
       </c>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="G28" s="32">
+        <v>391</v>
+      </c>
+      <c r="I28" s="34"/>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="6">
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32">
+        <v>11</v>
+      </c>
+      <c r="E29" s="32">
+        <v>420</v>
+      </c>
+      <c r="F29" s="32">
         <v>0</v>
       </c>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="G29" s="32">
+        <v>367</v>
+      </c>
+      <c r="I29" s="34"/>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="6">
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32">
+        <v>5</v>
+      </c>
+      <c r="E30" s="32">
+        <v>468</v>
+      </c>
+      <c r="F30" s="32">
         <v>0</v>
       </c>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="G30" s="32"/>
+      <c r="I30" s="34"/>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="6" t="s">
         <v>429</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
+      <c r="D31" s="6">
+        <v>6</v>
+      </c>
+      <c r="E31" s="6">
+        <v>383</v>
+      </c>
       <c r="F31" s="6">
         <v>0</v>
       </c>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="G31" s="6"/>
+      <c r="I31" s="34"/>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="6" t="s">
         <v>430</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="D32" s="6">
+        <v>10</v>
+      </c>
+      <c r="E32" s="6">
+        <v>460</v>
+      </c>
       <c r="F32" s="6">
         <v>0</v>
       </c>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="G32" s="6"/>
+      <c r="I32" s="34"/>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="6">
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="32">
+        <v>13</v>
+      </c>
+      <c r="E33" s="32">
+        <v>435</v>
+      </c>
+      <c r="F33" s="32">
         <v>0</v>
       </c>
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="G33" s="32">
+        <v>406</v>
+      </c>
+      <c r="I33" s="34"/>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="6">
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="32">
+        <v>11</v>
+      </c>
+      <c r="E34" s="32">
+        <v>492</v>
+      </c>
+      <c r="F34" s="32">
         <v>0</v>
       </c>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="G34" s="32">
+        <v>336</v>
+      </c>
+      <c r="I34" s="34"/>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="6" t="s">
         <v>433</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+      <c r="D35" s="6">
+        <v>7</v>
+      </c>
+      <c r="E35" s="6">
+        <v>494</v>
+      </c>
       <c r="F35" s="6">
         <v>0</v>
       </c>
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="G35" s="6"/>
+      <c r="I35" s="34"/>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="6" t="s">
         <v>434</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="D36" s="6">
+        <v>12</v>
+      </c>
+      <c r="E36" s="6">
+        <v>451</v>
+      </c>
       <c r="F36" s="6">
         <v>0</v>
       </c>
-      <c r="G36" s="8"/>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="G36" s="6"/>
+      <c r="I36" s="34"/>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="6" t="s">
         <v>435</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="D37" s="6">
+        <v>9</v>
+      </c>
+      <c r="E37" s="6">
+        <v>458</v>
+      </c>
       <c r="F37" s="6">
         <v>0</v>
       </c>
-      <c r="G37" s="8"/>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="G37" s="6"/>
+      <c r="I37" s="34"/>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="6"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="8"/>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="G38" s="6"/>
+      <c r="I38" s="34"/>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="6" t="s">
         <v>436</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
+      <c r="D39" s="6">
+        <v>5</v>
+      </c>
+      <c r="E39" s="6">
+        <v>449</v>
+      </c>
       <c r="F39" s="6">
         <v>0</v>
       </c>
-      <c r="G39" s="8"/>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="G39" s="6"/>
+      <c r="I39" s="34"/>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="6" t="s">
         <v>437</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+      <c r="D40" s="6">
+        <v>5</v>
+      </c>
+      <c r="E40" s="6">
+        <v>426</v>
+      </c>
       <c r="F40" s="6">
         <v>0</v>
       </c>
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="G40" s="6"/>
+      <c r="I40" s="34"/>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="6" t="s">
         <v>438</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
+      <c r="D41" s="6">
+        <v>10</v>
+      </c>
+      <c r="E41" s="6">
+        <v>495</v>
+      </c>
       <c r="F41" s="6">
         <v>0</v>
       </c>
-      <c r="G41" s="8"/>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="G41" s="6"/>
+      <c r="I41" s="34"/>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="6" t="s">
         <v>439</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="D42" s="6">
+        <v>6</v>
+      </c>
+      <c r="E42" s="6">
+        <v>381</v>
+      </c>
       <c r="F42" s="6">
         <v>0</v>
       </c>
-      <c r="G42" s="8"/>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="G42" s="6"/>
+      <c r="I42" s="34"/>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="6" t="s">
         <v>440</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
+      <c r="D43" s="6">
+        <v>5</v>
+      </c>
+      <c r="E43" s="6">
+        <v>441</v>
+      </c>
       <c r="F43" s="6">
         <v>0</v>
       </c>
-      <c r="G43" s="8"/>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="G43" s="6"/>
+      <c r="I43" s="34"/>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="6" t="s">
         <v>441</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
+      <c r="D44" s="6">
+        <v>12</v>
+      </c>
+      <c r="E44" s="6">
+        <v>518</v>
+      </c>
       <c r="F44" s="6">
         <v>0</v>
       </c>
-      <c r="G44" s="8"/>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="G44" s="6"/>
+      <c r="I44" s="34"/>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="6" t="s">
         <v>442</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
+      <c r="D45" s="6">
+        <v>11</v>
+      </c>
+      <c r="E45" s="6">
+        <v>449</v>
+      </c>
       <c r="F45" s="6">
         <v>0</v>
       </c>
-      <c r="G45" s="8"/>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="G45" s="6"/>
+      <c r="I45" s="34"/>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="6" t="s">
         <v>443</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
+      <c r="D46" s="6">
+        <v>13</v>
+      </c>
+      <c r="E46" s="6">
+        <v>455</v>
+      </c>
       <c r="F46" s="6">
         <v>0</v>
       </c>
-      <c r="G46" s="8"/>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="G46" s="6"/>
+      <c r="I46" s="34"/>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="6"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="8"/>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="G47" s="6"/>
+      <c r="I47" s="34"/>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="6" t="s">
         <v>444</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
+      <c r="D48" s="6">
+        <v>13</v>
+      </c>
+      <c r="E48" s="6">
+        <v>490</v>
+      </c>
       <c r="F48" s="6">
         <v>0</v>
       </c>
-      <c r="G48" s="8"/>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="G48" s="6"/>
+      <c r="I48" s="34"/>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="6" t="s">
         <v>445</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
+      <c r="D49" s="6">
+        <v>6</v>
+      </c>
+      <c r="E49" s="6">
+        <v>494</v>
+      </c>
       <c r="F49" s="6">
         <v>0</v>
       </c>
-      <c r="G49" s="8"/>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="G49" s="6"/>
+      <c r="I49" s="34"/>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="6" t="s">
         <v>446</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
+      <c r="D50" s="6">
+        <v>13</v>
+      </c>
+      <c r="E50" s="6">
+        <v>410</v>
+      </c>
       <c r="F50" s="6">
         <v>0</v>
       </c>
-      <c r="G50" s="8"/>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="G50" s="6"/>
+      <c r="I50" s="34"/>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="6" t="s">
         <v>447</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
+      <c r="D51" s="6">
+        <v>6</v>
+      </c>
+      <c r="E51" s="6">
+        <v>478</v>
+      </c>
       <c r="F51" s="6">
         <v>0</v>
       </c>
-      <c r="G51" s="8"/>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="G51" s="6"/>
+      <c r="I51" s="34"/>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="6" t="s">
         <v>448</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
+      <c r="D52" s="6">
+        <v>7</v>
+      </c>
+      <c r="E52" s="6">
+        <v>514</v>
+      </c>
       <c r="F52" s="6">
         <v>0</v>
       </c>
-      <c r="G52" s="8"/>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="G52" s="6"/>
+      <c r="I52" s="34"/>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="6" t="s">
         <v>449</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
+      <c r="D53" s="6">
+        <v>11</v>
+      </c>
+      <c r="E53" s="6">
+        <v>494</v>
+      </c>
       <c r="F53" s="6">
         <v>0</v>
       </c>
-      <c r="G53" s="8"/>
+      <c r="G53" s="6"/>
+      <c r="I53" s="34"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="I54" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6683,6 +7003,6 @@
     <mergeCell ref="B2:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Civilworks cost/LD/LD Annexes.xlsx
+++ b/Civilworks cost/LD/LD Annexes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Annex-II" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="508">
   <si>
     <t xml:space="preserve">HOBI/PW-01 </t>
   </si>
@@ -1523,6 +1523,108 @@
   </si>
   <si>
     <t>Illegal Encroachemt,Lack of Land for Dredged Material Management  Progress Was Slow</t>
+  </si>
+  <si>
+    <t>FC-MGS JV</t>
+  </si>
+  <si>
+    <t>ARC-LT JV</t>
+  </si>
+  <si>
+    <t>M/S Amin &amp; C0.</t>
+  </si>
+  <si>
+    <t>SA-SI &amp; Isarat Enterprise JV</t>
+  </si>
+  <si>
+    <t>Binimoy Construction</t>
+  </si>
+  <si>
+    <t>M/S Liton Traders</t>
+  </si>
+  <si>
+    <t>PMPL-TTSL (JV)</t>
+  </si>
+  <si>
+    <t>M/S.Kamal Enterprise</t>
+  </si>
+  <si>
+    <t>ARC-GE(JV)</t>
+  </si>
+  <si>
+    <t>MARCO-MONIR(JV)</t>
+  </si>
+  <si>
+    <t>AKA-UCL(JV)</t>
+  </si>
+  <si>
+    <t>FC-MS(JV)</t>
+  </si>
+  <si>
+    <t>PMPL-LA-TTSL (JV)</t>
+  </si>
+  <si>
+    <t>LT-MC(JV)</t>
+  </si>
+  <si>
+    <t>AS-MSS-MPE(JV)</t>
+  </si>
+  <si>
+    <t>MARC-GF(JV)</t>
+  </si>
+  <si>
+    <t>MS-RE(JV)</t>
+  </si>
+  <si>
+    <t>FC-A&amp;Co.(JV)</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>Md.Eunus &amp; Brothers</t>
+  </si>
+  <si>
+    <t>MARCO -Inernationa</t>
+  </si>
+  <si>
+    <t>TI-FB(JV)</t>
+  </si>
+  <si>
+    <t>DAWN-MAMCL(JV)</t>
+  </si>
+  <si>
+    <t>SA-BTC(JV)</t>
+  </si>
+  <si>
+    <t>Tazul-Noona(JV)</t>
+  </si>
+  <si>
+    <t>Noona-HB(JV)</t>
+  </si>
+  <si>
+    <t>HU-AS (JV)</t>
+  </si>
+  <si>
+    <t>WE-BC-MMB(JV)</t>
+  </si>
+  <si>
+    <t>WE-B(JV)</t>
+  </si>
+  <si>
+    <t>Ataur Rahman Khan &amp; Osim Shingh (JV)</t>
+  </si>
+  <si>
+    <t>GS-SI(JV)</t>
+  </si>
+  <si>
+    <t>ARKL-AS(JV)</t>
+  </si>
+  <si>
+    <t>HB-TI(JV)</t>
+  </si>
+  <si>
+    <t>GS-AS (JV)</t>
   </si>
 </sst>
 </file>
@@ -1564,7 +1666,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1574,6 +1676,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1741,6 +1849,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1748,6 +1864,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1759,33 +1884,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2068,7 +2176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D358"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -2081,12 +2189,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>451</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="64.2" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -2103,7 +2211,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -2117,7 +2225,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A4" s="24"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
@@ -2129,7 +2237,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
@@ -2139,7 +2247,7 @@
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A6" s="24"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="10" t="s">
         <v>4</v>
       </c>
@@ -2149,7 +2257,7 @@
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A7" s="24"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
@@ -2159,7 +2267,7 @@
       <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A8" s="25"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -2169,7 +2277,7 @@
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="30" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -2181,7 +2289,7 @@
       <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A10" s="24"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
@@ -2191,7 +2299,7 @@
       <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A11" s="24"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
@@ -2203,7 +2311,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A12" s="24"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="10" t="s">
         <v>11</v>
       </c>
@@ -2213,7 +2321,7 @@
       <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A13" s="24"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="10" t="s">
         <v>12</v>
       </c>
@@ -2223,7 +2331,7 @@
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A14" s="24"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="10" t="s">
         <v>13</v>
       </c>
@@ -2233,7 +2341,7 @@
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A15" s="24"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="10" t="s">
         <v>14</v>
       </c>
@@ -2243,7 +2351,7 @@
       <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A16" s="25"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
@@ -2267,7 +2375,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="14" t="s">
@@ -2281,7 +2389,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A19" s="21"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="14" t="s">
         <v>20</v>
       </c>
@@ -2291,7 +2399,7 @@
       <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A20" s="21"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="14" t="s">
         <v>21</v>
       </c>
@@ -2301,7 +2409,7 @@
       <c r="D20" s="16"/>
     </row>
     <row r="21" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A21" s="21"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="14" t="s">
         <v>22</v>
       </c>
@@ -2313,7 +2421,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A22" s="21"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="14" t="s">
         <v>23</v>
       </c>
@@ -2325,7 +2433,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A23" s="21"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="14" t="s">
         <v>24</v>
       </c>
@@ -2337,7 +2445,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A24" s="22"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="14" t="s">
         <v>25</v>
       </c>
@@ -2347,7 +2455,7 @@
       <c r="D24" s="16"/>
     </row>
     <row r="25" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="24" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="14" t="s">
@@ -2359,7 +2467,7 @@
       <c r="D25" s="16"/>
     </row>
     <row r="26" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A26" s="21"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="14" t="s">
         <v>28</v>
       </c>
@@ -2369,7 +2477,7 @@
       <c r="D26" s="16"/>
     </row>
     <row r="27" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A27" s="21"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="14" t="s">
         <v>29</v>
       </c>
@@ -2379,7 +2487,7 @@
       <c r="D27" s="16"/>
     </row>
     <row r="28" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A28" s="21"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="14" t="s">
         <v>30</v>
       </c>
@@ -2389,7 +2497,7 @@
       <c r="D28" s="16"/>
     </row>
     <row r="29" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A29" s="21"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="14" t="s">
         <v>31</v>
       </c>
@@ -2399,7 +2507,7 @@
       <c r="D29" s="16"/>
     </row>
     <row r="30" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A30" s="21"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="14" t="s">
         <v>32</v>
       </c>
@@ -2409,7 +2517,7 @@
       <c r="D30" s="16"/>
     </row>
     <row r="31" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A31" s="21"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="14" t="s">
         <v>33</v>
       </c>
@@ -2419,7 +2527,7 @@
       <c r="D31" s="16"/>
     </row>
     <row r="32" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A32" s="21"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="14" t="s">
         <v>34</v>
       </c>
@@ -2429,7 +2537,7 @@
       <c r="D32" s="16"/>
     </row>
     <row r="33" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A33" s="21"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="14" t="s">
         <v>35</v>
       </c>
@@ -2439,7 +2547,7 @@
       <c r="D33" s="16"/>
     </row>
     <row r="34" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A34" s="21"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="14" t="s">
         <v>36</v>
       </c>
@@ -2449,7 +2557,7 @@
       <c r="D34" s="16"/>
     </row>
     <row r="35" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A35" s="21"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="14" t="s">
         <v>37</v>
       </c>
@@ -2459,7 +2567,7 @@
       <c r="D35" s="16"/>
     </row>
     <row r="36" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A36" s="21"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="14" t="s">
         <v>38</v>
       </c>
@@ -2469,7 +2577,7 @@
       <c r="D36" s="16"/>
     </row>
     <row r="37" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A37" s="21"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="14" t="s">
         <v>39</v>
       </c>
@@ -2479,7 +2587,7 @@
       <c r="D37" s="16"/>
     </row>
     <row r="38" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A38" s="21"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="14" t="s">
         <v>40</v>
       </c>
@@ -2489,7 +2597,7 @@
       <c r="D38" s="16"/>
     </row>
     <row r="39" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A39" s="21"/>
+      <c r="A39" s="25"/>
       <c r="B39" s="14" t="s">
         <v>41</v>
       </c>
@@ -2499,7 +2607,7 @@
       <c r="D39" s="16"/>
     </row>
     <row r="40" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A40" s="21"/>
+      <c r="A40" s="25"/>
       <c r="B40" s="14" t="s">
         <v>42</v>
       </c>
@@ -2509,7 +2617,7 @@
       <c r="D40" s="16"/>
     </row>
     <row r="41" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A41" s="21"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="14" t="s">
         <v>43</v>
       </c>
@@ -2519,7 +2627,7 @@
       <c r="D41" s="16"/>
     </row>
     <row r="42" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A42" s="21"/>
+      <c r="A42" s="25"/>
       <c r="B42" s="14" t="s">
         <v>44</v>
       </c>
@@ -2529,7 +2637,7 @@
       <c r="D42" s="16"/>
     </row>
     <row r="43" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A43" s="21"/>
+      <c r="A43" s="25"/>
       <c r="B43" s="14" t="s">
         <v>45</v>
       </c>
@@ -2539,7 +2647,7 @@
       <c r="D43" s="16"/>
     </row>
     <row r="44" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A44" s="21"/>
+      <c r="A44" s="25"/>
       <c r="B44" s="14" t="s">
         <v>46</v>
       </c>
@@ -2549,7 +2657,7 @@
       <c r="D44" s="16"/>
     </row>
     <row r="45" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A45" s="21"/>
+      <c r="A45" s="25"/>
       <c r="B45" s="14" t="s">
         <v>47</v>
       </c>
@@ -2559,7 +2667,7 @@
       <c r="D45" s="16"/>
     </row>
     <row r="46" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A46" s="21"/>
+      <c r="A46" s="25"/>
       <c r="B46" s="14" t="s">
         <v>48</v>
       </c>
@@ -2569,7 +2677,7 @@
       <c r="D46" s="16"/>
     </row>
     <row r="47" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A47" s="21"/>
+      <c r="A47" s="25"/>
       <c r="B47" s="14" t="s">
         <v>49</v>
       </c>
@@ -2579,7 +2687,7 @@
       <c r="D47" s="16"/>
     </row>
     <row r="48" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A48" s="21"/>
+      <c r="A48" s="25"/>
       <c r="B48" s="14" t="s">
         <v>50</v>
       </c>
@@ -2589,7 +2697,7 @@
       <c r="D48" s="16"/>
     </row>
     <row r="49" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A49" s="21"/>
+      <c r="A49" s="25"/>
       <c r="B49" s="14" t="s">
         <v>51</v>
       </c>
@@ -2599,7 +2707,7 @@
       <c r="D49" s="16"/>
     </row>
     <row r="50" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A50" s="21"/>
+      <c r="A50" s="25"/>
       <c r="B50" s="14" t="s">
         <v>52</v>
       </c>
@@ -2611,7 +2719,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A51" s="21"/>
+      <c r="A51" s="25"/>
       <c r="B51" s="14" t="s">
         <v>53</v>
       </c>
@@ -2621,7 +2729,7 @@
       <c r="D51" s="16"/>
     </row>
     <row r="52" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A52" s="22"/>
+      <c r="A52" s="26"/>
       <c r="B52" s="14" t="s">
         <v>54</v>
       </c>
@@ -2631,7 +2739,7 @@
       <c r="D52" s="16"/>
     </row>
     <row r="53" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="24" t="s">
         <v>55</v>
       </c>
       <c r="B53" s="14" t="s">
@@ -2645,7 +2753,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A54" s="21"/>
+      <c r="A54" s="25"/>
       <c r="B54" s="14" t="s">
         <v>57</v>
       </c>
@@ -2655,7 +2763,7 @@
       <c r="D54" s="16"/>
     </row>
     <row r="55" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A55" s="21"/>
+      <c r="A55" s="25"/>
       <c r="B55" s="14" t="s">
         <v>58</v>
       </c>
@@ -2665,7 +2773,7 @@
       <c r="D55" s="16"/>
     </row>
     <row r="56" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A56" s="21"/>
+      <c r="A56" s="25"/>
       <c r="B56" s="14" t="s">
         <v>59</v>
       </c>
@@ -2675,7 +2783,7 @@
       <c r="D56" s="16"/>
     </row>
     <row r="57" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A57" s="21"/>
+      <c r="A57" s="25"/>
       <c r="B57" s="14" t="s">
         <v>60</v>
       </c>
@@ -2685,7 +2793,7 @@
       <c r="D57" s="16"/>
     </row>
     <row r="58" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A58" s="21"/>
+      <c r="A58" s="25"/>
       <c r="B58" s="14" t="s">
         <v>61</v>
       </c>
@@ -2697,7 +2805,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A59" s="21"/>
+      <c r="A59" s="25"/>
       <c r="B59" s="14" t="s">
         <v>62</v>
       </c>
@@ -2707,7 +2815,7 @@
       <c r="D59" s="16"/>
     </row>
     <row r="60" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A60" s="21"/>
+      <c r="A60" s="25"/>
       <c r="B60" s="14" t="s">
         <v>63</v>
       </c>
@@ -2717,7 +2825,7 @@
       <c r="D60" s="16"/>
     </row>
     <row r="61" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A61" s="21"/>
+      <c r="A61" s="25"/>
       <c r="B61" s="14" t="s">
         <v>64</v>
       </c>
@@ -2727,7 +2835,7 @@
       <c r="D61" s="16"/>
     </row>
     <row r="62" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A62" s="22"/>
+      <c r="A62" s="26"/>
       <c r="B62" s="14" t="s">
         <v>65</v>
       </c>
@@ -2737,7 +2845,7 @@
       <c r="D62" s="16"/>
     </row>
     <row r="63" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A63" s="20" t="s">
+      <c r="A63" s="24" t="s">
         <v>66</v>
       </c>
       <c r="B63" s="14" t="s">
@@ -2751,7 +2859,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A64" s="21"/>
+      <c r="A64" s="25"/>
       <c r="B64" s="14" t="s">
         <v>68</v>
       </c>
@@ -2763,7 +2871,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A65" s="21"/>
+      <c r="A65" s="25"/>
       <c r="B65" s="14" t="s">
         <v>69</v>
       </c>
@@ -2773,7 +2881,7 @@
       <c r="D65" s="16"/>
     </row>
     <row r="66" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A66" s="21"/>
+      <c r="A66" s="25"/>
       <c r="B66" s="14" t="s">
         <v>70</v>
       </c>
@@ -2783,7 +2891,7 @@
       <c r="D66" s="16"/>
     </row>
     <row r="67" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A67" s="22"/>
+      <c r="A67" s="26"/>
       <c r="B67" s="14" t="s">
         <v>71</v>
       </c>
@@ -2793,7 +2901,7 @@
       <c r="D67" s="16"/>
     </row>
     <row r="68" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A68" s="20" t="s">
+      <c r="A68" s="24" t="s">
         <v>72</v>
       </c>
       <c r="B68" s="14" t="s">
@@ -2805,7 +2913,7 @@
       <c r="D68" s="16"/>
     </row>
     <row r="69" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A69" s="21"/>
+      <c r="A69" s="25"/>
       <c r="B69" s="14" t="s">
         <v>74</v>
       </c>
@@ -2817,7 +2925,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A70" s="21"/>
+      <c r="A70" s="25"/>
       <c r="B70" s="14" t="s">
         <v>75</v>
       </c>
@@ -2827,7 +2935,7 @@
       <c r="D70" s="16"/>
     </row>
     <row r="71" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A71" s="21"/>
+      <c r="A71" s="25"/>
       <c r="B71" s="14" t="s">
         <v>76</v>
       </c>
@@ -2837,7 +2945,7 @@
       <c r="D71" s="16"/>
     </row>
     <row r="72" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A72" s="21"/>
+      <c r="A72" s="25"/>
       <c r="B72" s="14" t="s">
         <v>77</v>
       </c>
@@ -2847,7 +2955,7 @@
       <c r="D72" s="16"/>
     </row>
     <row r="73" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A73" s="21"/>
+      <c r="A73" s="25"/>
       <c r="B73" s="14" t="s">
         <v>78</v>
       </c>
@@ -2857,7 +2965,7 @@
       <c r="D73" s="16"/>
     </row>
     <row r="74" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A74" s="22"/>
+      <c r="A74" s="26"/>
       <c r="B74" s="14" t="s">
         <v>79</v>
       </c>
@@ -2867,7 +2975,7 @@
       <c r="D74" s="16"/>
     </row>
     <row r="75" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A75" s="20" t="s">
+      <c r="A75" s="24" t="s">
         <v>80</v>
       </c>
       <c r="B75" s="14" t="s">
@@ -2879,7 +2987,7 @@
       <c r="D75" s="17"/>
     </row>
     <row r="76" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A76" s="22"/>
+      <c r="A76" s="26"/>
       <c r="B76" s="14" t="s">
         <v>82</v>
       </c>
@@ -2891,7 +2999,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A77" s="20" t="s">
+      <c r="A77" s="24" t="s">
         <v>83</v>
       </c>
       <c r="B77" s="14" t="s">
@@ -2903,7 +3011,7 @@
       <c r="D77" s="16"/>
     </row>
     <row r="78" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A78" s="21"/>
+      <c r="A78" s="25"/>
       <c r="B78" s="14" t="s">
         <v>85</v>
       </c>
@@ -2913,7 +3021,7 @@
       <c r="D78" s="16"/>
     </row>
     <row r="79" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A79" s="21"/>
+      <c r="A79" s="25"/>
       <c r="B79" s="14" t="s">
         <v>86</v>
       </c>
@@ -2923,7 +3031,7 @@
       <c r="D79" s="16"/>
     </row>
     <row r="80" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A80" s="22"/>
+      <c r="A80" s="26"/>
       <c r="B80" s="14" t="s">
         <v>87</v>
       </c>
@@ -2935,7 +3043,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A81" s="20" t="s">
+      <c r="A81" s="24" t="s">
         <v>88</v>
       </c>
       <c r="B81" s="14" t="s">
@@ -2947,7 +3055,7 @@
       <c r="D81" s="16"/>
     </row>
     <row r="82" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A82" s="22"/>
+      <c r="A82" s="26"/>
       <c r="B82" s="14" t="s">
         <v>90</v>
       </c>
@@ -2959,7 +3067,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A83" s="20" t="s">
+      <c r="A83" s="24" t="s">
         <v>91</v>
       </c>
       <c r="B83" s="14" t="s">
@@ -2971,7 +3079,7 @@
       <c r="D83" s="16"/>
     </row>
     <row r="84" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A84" s="21"/>
+      <c r="A84" s="25"/>
       <c r="B84" s="14" t="s">
         <v>93</v>
       </c>
@@ -2981,7 +3089,7 @@
       <c r="D84" s="16"/>
     </row>
     <row r="85" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A85" s="21"/>
+      <c r="A85" s="25"/>
       <c r="B85" s="14" t="s">
         <v>94</v>
       </c>
@@ -2991,7 +3099,7 @@
       <c r="D85" s="16"/>
     </row>
     <row r="86" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A86" s="21"/>
+      <c r="A86" s="25"/>
       <c r="B86" s="14" t="s">
         <v>95</v>
       </c>
@@ -3001,7 +3109,7 @@
       <c r="D86" s="16"/>
     </row>
     <row r="87" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A87" s="21"/>
+      <c r="A87" s="25"/>
       <c r="B87" s="14" t="s">
         <v>96</v>
       </c>
@@ -3011,7 +3119,7 @@
       <c r="D87" s="16"/>
     </row>
     <row r="88" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A88" s="21"/>
+      <c r="A88" s="25"/>
       <c r="B88" s="14" t="s">
         <v>97</v>
       </c>
@@ -3021,7 +3129,7 @@
       <c r="D88" s="16"/>
     </row>
     <row r="89" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A89" s="22"/>
+      <c r="A89" s="26"/>
       <c r="B89" s="14" t="s">
         <v>98</v>
       </c>
@@ -3031,7 +3139,7 @@
       <c r="D89" s="16"/>
     </row>
     <row r="90" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A90" s="20" t="s">
+      <c r="A90" s="24" t="s">
         <v>99</v>
       </c>
       <c r="B90" s="14" t="s">
@@ -3043,7 +3151,7 @@
       <c r="D90" s="16"/>
     </row>
     <row r="91" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A91" s="21"/>
+      <c r="A91" s="25"/>
       <c r="B91" s="14" t="s">
         <v>101</v>
       </c>
@@ -3053,7 +3161,7 @@
       <c r="D91" s="16"/>
     </row>
     <row r="92" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A92" s="21"/>
+      <c r="A92" s="25"/>
       <c r="B92" s="14" t="s">
         <v>102</v>
       </c>
@@ -3063,7 +3171,7 @@
       <c r="D92" s="16"/>
     </row>
     <row r="93" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A93" s="21"/>
+      <c r="A93" s="25"/>
       <c r="B93" s="14" t="s">
         <v>103</v>
       </c>
@@ -3073,7 +3181,7 @@
       <c r="D93" s="16"/>
     </row>
     <row r="94" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A94" s="21"/>
+      <c r="A94" s="25"/>
       <c r="B94" s="14" t="s">
         <v>104</v>
       </c>
@@ -3083,7 +3191,7 @@
       <c r="D94" s="16"/>
     </row>
     <row r="95" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A95" s="21"/>
+      <c r="A95" s="25"/>
       <c r="B95" s="14" t="s">
         <v>105</v>
       </c>
@@ -3095,7 +3203,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A96" s="21"/>
+      <c r="A96" s="25"/>
       <c r="B96" s="14" t="s">
         <v>106</v>
       </c>
@@ -3107,7 +3215,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A97" s="22"/>
+      <c r="A97" s="26"/>
       <c r="B97" s="14" t="s">
         <v>107</v>
       </c>
@@ -3119,7 +3227,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A98" s="20" t="s">
+      <c r="A98" s="24" t="s">
         <v>108</v>
       </c>
       <c r="B98" s="14" t="s">
@@ -3131,7 +3239,7 @@
       <c r="D98" s="16"/>
     </row>
     <row r="99" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A99" s="21"/>
+      <c r="A99" s="25"/>
       <c r="B99" s="14" t="s">
         <v>110</v>
       </c>
@@ -3141,7 +3249,7 @@
       <c r="D99" s="16"/>
     </row>
     <row r="100" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A100" s="21"/>
+      <c r="A100" s="25"/>
       <c r="B100" s="14" t="s">
         <v>111</v>
       </c>
@@ -3153,7 +3261,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A101" s="22"/>
+      <c r="A101" s="26"/>
       <c r="B101" s="14" t="s">
         <v>112</v>
       </c>
@@ -3163,7 +3271,7 @@
       <c r="D101" s="16"/>
     </row>
     <row r="102" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A102" s="20" t="s">
+      <c r="A102" s="24" t="s">
         <v>113</v>
       </c>
       <c r="B102" s="14" t="s">
@@ -3175,7 +3283,7 @@
       <c r="D102" s="16"/>
     </row>
     <row r="103" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A103" s="21"/>
+      <c r="A103" s="25"/>
       <c r="B103" s="14" t="s">
         <v>115</v>
       </c>
@@ -3185,7 +3293,7 @@
       <c r="D103" s="16"/>
     </row>
     <row r="104" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A104" s="22"/>
+      <c r="A104" s="26"/>
       <c r="B104" s="14" t="s">
         <v>116</v>
       </c>
@@ -3197,7 +3305,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A105" s="20" t="s">
+      <c r="A105" s="24" t="s">
         <v>117</v>
       </c>
       <c r="B105" s="14" t="s">
@@ -3209,7 +3317,7 @@
       <c r="D105" s="16"/>
     </row>
     <row r="106" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A106" s="22"/>
+      <c r="A106" s="26"/>
       <c r="B106" s="14" t="s">
         <v>119</v>
       </c>
@@ -3221,7 +3329,7 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A107" s="20" t="s">
+      <c r="A107" s="24" t="s">
         <v>120</v>
       </c>
       <c r="B107" s="14" t="s">
@@ -3235,7 +3343,7 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A108" s="21"/>
+      <c r="A108" s="25"/>
       <c r="B108" s="14" t="s">
         <v>122</v>
       </c>
@@ -3245,7 +3353,7 @@
       <c r="D108" s="16"/>
     </row>
     <row r="109" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A109" s="21"/>
+      <c r="A109" s="25"/>
       <c r="B109" s="14" t="s">
         <v>123</v>
       </c>
@@ -3257,7 +3365,7 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A110" s="21"/>
+      <c r="A110" s="25"/>
       <c r="B110" s="14" t="s">
         <v>124</v>
       </c>
@@ -3267,7 +3375,7 @@
       <c r="D110" s="16"/>
     </row>
     <row r="111" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A111" s="21"/>
+      <c r="A111" s="25"/>
       <c r="B111" s="14" t="s">
         <v>125</v>
       </c>
@@ -3277,7 +3385,7 @@
       <c r="D111" s="16"/>
     </row>
     <row r="112" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A112" s="22"/>
+      <c r="A112" s="26"/>
       <c r="B112" s="14" t="s">
         <v>126</v>
       </c>
@@ -3287,7 +3395,7 @@
       <c r="D112" s="16"/>
     </row>
     <row r="113" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A113" s="20" t="s">
+      <c r="A113" s="24" t="s">
         <v>127</v>
       </c>
       <c r="B113" s="14" t="s">
@@ -3299,7 +3407,7 @@
       <c r="D113" s="16"/>
     </row>
     <row r="114" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A114" s="21"/>
+      <c r="A114" s="25"/>
       <c r="B114" s="14" t="s">
         <v>129</v>
       </c>
@@ -3311,7 +3419,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A115" s="22"/>
+      <c r="A115" s="26"/>
       <c r="B115" s="14" t="s">
         <v>130</v>
       </c>
@@ -3323,7 +3431,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A116" s="20" t="s">
+      <c r="A116" s="24" t="s">
         <v>131</v>
       </c>
       <c r="B116" s="14" t="s">
@@ -3337,7 +3445,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A117" s="22"/>
+      <c r="A117" s="26"/>
       <c r="B117" s="14" t="s">
         <v>133</v>
       </c>
@@ -3349,7 +3457,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A118" s="20" t="s">
+      <c r="A118" s="24" t="s">
         <v>134</v>
       </c>
       <c r="B118" s="14" t="s">
@@ -3363,7 +3471,7 @@
       </c>
     </row>
     <row r="119" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A119" s="22"/>
+      <c r="A119" s="26"/>
       <c r="B119" s="14" t="s">
         <v>136</v>
       </c>
@@ -3373,7 +3481,7 @@
       <c r="D119" s="16"/>
     </row>
     <row r="120" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A120" s="20" t="s">
+      <c r="A120" s="24" t="s">
         <v>137</v>
       </c>
       <c r="B120" s="14" t="s">
@@ -3387,7 +3495,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A121" s="22"/>
+      <c r="A121" s="26"/>
       <c r="B121" s="14" t="s">
         <v>139</v>
       </c>
@@ -3397,7 +3505,7 @@
       <c r="D121" s="16"/>
     </row>
     <row r="122" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A122" s="20" t="s">
+      <c r="A122" s="24" t="s">
         <v>140</v>
       </c>
       <c r="B122" s="14" t="s">
@@ -3409,7 +3517,7 @@
       <c r="D122" s="16"/>
     </row>
     <row r="123" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A123" s="21"/>
+      <c r="A123" s="25"/>
       <c r="B123" s="14" t="s">
         <v>142</v>
       </c>
@@ -3419,7 +3527,7 @@
       <c r="D123" s="16"/>
     </row>
     <row r="124" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A124" s="21"/>
+      <c r="A124" s="25"/>
       <c r="B124" s="14" t="s">
         <v>143</v>
       </c>
@@ -3429,7 +3537,7 @@
       <c r="D124" s="16"/>
     </row>
     <row r="125" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A125" s="21"/>
+      <c r="A125" s="25"/>
       <c r="B125" s="14" t="s">
         <v>144</v>
       </c>
@@ -3439,7 +3547,7 @@
       <c r="D125" s="16"/>
     </row>
     <row r="126" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A126" s="21"/>
+      <c r="A126" s="25"/>
       <c r="B126" s="14" t="s">
         <v>145</v>
       </c>
@@ -3449,7 +3557,7 @@
       <c r="D126" s="16"/>
     </row>
     <row r="127" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A127" s="21"/>
+      <c r="A127" s="25"/>
       <c r="B127" s="14" t="s">
         <v>146</v>
       </c>
@@ -3459,7 +3567,7 @@
       <c r="D127" s="16"/>
     </row>
     <row r="128" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A128" s="21"/>
+      <c r="A128" s="25"/>
       <c r="B128" s="14" t="s">
         <v>147</v>
       </c>
@@ -3469,7 +3577,7 @@
       <c r="D128" s="16"/>
     </row>
     <row r="129" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A129" s="21"/>
+      <c r="A129" s="25"/>
       <c r="B129" s="14" t="s">
         <v>148</v>
       </c>
@@ -3479,7 +3587,7 @@
       <c r="D129" s="16"/>
     </row>
     <row r="130" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A130" s="21"/>
+      <c r="A130" s="25"/>
       <c r="B130" s="14" t="s">
         <v>149</v>
       </c>
@@ -3489,7 +3597,7 @@
       <c r="D130" s="16"/>
     </row>
     <row r="131" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A131" s="21"/>
+      <c r="A131" s="25"/>
       <c r="B131" s="14" t="s">
         <v>150</v>
       </c>
@@ -3499,7 +3607,7 @@
       <c r="D131" s="16"/>
     </row>
     <row r="132" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A132" s="21"/>
+      <c r="A132" s="25"/>
       <c r="B132" s="14" t="s">
         <v>151</v>
       </c>
@@ -3509,7 +3617,7 @@
       <c r="D132" s="16"/>
     </row>
     <row r="133" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A133" s="21"/>
+      <c r="A133" s="25"/>
       <c r="B133" s="14" t="s">
         <v>152</v>
       </c>
@@ -3519,7 +3627,7 @@
       <c r="D133" s="16"/>
     </row>
     <row r="134" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A134" s="21"/>
+      <c r="A134" s="25"/>
       <c r="B134" s="14" t="s">
         <v>153</v>
       </c>
@@ -3529,7 +3637,7 @@
       <c r="D134" s="16"/>
     </row>
     <row r="135" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A135" s="21"/>
+      <c r="A135" s="25"/>
       <c r="B135" s="14" t="s">
         <v>154</v>
       </c>
@@ -3539,7 +3647,7 @@
       <c r="D135" s="16"/>
     </row>
     <row r="136" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A136" s="21"/>
+      <c r="A136" s="25"/>
       <c r="B136" s="14" t="s">
         <v>155</v>
       </c>
@@ -3549,7 +3657,7 @@
       <c r="D136" s="16"/>
     </row>
     <row r="137" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A137" s="21"/>
+      <c r="A137" s="25"/>
       <c r="B137" s="14" t="s">
         <v>156</v>
       </c>
@@ -3559,7 +3667,7 @@
       <c r="D137" s="16"/>
     </row>
     <row r="138" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A138" s="21"/>
+      <c r="A138" s="25"/>
       <c r="B138" s="14" t="s">
         <v>157</v>
       </c>
@@ -3569,7 +3677,7 @@
       <c r="D138" s="16"/>
     </row>
     <row r="139" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A139" s="21"/>
+      <c r="A139" s="25"/>
       <c r="B139" s="14" t="s">
         <v>158</v>
       </c>
@@ -3579,7 +3687,7 @@
       <c r="D139" s="16"/>
     </row>
     <row r="140" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A140" s="21"/>
+      <c r="A140" s="25"/>
       <c r="B140" s="14" t="s">
         <v>159</v>
       </c>
@@ -3589,7 +3697,7 @@
       <c r="D140" s="16"/>
     </row>
     <row r="141" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A141" s="21"/>
+      <c r="A141" s="25"/>
       <c r="B141" s="14" t="s">
         <v>160</v>
       </c>
@@ -3599,7 +3707,7 @@
       <c r="D141" s="16"/>
     </row>
     <row r="142" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A142" s="21"/>
+      <c r="A142" s="25"/>
       <c r="B142" s="14" t="s">
         <v>161</v>
       </c>
@@ -3609,7 +3717,7 @@
       <c r="D142" s="16"/>
     </row>
     <row r="143" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A143" s="21"/>
+      <c r="A143" s="25"/>
       <c r="B143" s="14" t="s">
         <v>162</v>
       </c>
@@ -3619,7 +3727,7 @@
       <c r="D143" s="16"/>
     </row>
     <row r="144" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A144" s="21"/>
+      <c r="A144" s="25"/>
       <c r="B144" s="14" t="s">
         <v>163</v>
       </c>
@@ -3629,7 +3737,7 @@
       <c r="D144" s="16"/>
     </row>
     <row r="145" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A145" s="21"/>
+      <c r="A145" s="25"/>
       <c r="B145" s="14" t="s">
         <v>164</v>
       </c>
@@ -3639,7 +3747,7 @@
       <c r="D145" s="16"/>
     </row>
     <row r="146" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A146" s="21"/>
+      <c r="A146" s="25"/>
       <c r="B146" s="14" t="s">
         <v>165</v>
       </c>
@@ -3649,7 +3757,7 @@
       <c r="D146" s="16"/>
     </row>
     <row r="147" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A147" s="21"/>
+      <c r="A147" s="25"/>
       <c r="B147" s="14" t="s">
         <v>166</v>
       </c>
@@ -3659,7 +3767,7 @@
       <c r="D147" s="16"/>
     </row>
     <row r="148" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A148" s="21"/>
+      <c r="A148" s="25"/>
       <c r="B148" s="14" t="s">
         <v>167</v>
       </c>
@@ -3671,7 +3779,7 @@
       </c>
     </row>
     <row r="149" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A149" s="21"/>
+      <c r="A149" s="25"/>
       <c r="B149" s="14" t="s">
         <v>168</v>
       </c>
@@ -3681,7 +3789,7 @@
       <c r="D149" s="16"/>
     </row>
     <row r="150" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A150" s="21"/>
+      <c r="A150" s="25"/>
       <c r="B150" s="14" t="s">
         <v>169</v>
       </c>
@@ -3691,7 +3799,7 @@
       <c r="D150" s="16"/>
     </row>
     <row r="151" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A151" s="21"/>
+      <c r="A151" s="25"/>
       <c r="B151" s="14" t="s">
         <v>170</v>
       </c>
@@ -3701,7 +3809,7 @@
       <c r="D151" s="16"/>
     </row>
     <row r="152" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A152" s="21"/>
+      <c r="A152" s="25"/>
       <c r="B152" s="14" t="s">
         <v>171</v>
       </c>
@@ -3711,7 +3819,7 @@
       <c r="D152" s="16"/>
     </row>
     <row r="153" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A153" s="21"/>
+      <c r="A153" s="25"/>
       <c r="B153" s="14" t="s">
         <v>172</v>
       </c>
@@ -3721,7 +3829,7 @@
       <c r="D153" s="16"/>
     </row>
     <row r="154" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A154" s="22"/>
+      <c r="A154" s="26"/>
       <c r="B154" s="14" t="s">
         <v>173</v>
       </c>
@@ -3731,7 +3839,7 @@
       <c r="D154" s="16"/>
     </row>
     <row r="155" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A155" s="20" t="s">
+      <c r="A155" s="24" t="s">
         <v>174</v>
       </c>
       <c r="B155" s="14" t="s">
@@ -3745,7 +3853,7 @@
       </c>
     </row>
     <row r="156" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A156" s="21"/>
+      <c r="A156" s="25"/>
       <c r="B156" s="14" t="s">
         <v>176</v>
       </c>
@@ -3755,7 +3863,7 @@
       <c r="D156" s="16"/>
     </row>
     <row r="157" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A157" s="21"/>
+      <c r="A157" s="25"/>
       <c r="B157" s="14" t="s">
         <v>177</v>
       </c>
@@ -3765,7 +3873,7 @@
       <c r="D157" s="16"/>
     </row>
     <row r="158" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A158" s="21"/>
+      <c r="A158" s="25"/>
       <c r="B158" s="14" t="s">
         <v>178</v>
       </c>
@@ -3775,7 +3883,7 @@
       <c r="D158" s="16"/>
     </row>
     <row r="159" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A159" s="21"/>
+      <c r="A159" s="25"/>
       <c r="B159" s="14" t="s">
         <v>179</v>
       </c>
@@ -3785,7 +3893,7 @@
       <c r="D159" s="16"/>
     </row>
     <row r="160" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A160" s="21"/>
+      <c r="A160" s="25"/>
       <c r="B160" s="14" t="s">
         <v>180</v>
       </c>
@@ -3797,7 +3905,7 @@
       </c>
     </row>
     <row r="161" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A161" s="21"/>
+      <c r="A161" s="25"/>
       <c r="B161" s="14" t="s">
         <v>181</v>
       </c>
@@ -3809,7 +3917,7 @@
       </c>
     </row>
     <row r="162" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A162" s="21"/>
+      <c r="A162" s="25"/>
       <c r="B162" s="14" t="s">
         <v>182</v>
       </c>
@@ -3821,7 +3929,7 @@
       </c>
     </row>
     <row r="163" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A163" s="21"/>
+      <c r="A163" s="25"/>
       <c r="B163" s="14" t="s">
         <v>183</v>
       </c>
@@ -3831,7 +3939,7 @@
       <c r="D163" s="16"/>
     </row>
     <row r="164" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A164" s="21"/>
+      <c r="A164" s="25"/>
       <c r="B164" s="14" t="s">
         <v>184</v>
       </c>
@@ -3841,7 +3949,7 @@
       <c r="D164" s="16"/>
     </row>
     <row r="165" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A165" s="22"/>
+      <c r="A165" s="26"/>
       <c r="B165" s="14" t="s">
         <v>185</v>
       </c>
@@ -3851,7 +3959,7 @@
       <c r="D165" s="16"/>
     </row>
     <row r="166" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A166" s="20" t="s">
+      <c r="A166" s="24" t="s">
         <v>186</v>
       </c>
       <c r="B166" s="14" t="s">
@@ -3865,7 +3973,7 @@
       </c>
     </row>
     <row r="167" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A167" s="22"/>
+      <c r="A167" s="26"/>
       <c r="B167" s="14" t="s">
         <v>188</v>
       </c>
@@ -3877,7 +3985,7 @@
       </c>
     </row>
     <row r="168" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A168" s="20" t="s">
+      <c r="A168" s="24" t="s">
         <v>189</v>
       </c>
       <c r="B168" s="14" t="s">
@@ -3889,7 +3997,7 @@
       <c r="D168" s="16"/>
     </row>
     <row r="169" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A169" s="21"/>
+      <c r="A169" s="25"/>
       <c r="B169" s="14" t="s">
         <v>191</v>
       </c>
@@ -3899,7 +4007,7 @@
       <c r="D169" s="16"/>
     </row>
     <row r="170" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A170" s="21"/>
+      <c r="A170" s="25"/>
       <c r="B170" s="14" t="s">
         <v>192</v>
       </c>
@@ -3911,7 +4019,7 @@
       </c>
     </row>
     <row r="171" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A171" s="21"/>
+      <c r="A171" s="25"/>
       <c r="B171" s="14" t="s">
         <v>193</v>
       </c>
@@ -3921,7 +4029,7 @@
       <c r="D171" s="16"/>
     </row>
     <row r="172" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A172" s="21"/>
+      <c r="A172" s="25"/>
       <c r="B172" s="14" t="s">
         <v>194</v>
       </c>
@@ -3931,7 +4039,7 @@
       <c r="D172" s="16"/>
     </row>
     <row r="173" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A173" s="21"/>
+      <c r="A173" s="25"/>
       <c r="B173" s="14" t="s">
         <v>195</v>
       </c>
@@ -3941,7 +4049,7 @@
       <c r="D173" s="16"/>
     </row>
     <row r="174" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A174" s="21"/>
+      <c r="A174" s="25"/>
       <c r="B174" s="14" t="s">
         <v>196</v>
       </c>
@@ -3951,7 +4059,7 @@
       <c r="D174" s="16"/>
     </row>
     <row r="175" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A175" s="21"/>
+      <c r="A175" s="25"/>
       <c r="B175" s="14" t="s">
         <v>197</v>
       </c>
@@ -3961,7 +4069,7 @@
       <c r="D175" s="16"/>
     </row>
     <row r="176" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A176" s="21"/>
+      <c r="A176" s="25"/>
       <c r="B176" s="14" t="s">
         <v>198</v>
       </c>
@@ -3971,7 +4079,7 @@
       <c r="D176" s="16"/>
     </row>
     <row r="177" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A177" s="22"/>
+      <c r="A177" s="26"/>
       <c r="B177" s="14" t="s">
         <v>199</v>
       </c>
@@ -3983,7 +4091,7 @@
       </c>
     </row>
     <row r="178" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A178" s="20" t="s">
+      <c r="A178" s="24" t="s">
         <v>200</v>
       </c>
       <c r="B178" s="14" t="s">
@@ -3995,7 +4103,7 @@
       <c r="D178" s="16"/>
     </row>
     <row r="179" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A179" s="21"/>
+      <c r="A179" s="25"/>
       <c r="B179" s="14" t="s">
         <v>202</v>
       </c>
@@ -4005,7 +4113,7 @@
       <c r="D179" s="16"/>
     </row>
     <row r="180" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A180" s="22"/>
+      <c r="A180" s="26"/>
       <c r="B180" s="14" t="s">
         <v>203</v>
       </c>
@@ -4017,7 +4125,7 @@
       </c>
     </row>
     <row r="181" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A181" s="20" t="s">
+      <c r="A181" s="24" t="s">
         <v>204</v>
       </c>
       <c r="B181" s="14" t="s">
@@ -4029,7 +4137,7 @@
       <c r="D181" s="16"/>
     </row>
     <row r="182" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A182" s="21"/>
+      <c r="A182" s="25"/>
       <c r="B182" s="14" t="s">
         <v>206</v>
       </c>
@@ -4039,7 +4147,7 @@
       <c r="D182" s="16"/>
     </row>
     <row r="183" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A183" s="21"/>
+      <c r="A183" s="25"/>
       <c r="B183" s="14" t="s">
         <v>207</v>
       </c>
@@ -4049,7 +4157,7 @@
       <c r="D183" s="16"/>
     </row>
     <row r="184" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A184" s="21"/>
+      <c r="A184" s="25"/>
       <c r="B184" s="14" t="s">
         <v>208</v>
       </c>
@@ -4059,7 +4167,7 @@
       <c r="D184" s="16"/>
     </row>
     <row r="185" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A185" s="21"/>
+      <c r="A185" s="25"/>
       <c r="B185" s="14" t="s">
         <v>209</v>
       </c>
@@ -4069,7 +4177,7 @@
       <c r="D185" s="16"/>
     </row>
     <row r="186" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A186" s="21"/>
+      <c r="A186" s="25"/>
       <c r="B186" s="14" t="s">
         <v>210</v>
       </c>
@@ -4079,7 +4187,7 @@
       <c r="D186" s="16"/>
     </row>
     <row r="187" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A187" s="21"/>
+      <c r="A187" s="25"/>
       <c r="B187" s="14" t="s">
         <v>211</v>
       </c>
@@ -4089,7 +4197,7 @@
       <c r="D187" s="16"/>
     </row>
     <row r="188" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A188" s="21"/>
+      <c r="A188" s="25"/>
       <c r="B188" s="14" t="s">
         <v>212</v>
       </c>
@@ -4099,7 +4207,7 @@
       <c r="D188" s="16"/>
     </row>
     <row r="189" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A189" s="21"/>
+      <c r="A189" s="25"/>
       <c r="B189" s="14" t="s">
         <v>213</v>
       </c>
@@ -4109,7 +4217,7 @@
       <c r="D189" s="16"/>
     </row>
     <row r="190" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A190" s="21"/>
+      <c r="A190" s="25"/>
       <c r="B190" s="14" t="s">
         <v>214</v>
       </c>
@@ -4119,7 +4227,7 @@
       <c r="D190" s="16"/>
     </row>
     <row r="191" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A191" s="21"/>
+      <c r="A191" s="25"/>
       <c r="B191" s="14" t="s">
         <v>215</v>
       </c>
@@ -4129,7 +4237,7 @@
       <c r="D191" s="16"/>
     </row>
     <row r="192" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A192" s="21"/>
+      <c r="A192" s="25"/>
       <c r="B192" s="14" t="s">
         <v>216</v>
       </c>
@@ -4139,7 +4247,7 @@
       <c r="D192" s="16"/>
     </row>
     <row r="193" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A193" s="21"/>
+      <c r="A193" s="25"/>
       <c r="B193" s="14" t="s">
         <v>217</v>
       </c>
@@ -4149,7 +4257,7 @@
       <c r="D193" s="16"/>
     </row>
     <row r="194" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A194" s="21"/>
+      <c r="A194" s="25"/>
       <c r="B194" s="14" t="s">
         <v>218</v>
       </c>
@@ -4159,7 +4267,7 @@
       <c r="D194" s="16"/>
     </row>
     <row r="195" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A195" s="21"/>
+      <c r="A195" s="25"/>
       <c r="B195" s="14" t="s">
         <v>219</v>
       </c>
@@ -4169,7 +4277,7 @@
       <c r="D195" s="16"/>
     </row>
     <row r="196" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A196" s="21"/>
+      <c r="A196" s="25"/>
       <c r="B196" s="14" t="s">
         <v>220</v>
       </c>
@@ -4179,7 +4287,7 @@
       <c r="D196" s="16"/>
     </row>
     <row r="197" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A197" s="21"/>
+      <c r="A197" s="25"/>
       <c r="B197" s="14" t="s">
         <v>221</v>
       </c>
@@ -4189,7 +4297,7 @@
       <c r="D197" s="16"/>
     </row>
     <row r="198" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A198" s="21"/>
+      <c r="A198" s="25"/>
       <c r="B198" s="14" t="s">
         <v>222</v>
       </c>
@@ -4199,7 +4307,7 @@
       <c r="D198" s="16"/>
     </row>
     <row r="199" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A199" s="21"/>
+      <c r="A199" s="25"/>
       <c r="B199" s="14" t="s">
         <v>223</v>
       </c>
@@ -4209,7 +4317,7 @@
       <c r="D199" s="16"/>
     </row>
     <row r="200" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A200" s="22"/>
+      <c r="A200" s="26"/>
       <c r="B200" s="14" t="s">
         <v>224</v>
       </c>
@@ -4221,7 +4329,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A201" s="20" t="s">
+      <c r="A201" s="24" t="s">
         <v>225</v>
       </c>
       <c r="B201" s="14" t="s">
@@ -4233,7 +4341,7 @@
       <c r="D201" s="16"/>
     </row>
     <row r="202" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A202" s="21"/>
+      <c r="A202" s="25"/>
       <c r="B202" s="14" t="s">
         <v>227</v>
       </c>
@@ -4243,7 +4351,7 @@
       <c r="D202" s="16"/>
     </row>
     <row r="203" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A203" s="21"/>
+      <c r="A203" s="25"/>
       <c r="B203" s="14" t="s">
         <v>228</v>
       </c>
@@ -4253,7 +4361,7 @@
       <c r="D203" s="16"/>
     </row>
     <row r="204" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A204" s="21"/>
+      <c r="A204" s="25"/>
       <c r="B204" s="14" t="s">
         <v>229</v>
       </c>
@@ -4263,7 +4371,7 @@
       <c r="D204" s="16"/>
     </row>
     <row r="205" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A205" s="21"/>
+      <c r="A205" s="25"/>
       <c r="B205" s="14" t="s">
         <v>230</v>
       </c>
@@ -4275,7 +4383,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A206" s="21"/>
+      <c r="A206" s="25"/>
       <c r="B206" s="14" t="s">
         <v>231</v>
       </c>
@@ -4287,7 +4395,7 @@
       </c>
     </row>
     <row r="207" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A207" s="21"/>
+      <c r="A207" s="25"/>
       <c r="B207" s="14" t="s">
         <v>232</v>
       </c>
@@ -4297,7 +4405,7 @@
       <c r="D207" s="16"/>
     </row>
     <row r="208" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A208" s="21"/>
+      <c r="A208" s="25"/>
       <c r="B208" s="14" t="s">
         <v>233</v>
       </c>
@@ -4307,7 +4415,7 @@
       <c r="D208" s="16"/>
     </row>
     <row r="209" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A209" s="21"/>
+      <c r="A209" s="25"/>
       <c r="B209" s="14" t="s">
         <v>234</v>
       </c>
@@ -4319,7 +4427,7 @@
       </c>
     </row>
     <row r="210" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A210" s="22"/>
+      <c r="A210" s="26"/>
       <c r="B210" s="14" t="s">
         <v>235</v>
       </c>
@@ -4343,7 +4451,7 @@
       </c>
     </row>
     <row r="212" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A212" s="20" t="s">
+      <c r="A212" s="24" t="s">
         <v>238</v>
       </c>
       <c r="B212" s="14" t="s">
@@ -4355,7 +4463,7 @@
       <c r="D212" s="16"/>
     </row>
     <row r="213" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A213" s="21"/>
+      <c r="A213" s="25"/>
       <c r="B213" s="14" t="s">
         <v>240</v>
       </c>
@@ -4365,7 +4473,7 @@
       <c r="D213" s="16"/>
     </row>
     <row r="214" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A214" s="21"/>
+      <c r="A214" s="25"/>
       <c r="B214" s="14" t="s">
         <v>241</v>
       </c>
@@ -4375,7 +4483,7 @@
       <c r="D214" s="16"/>
     </row>
     <row r="215" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A215" s="21"/>
+      <c r="A215" s="25"/>
       <c r="B215" s="14" t="s">
         <v>242</v>
       </c>
@@ -4385,7 +4493,7 @@
       <c r="D215" s="16"/>
     </row>
     <row r="216" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A216" s="21"/>
+      <c r="A216" s="25"/>
       <c r="B216" s="14" t="s">
         <v>243</v>
       </c>
@@ -4395,7 +4503,7 @@
       <c r="D216" s="16"/>
     </row>
     <row r="217" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A217" s="21"/>
+      <c r="A217" s="25"/>
       <c r="B217" s="14" t="s">
         <v>244</v>
       </c>
@@ -4405,7 +4513,7 @@
       <c r="D217" s="16"/>
     </row>
     <row r="218" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A218" s="21"/>
+      <c r="A218" s="25"/>
       <c r="B218" s="14" t="s">
         <v>245</v>
       </c>
@@ -4415,7 +4523,7 @@
       <c r="D218" s="16"/>
     </row>
     <row r="219" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A219" s="21"/>
+      <c r="A219" s="25"/>
       <c r="B219" s="14" t="s">
         <v>246</v>
       </c>
@@ -4425,7 +4533,7 @@
       <c r="D219" s="16"/>
     </row>
     <row r="220" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A220" s="21"/>
+      <c r="A220" s="25"/>
       <c r="B220" s="14" t="s">
         <v>247</v>
       </c>
@@ -4435,7 +4543,7 @@
       <c r="D220" s="16"/>
     </row>
     <row r="221" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A221" s="21"/>
+      <c r="A221" s="25"/>
       <c r="B221" s="14" t="s">
         <v>248</v>
       </c>
@@ -4445,7 +4553,7 @@
       <c r="D221" s="16"/>
     </row>
     <row r="222" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A222" s="21"/>
+      <c r="A222" s="25"/>
       <c r="B222" s="14" t="s">
         <v>249</v>
       </c>
@@ -4457,7 +4565,7 @@
       </c>
     </row>
     <row r="223" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A223" s="21"/>
+      <c r="A223" s="25"/>
       <c r="B223" s="14" t="s">
         <v>250</v>
       </c>
@@ -4467,7 +4575,7 @@
       <c r="D223" s="16"/>
     </row>
     <row r="224" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A224" s="21"/>
+      <c r="A224" s="25"/>
       <c r="B224" s="14" t="s">
         <v>251</v>
       </c>
@@ -4477,7 +4585,7 @@
       <c r="D224" s="16"/>
     </row>
     <row r="225" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A225" s="21"/>
+      <c r="A225" s="25"/>
       <c r="B225" s="14" t="s">
         <v>252</v>
       </c>
@@ -4487,7 +4595,7 @@
       <c r="D225" s="16"/>
     </row>
     <row r="226" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A226" s="21"/>
+      <c r="A226" s="25"/>
       <c r="B226" s="14" t="s">
         <v>253</v>
       </c>
@@ -4497,7 +4605,7 @@
       <c r="D226" s="16"/>
     </row>
     <row r="227" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A227" s="21"/>
+      <c r="A227" s="25"/>
       <c r="B227" s="14" t="s">
         <v>254</v>
       </c>
@@ -4509,7 +4617,7 @@
       </c>
     </row>
     <row r="228" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A228" s="21"/>
+      <c r="A228" s="25"/>
       <c r="B228" s="14" t="s">
         <v>255</v>
       </c>
@@ -4521,7 +4629,7 @@
       </c>
     </row>
     <row r="229" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A229" s="21"/>
+      <c r="A229" s="25"/>
       <c r="B229" s="14" t="s">
         <v>256</v>
       </c>
@@ -4531,7 +4639,7 @@
       <c r="D229" s="16"/>
     </row>
     <row r="230" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A230" s="21"/>
+      <c r="A230" s="25"/>
       <c r="B230" s="14" t="s">
         <v>257</v>
       </c>
@@ -4543,7 +4651,7 @@
       </c>
     </row>
     <row r="231" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A231" s="21"/>
+      <c r="A231" s="25"/>
       <c r="B231" s="14" t="s">
         <v>258</v>
       </c>
@@ -4553,7 +4661,7 @@
       <c r="D231" s="16"/>
     </row>
     <row r="232" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A232" s="21"/>
+      <c r="A232" s="25"/>
       <c r="B232" s="14" t="s">
         <v>259</v>
       </c>
@@ -4563,7 +4671,7 @@
       <c r="D232" s="16"/>
     </row>
     <row r="233" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A233" s="22"/>
+      <c r="A233" s="26"/>
       <c r="B233" s="14" t="s">
         <v>260</v>
       </c>
@@ -4573,7 +4681,7 @@
       <c r="D233" s="16"/>
     </row>
     <row r="234" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A234" s="20" t="s">
+      <c r="A234" s="24" t="s">
         <v>261</v>
       </c>
       <c r="B234" s="14" t="s">
@@ -4585,7 +4693,7 @@
       <c r="D234" s="16"/>
     </row>
     <row r="235" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A235" s="21"/>
+      <c r="A235" s="25"/>
       <c r="B235" s="14" t="s">
         <v>263</v>
       </c>
@@ -4595,7 +4703,7 @@
       <c r="D235" s="16"/>
     </row>
     <row r="236" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A236" s="21"/>
+      <c r="A236" s="25"/>
       <c r="B236" s="14" t="s">
         <v>264</v>
       </c>
@@ -4607,7 +4715,7 @@
       </c>
     </row>
     <row r="237" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A237" s="21"/>
+      <c r="A237" s="25"/>
       <c r="B237" s="14" t="s">
         <v>265</v>
       </c>
@@ -4617,7 +4725,7 @@
       <c r="D237" s="16"/>
     </row>
     <row r="238" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A238" s="22"/>
+      <c r="A238" s="26"/>
       <c r="B238" s="14" t="s">
         <v>266</v>
       </c>
@@ -4627,7 +4735,7 @@
       <c r="D238" s="16"/>
     </row>
     <row r="239" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A239" s="20" t="s">
+      <c r="A239" s="24" t="s">
         <v>267</v>
       </c>
       <c r="B239" s="14" t="s">
@@ -4641,7 +4749,7 @@
       </c>
     </row>
     <row r="240" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A240" s="21"/>
+      <c r="A240" s="25"/>
       <c r="B240" s="14" t="s">
         <v>269</v>
       </c>
@@ -4651,7 +4759,7 @@
       <c r="D240" s="16"/>
     </row>
     <row r="241" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A241" s="21"/>
+      <c r="A241" s="25"/>
       <c r="B241" s="14" t="s">
         <v>270</v>
       </c>
@@ -4661,7 +4769,7 @@
       <c r="D241" s="16"/>
     </row>
     <row r="242" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A242" s="21"/>
+      <c r="A242" s="25"/>
       <c r="B242" s="14" t="s">
         <v>271</v>
       </c>
@@ -4671,7 +4779,7 @@
       <c r="D242" s="16"/>
     </row>
     <row r="243" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A243" s="21"/>
+      <c r="A243" s="25"/>
       <c r="B243" s="14" t="s">
         <v>272</v>
       </c>
@@ -4681,7 +4789,7 @@
       <c r="D243" s="16"/>
     </row>
     <row r="244" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A244" s="22"/>
+      <c r="A244" s="26"/>
       <c r="B244" s="14" t="s">
         <v>273</v>
       </c>
@@ -4691,7 +4799,7 @@
       <c r="D244" s="16"/>
     </row>
     <row r="245" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A245" s="20" t="s">
+      <c r="A245" s="24" t="s">
         <v>274</v>
       </c>
       <c r="B245" s="14" t="s">
@@ -4705,7 +4813,7 @@
       </c>
     </row>
     <row r="246" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A246" s="22"/>
+      <c r="A246" s="26"/>
       <c r="B246" s="14" t="s">
         <v>276</v>
       </c>
@@ -4717,7 +4825,7 @@
       </c>
     </row>
     <row r="247" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A247" s="20" t="s">
+      <c r="A247" s="24" t="s">
         <v>277</v>
       </c>
       <c r="B247" s="14" t="s">
@@ -4729,7 +4837,7 @@
       <c r="D247" s="16"/>
     </row>
     <row r="248" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A248" s="21"/>
+      <c r="A248" s="25"/>
       <c r="B248" s="14" t="s">
         <v>279</v>
       </c>
@@ -4739,7 +4847,7 @@
       <c r="D248" s="16"/>
     </row>
     <row r="249" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A249" s="21"/>
+      <c r="A249" s="25"/>
       <c r="B249" s="14" t="s">
         <v>280</v>
       </c>
@@ -4751,7 +4859,7 @@
       </c>
     </row>
     <row r="250" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A250" s="21"/>
+      <c r="A250" s="25"/>
       <c r="B250" s="14" t="s">
         <v>281</v>
       </c>
@@ -4761,7 +4869,7 @@
       <c r="D250" s="16"/>
     </row>
     <row r="251" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A251" s="21"/>
+      <c r="A251" s="25"/>
       <c r="B251" s="14" t="s">
         <v>282</v>
       </c>
@@ -4771,7 +4879,7 @@
       <c r="D251" s="16"/>
     </row>
     <row r="252" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A252" s="21"/>
+      <c r="A252" s="25"/>
       <c r="B252" s="14" t="s">
         <v>283</v>
       </c>
@@ -4781,7 +4889,7 @@
       <c r="D252" s="16"/>
     </row>
     <row r="253" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A253" s="21"/>
+      <c r="A253" s="25"/>
       <c r="B253" s="14" t="s">
         <v>284</v>
       </c>
@@ -4791,7 +4899,7 @@
       <c r="D253" s="16"/>
     </row>
     <row r="254" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A254" s="21"/>
+      <c r="A254" s="25"/>
       <c r="B254" s="14" t="s">
         <v>285</v>
       </c>
@@ -4803,7 +4911,7 @@
       </c>
     </row>
     <row r="255" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A255" s="22"/>
+      <c r="A255" s="26"/>
       <c r="B255" s="19" t="s">
         <v>286</v>
       </c>
@@ -4813,7 +4921,7 @@
       <c r="D255" s="16"/>
     </row>
     <row r="256" spans="1:4" ht="21" customHeight="1">
-      <c r="A256" s="20" t="s">
+      <c r="A256" s="24" t="s">
         <v>287</v>
       </c>
       <c r="B256" s="19" t="s">
@@ -4827,7 +4935,7 @@
       </c>
     </row>
     <row r="257" spans="1:4" ht="21" customHeight="1">
-      <c r="A257" s="21"/>
+      <c r="A257" s="25"/>
       <c r="B257" s="19" t="s">
         <v>465</v>
       </c>
@@ -4837,7 +4945,7 @@
       <c r="D257" s="16"/>
     </row>
     <row r="258" spans="1:4" ht="21" customHeight="1">
-      <c r="A258" s="22"/>
+      <c r="A258" s="26"/>
       <c r="B258" s="19" t="s">
         <v>466</v>
       </c>
@@ -4847,7 +4955,7 @@
       <c r="D258" s="16"/>
     </row>
     <row r="259" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A259" s="20" t="s">
+      <c r="A259" s="24" t="s">
         <v>288</v>
       </c>
       <c r="B259" s="19" t="s">
@@ -4859,7 +4967,7 @@
       <c r="D259" s="16"/>
     </row>
     <row r="260" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A260" s="21"/>
+      <c r="A260" s="25"/>
       <c r="B260" s="19" t="s">
         <v>290</v>
       </c>
@@ -4869,7 +4977,7 @@
       <c r="D260" s="16"/>
     </row>
     <row r="261" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A261" s="21"/>
+      <c r="A261" s="25"/>
       <c r="B261" s="19" t="s">
         <v>291</v>
       </c>
@@ -4879,7 +4987,7 @@
       <c r="D261" s="16"/>
     </row>
     <row r="262" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A262" s="21"/>
+      <c r="A262" s="25"/>
       <c r="B262" s="19" t="s">
         <v>292</v>
       </c>
@@ -4889,7 +4997,7 @@
       <c r="D262" s="16"/>
     </row>
     <row r="263" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A263" s="21"/>
+      <c r="A263" s="25"/>
       <c r="B263" s="19" t="s">
         <v>293</v>
       </c>
@@ -4901,7 +5009,7 @@
       </c>
     </row>
     <row r="264" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A264" s="22"/>
+      <c r="A264" s="26"/>
       <c r="B264" s="19" t="s">
         <v>294</v>
       </c>
@@ -4911,7 +5019,7 @@
       <c r="D264" s="16"/>
     </row>
     <row r="265" spans="1:4" ht="27.6" customHeight="1">
-      <c r="A265" s="20" t="s">
+      <c r="A265" s="24" t="s">
         <v>295</v>
       </c>
       <c r="B265" s="14" t="s">
@@ -4923,7 +5031,7 @@
       <c r="D265" s="16"/>
     </row>
     <row r="266" spans="1:4" ht="27.6" customHeight="1">
-      <c r="A266" s="21"/>
+      <c r="A266" s="25"/>
       <c r="B266" s="14" t="s">
         <v>468</v>
       </c>
@@ -4933,7 +5041,7 @@
       <c r="D266" s="16"/>
     </row>
     <row r="267" spans="1:4" ht="27.6" customHeight="1">
-      <c r="A267" s="21"/>
+      <c r="A267" s="25"/>
       <c r="B267" s="14" t="s">
         <v>469</v>
       </c>
@@ -4943,7 +5051,7 @@
       <c r="D267" s="16"/>
     </row>
     <row r="268" spans="1:4" ht="27.6" customHeight="1">
-      <c r="A268" s="21"/>
+      <c r="A268" s="25"/>
       <c r="B268" s="14" t="s">
         <v>470</v>
       </c>
@@ -4953,7 +5061,7 @@
       <c r="D268" s="16"/>
     </row>
     <row r="269" spans="1:4" ht="27.6" customHeight="1">
-      <c r="A269" s="22"/>
+      <c r="A269" s="26"/>
       <c r="B269" s="14" t="s">
         <v>471</v>
       </c>
@@ -4965,7 +5073,7 @@
       </c>
     </row>
     <row r="270" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A270" s="20" t="s">
+      <c r="A270" s="24" t="s">
         <v>296</v>
       </c>
       <c r="B270" s="14" t="s">
@@ -4977,7 +5085,7 @@
       <c r="D270" s="16"/>
     </row>
     <row r="271" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A271" s="21"/>
+      <c r="A271" s="25"/>
       <c r="B271" s="14" t="s">
         <v>298</v>
       </c>
@@ -4987,7 +5095,7 @@
       <c r="D271" s="16"/>
     </row>
     <row r="272" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A272" s="21"/>
+      <c r="A272" s="25"/>
       <c r="B272" s="14" t="s">
         <v>299</v>
       </c>
@@ -4997,7 +5105,7 @@
       <c r="D272" s="16"/>
     </row>
     <row r="273" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A273" s="21"/>
+      <c r="A273" s="25"/>
       <c r="B273" s="14" t="s">
         <v>300</v>
       </c>
@@ -5009,7 +5117,7 @@
       </c>
     </row>
     <row r="274" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A274" s="21"/>
+      <c r="A274" s="25"/>
       <c r="B274" s="14" t="s">
         <v>301</v>
       </c>
@@ -5019,7 +5127,7 @@
       <c r="D274" s="16"/>
     </row>
     <row r="275" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A275" s="21"/>
+      <c r="A275" s="25"/>
       <c r="B275" s="14" t="s">
         <v>302</v>
       </c>
@@ -5029,7 +5137,7 @@
       <c r="D275" s="16"/>
     </row>
     <row r="276" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A276" s="21"/>
+      <c r="A276" s="25"/>
       <c r="B276" s="14" t="s">
         <v>303</v>
       </c>
@@ -5039,7 +5147,7 @@
       <c r="D276" s="16"/>
     </row>
     <row r="277" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A277" s="21"/>
+      <c r="A277" s="25"/>
       <c r="B277" s="14" t="s">
         <v>304</v>
       </c>
@@ -5051,7 +5159,7 @@
       </c>
     </row>
     <row r="278" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A278" s="21"/>
+      <c r="A278" s="25"/>
       <c r="B278" s="14" t="s">
         <v>305</v>
       </c>
@@ -5061,7 +5169,7 @@
       <c r="D278" s="16"/>
     </row>
     <row r="279" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A279" s="22"/>
+      <c r="A279" s="26"/>
       <c r="B279" s="14" t="s">
         <v>306</v>
       </c>
@@ -5071,7 +5179,7 @@
       <c r="D279" s="16"/>
     </row>
     <row r="280" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A280" s="20" t="s">
+      <c r="A280" s="24" t="s">
         <v>307</v>
       </c>
       <c r="B280" s="14" t="s">
@@ -5085,7 +5193,7 @@
       </c>
     </row>
     <row r="281" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A281" s="22"/>
+      <c r="A281" s="26"/>
       <c r="B281" s="14" t="s">
         <v>309</v>
       </c>
@@ -5097,7 +5205,7 @@
       </c>
     </row>
     <row r="282" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A282" s="20" t="s">
+      <c r="A282" s="24" t="s">
         <v>310</v>
       </c>
       <c r="B282" s="14" t="s">
@@ -5109,7 +5217,7 @@
       <c r="D282" s="16"/>
     </row>
     <row r="283" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A283" s="21"/>
+      <c r="A283" s="25"/>
       <c r="B283" s="14" t="s">
         <v>312</v>
       </c>
@@ -5119,7 +5227,7 @@
       <c r="D283" s="16"/>
     </row>
     <row r="284" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A284" s="21"/>
+      <c r="A284" s="25"/>
       <c r="B284" s="14" t="s">
         <v>313</v>
       </c>
@@ -5129,7 +5237,7 @@
       <c r="D284" s="16"/>
     </row>
     <row r="285" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A285" s="21"/>
+      <c r="A285" s="25"/>
       <c r="B285" s="14" t="s">
         <v>314</v>
       </c>
@@ -5139,7 +5247,7 @@
       <c r="D285" s="16"/>
     </row>
     <row r="286" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A286" s="21"/>
+      <c r="A286" s="25"/>
       <c r="B286" s="14" t="s">
         <v>315</v>
       </c>
@@ -5151,7 +5259,7 @@
       </c>
     </row>
     <row r="287" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A287" s="21"/>
+      <c r="A287" s="25"/>
       <c r="B287" s="14" t="s">
         <v>316</v>
       </c>
@@ -5161,7 +5269,7 @@
       <c r="D287" s="16"/>
     </row>
     <row r="288" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A288" s="21"/>
+      <c r="A288" s="25"/>
       <c r="B288" s="14" t="s">
         <v>317</v>
       </c>
@@ -5171,7 +5279,7 @@
       <c r="D288" s="16"/>
     </row>
     <row r="289" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A289" s="21"/>
+      <c r="A289" s="25"/>
       <c r="B289" s="14" t="s">
         <v>318</v>
       </c>
@@ -5181,7 +5289,7 @@
       <c r="D289" s="16"/>
     </row>
     <row r="290" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A290" s="21"/>
+      <c r="A290" s="25"/>
       <c r="B290" s="14" t="s">
         <v>319</v>
       </c>
@@ -5191,7 +5299,7 @@
       <c r="D290" s="16"/>
     </row>
     <row r="291" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A291" s="22"/>
+      <c r="A291" s="26"/>
       <c r="B291" s="14" t="s">
         <v>320</v>
       </c>
@@ -5201,7 +5309,7 @@
       <c r="D291" s="16"/>
     </row>
     <row r="292" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A292" s="20" t="s">
+      <c r="A292" s="24" t="s">
         <v>321</v>
       </c>
       <c r="B292" s="14" t="s">
@@ -5213,7 +5321,7 @@
       <c r="D292" s="16"/>
     </row>
     <row r="293" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A293" s="21"/>
+      <c r="A293" s="25"/>
       <c r="B293" s="14" t="s">
         <v>323</v>
       </c>
@@ -5223,7 +5331,7 @@
       <c r="D293" s="16"/>
     </row>
     <row r="294" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A294" s="21"/>
+      <c r="A294" s="25"/>
       <c r="B294" s="14" t="s">
         <v>324</v>
       </c>
@@ -5233,7 +5341,7 @@
       <c r="D294" s="16"/>
     </row>
     <row r="295" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A295" s="21"/>
+      <c r="A295" s="25"/>
       <c r="B295" s="14" t="s">
         <v>325</v>
       </c>
@@ -5243,7 +5351,7 @@
       <c r="D295" s="16"/>
     </row>
     <row r="296" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A296" s="21"/>
+      <c r="A296" s="25"/>
       <c r="B296" s="14" t="s">
         <v>326</v>
       </c>
@@ -5253,7 +5361,7 @@
       <c r="D296" s="16"/>
     </row>
     <row r="297" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A297" s="21"/>
+      <c r="A297" s="25"/>
       <c r="B297" s="14" t="s">
         <v>327</v>
       </c>
@@ -5263,7 +5371,7 @@
       <c r="D297" s="16"/>
     </row>
     <row r="298" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A298" s="21"/>
+      <c r="A298" s="25"/>
       <c r="B298" s="14" t="s">
         <v>328</v>
       </c>
@@ -5273,7 +5381,7 @@
       <c r="D298" s="16"/>
     </row>
     <row r="299" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A299" s="21"/>
+      <c r="A299" s="25"/>
       <c r="B299" s="14" t="s">
         <v>329</v>
       </c>
@@ -5283,7 +5391,7 @@
       <c r="D299" s="16"/>
     </row>
     <row r="300" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A300" s="21"/>
+      <c r="A300" s="25"/>
       <c r="B300" s="14" t="s">
         <v>330</v>
       </c>
@@ -5293,7 +5401,7 @@
       <c r="D300" s="16"/>
     </row>
     <row r="301" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A301" s="21"/>
+      <c r="A301" s="25"/>
       <c r="B301" s="14" t="s">
         <v>331</v>
       </c>
@@ -5303,7 +5411,7 @@
       <c r="D301" s="16"/>
     </row>
     <row r="302" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A302" s="21"/>
+      <c r="A302" s="25"/>
       <c r="B302" s="14" t="s">
         <v>332</v>
       </c>
@@ -5313,7 +5421,7 @@
       <c r="D302" s="16"/>
     </row>
     <row r="303" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A303" s="21"/>
+      <c r="A303" s="25"/>
       <c r="B303" s="14" t="s">
         <v>333</v>
       </c>
@@ -5323,7 +5431,7 @@
       <c r="D303" s="16"/>
     </row>
     <row r="304" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A304" s="21"/>
+      <c r="A304" s="25"/>
       <c r="B304" s="14" t="s">
         <v>334</v>
       </c>
@@ -5333,7 +5441,7 @@
       <c r="D304" s="16"/>
     </row>
     <row r="305" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A305" s="21"/>
+      <c r="A305" s="25"/>
       <c r="B305" s="14" t="s">
         <v>335</v>
       </c>
@@ -5343,7 +5451,7 @@
       <c r="D305" s="16"/>
     </row>
     <row r="306" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A306" s="21"/>
+      <c r="A306" s="25"/>
       <c r="B306" s="14" t="s">
         <v>336</v>
       </c>
@@ -5353,7 +5461,7 @@
       <c r="D306" s="16"/>
     </row>
     <row r="307" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A307" s="21"/>
+      <c r="A307" s="25"/>
       <c r="B307" s="14" t="s">
         <v>337</v>
       </c>
@@ -5363,7 +5471,7 @@
       <c r="D307" s="16"/>
     </row>
     <row r="308" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A308" s="21"/>
+      <c r="A308" s="25"/>
       <c r="B308" s="14" t="s">
         <v>338</v>
       </c>
@@ -5373,7 +5481,7 @@
       <c r="D308" s="16"/>
     </row>
     <row r="309" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A309" s="21"/>
+      <c r="A309" s="25"/>
       <c r="B309" s="14" t="s">
         <v>339</v>
       </c>
@@ -5383,7 +5491,7 @@
       <c r="D309" s="16"/>
     </row>
     <row r="310" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A310" s="21"/>
+      <c r="A310" s="25"/>
       <c r="B310" s="14" t="s">
         <v>340</v>
       </c>
@@ -5393,7 +5501,7 @@
       <c r="D310" s="16"/>
     </row>
     <row r="311" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A311" s="21"/>
+      <c r="A311" s="25"/>
       <c r="B311" s="14" t="s">
         <v>341</v>
       </c>
@@ -5403,7 +5511,7 @@
       <c r="D311" s="16"/>
     </row>
     <row r="312" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A312" s="22"/>
+      <c r="A312" s="26"/>
       <c r="B312" s="14" t="s">
         <v>342</v>
       </c>
@@ -5429,7 +5537,7 @@
       </c>
     </row>
     <row r="314" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A314" s="20" t="s">
+      <c r="A314" s="24" t="s">
         <v>345</v>
       </c>
       <c r="B314" s="14" t="s">
@@ -5441,7 +5549,7 @@
       <c r="D314" s="16"/>
     </row>
     <row r="315" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A315" s="21"/>
+      <c r="A315" s="25"/>
       <c r="B315" s="14" t="s">
         <v>347</v>
       </c>
@@ -5451,7 +5559,7 @@
       <c r="D315" s="16"/>
     </row>
     <row r="316" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A316" s="21"/>
+      <c r="A316" s="25"/>
       <c r="B316" s="14" t="s">
         <v>348</v>
       </c>
@@ -5461,7 +5569,7 @@
       <c r="D316" s="16"/>
     </row>
     <row r="317" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A317" s="21"/>
+      <c r="A317" s="25"/>
       <c r="B317" s="14" t="s">
         <v>349</v>
       </c>
@@ -5471,7 +5579,7 @@
       <c r="D317" s="16"/>
     </row>
     <row r="318" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A318" s="21"/>
+      <c r="A318" s="25"/>
       <c r="B318" s="14" t="s">
         <v>350</v>
       </c>
@@ -5483,7 +5591,7 @@
       </c>
     </row>
     <row r="319" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A319" s="21"/>
+      <c r="A319" s="25"/>
       <c r="B319" s="14" t="s">
         <v>351</v>
       </c>
@@ -5493,7 +5601,7 @@
       <c r="D319" s="16"/>
     </row>
     <row r="320" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A320" s="21"/>
+      <c r="A320" s="25"/>
       <c r="B320" s="14" t="s">
         <v>352</v>
       </c>
@@ -5505,7 +5613,7 @@
       </c>
     </row>
     <row r="321" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A321" s="22"/>
+      <c r="A321" s="26"/>
       <c r="B321" s="14" t="s">
         <v>353</v>
       </c>
@@ -5531,7 +5639,7 @@
       </c>
     </row>
     <row r="323" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A323" s="20" t="s">
+      <c r="A323" s="24" t="s">
         <v>356</v>
       </c>
       <c r="B323" s="14" t="s">
@@ -5543,7 +5651,7 @@
       <c r="D323" s="16"/>
     </row>
     <row r="324" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A324" s="21"/>
+      <c r="A324" s="25"/>
       <c r="B324" s="14" t="s">
         <v>358</v>
       </c>
@@ -5555,7 +5663,7 @@
       </c>
     </row>
     <row r="325" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A325" s="21"/>
+      <c r="A325" s="25"/>
       <c r="B325" s="14" t="s">
         <v>359</v>
       </c>
@@ -5567,7 +5675,7 @@
       </c>
     </row>
     <row r="326" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A326" s="21"/>
+      <c r="A326" s="25"/>
       <c r="B326" s="14" t="s">
         <v>360</v>
       </c>
@@ -5577,7 +5685,7 @@
       <c r="D326" s="16"/>
     </row>
     <row r="327" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A327" s="21"/>
+      <c r="A327" s="25"/>
       <c r="B327" s="14" t="s">
         <v>361</v>
       </c>
@@ -5587,7 +5695,7 @@
       <c r="D327" s="16"/>
     </row>
     <row r="328" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A328" s="22"/>
+      <c r="A328" s="26"/>
       <c r="B328" s="14" t="s">
         <v>362</v>
       </c>
@@ -5597,7 +5705,7 @@
       <c r="D328" s="16"/>
     </row>
     <row r="329" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A329" s="20" t="s">
+      <c r="A329" s="24" t="s">
         <v>363</v>
       </c>
       <c r="B329" s="14" t="s">
@@ -5611,7 +5719,7 @@
       </c>
     </row>
     <row r="330" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A330" s="21"/>
+      <c r="A330" s="25"/>
       <c r="B330" s="14" t="s">
         <v>365</v>
       </c>
@@ -5623,7 +5731,7 @@
       </c>
     </row>
     <row r="331" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A331" s="21"/>
+      <c r="A331" s="25"/>
       <c r="B331" s="14" t="s">
         <v>366</v>
       </c>
@@ -5635,7 +5743,7 @@
       </c>
     </row>
     <row r="332" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A332" s="21"/>
+      <c r="A332" s="25"/>
       <c r="B332" s="14" t="s">
         <v>367</v>
       </c>
@@ -5647,7 +5755,7 @@
       </c>
     </row>
     <row r="333" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A333" s="21"/>
+      <c r="A333" s="25"/>
       <c r="B333" s="14" t="s">
         <v>368</v>
       </c>
@@ -5659,7 +5767,7 @@
       </c>
     </row>
     <row r="334" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A334" s="21"/>
+      <c r="A334" s="25"/>
       <c r="B334" s="14" t="s">
         <v>369</v>
       </c>
@@ -5671,7 +5779,7 @@
       </c>
     </row>
     <row r="335" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A335" s="21"/>
+      <c r="A335" s="25"/>
       <c r="B335" s="14" t="s">
         <v>370</v>
       </c>
@@ -5683,7 +5791,7 @@
       </c>
     </row>
     <row r="336" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A336" s="21"/>
+      <c r="A336" s="25"/>
       <c r="B336" s="14" t="s">
         <v>371</v>
       </c>
@@ -5695,7 +5803,7 @@
       </c>
     </row>
     <row r="337" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A337" s="21"/>
+      <c r="A337" s="25"/>
       <c r="B337" s="14" t="s">
         <v>372</v>
       </c>
@@ -5707,7 +5815,7 @@
       </c>
     </row>
     <row r="338" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A338" s="21"/>
+      <c r="A338" s="25"/>
       <c r="B338" s="14" t="s">
         <v>373</v>
       </c>
@@ -5719,7 +5827,7 @@
       </c>
     </row>
     <row r="339" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A339" s="21"/>
+      <c r="A339" s="25"/>
       <c r="B339" s="14" t="s">
         <v>374</v>
       </c>
@@ -5731,7 +5839,7 @@
       </c>
     </row>
     <row r="340" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A340" s="21"/>
+      <c r="A340" s="25"/>
       <c r="B340" s="14" t="s">
         <v>375</v>
       </c>
@@ -5743,7 +5851,7 @@
       </c>
     </row>
     <row r="341" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A341" s="21"/>
+      <c r="A341" s="25"/>
       <c r="B341" s="14" t="s">
         <v>376</v>
       </c>
@@ -5755,7 +5863,7 @@
       </c>
     </row>
     <row r="342" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A342" s="21"/>
+      <c r="A342" s="25"/>
       <c r="B342" s="14" t="s">
         <v>377</v>
       </c>
@@ -5765,7 +5873,7 @@
       <c r="D342" s="16"/>
     </row>
     <row r="343" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A343" s="21"/>
+      <c r="A343" s="25"/>
       <c r="B343" s="14" t="s">
         <v>378</v>
       </c>
@@ -5775,7 +5883,7 @@
       <c r="D343" s="16"/>
     </row>
     <row r="344" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A344" s="21"/>
+      <c r="A344" s="25"/>
       <c r="B344" s="14" t="s">
         <v>379</v>
       </c>
@@ -5785,7 +5893,7 @@
       <c r="D344" s="16"/>
     </row>
     <row r="345" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A345" s="21"/>
+      <c r="A345" s="25"/>
       <c r="B345" s="14" t="s">
         <v>380</v>
       </c>
@@ -5795,7 +5903,7 @@
       <c r="D345" s="16"/>
     </row>
     <row r="346" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A346" s="21"/>
+      <c r="A346" s="25"/>
       <c r="B346" s="14" t="s">
         <v>381</v>
       </c>
@@ -5805,7 +5913,7 @@
       <c r="D346" s="16"/>
     </row>
     <row r="347" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A347" s="21"/>
+      <c r="A347" s="25"/>
       <c r="B347" s="14" t="s">
         <v>382</v>
       </c>
@@ -5815,7 +5923,7 @@
       <c r="D347" s="16"/>
     </row>
     <row r="348" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A348" s="21"/>
+      <c r="A348" s="25"/>
       <c r="B348" s="14" t="s">
         <v>383</v>
       </c>
@@ -5827,7 +5935,7 @@
       </c>
     </row>
     <row r="349" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A349" s="21"/>
+      <c r="A349" s="25"/>
       <c r="B349" s="14" t="s">
         <v>384</v>
       </c>
@@ -5837,7 +5945,7 @@
       <c r="D349" s="16"/>
     </row>
     <row r="350" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A350" s="21"/>
+      <c r="A350" s="25"/>
       <c r="B350" s="14" t="s">
         <v>385</v>
       </c>
@@ -5849,7 +5957,7 @@
       </c>
     </row>
     <row r="351" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A351" s="21"/>
+      <c r="A351" s="25"/>
       <c r="B351" s="14" t="s">
         <v>386</v>
       </c>
@@ -5859,7 +5967,7 @@
       <c r="D351" s="16"/>
     </row>
     <row r="352" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A352" s="21"/>
+      <c r="A352" s="25"/>
       <c r="B352" s="14" t="s">
         <v>387</v>
       </c>
@@ -5869,7 +5977,7 @@
       <c r="D352" s="16"/>
     </row>
     <row r="353" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A353" s="21"/>
+      <c r="A353" s="25"/>
       <c r="B353" s="14" t="s">
         <v>388</v>
       </c>
@@ -5879,7 +5987,7 @@
       <c r="D353" s="16"/>
     </row>
     <row r="354" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A354" s="21"/>
+      <c r="A354" s="25"/>
       <c r="B354" s="14" t="s">
         <v>389</v>
       </c>
@@ -5889,7 +5997,7 @@
       <c r="D354" s="16"/>
     </row>
     <row r="355" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A355" s="21"/>
+      <c r="A355" s="25"/>
       <c r="B355" s="14" t="s">
         <v>390</v>
       </c>
@@ -5901,7 +6009,7 @@
       </c>
     </row>
     <row r="356" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A356" s="21"/>
+      <c r="A356" s="25"/>
       <c r="B356" s="14" t="s">
         <v>391</v>
       </c>
@@ -5911,7 +6019,7 @@
       <c r="D356" s="16"/>
     </row>
     <row r="357" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A357" s="21"/>
+      <c r="A357" s="25"/>
       <c r="B357" s="14" t="s">
         <v>392</v>
       </c>
@@ -5921,7 +6029,7 @@
       <c r="D357" s="16"/>
     </row>
     <row r="358" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A358" s="22"/>
+      <c r="A358" s="26"/>
       <c r="B358" s="14" t="s">
         <v>393</v>
       </c>
@@ -5932,6 +6040,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A90:A97"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A25:A52"/>
+    <mergeCell ref="A53:A62"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A89"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="A181:A200"/>
+    <mergeCell ref="A201:A210"/>
+    <mergeCell ref="A212:A233"/>
+    <mergeCell ref="A234:A238"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A122:A154"/>
+    <mergeCell ref="A155:A165"/>
+    <mergeCell ref="A166:A167"/>
     <mergeCell ref="A329:A358"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A270:A279"/>
@@ -5948,33 +6083,6 @@
     <mergeCell ref="A265:A269"/>
     <mergeCell ref="A168:A177"/>
     <mergeCell ref="A178:A180"/>
-    <mergeCell ref="A181:A200"/>
-    <mergeCell ref="A201:A210"/>
-    <mergeCell ref="A212:A233"/>
-    <mergeCell ref="A234:A238"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A122:A154"/>
-    <mergeCell ref="A155:A165"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A107:A112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="A90:A97"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="A25:A52"/>
-    <mergeCell ref="A53:A62"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A68:A74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A83:A89"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C358">
@@ -5990,8 +6098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A31" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6007,42 +6115,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.95" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>450</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="34" t="s">
         <v>403</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="34" t="s">
         <v>402</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="34" t="s">
         <v>398</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34" t="s">
         <v>399</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="33"/>
+      <c r="G2" s="34"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="7" t="s">
         <v>400</v>
       </c>
@@ -6055,126 +6163,150 @@
       <c r="G3" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="33"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="6">
+      <c r="B4" s="35" t="s">
+        <v>499</v>
+      </c>
+      <c r="C4" s="35">
+        <v>1546.43</v>
+      </c>
+      <c r="D4" s="35">
         <v>13</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="35">
         <v>506</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="35">
         <v>0</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="33"/>
+      <c r="G4" s="35"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="35" t="s">
         <v>404</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="6">
+      <c r="B5" s="35" t="s">
+        <v>500</v>
+      </c>
+      <c r="C5" s="35">
+        <v>1355.47</v>
+      </c>
+      <c r="D5" s="35">
         <v>12</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="35">
         <v>436</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="35">
         <v>0</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="33"/>
+      <c r="G5" s="35"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="35" t="s">
         <v>405</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="6">
+      <c r="B6" s="35" t="s">
+        <v>495</v>
+      </c>
+      <c r="C6" s="35">
+        <v>1161.49</v>
+      </c>
+      <c r="D6" s="35">
         <v>12</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="35">
         <v>474</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="35">
         <v>0</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="33"/>
+      <c r="G6" s="35"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="35" t="s">
         <v>406</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="6">
+      <c r="B7" s="35" t="s">
+        <v>496</v>
+      </c>
+      <c r="C7" s="35">
+        <v>1275.5899999999999</v>
+      </c>
+      <c r="D7" s="35">
         <v>12</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="35">
         <v>437</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="35">
         <v>0</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="33"/>
+      <c r="G7" s="35"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="35" t="s">
         <v>407</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="6">
+      <c r="B8" s="35" t="s">
+        <v>497</v>
+      </c>
+      <c r="C8" s="35">
+        <v>1599.88</v>
+      </c>
+      <c r="D8" s="35">
         <v>13</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="35">
         <v>450</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="35">
         <v>0</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="33"/>
+      <c r="G8" s="35"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="35" t="s">
         <v>408</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="6">
+      <c r="B9" s="35" t="s">
+        <v>498</v>
+      </c>
+      <c r="C9" s="35">
+        <v>926.76</v>
+      </c>
+      <c r="D9" s="35">
         <v>12</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="35">
         <v>470</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="35">
         <v>0</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="33"/>
+      <c r="G9" s="35"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="6"/>
-      <c r="B10" s="8"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="8"/>
       <c r="D10" s="6">
         <v>7</v>
@@ -6182,816 +6314,972 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="33"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="35" t="s">
         <v>409</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="6">
+      <c r="B11" s="35" t="s">
+        <v>492</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="35">
         <v>5</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="35">
         <v>428</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="35">
         <v>0</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="33"/>
+      <c r="G11" s="35"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="35" t="s">
         <v>410</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32">
+      <c r="B12" s="35" t="s">
+        <v>474</v>
+      </c>
+      <c r="C12" s="35">
+        <v>402.08</v>
+      </c>
+      <c r="D12" s="35">
         <v>7</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="35">
         <v>474</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="35">
         <v>0</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="35">
         <v>777</v>
       </c>
-      <c r="I12" s="36"/>
-      <c r="J12" s="33"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="35" t="s">
         <v>411</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32">
+      <c r="B13" s="35" t="s">
+        <v>475</v>
+      </c>
+      <c r="C13" s="35">
+        <v>689.46</v>
+      </c>
+      <c r="D13" s="35">
         <v>6</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="35">
         <v>450</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="35">
         <v>0</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="35">
         <v>762</v>
       </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="33"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="20"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32">
+      <c r="B14" s="35" t="s">
+        <v>476</v>
+      </c>
+      <c r="C14" s="35">
+        <v>710.52</v>
+      </c>
+      <c r="D14" s="35">
         <v>13</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="35">
         <v>413</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="35">
         <v>0</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="35">
         <v>701</v>
       </c>
-      <c r="I14" s="36"/>
-      <c r="J14" s="33"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="35" t="s">
         <v>413</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32">
+      <c r="B15" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="C15" s="35">
+        <v>770.85</v>
+      </c>
+      <c r="D15" s="35">
         <v>9</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="35">
         <v>510</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="35">
         <v>0</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G15" s="35">
         <v>685</v>
       </c>
-      <c r="I15" s="36"/>
-      <c r="J15" s="33"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="35" t="s">
         <v>414</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32">
+      <c r="B16" s="35" t="s">
+        <v>478</v>
+      </c>
+      <c r="C16" s="35">
+        <v>790.42</v>
+      </c>
+      <c r="D16" s="35">
         <v>9</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="35">
         <v>480</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="35">
         <v>0</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="35">
         <v>390</v>
       </c>
-      <c r="I16" s="36"/>
-      <c r="J16" s="33"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32">
+      <c r="B17" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="C17" s="35">
+        <v>945.25</v>
+      </c>
+      <c r="D17" s="35">
         <v>7</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="35">
         <v>408</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="35">
         <v>0</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="35">
         <v>1112</v>
       </c>
-      <c r="I17" s="36"/>
-      <c r="J17" s="33"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="20"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="35" t="s">
         <v>416</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="32">
+      <c r="B18" s="35" t="s">
+        <v>482</v>
+      </c>
+      <c r="C18" s="35">
+        <v>733.78</v>
+      </c>
+      <c r="D18" s="35">
         <v>11</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="35">
         <v>399</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="35">
         <v>0</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="35">
         <v>347</v>
       </c>
-      <c r="I18" s="36"/>
-      <c r="J18" s="33"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="20"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="35" t="s">
         <v>417</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32">
+      <c r="B19" s="35" t="s">
+        <v>483</v>
+      </c>
+      <c r="C19" s="35">
+        <v>883.97</v>
+      </c>
+      <c r="D19" s="35">
         <v>11</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="35">
         <v>421</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="35">
         <v>0</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="35">
         <v>356</v>
       </c>
-      <c r="I19" s="36"/>
-      <c r="J19" s="33"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="20"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="35" t="s">
         <v>418</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32">
+      <c r="B20" s="35" t="s">
+        <v>483</v>
+      </c>
+      <c r="C20" s="35">
+        <v>832.13</v>
+      </c>
+      <c r="D20" s="35">
         <v>6</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="35">
         <v>453</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F20" s="35">
         <v>0</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G20" s="35">
         <v>356</v>
       </c>
-      <c r="I20" s="36"/>
-      <c r="J20" s="33"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="20"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="35" t="s">
         <v>419</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32">
+      <c r="B21" s="35" t="s">
+        <v>486</v>
+      </c>
+      <c r="C21" s="35">
+        <v>953.47</v>
+      </c>
+      <c r="D21" s="35">
         <v>8</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="35">
         <v>388</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="35">
         <v>0</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="35">
         <v>406</v>
       </c>
-      <c r="I21" s="36"/>
-      <c r="J21" s="33"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="20"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="35" t="s">
         <v>420</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32">
+      <c r="B22" s="35" t="s">
+        <v>476</v>
+      </c>
+      <c r="C22" s="35">
+        <v>1003.82</v>
+      </c>
+      <c r="D22" s="35">
         <v>11</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="35">
         <v>470</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="35">
         <v>0</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="35">
         <v>762</v>
       </c>
-      <c r="I22" s="34"/>
+      <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="35" t="s">
         <v>421</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32">
+      <c r="B23" s="35" t="s">
+        <v>480</v>
+      </c>
+      <c r="C23" s="35">
+        <v>857</v>
+      </c>
+      <c r="D23" s="35">
         <v>11</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="35">
         <v>449</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F23" s="35">
         <v>0</v>
       </c>
-      <c r="G23" s="32">
+      <c r="G23" s="35">
         <v>728</v>
       </c>
-      <c r="I23" s="34"/>
+      <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="35" t="s">
         <v>422</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32">
+      <c r="B24" s="35" t="s">
+        <v>481</v>
+      </c>
+      <c r="C24" s="35">
+        <v>783.82</v>
+      </c>
+      <c r="D24" s="35">
+        <v>13</v>
+      </c>
+      <c r="E24" s="35">
         <v>441</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F24" s="35">
         <v>0</v>
       </c>
-      <c r="G24" s="32"/>
-      <c r="I24" s="34"/>
+      <c r="G24" s="35"/>
+      <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="35" t="s">
         <v>423</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32">
+      <c r="B25" s="35" t="s">
+        <v>475</v>
+      </c>
+      <c r="C25" s="35">
+        <v>915.8</v>
+      </c>
+      <c r="D25" s="35">
         <v>7</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="35">
         <v>408</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="35">
         <v>0</v>
       </c>
-      <c r="G25" s="32">
+      <c r="G25" s="35">
         <v>382</v>
       </c>
-      <c r="I25" s="34"/>
+      <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="35" t="s">
         <v>424</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32">
+      <c r="B26" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35">
         <v>8</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="35">
         <v>491</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F26" s="35">
         <v>0</v>
       </c>
-      <c r="G26" s="32">
+      <c r="G26" s="35">
         <v>382</v>
       </c>
-      <c r="I26" s="34"/>
+      <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="35" t="s">
         <v>425</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32">
+      <c r="B27" s="35" t="s">
+        <v>485</v>
+      </c>
+      <c r="C27" s="35">
+        <v>1389.3</v>
+      </c>
+      <c r="D27" s="35">
         <v>13</v>
       </c>
-      <c r="E27" s="32">
+      <c r="E27" s="35">
         <v>434</v>
       </c>
-      <c r="F27" s="32">
+      <c r="F27" s="35">
         <v>0</v>
       </c>
-      <c r="G27" s="32">
+      <c r="G27" s="35">
         <v>424</v>
       </c>
-      <c r="I27" s="34"/>
+      <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="35" t="s">
         <v>426</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="32">
+      <c r="B28" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="C28" s="35">
+        <v>968.51</v>
+      </c>
+      <c r="D28" s="35">
         <v>10</v>
       </c>
-      <c r="E28" s="32">
+      <c r="E28" s="35">
         <v>411</v>
       </c>
-      <c r="F28" s="32">
+      <c r="F28" s="35">
         <v>0</v>
       </c>
-      <c r="G28" s="32">
+      <c r="G28" s="35">
         <v>391</v>
       </c>
-      <c r="I28" s="34"/>
+      <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32">
+      <c r="B29" s="35" t="s">
+        <v>488</v>
+      </c>
+      <c r="C29" s="35">
+        <v>1111.8</v>
+      </c>
+      <c r="D29" s="35">
         <v>11</v>
       </c>
-      <c r="E29" s="32">
+      <c r="E29" s="35">
         <v>420</v>
       </c>
-      <c r="F29" s="32">
+      <c r="F29" s="35">
         <v>0</v>
       </c>
-      <c r="G29" s="32">
+      <c r="G29" s="35">
         <v>367</v>
       </c>
-      <c r="I29" s="34"/>
+      <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="35" t="s">
         <v>428</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32">
+      <c r="B30" s="35" t="s">
+        <v>493</v>
+      </c>
+      <c r="C30" s="35">
+        <v>973.48</v>
+      </c>
+      <c r="D30" s="35">
         <v>5</v>
       </c>
-      <c r="E30" s="32">
+      <c r="E30" s="35">
         <v>468</v>
       </c>
-      <c r="F30" s="32">
+      <c r="F30" s="35">
         <v>0</v>
       </c>
-      <c r="G30" s="32"/>
-      <c r="I30" s="34"/>
+      <c r="G30" s="35"/>
+      <c r="I30" s="21"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="35" t="s">
         <v>429</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="6">
+      <c r="B31" s="35" t="s">
+        <v>491</v>
+      </c>
+      <c r="C31" s="35">
+        <v>846.18</v>
+      </c>
+      <c r="D31" s="35">
         <v>6</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="35">
         <v>383</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="35">
         <v>0</v>
       </c>
-      <c r="G31" s="6"/>
-      <c r="I31" s="34"/>
+      <c r="G31" s="35"/>
+      <c r="I31" s="21"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="35" t="s">
         <v>430</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="6">
+      <c r="B32" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="C32" s="36">
+        <v>786.45</v>
+      </c>
+      <c r="D32" s="35">
         <v>10</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="35">
         <v>460</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="35">
         <v>0</v>
       </c>
-      <c r="G32" s="6"/>
-      <c r="I32" s="34"/>
+      <c r="G32" s="35"/>
+      <c r="I32" s="21"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="35" t="s">
         <v>431</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="32">
+      <c r="B33" s="35" t="s">
+        <v>485</v>
+      </c>
+      <c r="C33" s="35">
+        <v>918.58</v>
+      </c>
+      <c r="D33" s="35">
         <v>13</v>
       </c>
-      <c r="E33" s="32">
+      <c r="E33" s="35">
         <v>435</v>
       </c>
-      <c r="F33" s="32">
+      <c r="F33" s="35">
         <v>0</v>
       </c>
-      <c r="G33" s="32">
+      <c r="G33" s="35">
         <v>406</v>
       </c>
-      <c r="I33" s="34"/>
+      <c r="I33" s="21"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="35" t="s">
         <v>432</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="32">
+      <c r="B34" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="C34" s="36"/>
+      <c r="D34" s="35">
         <v>11</v>
       </c>
-      <c r="E34" s="32">
+      <c r="E34" s="35">
         <v>492</v>
       </c>
-      <c r="F34" s="32">
+      <c r="F34" s="35">
         <v>0</v>
       </c>
-      <c r="G34" s="32">
+      <c r="G34" s="35">
         <v>336</v>
       </c>
-      <c r="I34" s="34"/>
+      <c r="I34" s="21"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="35" t="s">
         <v>433</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="6">
+      <c r="B35" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="C35" s="35">
+        <v>509.28</v>
+      </c>
+      <c r="D35" s="35">
         <v>7</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="35">
         <v>494</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="35">
         <v>0</v>
       </c>
-      <c r="G35" s="6"/>
-      <c r="I35" s="34"/>
+      <c r="G35" s="35"/>
+      <c r="I35" s="21"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="35" t="s">
         <v>434</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="6">
+      <c r="B36" s="35" t="s">
+        <v>494</v>
+      </c>
+      <c r="C36" s="35">
+        <v>929.77</v>
+      </c>
+      <c r="D36" s="35">
         <v>12</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="35">
         <v>451</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="35">
         <v>0</v>
       </c>
-      <c r="G36" s="6"/>
-      <c r="I36" s="34"/>
+      <c r="G36" s="35"/>
+      <c r="I36" s="21"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="35" t="s">
         <v>435</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="6">
+      <c r="B37" s="35"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="35">
         <v>9</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="35">
         <v>458</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="35">
         <v>0</v>
       </c>
-      <c r="G37" s="6"/>
-      <c r="I37" s="34"/>
+      <c r="G37" s="35"/>
+      <c r="I37" s="21"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="6"/>
-      <c r="B38" s="8"/>
+      <c r="B38" s="6"/>
       <c r="C38" s="8"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="I38" s="34"/>
+      <c r="I38" s="21"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="6">
+      <c r="B39" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="C39" s="35">
+        <v>1362.53</v>
+      </c>
+      <c r="D39" s="35">
         <v>5</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="35">
         <v>449</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="35">
         <v>0</v>
       </c>
-      <c r="G39" s="6"/>
-      <c r="I39" s="34"/>
+      <c r="G39" s="35"/>
+      <c r="I39" s="21"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="35" t="s">
         <v>437</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="6">
+      <c r="B40" s="35" t="s">
+        <v>502</v>
+      </c>
+      <c r="C40" s="35">
+        <v>956.73</v>
+      </c>
+      <c r="D40" s="35">
         <v>5</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="35">
         <v>426</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="35">
         <v>0</v>
       </c>
-      <c r="G40" s="6"/>
-      <c r="I40" s="34"/>
+      <c r="G40" s="35"/>
+      <c r="I40" s="21"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="35" t="s">
         <v>438</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="6">
+      <c r="B41" s="35" t="s">
+        <v>502</v>
+      </c>
+      <c r="C41" s="35">
+        <v>946.87</v>
+      </c>
+      <c r="D41" s="35">
         <v>10</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="35">
         <v>495</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="35">
         <v>0</v>
       </c>
-      <c r="G41" s="6"/>
-      <c r="I41" s="34"/>
+      <c r="G41" s="35"/>
+      <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="35" t="s">
         <v>439</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="6">
+      <c r="B42" s="35" t="s">
+        <v>493</v>
+      </c>
+      <c r="C42" s="35">
+        <v>1546.43</v>
+      </c>
+      <c r="D42" s="35">
         <v>6</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="35">
         <v>381</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="35">
         <v>0</v>
       </c>
-      <c r="G42" s="6"/>
-      <c r="I42" s="34"/>
+      <c r="G42" s="35"/>
+      <c r="I42" s="21"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="35" t="s">
         <v>440</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="6">
+      <c r="B43" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="C43" s="35">
+        <v>1189.3</v>
+      </c>
+      <c r="D43" s="35">
         <v>5</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="35">
         <v>441</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="35">
         <v>0</v>
       </c>
-      <c r="G43" s="6"/>
-      <c r="I43" s="34"/>
+      <c r="G43" s="35"/>
+      <c r="I43" s="21"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="35" t="s">
         <v>441</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="6">
+      <c r="B44" s="35" t="s">
+        <v>493</v>
+      </c>
+      <c r="C44" s="35">
+        <v>650.34</v>
+      </c>
+      <c r="D44" s="35">
         <v>12</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="35">
         <v>518</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="35">
         <v>0</v>
       </c>
-      <c r="G44" s="6"/>
-      <c r="I44" s="34"/>
+      <c r="G44" s="35"/>
+      <c r="I44" s="21"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="35" t="s">
         <v>442</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="6">
+      <c r="B45" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="C45" s="35">
+        <v>906.38</v>
+      </c>
+      <c r="D45" s="35">
         <v>11</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="35">
         <v>449</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="35">
         <v>0</v>
       </c>
-      <c r="G45" s="6"/>
-      <c r="I45" s="34"/>
+      <c r="G45" s="35"/>
+      <c r="I45" s="21"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="35" t="s">
         <v>443</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="6">
+      <c r="B46" s="35" t="s">
+        <v>504</v>
+      </c>
+      <c r="C46" s="35">
+        <v>774.82</v>
+      </c>
+      <c r="D46" s="35">
         <v>13</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="35">
         <v>455</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="35">
         <v>0</v>
       </c>
-      <c r="G46" s="6"/>
-      <c r="I46" s="34"/>
+      <c r="G46" s="35"/>
+      <c r="I46" s="21"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="6"/>
-      <c r="B47" s="8"/>
+      <c r="B47" s="6"/>
       <c r="C47" s="8"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="I47" s="34"/>
+      <c r="I47" s="21"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="35" t="s">
         <v>444</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="6">
+      <c r="B48" s="35" t="s">
+        <v>505</v>
+      </c>
+      <c r="C48" s="35">
+        <v>1564.42</v>
+      </c>
+      <c r="D48" s="35">
         <v>13</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="35">
         <v>490</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="35">
         <v>0</v>
       </c>
-      <c r="G48" s="6"/>
-      <c r="I48" s="34"/>
+      <c r="G48" s="35"/>
+      <c r="I48" s="21"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="35" t="s">
         <v>445</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="6">
+      <c r="B49" s="35" t="s">
+        <v>505</v>
+      </c>
+      <c r="C49" s="35">
+        <v>1193.7</v>
+      </c>
+      <c r="D49" s="35">
         <v>6</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="35">
         <v>494</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="35">
         <v>0</v>
       </c>
-      <c r="G49" s="6"/>
-      <c r="I49" s="34"/>
+      <c r="G49" s="35"/>
+      <c r="I49" s="21"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="35" t="s">
         <v>446</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="6">
+      <c r="B50" s="35" t="s">
+        <v>506</v>
+      </c>
+      <c r="C50" s="35">
+        <v>1541.8</v>
+      </c>
+      <c r="D50" s="35">
         <v>13</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="35">
         <v>410</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="35">
         <v>0</v>
       </c>
-      <c r="G50" s="6"/>
-      <c r="I50" s="34"/>
+      <c r="G50" s="35"/>
+      <c r="I50" s="21"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="35" t="s">
         <v>447</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="6">
+      <c r="B51" s="35" t="s">
+        <v>505</v>
+      </c>
+      <c r="C51" s="35">
+        <v>1564.3</v>
+      </c>
+      <c r="D51" s="35">
         <v>6</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="35">
         <v>478</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="35">
         <v>0</v>
       </c>
-      <c r="G51" s="6"/>
-      <c r="I51" s="34"/>
+      <c r="G51" s="35"/>
+      <c r="I51" s="21"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="6">
+      <c r="B52" s="35" t="s">
+        <v>507</v>
+      </c>
+      <c r="C52" s="35">
+        <v>1507.65</v>
+      </c>
+      <c r="D52" s="35">
         <v>7</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="35">
         <v>514</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="35">
         <v>0</v>
       </c>
-      <c r="G52" s="6"/>
-      <c r="I52" s="34"/>
+      <c r="G52" s="35"/>
+      <c r="I52" s="21"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="35" t="s">
         <v>449</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="6">
+      <c r="B53" s="35" t="s">
+        <v>505</v>
+      </c>
+      <c r="C53" s="35">
+        <v>1578.57</v>
+      </c>
+      <c r="D53" s="35">
         <v>11</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="35">
         <v>494</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="35">
         <v>0</v>
       </c>
-      <c r="G53" s="6"/>
-      <c r="I53" s="34"/>
+      <c r="G53" s="35"/>
+      <c r="I53" s="21"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="I54" s="34"/>
+      <c r="I54" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Civilworks cost/LD/LD Annexes.xlsx
+++ b/Civilworks cost/LD/LD Annexes.xlsx
@@ -4,16 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Annex-II" sheetId="1" r:id="rId1"/>
     <sheet name="Annex-IV" sheetId="2" r:id="rId2"/>
+    <sheet name="Sorted" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Annex-II'!$A$1:$D$358</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Annex-IV'!$A$1:$G$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Sorted!$A$1:$G$53</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Annex-II'!$2:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Annex-IV'!$2:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">Sorted!$2:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="508">
   <si>
     <t xml:space="preserve">HOBI/PW-01 </t>
   </si>
@@ -1796,7 +1800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1812,13 +1816,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1857,6 +1855,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1864,6 +1869,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1875,25 +1889,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2174,29 +2188,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:D358"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="91.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="71.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="69" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:4" ht="22.9" customHeight="1">
+      <c r="A1" s="31" t="s">
         <v>451</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="64.2" customHeight="1">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="64.150000000000006" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>395</v>
       </c>
@@ -2210,3863 +2227,3836 @@
         <v>396</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A3" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A3" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A4" s="31"/>
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A4" s="29"/>
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A5" s="31"/>
-      <c r="B5" s="10" t="s">
+    <row r="5" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A5" s="29"/>
+      <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A6" s="31"/>
-      <c r="B6" s="10" t="s">
+      <c r="C5" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A6" s="29"/>
+      <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A7" s="31"/>
-      <c r="B7" s="10" t="s">
+      <c r="C6" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A7" s="29"/>
+      <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="10" t="s">
+      <c r="C7" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A8" s="30"/>
+      <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A9" s="30" t="s">
+      <c r="C8" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A9" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A10" s="31"/>
-      <c r="B10" s="10" t="s">
+      <c r="C9" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A10" s="29"/>
+      <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A11" s="31"/>
-      <c r="B11" s="10" t="s">
+      <c r="C10" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A11" s="29"/>
+      <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="D11" s="12" t="s">
+      <c r="C11" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A12" s="31"/>
-      <c r="B12" s="10" t="s">
+    <row r="12" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A12" s="29"/>
+      <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A13" s="31"/>
-      <c r="B13" s="10" t="s">
+      <c r="C12" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A13" s="29"/>
+      <c r="B13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A14" s="31"/>
-      <c r="B14" s="10" t="s">
+      <c r="C13" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A14" s="29"/>
+      <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="10" t="s">
+      <c r="C14" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A15" s="29"/>
+      <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A16" s="32"/>
-      <c r="B16" s="10" t="s">
+      <c r="C15" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A16" s="30"/>
+      <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="D16" s="12"/>
-    </row>
-    <row r="17" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A17" s="12" t="s">
+      <c r="C16" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="D17" s="12" t="s">
+      <c r="C17" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A18" s="24" t="s">
+    <row r="18" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A18" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D18" s="16" t="s">
+      <c r="C18" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A19" s="25"/>
-      <c r="B19" s="14" t="s">
+    <row r="19" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A19" s="26"/>
+      <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D19" s="16"/>
-    </row>
-    <row r="20" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A20" s="25"/>
-      <c r="B20" s="14" t="s">
+      <c r="C19" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A20" s="26"/>
+      <c r="B20" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D20" s="16"/>
-    </row>
-    <row r="21" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A21" s="25"/>
-      <c r="B21" s="14" t="s">
+      <c r="C20" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A21" s="26"/>
+      <c r="B21" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D21" s="16" t="s">
+      <c r="C21" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A22" s="25"/>
-      <c r="B22" s="14" t="s">
+    <row r="22" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A22" s="26"/>
+      <c r="B22" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D22" s="16" t="s">
+      <c r="C22" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A23" s="25"/>
-      <c r="B23" s="14" t="s">
+    <row r="23" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A23" s="26"/>
+      <c r="B23" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D23" s="16" t="s">
+      <c r="C23" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A24" s="26"/>
-      <c r="B24" s="14" t="s">
+    <row r="24" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A24" s="27"/>
+      <c r="B24" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D24" s="16"/>
-    </row>
-    <row r="25" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A25" s="24" t="s">
+      <c r="C24" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D25" s="16"/>
-    </row>
-    <row r="26" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A26" s="25"/>
-      <c r="B26" s="14" t="s">
+      <c r="C25" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A26" s="26"/>
+      <c r="B26" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D26" s="16"/>
-    </row>
-    <row r="27" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A27" s="25"/>
-      <c r="B27" s="14" t="s">
+      <c r="C26" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A27" s="26"/>
+      <c r="B27" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D27" s="16"/>
-    </row>
-    <row r="28" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A28" s="25"/>
-      <c r="B28" s="14" t="s">
+      <c r="C27" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A28" s="26"/>
+      <c r="B28" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D28" s="16"/>
-    </row>
-    <row r="29" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A29" s="25"/>
-      <c r="B29" s="14" t="s">
+      <c r="C28" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A29" s="26"/>
+      <c r="B29" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D29" s="16"/>
-    </row>
-    <row r="30" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A30" s="25"/>
-      <c r="B30" s="14" t="s">
+      <c r="C29" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D29" s="14"/>
+    </row>
+    <row r="30" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A30" s="26"/>
+      <c r="B30" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D30" s="16"/>
-    </row>
-    <row r="31" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A31" s="25"/>
-      <c r="B31" s="14" t="s">
+      <c r="C30" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D30" s="14"/>
+    </row>
+    <row r="31" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A31" s="26"/>
+      <c r="B31" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D31" s="16"/>
-    </row>
-    <row r="32" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A32" s="25"/>
-      <c r="B32" s="14" t="s">
+      <c r="C31" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A32" s="26"/>
+      <c r="B32" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D32" s="16"/>
-    </row>
-    <row r="33" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A33" s="25"/>
-      <c r="B33" s="14" t="s">
+      <c r="C32" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D32" s="14"/>
+    </row>
+    <row r="33" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A33" s="26"/>
+      <c r="B33" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D33" s="16"/>
-    </row>
-    <row r="34" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A34" s="25"/>
-      <c r="B34" s="14" t="s">
+      <c r="C33" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D33" s="14"/>
+    </row>
+    <row r="34" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A34" s="26"/>
+      <c r="B34" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D34" s="16"/>
-    </row>
-    <row r="35" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A35" s="25"/>
-      <c r="B35" s="14" t="s">
+      <c r="C34" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D34" s="14"/>
+    </row>
+    <row r="35" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A35" s="26"/>
+      <c r="B35" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D35" s="16"/>
-    </row>
-    <row r="36" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A36" s="25"/>
-      <c r="B36" s="14" t="s">
+      <c r="C35" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D35" s="14"/>
+    </row>
+    <row r="36" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A36" s="26"/>
+      <c r="B36" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D36" s="16"/>
-    </row>
-    <row r="37" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A37" s="25"/>
-      <c r="B37" s="14" t="s">
+      <c r="C36" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D36" s="14"/>
+    </row>
+    <row r="37" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A37" s="26"/>
+      <c r="B37" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D37" s="16"/>
-    </row>
-    <row r="38" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A38" s="25"/>
-      <c r="B38" s="14" t="s">
+      <c r="C37" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D37" s="14"/>
+    </row>
+    <row r="38" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A38" s="26"/>
+      <c r="B38" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D38" s="16"/>
-    </row>
-    <row r="39" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A39" s="25"/>
-      <c r="B39" s="14" t="s">
+      <c r="C38" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D38" s="14"/>
+    </row>
+    <row r="39" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A39" s="26"/>
+      <c r="B39" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D39" s="16"/>
-    </row>
-    <row r="40" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A40" s="25"/>
-      <c r="B40" s="14" t="s">
+      <c r="C39" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D39" s="14"/>
+    </row>
+    <row r="40" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A40" s="26"/>
+      <c r="B40" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D40" s="16"/>
-    </row>
-    <row r="41" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A41" s="25"/>
-      <c r="B41" s="14" t="s">
+      <c r="C40" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D40" s="14"/>
+    </row>
+    <row r="41" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A41" s="26"/>
+      <c r="B41" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D41" s="16"/>
-    </row>
-    <row r="42" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A42" s="25"/>
-      <c r="B42" s="14" t="s">
+      <c r="C41" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D41" s="14"/>
+    </row>
+    <row r="42" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A42" s="26"/>
+      <c r="B42" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D42" s="16"/>
-    </row>
-    <row r="43" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A43" s="25"/>
-      <c r="B43" s="14" t="s">
+      <c r="C42" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D42" s="14"/>
+    </row>
+    <row r="43" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A43" s="26"/>
+      <c r="B43" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D43" s="16"/>
-    </row>
-    <row r="44" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A44" s="25"/>
-      <c r="B44" s="14" t="s">
+      <c r="C43" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D43" s="14"/>
+    </row>
+    <row r="44" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A44" s="26"/>
+      <c r="B44" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D44" s="16"/>
-    </row>
-    <row r="45" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A45" s="25"/>
-      <c r="B45" s="14" t="s">
+      <c r="C44" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D44" s="14"/>
+    </row>
+    <row r="45" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A45" s="26"/>
+      <c r="B45" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D45" s="16"/>
-    </row>
-    <row r="46" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A46" s="25"/>
-      <c r="B46" s="14" t="s">
+      <c r="C45" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D45" s="14"/>
+    </row>
+    <row r="46" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A46" s="26"/>
+      <c r="B46" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D46" s="16"/>
-    </row>
-    <row r="47" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A47" s="25"/>
-      <c r="B47" s="14" t="s">
+      <c r="C46" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D46" s="14"/>
+    </row>
+    <row r="47" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A47" s="26"/>
+      <c r="B47" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D47" s="16"/>
-    </row>
-    <row r="48" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A48" s="25"/>
-      <c r="B48" s="14" t="s">
+      <c r="C47" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D47" s="14"/>
+    </row>
+    <row r="48" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A48" s="26"/>
+      <c r="B48" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D48" s="16"/>
-    </row>
-    <row r="49" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A49" s="25"/>
-      <c r="B49" s="14" t="s">
+      <c r="C48" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D48" s="14"/>
+    </row>
+    <row r="49" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A49" s="26"/>
+      <c r="B49" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D49" s="16"/>
-    </row>
-    <row r="50" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A50" s="25"/>
-      <c r="B50" s="14" t="s">
+      <c r="C49" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D49" s="14"/>
+    </row>
+    <row r="50" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A50" s="26"/>
+      <c r="B50" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D50" s="16" t="s">
+      <c r="C50" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D50" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A51" s="25"/>
-      <c r="B51" s="14" t="s">
+    <row r="51" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A51" s="26"/>
+      <c r="B51" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D51" s="16"/>
-    </row>
-    <row r="52" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A52" s="26"/>
-      <c r="B52" s="14" t="s">
+      <c r="C51" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D51" s="14"/>
+    </row>
+    <row r="52" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A52" s="27"/>
+      <c r="B52" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D52" s="16"/>
-    </row>
-    <row r="53" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A53" s="24" t="s">
+      <c r="C52" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D52" s="14"/>
+    </row>
+    <row r="53" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A53" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D53" s="16" t="s">
+      <c r="C53" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D53" s="14" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A54" s="25"/>
-      <c r="B54" s="14" t="s">
+    <row r="54" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A54" s="26"/>
+      <c r="B54" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D54" s="16"/>
-    </row>
-    <row r="55" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A55" s="25"/>
-      <c r="B55" s="14" t="s">
+      <c r="C54" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A55" s="26"/>
+      <c r="B55" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D55" s="16"/>
-    </row>
-    <row r="56" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A56" s="25"/>
-      <c r="B56" s="14" t="s">
+      <c r="C55" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A56" s="26"/>
+      <c r="B56" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D56" s="16"/>
-    </row>
-    <row r="57" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A57" s="25"/>
-      <c r="B57" s="14" t="s">
+      <c r="C56" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A57" s="26"/>
+      <c r="B57" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D57" s="16"/>
-    </row>
-    <row r="58" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A58" s="25"/>
-      <c r="B58" s="14" t="s">
+      <c r="C57" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A58" s="26"/>
+      <c r="B58" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D58" s="16" t="s">
+      <c r="C58" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D58" s="14" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A59" s="25"/>
-      <c r="B59" s="14" t="s">
+    <row r="59" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A59" s="26"/>
+      <c r="B59" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D59" s="16"/>
-    </row>
-    <row r="60" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A60" s="25"/>
-      <c r="B60" s="14" t="s">
+      <c r="C59" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A60" s="26"/>
+      <c r="B60" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D60" s="16"/>
-    </row>
-    <row r="61" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A61" s="25"/>
-      <c r="B61" s="14" t="s">
+      <c r="C60" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A61" s="26"/>
+      <c r="B61" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D61" s="16"/>
-    </row>
-    <row r="62" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A62" s="26"/>
-      <c r="B62" s="14" t="s">
+      <c r="C61" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A62" s="27"/>
+      <c r="B62" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D62" s="16"/>
-    </row>
-    <row r="63" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A63" s="24" t="s">
+      <c r="C62" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D62" s="14"/>
+    </row>
+    <row r="63" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A63" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D63" s="16" t="s">
+      <c r="C63" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D63" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A64" s="25"/>
-      <c r="B64" s="14" t="s">
+    <row r="64" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A64" s="26"/>
+      <c r="B64" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D64" s="16" t="s">
+      <c r="C64" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D64" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A65" s="25"/>
-      <c r="B65" s="14" t="s">
+    <row r="65" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A65" s="26"/>
+      <c r="B65" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D65" s="16"/>
-    </row>
-    <row r="66" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A66" s="25"/>
-      <c r="B66" s="14" t="s">
+      <c r="C65" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D65" s="14"/>
+    </row>
+    <row r="66" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A66" s="26"/>
+      <c r="B66" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D66" s="16"/>
-    </row>
-    <row r="67" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A67" s="26"/>
-      <c r="B67" s="14" t="s">
+      <c r="C66" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D66" s="14"/>
+    </row>
+    <row r="67" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A67" s="27"/>
+      <c r="B67" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C67" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D67" s="16"/>
-    </row>
-    <row r="68" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A68" s="24" t="s">
+      <c r="C67" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D67" s="14"/>
+    </row>
+    <row r="68" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A68" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D68" s="16"/>
-    </row>
-    <row r="69" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A69" s="25"/>
-      <c r="B69" s="14" t="s">
+      <c r="C68" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D68" s="14"/>
+    </row>
+    <row r="69" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A69" s="26"/>
+      <c r="B69" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D69" s="16" t="s">
+      <c r="C69" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D69" s="14" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A70" s="25"/>
-      <c r="B70" s="14" t="s">
+    <row r="70" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A70" s="26"/>
+      <c r="B70" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C70" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D70" s="16"/>
-    </row>
-    <row r="71" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A71" s="25"/>
-      <c r="B71" s="14" t="s">
+      <c r="C70" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D70" s="14"/>
+    </row>
+    <row r="71" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A71" s="26"/>
+      <c r="B71" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C71" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D71" s="16"/>
-    </row>
-    <row r="72" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A72" s="25"/>
-      <c r="B72" s="14" t="s">
+      <c r="C71" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D71" s="14"/>
+    </row>
+    <row r="72" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A72" s="26"/>
+      <c r="B72" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C72" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D72" s="16"/>
-    </row>
-    <row r="73" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A73" s="25"/>
-      <c r="B73" s="14" t="s">
+      <c r="C72" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D72" s="14"/>
+    </row>
+    <row r="73" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A73" s="26"/>
+      <c r="B73" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C73" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D73" s="16"/>
-    </row>
-    <row r="74" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A74" s="26"/>
-      <c r="B74" s="14" t="s">
+      <c r="C73" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D73" s="14"/>
+    </row>
+    <row r="74" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A74" s="27"/>
+      <c r="B74" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C74" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D74" s="16"/>
-    </row>
-    <row r="75" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A75" s="24" t="s">
+      <c r="C74" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D74" s="14"/>
+    </row>
+    <row r="75" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A75" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C75" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D75" s="17"/>
-    </row>
-    <row r="76" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A76" s="26"/>
-      <c r="B76" s="14" t="s">
+      <c r="C75" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D75" s="15"/>
+    </row>
+    <row r="76" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A76" s="27"/>
+      <c r="B76" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C76" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D76" s="16" t="s">
+      <c r="C76" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D76" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A77" s="24" t="s">
+    <row r="77" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A77" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D77" s="16"/>
-    </row>
-    <row r="78" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A78" s="25"/>
-      <c r="B78" s="14" t="s">
+      <c r="C77" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D77" s="14"/>
+    </row>
+    <row r="78" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A78" s="26"/>
+      <c r="B78" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C78" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D78" s="16"/>
-    </row>
-    <row r="79" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A79" s="25"/>
-      <c r="B79" s="14" t="s">
+      <c r="C78" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D78" s="14"/>
+    </row>
+    <row r="79" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A79" s="26"/>
+      <c r="B79" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C79" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D79" s="16"/>
-    </row>
-    <row r="80" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A80" s="26"/>
-      <c r="B80" s="14" t="s">
+      <c r="C79" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D79" s="14"/>
+    </row>
+    <row r="80" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A80" s="27"/>
+      <c r="B80" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C80" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D80" s="16" t="s">
+      <c r="C80" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D80" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A81" s="24" t="s">
+    <row r="81" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A81" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C81" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D81" s="16"/>
-    </row>
-    <row r="82" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A82" s="26"/>
-      <c r="B82" s="14" t="s">
+      <c r="C81" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D81" s="14"/>
+    </row>
+    <row r="82" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A82" s="27"/>
+      <c r="B82" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C82" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D82" s="16" t="s">
+      <c r="C82" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D82" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A83" s="24" t="s">
+    <row r="83" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A83" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C83" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D83" s="16"/>
-    </row>
-    <row r="84" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A84" s="25"/>
-      <c r="B84" s="14" t="s">
+      <c r="C83" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D83" s="14"/>
+    </row>
+    <row r="84" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A84" s="26"/>
+      <c r="B84" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D84" s="16"/>
-    </row>
-    <row r="85" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A85" s="25"/>
-      <c r="B85" s="14" t="s">
+      <c r="C84" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D84" s="14"/>
+    </row>
+    <row r="85" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A85" s="26"/>
+      <c r="B85" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C85" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D85" s="16"/>
-    </row>
-    <row r="86" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A86" s="25"/>
-      <c r="B86" s="14" t="s">
+      <c r="C85" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D85" s="14"/>
+    </row>
+    <row r="86" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A86" s="26"/>
+      <c r="B86" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C86" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D86" s="16"/>
-    </row>
-    <row r="87" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A87" s="25"/>
-      <c r="B87" s="14" t="s">
+      <c r="C86" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D86" s="14"/>
+    </row>
+    <row r="87" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A87" s="26"/>
+      <c r="B87" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C87" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D87" s="16"/>
-    </row>
-    <row r="88" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A88" s="25"/>
-      <c r="B88" s="14" t="s">
+      <c r="C87" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D87" s="14"/>
+    </row>
+    <row r="88" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A88" s="26"/>
+      <c r="B88" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C88" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D88" s="16"/>
-    </row>
-    <row r="89" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A89" s="26"/>
-      <c r="B89" s="14" t="s">
+      <c r="C88" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D88" s="14"/>
+    </row>
+    <row r="89" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A89" s="27"/>
+      <c r="B89" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C89" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D89" s="16"/>
-    </row>
-    <row r="90" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A90" s="24" t="s">
+      <c r="C89" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D89" s="14"/>
+    </row>
+    <row r="90" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A90" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C90" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D90" s="16"/>
-    </row>
-    <row r="91" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A91" s="25"/>
-      <c r="B91" s="14" t="s">
+      <c r="C90" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D90" s="14"/>
+    </row>
+    <row r="91" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A91" s="26"/>
+      <c r="B91" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C91" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D91" s="16"/>
-    </row>
-    <row r="92" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A92" s="25"/>
-      <c r="B92" s="14" t="s">
+      <c r="C91" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D91" s="14"/>
+    </row>
+    <row r="92" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A92" s="26"/>
+      <c r="B92" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C92" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D92" s="16"/>
-    </row>
-    <row r="93" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A93" s="25"/>
-      <c r="B93" s="14" t="s">
+      <c r="C92" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D92" s="14"/>
+    </row>
+    <row r="93" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A93" s="26"/>
+      <c r="B93" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C93" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D93" s="16"/>
-    </row>
-    <row r="94" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A94" s="25"/>
-      <c r="B94" s="14" t="s">
+      <c r="C93" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D93" s="14"/>
+    </row>
+    <row r="94" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A94" s="26"/>
+      <c r="B94" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C94" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D94" s="16"/>
-    </row>
-    <row r="95" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A95" s="25"/>
-      <c r="B95" s="14" t="s">
+      <c r="C94" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D94" s="14"/>
+    </row>
+    <row r="95" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A95" s="26"/>
+      <c r="B95" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C95" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D95" s="16" t="s">
+      <c r="C95" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D95" s="14" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A96" s="25"/>
-      <c r="B96" s="14" t="s">
+    <row r="96" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A96" s="26"/>
+      <c r="B96" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C96" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D96" s="16" t="s">
+      <c r="C96" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D96" s="14" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A97" s="26"/>
-      <c r="B97" s="14" t="s">
+    <row r="97" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A97" s="27"/>
+      <c r="B97" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C97" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D97" s="16" t="s">
+      <c r="C97" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D97" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A98" s="24" t="s">
+    <row r="98" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A98" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C98" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D98" s="16"/>
-    </row>
-    <row r="99" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A99" s="25"/>
-      <c r="B99" s="14" t="s">
+      <c r="C98" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D98" s="14"/>
+    </row>
+    <row r="99" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A99" s="26"/>
+      <c r="B99" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C99" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D99" s="16"/>
-    </row>
-    <row r="100" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A100" s="25"/>
-      <c r="B100" s="14" t="s">
+      <c r="C99" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D99" s="14"/>
+    </row>
+    <row r="100" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A100" s="26"/>
+      <c r="B100" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D100" s="16" t="s">
+      <c r="C100" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D100" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A101" s="26"/>
-      <c r="B101" s="14" t="s">
+    <row r="101" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A101" s="27"/>
+      <c r="B101" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C101" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D101" s="16"/>
-    </row>
-    <row r="102" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A102" s="24" t="s">
+      <c r="C101" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D101" s="14"/>
+    </row>
+    <row r="102" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A102" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B102" s="14" t="s">
+      <c r="B102" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C102" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D102" s="16"/>
-    </row>
-    <row r="103" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A103" s="25"/>
-      <c r="B103" s="14" t="s">
+      <c r="C102" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D102" s="14"/>
+    </row>
+    <row r="103" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A103" s="26"/>
+      <c r="B103" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C103" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D103" s="16"/>
-    </row>
-    <row r="104" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A104" s="26"/>
-      <c r="B104" s="14" t="s">
+      <c r="C103" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D103" s="14"/>
+    </row>
+    <row r="104" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A104" s="27"/>
+      <c r="B104" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C104" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D104" s="16" t="s">
+      <c r="C104" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D104" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A105" s="24" t="s">
+    <row r="105" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A105" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C105" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D105" s="16"/>
-    </row>
-    <row r="106" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A106" s="26"/>
-      <c r="B106" s="14" t="s">
+      <c r="C105" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D105" s="14"/>
+    </row>
+    <row r="106" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A106" s="27"/>
+      <c r="B106" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C106" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D106" s="16" t="s">
+      <c r="C106" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D106" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A107" s="24" t="s">
+    <row r="107" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A107" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="B107" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C107" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D107" s="16" t="s">
+      <c r="C107" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D107" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A108" s="25"/>
-      <c r="B108" s="14" t="s">
+    <row r="108" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A108" s="26"/>
+      <c r="B108" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C108" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D108" s="16"/>
-    </row>
-    <row r="109" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A109" s="25"/>
-      <c r="B109" s="14" t="s">
+      <c r="C108" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D108" s="14"/>
+    </row>
+    <row r="109" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A109" s="26"/>
+      <c r="B109" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C109" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D109" s="16" t="s">
+      <c r="C109" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D109" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A110" s="25"/>
-      <c r="B110" s="14" t="s">
+    <row r="110" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A110" s="26"/>
+      <c r="B110" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C110" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D110" s="16"/>
-    </row>
-    <row r="111" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A111" s="25"/>
-      <c r="B111" s="14" t="s">
+      <c r="C110" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D110" s="14"/>
+    </row>
+    <row r="111" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A111" s="26"/>
+      <c r="B111" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C111" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D111" s="16"/>
-    </row>
-    <row r="112" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A112" s="26"/>
-      <c r="B112" s="14" t="s">
+      <c r="C111" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D111" s="14"/>
+    </row>
+    <row r="112" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A112" s="27"/>
+      <c r="B112" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C112" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D112" s="16"/>
-    </row>
-    <row r="113" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A113" s="24" t="s">
+      <c r="C112" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D112" s="14"/>
+    </row>
+    <row r="113" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A113" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="B113" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C113" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D113" s="16"/>
-    </row>
-    <row r="114" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A114" s="25"/>
-      <c r="B114" s="14" t="s">
+      <c r="C113" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D113" s="14"/>
+    </row>
+    <row r="114" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A114" s="26"/>
+      <c r="B114" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C114" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D114" s="16" t="s">
+      <c r="C114" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D114" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A115" s="26"/>
-      <c r="B115" s="14" t="s">
+    <row r="115" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A115" s="27"/>
+      <c r="B115" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C115" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D115" s="16" t="s">
+      <c r="C115" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D115" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A116" s="24" t="s">
+    <row r="116" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A116" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="B116" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C116" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D116" s="16" t="s">
+      <c r="C116" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D116" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A117" s="26"/>
-      <c r="B117" s="14" t="s">
+    <row r="117" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A117" s="27"/>
+      <c r="B117" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C117" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D117" s="16" t="s">
+      <c r="C117" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D117" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A118" s="24" t="s">
+    <row r="118" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A118" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="B118" s="14" t="s">
+      <c r="B118" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C118" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D118" s="16" t="s">
+      <c r="C118" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D118" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A119" s="26"/>
-      <c r="B119" s="14" t="s">
+    <row r="119" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A119" s="27"/>
+      <c r="B119" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C119" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D119" s="16"/>
-    </row>
-    <row r="120" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A120" s="24" t="s">
+      <c r="C119" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D119" s="14"/>
+    </row>
+    <row r="120" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A120" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="B120" s="14" t="s">
+      <c r="B120" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C120" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D120" s="16" t="s">
+      <c r="C120" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D120" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A121" s="26"/>
-      <c r="B121" s="14" t="s">
+    <row r="121" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A121" s="27"/>
+      <c r="B121" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C121" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D121" s="16"/>
-    </row>
-    <row r="122" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A122" s="24" t="s">
+      <c r="C121" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D121" s="14"/>
+    </row>
+    <row r="122" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A122" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="B122" s="14" t="s">
+      <c r="B122" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C122" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D122" s="16"/>
-    </row>
-    <row r="123" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A123" s="25"/>
-      <c r="B123" s="14" t="s">
+      <c r="C122" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D122" s="14"/>
+    </row>
+    <row r="123" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A123" s="26"/>
+      <c r="B123" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="C123" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D123" s="16"/>
-    </row>
-    <row r="124" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A124" s="25"/>
-      <c r="B124" s="14" t="s">
+      <c r="C123" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D123" s="14"/>
+    </row>
+    <row r="124" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A124" s="26"/>
+      <c r="B124" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C124" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D124" s="16"/>
-    </row>
-    <row r="125" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A125" s="25"/>
-      <c r="B125" s="14" t="s">
+      <c r="C124" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D124" s="14"/>
+    </row>
+    <row r="125" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A125" s="26"/>
+      <c r="B125" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C125" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D125" s="16"/>
-    </row>
-    <row r="126" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A126" s="25"/>
-      <c r="B126" s="14" t="s">
+      <c r="C125" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D125" s="14"/>
+    </row>
+    <row r="126" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A126" s="26"/>
+      <c r="B126" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C126" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D126" s="16"/>
-    </row>
-    <row r="127" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A127" s="25"/>
-      <c r="B127" s="14" t="s">
+      <c r="C126" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D126" s="14"/>
+    </row>
+    <row r="127" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A127" s="26"/>
+      <c r="B127" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="C127" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D127" s="16"/>
-    </row>
-    <row r="128" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A128" s="25"/>
-      <c r="B128" s="14" t="s">
+      <c r="C127" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D127" s="14"/>
+    </row>
+    <row r="128" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A128" s="26"/>
+      <c r="B128" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C128" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D128" s="16"/>
-    </row>
-    <row r="129" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A129" s="25"/>
-      <c r="B129" s="14" t="s">
+      <c r="C128" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D128" s="14"/>
+    </row>
+    <row r="129" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A129" s="26"/>
+      <c r="B129" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C129" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D129" s="16"/>
-    </row>
-    <row r="130" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A130" s="25"/>
-      <c r="B130" s="14" t="s">
+      <c r="C129" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D129" s="14"/>
+    </row>
+    <row r="130" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A130" s="26"/>
+      <c r="B130" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C130" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D130" s="16"/>
-    </row>
-    <row r="131" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A131" s="25"/>
-      <c r="B131" s="14" t="s">
+      <c r="C130" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D130" s="14"/>
+    </row>
+    <row r="131" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A131" s="26"/>
+      <c r="B131" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C131" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D131" s="16"/>
-    </row>
-    <row r="132" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A132" s="25"/>
-      <c r="B132" s="14" t="s">
+      <c r="C131" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D131" s="14"/>
+    </row>
+    <row r="132" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A132" s="26"/>
+      <c r="B132" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C132" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D132" s="16"/>
-    </row>
-    <row r="133" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A133" s="25"/>
-      <c r="B133" s="14" t="s">
+      <c r="C132" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D132" s="14"/>
+    </row>
+    <row r="133" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A133" s="26"/>
+      <c r="B133" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="C133" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D133" s="16"/>
-    </row>
-    <row r="134" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A134" s="25"/>
-      <c r="B134" s="14" t="s">
+      <c r="C133" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D133" s="14"/>
+    </row>
+    <row r="134" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A134" s="26"/>
+      <c r="B134" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C134" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D134" s="16"/>
-    </row>
-    <row r="135" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A135" s="25"/>
-      <c r="B135" s="14" t="s">
+      <c r="C134" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D134" s="14"/>
+    </row>
+    <row r="135" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A135" s="26"/>
+      <c r="B135" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C135" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D135" s="16"/>
-    </row>
-    <row r="136" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A136" s="25"/>
-      <c r="B136" s="14" t="s">
+      <c r="C135" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D135" s="14"/>
+    </row>
+    <row r="136" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A136" s="26"/>
+      <c r="B136" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="C136" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D136" s="16"/>
-    </row>
-    <row r="137" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A137" s="25"/>
-      <c r="B137" s="14" t="s">
+      <c r="C136" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D136" s="14"/>
+    </row>
+    <row r="137" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A137" s="26"/>
+      <c r="B137" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C137" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D137" s="16"/>
-    </row>
-    <row r="138" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A138" s="25"/>
-      <c r="B138" s="14" t="s">
+      <c r="C137" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D137" s="14"/>
+    </row>
+    <row r="138" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A138" s="26"/>
+      <c r="B138" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C138" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D138" s="16"/>
-    </row>
-    <row r="139" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A139" s="25"/>
-      <c r="B139" s="14" t="s">
+      <c r="C138" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D138" s="14"/>
+    </row>
+    <row r="139" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A139" s="26"/>
+      <c r="B139" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="C139" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D139" s="16"/>
-    </row>
-    <row r="140" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A140" s="25"/>
-      <c r="B140" s="14" t="s">
+      <c r="C139" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D139" s="14"/>
+    </row>
+    <row r="140" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A140" s="26"/>
+      <c r="B140" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="C140" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D140" s="16"/>
-    </row>
-    <row r="141" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A141" s="25"/>
-      <c r="B141" s="14" t="s">
+      <c r="C140" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D140" s="14"/>
+    </row>
+    <row r="141" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A141" s="26"/>
+      <c r="B141" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C141" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D141" s="16"/>
-    </row>
-    <row r="142" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A142" s="25"/>
-      <c r="B142" s="14" t="s">
+      <c r="C141" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D141" s="14"/>
+    </row>
+    <row r="142" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A142" s="26"/>
+      <c r="B142" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="C142" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D142" s="16"/>
-    </row>
-    <row r="143" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A143" s="25"/>
-      <c r="B143" s="14" t="s">
+      <c r="C142" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D142" s="14"/>
+    </row>
+    <row r="143" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A143" s="26"/>
+      <c r="B143" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C143" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D143" s="16"/>
-    </row>
-    <row r="144" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A144" s="25"/>
-      <c r="B144" s="14" t="s">
+      <c r="C143" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D143" s="14"/>
+    </row>
+    <row r="144" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A144" s="26"/>
+      <c r="B144" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="C144" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D144" s="16"/>
-    </row>
-    <row r="145" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A145" s="25"/>
-      <c r="B145" s="14" t="s">
+      <c r="C144" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D144" s="14"/>
+    </row>
+    <row r="145" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A145" s="26"/>
+      <c r="B145" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C145" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D145" s="16"/>
-    </row>
-    <row r="146" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A146" s="25"/>
-      <c r="B146" s="14" t="s">
+      <c r="C145" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D145" s="14"/>
+    </row>
+    <row r="146" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A146" s="26"/>
+      <c r="B146" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C146" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D146" s="16"/>
-    </row>
-    <row r="147" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A147" s="25"/>
-      <c r="B147" s="14" t="s">
+      <c r="C146" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D146" s="14"/>
+    </row>
+    <row r="147" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A147" s="26"/>
+      <c r="B147" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C147" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D147" s="16"/>
-    </row>
-    <row r="148" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A148" s="25"/>
-      <c r="B148" s="14" t="s">
+      <c r="C147" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D147" s="14"/>
+    </row>
+    <row r="148" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A148" s="26"/>
+      <c r="B148" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="C148" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D148" s="16" t="s">
+      <c r="C148" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D148" s="14" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A149" s="25"/>
-      <c r="B149" s="14" t="s">
+    <row r="149" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A149" s="26"/>
+      <c r="B149" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C149" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D149" s="16"/>
-    </row>
-    <row r="150" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A150" s="25"/>
-      <c r="B150" s="14" t="s">
+      <c r="C149" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D149" s="14"/>
+    </row>
+    <row r="150" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A150" s="26"/>
+      <c r="B150" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C150" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D150" s="16"/>
-    </row>
-    <row r="151" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A151" s="25"/>
-      <c r="B151" s="14" t="s">
+      <c r="C150" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D150" s="14"/>
+    </row>
+    <row r="151" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A151" s="26"/>
+      <c r="B151" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C151" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D151" s="16"/>
-    </row>
-    <row r="152" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A152" s="25"/>
-      <c r="B152" s="14" t="s">
+      <c r="C151" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D151" s="14"/>
+    </row>
+    <row r="152" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A152" s="26"/>
+      <c r="B152" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C152" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D152" s="16"/>
-    </row>
-    <row r="153" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A153" s="25"/>
-      <c r="B153" s="14" t="s">
+      <c r="C152" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D152" s="14"/>
+    </row>
+    <row r="153" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A153" s="26"/>
+      <c r="B153" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C153" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D153" s="16"/>
-    </row>
-    <row r="154" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A154" s="26"/>
-      <c r="B154" s="14" t="s">
+      <c r="C153" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D153" s="14"/>
+    </row>
+    <row r="154" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A154" s="27"/>
+      <c r="B154" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C154" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D154" s="16"/>
-    </row>
-    <row r="155" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A155" s="24" t="s">
+      <c r="C154" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D154" s="14"/>
+    </row>
+    <row r="155" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A155" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="B155" s="14" t="s">
+      <c r="B155" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C155" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D155" s="16" t="s">
+      <c r="C155" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D155" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A156" s="25"/>
-      <c r="B156" s="14" t="s">
+    <row r="156" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A156" s="26"/>
+      <c r="B156" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C156" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D156" s="16"/>
-    </row>
-    <row r="157" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A157" s="25"/>
-      <c r="B157" s="14" t="s">
+      <c r="C156" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D156" s="14"/>
+    </row>
+    <row r="157" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A157" s="26"/>
+      <c r="B157" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C157" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D157" s="16"/>
-    </row>
-    <row r="158" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A158" s="25"/>
-      <c r="B158" s="14" t="s">
+      <c r="C157" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D157" s="14"/>
+    </row>
+    <row r="158" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A158" s="26"/>
+      <c r="B158" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="C158" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D158" s="16"/>
-    </row>
-    <row r="159" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A159" s="25"/>
-      <c r="B159" s="14" t="s">
+      <c r="C158" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D158" s="14"/>
+    </row>
+    <row r="159" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A159" s="26"/>
+      <c r="B159" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="C159" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D159" s="16"/>
-    </row>
-    <row r="160" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A160" s="25"/>
-      <c r="B160" s="14" t="s">
+      <c r="C159" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D159" s="14"/>
+    </row>
+    <row r="160" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A160" s="26"/>
+      <c r="B160" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C160" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D160" s="16" t="s">
+      <c r="C160" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D160" s="14" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A161" s="25"/>
-      <c r="B161" s="14" t="s">
+    <row r="161" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A161" s="26"/>
+      <c r="B161" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="C161" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D161" s="16" t="s">
+      <c r="C161" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D161" s="14" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A162" s="25"/>
-      <c r="B162" s="14" t="s">
+    <row r="162" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A162" s="26"/>
+      <c r="B162" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="C162" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D162" s="16" t="s">
+      <c r="C162" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D162" s="14" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A163" s="25"/>
-      <c r="B163" s="14" t="s">
+    <row r="163" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A163" s="26"/>
+      <c r="B163" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="C163" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D163" s="16"/>
-    </row>
-    <row r="164" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A164" s="25"/>
-      <c r="B164" s="14" t="s">
+      <c r="C163" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D163" s="14"/>
+    </row>
+    <row r="164" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A164" s="26"/>
+      <c r="B164" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C164" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D164" s="16"/>
-    </row>
-    <row r="165" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A165" s="26"/>
-      <c r="B165" s="14" t="s">
+      <c r="C164" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D164" s="14"/>
+    </row>
+    <row r="165" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A165" s="27"/>
+      <c r="B165" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="C165" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D165" s="16"/>
-    </row>
-    <row r="166" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A166" s="24" t="s">
+      <c r="C165" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D165" s="14"/>
+    </row>
+    <row r="166" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A166" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="B166" s="14" t="s">
+      <c r="B166" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C166" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D166" s="16" t="s">
+      <c r="C166" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D166" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A167" s="26"/>
-      <c r="B167" s="14" t="s">
+    <row r="167" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A167" s="27"/>
+      <c r="B167" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="C167" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D167" s="16" t="s">
+      <c r="C167" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D167" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A168" s="24" t="s">
+    <row r="168" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A168" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="B168" s="14" t="s">
+      <c r="B168" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="C168" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D168" s="16"/>
-    </row>
-    <row r="169" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A169" s="25"/>
-      <c r="B169" s="14" t="s">
+      <c r="C168" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D168" s="14"/>
+    </row>
+    <row r="169" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A169" s="26"/>
+      <c r="B169" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="C169" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D169" s="16"/>
-    </row>
-    <row r="170" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A170" s="25"/>
-      <c r="B170" s="14" t="s">
+      <c r="C169" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D169" s="14"/>
+    </row>
+    <row r="170" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A170" s="26"/>
+      <c r="B170" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="C170" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D170" s="16" t="s">
+      <c r="C170" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D170" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A171" s="25"/>
-      <c r="B171" s="14" t="s">
+    <row r="171" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A171" s="26"/>
+      <c r="B171" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C171" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D171" s="16"/>
-    </row>
-    <row r="172" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A172" s="25"/>
-      <c r="B172" s="14" t="s">
+      <c r="C171" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D171" s="14"/>
+    </row>
+    <row r="172" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A172" s="26"/>
+      <c r="B172" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="C172" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D172" s="16"/>
-    </row>
-    <row r="173" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A173" s="25"/>
-      <c r="B173" s="14" t="s">
+      <c r="C172" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D172" s="14"/>
+    </row>
+    <row r="173" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A173" s="26"/>
+      <c r="B173" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="C173" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D173" s="16"/>
-    </row>
-    <row r="174" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A174" s="25"/>
-      <c r="B174" s="14" t="s">
+      <c r="C173" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D173" s="14"/>
+    </row>
+    <row r="174" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A174" s="26"/>
+      <c r="B174" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="C174" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D174" s="16"/>
-    </row>
-    <row r="175" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A175" s="25"/>
-      <c r="B175" s="14" t="s">
+      <c r="C174" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D174" s="14"/>
+    </row>
+    <row r="175" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A175" s="26"/>
+      <c r="B175" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="C175" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D175" s="16"/>
-    </row>
-    <row r="176" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A176" s="25"/>
-      <c r="B176" s="14" t="s">
+      <c r="C175" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D175" s="14"/>
+    </row>
+    <row r="176" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A176" s="26"/>
+      <c r="B176" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="C176" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D176" s="16"/>
-    </row>
-    <row r="177" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A177" s="26"/>
-      <c r="B177" s="14" t="s">
+      <c r="C176" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D176" s="14"/>
+    </row>
+    <row r="177" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A177" s="27"/>
+      <c r="B177" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="C177" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D177" s="16" t="s">
+      <c r="C177" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D177" s="14" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A178" s="24" t="s">
+    <row r="178" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A178" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="B178" s="14" t="s">
+      <c r="B178" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="C178" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D178" s="16"/>
-    </row>
-    <row r="179" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A179" s="25"/>
-      <c r="B179" s="14" t="s">
+      <c r="C178" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D178" s="14"/>
+    </row>
+    <row r="179" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A179" s="26"/>
+      <c r="B179" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C179" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D179" s="16"/>
-    </row>
-    <row r="180" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A180" s="26"/>
-      <c r="B180" s="14" t="s">
+      <c r="C179" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D179" s="14"/>
+    </row>
+    <row r="180" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A180" s="27"/>
+      <c r="B180" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C180" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D180" s="16" t="s">
+      <c r="C180" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D180" s="14" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A181" s="24" t="s">
+    <row r="181" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A181" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="B181" s="14" t="s">
+      <c r="B181" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="C181" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D181" s="16"/>
-    </row>
-    <row r="182" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A182" s="25"/>
-      <c r="B182" s="14" t="s">
+      <c r="C181" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D181" s="14"/>
+    </row>
+    <row r="182" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A182" s="26"/>
+      <c r="B182" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="C182" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D182" s="16"/>
-    </row>
-    <row r="183" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A183" s="25"/>
-      <c r="B183" s="14" t="s">
+      <c r="C182" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D182" s="14"/>
+    </row>
+    <row r="183" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A183" s="26"/>
+      <c r="B183" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C183" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D183" s="16"/>
-    </row>
-    <row r="184" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A184" s="25"/>
-      <c r="B184" s="14" t="s">
+      <c r="C183" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D183" s="14"/>
+    </row>
+    <row r="184" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A184" s="26"/>
+      <c r="B184" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C184" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D184" s="16"/>
-    </row>
-    <row r="185" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A185" s="25"/>
-      <c r="B185" s="14" t="s">
+      <c r="C184" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D184" s="14"/>
+    </row>
+    <row r="185" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A185" s="26"/>
+      <c r="B185" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C185" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D185" s="16"/>
-    </row>
-    <row r="186" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A186" s="25"/>
-      <c r="B186" s="14" t="s">
+      <c r="C185" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D185" s="14"/>
+    </row>
+    <row r="186" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A186" s="26"/>
+      <c r="B186" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C186" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D186" s="16"/>
-    </row>
-    <row r="187" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A187" s="25"/>
-      <c r="B187" s="14" t="s">
+      <c r="C186" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D186" s="14"/>
+    </row>
+    <row r="187" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A187" s="26"/>
+      <c r="B187" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C187" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D187" s="16"/>
-    </row>
-    <row r="188" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A188" s="25"/>
-      <c r="B188" s="14" t="s">
+      <c r="C187" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D187" s="14"/>
+    </row>
+    <row r="188" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A188" s="26"/>
+      <c r="B188" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C188" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D188" s="16"/>
-    </row>
-    <row r="189" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A189" s="25"/>
-      <c r="B189" s="14" t="s">
+      <c r="C188" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D188" s="14"/>
+    </row>
+    <row r="189" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A189" s="26"/>
+      <c r="B189" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C189" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D189" s="16"/>
-    </row>
-    <row r="190" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A190" s="25"/>
-      <c r="B190" s="14" t="s">
+      <c r="C189" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D189" s="14"/>
+    </row>
+    <row r="190" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A190" s="26"/>
+      <c r="B190" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="C190" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D190" s="16"/>
-    </row>
-    <row r="191" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A191" s="25"/>
-      <c r="B191" s="14" t="s">
+      <c r="C190" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D190" s="14"/>
+    </row>
+    <row r="191" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A191" s="26"/>
+      <c r="B191" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="C191" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D191" s="16"/>
-    </row>
-    <row r="192" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A192" s="25"/>
-      <c r="B192" s="14" t="s">
+      <c r="C191" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D191" s="14"/>
+    </row>
+    <row r="192" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A192" s="26"/>
+      <c r="B192" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="C192" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D192" s="16"/>
-    </row>
-    <row r="193" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A193" s="25"/>
-      <c r="B193" s="14" t="s">
+      <c r="C192" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D192" s="14"/>
+    </row>
+    <row r="193" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A193" s="26"/>
+      <c r="B193" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="C193" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D193" s="16"/>
-    </row>
-    <row r="194" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A194" s="25"/>
-      <c r="B194" s="14" t="s">
+      <c r="C193" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D193" s="14"/>
+    </row>
+    <row r="194" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A194" s="26"/>
+      <c r="B194" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="C194" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D194" s="16"/>
-    </row>
-    <row r="195" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A195" s="25"/>
-      <c r="B195" s="14" t="s">
+      <c r="C194" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D194" s="14"/>
+    </row>
+    <row r="195" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A195" s="26"/>
+      <c r="B195" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="C195" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D195" s="16"/>
-    </row>
-    <row r="196" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A196" s="25"/>
-      <c r="B196" s="14" t="s">
+      <c r="C195" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D195" s="14"/>
+    </row>
+    <row r="196" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A196" s="26"/>
+      <c r="B196" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C196" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D196" s="16"/>
-    </row>
-    <row r="197" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A197" s="25"/>
-      <c r="B197" s="14" t="s">
+      <c r="C196" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D196" s="14"/>
+    </row>
+    <row r="197" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A197" s="26"/>
+      <c r="B197" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="C197" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D197" s="16"/>
-    </row>
-    <row r="198" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A198" s="25"/>
-      <c r="B198" s="14" t="s">
+      <c r="C197" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D197" s="14"/>
+    </row>
+    <row r="198" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A198" s="26"/>
+      <c r="B198" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="C198" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D198" s="16"/>
-    </row>
-    <row r="199" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A199" s="25"/>
-      <c r="B199" s="14" t="s">
+      <c r="C198" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D198" s="14"/>
+    </row>
+    <row r="199" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A199" s="26"/>
+      <c r="B199" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="C199" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D199" s="16"/>
-    </row>
-    <row r="200" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A200" s="26"/>
-      <c r="B200" s="14" t="s">
+      <c r="C199" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D199" s="14"/>
+    </row>
+    <row r="200" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A200" s="27"/>
+      <c r="B200" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="C200" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D200" s="16" t="s">
+      <c r="C200" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D200" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A201" s="24" t="s">
+    <row r="201" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A201" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="B201" s="14" t="s">
+      <c r="B201" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C201" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D201" s="16"/>
-    </row>
-    <row r="202" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A202" s="25"/>
-      <c r="B202" s="14" t="s">
+      <c r="C201" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D201" s="14"/>
+    </row>
+    <row r="202" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A202" s="26"/>
+      <c r="B202" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="C202" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D202" s="16"/>
-    </row>
-    <row r="203" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A203" s="25"/>
-      <c r="B203" s="14" t="s">
+      <c r="C202" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D202" s="14"/>
+    </row>
+    <row r="203" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A203" s="26"/>
+      <c r="B203" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C203" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D203" s="16"/>
-    </row>
-    <row r="204" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A204" s="25"/>
-      <c r="B204" s="14" t="s">
+      <c r="C203" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D203" s="14"/>
+    </row>
+    <row r="204" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A204" s="26"/>
+      <c r="B204" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="C204" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D204" s="16"/>
-    </row>
-    <row r="205" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A205" s="25"/>
-      <c r="B205" s="14" t="s">
+      <c r="C204" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D204" s="14"/>
+    </row>
+    <row r="205" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A205" s="26"/>
+      <c r="B205" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="C205" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D205" s="16" t="s">
+      <c r="C205" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D205" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A206" s="25"/>
-      <c r="B206" s="14" t="s">
+    <row r="206" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A206" s="26"/>
+      <c r="B206" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="C206" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D206" s="16" t="s">
+      <c r="C206" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D206" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A207" s="25"/>
-      <c r="B207" s="14" t="s">
+    <row r="207" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A207" s="26"/>
+      <c r="B207" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="C207" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D207" s="16"/>
-    </row>
-    <row r="208" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A208" s="25"/>
-      <c r="B208" s="14" t="s">
+      <c r="C207" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D207" s="14"/>
+    </row>
+    <row r="208" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A208" s="26"/>
+      <c r="B208" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="C208" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D208" s="16"/>
-    </row>
-    <row r="209" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A209" s="25"/>
-      <c r="B209" s="14" t="s">
+      <c r="C208" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D208" s="14"/>
+    </row>
+    <row r="209" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A209" s="26"/>
+      <c r="B209" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C209" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D209" s="16" t="s">
+      <c r="C209" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D209" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A210" s="26"/>
-      <c r="B210" s="14" t="s">
+    <row r="210" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A210" s="27"/>
+      <c r="B210" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="C210" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D210" s="16"/>
-    </row>
-    <row r="211" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A211" s="16" t="s">
+      <c r="C210" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D210" s="14"/>
+    </row>
+    <row r="211" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A211" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="B211" s="14" t="s">
+      <c r="B211" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="C211" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D211" s="16" t="s">
+      <c r="C211" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D211" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A212" s="24" t="s">
+    <row r="212" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A212" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="B212" s="14" t="s">
+      <c r="B212" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="C212" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D212" s="16"/>
-    </row>
-    <row r="213" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A213" s="25"/>
-      <c r="B213" s="14" t="s">
+      <c r="C212" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D212" s="14"/>
+    </row>
+    <row r="213" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A213" s="26"/>
+      <c r="B213" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="C213" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D213" s="16"/>
-    </row>
-    <row r="214" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A214" s="25"/>
-      <c r="B214" s="14" t="s">
+      <c r="C213" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D213" s="14"/>
+    </row>
+    <row r="214" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A214" s="26"/>
+      <c r="B214" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="C214" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D214" s="16"/>
-    </row>
-    <row r="215" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A215" s="25"/>
-      <c r="B215" s="14" t="s">
+      <c r="C214" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D214" s="14"/>
+    </row>
+    <row r="215" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A215" s="26"/>
+      <c r="B215" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="C215" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D215" s="16"/>
-    </row>
-    <row r="216" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A216" s="25"/>
-      <c r="B216" s="14" t="s">
+      <c r="C215" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D215" s="14"/>
+    </row>
+    <row r="216" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A216" s="26"/>
+      <c r="B216" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="C216" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D216" s="16"/>
-    </row>
-    <row r="217" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A217" s="25"/>
-      <c r="B217" s="14" t="s">
+      <c r="C216" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D216" s="14"/>
+    </row>
+    <row r="217" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A217" s="26"/>
+      <c r="B217" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="C217" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D217" s="16"/>
-    </row>
-    <row r="218" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A218" s="25"/>
-      <c r="B218" s="14" t="s">
+      <c r="C217" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D217" s="14"/>
+    </row>
+    <row r="218" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A218" s="26"/>
+      <c r="B218" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="C218" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D218" s="16"/>
-    </row>
-    <row r="219" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A219" s="25"/>
-      <c r="B219" s="14" t="s">
+      <c r="C218" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D218" s="14"/>
+    </row>
+    <row r="219" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A219" s="26"/>
+      <c r="B219" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="C219" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D219" s="16"/>
-    </row>
-    <row r="220" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A220" s="25"/>
-      <c r="B220" s="14" t="s">
+      <c r="C219" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D219" s="14"/>
+    </row>
+    <row r="220" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A220" s="26"/>
+      <c r="B220" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="C220" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D220" s="16"/>
-    </row>
-    <row r="221" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A221" s="25"/>
-      <c r="B221" s="14" t="s">
+      <c r="C220" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D220" s="14"/>
+    </row>
+    <row r="221" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A221" s="26"/>
+      <c r="B221" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="C221" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D221" s="16"/>
-    </row>
-    <row r="222" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A222" s="25"/>
-      <c r="B222" s="14" t="s">
+      <c r="C221" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D221" s="14"/>
+    </row>
+    <row r="222" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A222" s="26"/>
+      <c r="B222" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="C222" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D222" s="16" t="s">
+      <c r="C222" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D222" s="14" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A223" s="25"/>
-      <c r="B223" s="14" t="s">
+    <row r="223" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A223" s="26"/>
+      <c r="B223" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="C223" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D223" s="16"/>
-    </row>
-    <row r="224" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A224" s="25"/>
-      <c r="B224" s="14" t="s">
+      <c r="C223" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D223" s="14"/>
+    </row>
+    <row r="224" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A224" s="26"/>
+      <c r="B224" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="C224" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D224" s="16"/>
-    </row>
-    <row r="225" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A225" s="25"/>
-      <c r="B225" s="14" t="s">
+      <c r="C224" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D224" s="14"/>
+    </row>
+    <row r="225" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A225" s="26"/>
+      <c r="B225" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="C225" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D225" s="16"/>
-    </row>
-    <row r="226" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A226" s="25"/>
-      <c r="B226" s="14" t="s">
+      <c r="C225" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D225" s="14"/>
+    </row>
+    <row r="226" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A226" s="26"/>
+      <c r="B226" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="C226" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D226" s="16"/>
-    </row>
-    <row r="227" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A227" s="25"/>
-      <c r="B227" s="14" t="s">
+      <c r="C226" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D226" s="14"/>
+    </row>
+    <row r="227" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A227" s="26"/>
+      <c r="B227" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C227" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D227" s="16" t="s">
+      <c r="C227" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D227" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A228" s="25"/>
-      <c r="B228" s="14" t="s">
+    <row r="228" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A228" s="26"/>
+      <c r="B228" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C228" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D228" s="16" t="s">
+      <c r="C228" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D228" s="14" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A229" s="25"/>
-      <c r="B229" s="14" t="s">
+    <row r="229" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A229" s="26"/>
+      <c r="B229" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C229" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D229" s="16"/>
-    </row>
-    <row r="230" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A230" s="25"/>
-      <c r="B230" s="14" t="s">
+      <c r="C229" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D229" s="14"/>
+    </row>
+    <row r="230" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A230" s="26"/>
+      <c r="B230" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="C230" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D230" s="16" t="s">
+      <c r="C230" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D230" s="14" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A231" s="25"/>
-      <c r="B231" s="14" t="s">
+    <row r="231" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A231" s="26"/>
+      <c r="B231" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="C231" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D231" s="16"/>
-    </row>
-    <row r="232" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A232" s="25"/>
-      <c r="B232" s="14" t="s">
+      <c r="C231" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D231" s="14"/>
+    </row>
+    <row r="232" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A232" s="26"/>
+      <c r="B232" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="C232" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D232" s="16"/>
-    </row>
-    <row r="233" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A233" s="26"/>
-      <c r="B233" s="14" t="s">
+      <c r="C232" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D232" s="14"/>
+    </row>
+    <row r="233" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A233" s="27"/>
+      <c r="B233" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="C233" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D233" s="16"/>
-    </row>
-    <row r="234" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A234" s="24" t="s">
+      <c r="C233" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D233" s="14"/>
+    </row>
+    <row r="234" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A234" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="B234" s="14" t="s">
+      <c r="B234" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="C234" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D234" s="16"/>
-    </row>
-    <row r="235" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A235" s="25"/>
-      <c r="B235" s="14" t="s">
+      <c r="C234" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D234" s="14"/>
+    </row>
+    <row r="235" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A235" s="26"/>
+      <c r="B235" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="C235" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D235" s="16"/>
-    </row>
-    <row r="236" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A236" s="25"/>
-      <c r="B236" s="14" t="s">
+      <c r="C235" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D235" s="14"/>
+    </row>
+    <row r="236" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A236" s="26"/>
+      <c r="B236" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="C236" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D236" s="16" t="s">
+      <c r="C236" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D236" s="14" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A237" s="25"/>
-      <c r="B237" s="14" t="s">
+    <row r="237" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A237" s="26"/>
+      <c r="B237" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="C237" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D237" s="16"/>
-    </row>
-    <row r="238" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A238" s="26"/>
-      <c r="B238" s="14" t="s">
+      <c r="C237" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D237" s="14"/>
+    </row>
+    <row r="238" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A238" s="27"/>
+      <c r="B238" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="C238" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D238" s="16"/>
-    </row>
-    <row r="239" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A239" s="24" t="s">
+      <c r="C238" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D238" s="14"/>
+    </row>
+    <row r="239" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A239" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="B239" s="14" t="s">
+      <c r="B239" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="C239" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D239" s="18" t="s">
+      <c r="C239" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D239" s="16" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A240" s="25"/>
-      <c r="B240" s="14" t="s">
+    <row r="240" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A240" s="26"/>
+      <c r="B240" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="C240" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D240" s="16"/>
-    </row>
-    <row r="241" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A241" s="25"/>
-      <c r="B241" s="14" t="s">
+      <c r="C240" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D240" s="14"/>
+    </row>
+    <row r="241" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A241" s="26"/>
+      <c r="B241" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="C241" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D241" s="16"/>
-    </row>
-    <row r="242" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A242" s="25"/>
-      <c r="B242" s="14" t="s">
+      <c r="C241" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D241" s="14"/>
+    </row>
+    <row r="242" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A242" s="26"/>
+      <c r="B242" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="C242" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D242" s="16"/>
-    </row>
-    <row r="243" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A243" s="25"/>
-      <c r="B243" s="14" t="s">
+      <c r="C242" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D242" s="14"/>
+    </row>
+    <row r="243" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A243" s="26"/>
+      <c r="B243" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="C243" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D243" s="16"/>
-    </row>
-    <row r="244" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A244" s="26"/>
-      <c r="B244" s="14" t="s">
+      <c r="C243" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D243" s="14"/>
+    </row>
+    <row r="244" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A244" s="27"/>
+      <c r="B244" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="C244" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D244" s="16"/>
-    </row>
-    <row r="245" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A245" s="24" t="s">
+      <c r="C244" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D244" s="14"/>
+    </row>
+    <row r="245" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A245" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="B245" s="14" t="s">
+      <c r="B245" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="C245" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D245" s="16" t="s">
+      <c r="C245" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D245" s="14" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A246" s="26"/>
-      <c r="B246" s="14" t="s">
+    <row r="246" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A246" s="27"/>
+      <c r="B246" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="C246" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D246" s="16" t="s">
+      <c r="C246" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D246" s="14" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A247" s="24" t="s">
+    <row r="247" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A247" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="B247" s="14" t="s">
+      <c r="B247" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="C247" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D247" s="16"/>
-    </row>
-    <row r="248" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A248" s="25"/>
-      <c r="B248" s="14" t="s">
+      <c r="C247" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D247" s="14"/>
+    </row>
+    <row r="248" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A248" s="26"/>
+      <c r="B248" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="C248" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D248" s="16"/>
-    </row>
-    <row r="249" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A249" s="25"/>
-      <c r="B249" s="14" t="s">
+      <c r="C248" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D248" s="14"/>
+    </row>
+    <row r="249" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A249" s="26"/>
+      <c r="B249" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="C249" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D249" s="16" t="s">
+      <c r="C249" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D249" s="14" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A250" s="25"/>
-      <c r="B250" s="14" t="s">
+    <row r="250" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A250" s="26"/>
+      <c r="B250" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="C250" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D250" s="16"/>
-    </row>
-    <row r="251" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A251" s="25"/>
-      <c r="B251" s="14" t="s">
+      <c r="C250" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D250" s="14"/>
+    </row>
+    <row r="251" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A251" s="26"/>
+      <c r="B251" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="C251" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D251" s="16"/>
-    </row>
-    <row r="252" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A252" s="25"/>
-      <c r="B252" s="14" t="s">
+      <c r="C251" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D251" s="14"/>
+    </row>
+    <row r="252" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A252" s="26"/>
+      <c r="B252" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="C252" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D252" s="16"/>
-    </row>
-    <row r="253" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A253" s="25"/>
-      <c r="B253" s="14" t="s">
+      <c r="C252" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D252" s="14"/>
+    </row>
+    <row r="253" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A253" s="26"/>
+      <c r="B253" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="C253" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D253" s="16"/>
-    </row>
-    <row r="254" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A254" s="25"/>
-      <c r="B254" s="14" t="s">
+      <c r="C253" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D253" s="14"/>
+    </row>
+    <row r="254" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A254" s="26"/>
+      <c r="B254" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="C254" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D254" s="16" t="s">
+      <c r="C254" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D254" s="14" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A255" s="26"/>
-      <c r="B255" s="19" t="s">
+    <row r="255" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A255" s="27"/>
+      <c r="B255" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="C255" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D255" s="16"/>
+      <c r="C255" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D255" s="14"/>
     </row>
     <row r="256" spans="1:4" ht="21" customHeight="1">
-      <c r="A256" s="24" t="s">
+      <c r="A256" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="B256" s="19" t="s">
+      <c r="B256" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="C256" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D256" s="16" t="s">
+      <c r="C256" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D256" s="14" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="21" customHeight="1">
-      <c r="A257" s="25"/>
-      <c r="B257" s="19" t="s">
+      <c r="A257" s="26"/>
+      <c r="B257" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="C257" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D257" s="16"/>
+      <c r="C257" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D257" s="14"/>
     </row>
     <row r="258" spans="1:4" ht="21" customHeight="1">
-      <c r="A258" s="26"/>
-      <c r="B258" s="19" t="s">
+      <c r="A258" s="27"/>
+      <c r="B258" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="C258" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D258" s="16"/>
-    </row>
-    <row r="259" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A259" s="24" t="s">
+      <c r="C258" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D258" s="14"/>
+    </row>
+    <row r="259" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A259" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="B259" s="19" t="s">
+      <c r="B259" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="C259" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D259" s="16"/>
-    </row>
-    <row r="260" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A260" s="25"/>
-      <c r="B260" s="19" t="s">
+      <c r="C259" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D259" s="14"/>
+    </row>
+    <row r="260" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A260" s="26"/>
+      <c r="B260" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="C260" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D260" s="16"/>
-    </row>
-    <row r="261" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A261" s="25"/>
-      <c r="B261" s="19" t="s">
+      <c r="C260" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D260" s="14"/>
+    </row>
+    <row r="261" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A261" s="26"/>
+      <c r="B261" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C261" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D261" s="16"/>
-    </row>
-    <row r="262" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A262" s="25"/>
-      <c r="B262" s="19" t="s">
+      <c r="C261" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D261" s="14"/>
+    </row>
+    <row r="262" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A262" s="26"/>
+      <c r="B262" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="C262" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D262" s="16"/>
-    </row>
-    <row r="263" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A263" s="25"/>
-      <c r="B263" s="19" t="s">
+      <c r="C262" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D262" s="14"/>
+    </row>
+    <row r="263" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A263" s="26"/>
+      <c r="B263" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="C263" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D263" s="16" t="s">
+      <c r="C263" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D263" s="14" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A264" s="26"/>
-      <c r="B264" s="19" t="s">
+    <row r="264" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A264" s="27"/>
+      <c r="B264" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="C264" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D264" s="16"/>
+      <c r="C264" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D264" s="14"/>
     </row>
     <row r="265" spans="1:4" ht="27.6" customHeight="1">
-      <c r="A265" s="24" t="s">
+      <c r="A265" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="B265" s="14" t="s">
+      <c r="B265" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="C265" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D265" s="16"/>
+      <c r="C265" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D265" s="14"/>
     </row>
     <row r="266" spans="1:4" ht="27.6" customHeight="1">
-      <c r="A266" s="25"/>
-      <c r="B266" s="14" t="s">
+      <c r="A266" s="26"/>
+      <c r="B266" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="C266" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D266" s="16"/>
+      <c r="C266" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D266" s="14"/>
     </row>
     <row r="267" spans="1:4" ht="27.6" customHeight="1">
-      <c r="A267" s="25"/>
-      <c r="B267" s="14" t="s">
+      <c r="A267" s="26"/>
+      <c r="B267" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="C267" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D267" s="16"/>
+      <c r="C267" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D267" s="14"/>
     </row>
     <row r="268" spans="1:4" ht="27.6" customHeight="1">
-      <c r="A268" s="25"/>
-      <c r="B268" s="14" t="s">
+      <c r="A268" s="26"/>
+      <c r="B268" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="C268" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D268" s="16"/>
+      <c r="C268" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D268" s="14"/>
     </row>
     <row r="269" spans="1:4" ht="27.6" customHeight="1">
-      <c r="A269" s="26"/>
-      <c r="B269" s="14" t="s">
+      <c r="A269" s="27"/>
+      <c r="B269" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="C269" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D269" s="16" t="s">
+      <c r="C269" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D269" s="14" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A270" s="24" t="s">
+    <row r="270" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A270" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="B270" s="14" t="s">
+      <c r="B270" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="C270" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D270" s="16"/>
-    </row>
-    <row r="271" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A271" s="25"/>
-      <c r="B271" s="14" t="s">
+      <c r="C270" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D270" s="14"/>
+    </row>
+    <row r="271" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A271" s="26"/>
+      <c r="B271" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="C271" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D271" s="16"/>
-    </row>
-    <row r="272" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A272" s="25"/>
-      <c r="B272" s="14" t="s">
+      <c r="C271" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D271" s="14"/>
+    </row>
+    <row r="272" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A272" s="26"/>
+      <c r="B272" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="C272" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D272" s="16"/>
-    </row>
-    <row r="273" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A273" s="25"/>
-      <c r="B273" s="14" t="s">
+      <c r="C272" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D272" s="14"/>
+    </row>
+    <row r="273" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A273" s="26"/>
+      <c r="B273" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="C273" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D273" s="16" t="s">
+      <c r="C273" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D273" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A274" s="25"/>
-      <c r="B274" s="14" t="s">
+    <row r="274" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A274" s="26"/>
+      <c r="B274" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="C274" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D274" s="16"/>
-    </row>
-    <row r="275" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A275" s="25"/>
-      <c r="B275" s="14" t="s">
+      <c r="C274" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D274" s="14"/>
+    </row>
+    <row r="275" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A275" s="26"/>
+      <c r="B275" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="C275" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D275" s="16"/>
-    </row>
-    <row r="276" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A276" s="25"/>
-      <c r="B276" s="14" t="s">
+      <c r="C275" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D275" s="14"/>
+    </row>
+    <row r="276" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A276" s="26"/>
+      <c r="B276" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="C276" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D276" s="16"/>
-    </row>
-    <row r="277" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A277" s="25"/>
-      <c r="B277" s="14" t="s">
+      <c r="C276" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D276" s="14"/>
+    </row>
+    <row r="277" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A277" s="26"/>
+      <c r="B277" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="C277" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D277" s="16" t="s">
+      <c r="C277" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D277" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A278" s="25"/>
-      <c r="B278" s="14" t="s">
+    <row r="278" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A278" s="26"/>
+      <c r="B278" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="C278" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D278" s="16"/>
-    </row>
-    <row r="279" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A279" s="26"/>
-      <c r="B279" s="14" t="s">
+      <c r="C278" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D278" s="14"/>
+    </row>
+    <row r="279" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A279" s="27"/>
+      <c r="B279" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="C279" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D279" s="16"/>
-    </row>
-    <row r="280" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A280" s="24" t="s">
+      <c r="C279" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D279" s="14"/>
+    </row>
+    <row r="280" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A280" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="B280" s="14" t="s">
+      <c r="B280" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="C280" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D280" s="16" t="s">
+      <c r="C280" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D280" s="14" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A281" s="26"/>
-      <c r="B281" s="14" t="s">
+    <row r="281" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A281" s="27"/>
+      <c r="B281" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="C281" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D281" s="16" t="s">
+      <c r="C281" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D281" s="14" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A282" s="24" t="s">
+    <row r="282" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A282" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="B282" s="14" t="s">
+      <c r="B282" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="C282" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D282" s="16"/>
-    </row>
-    <row r="283" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A283" s="25"/>
-      <c r="B283" s="14" t="s">
+      <c r="C282" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D282" s="14"/>
+    </row>
+    <row r="283" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A283" s="26"/>
+      <c r="B283" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="C283" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D283" s="16"/>
-    </row>
-    <row r="284" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A284" s="25"/>
-      <c r="B284" s="14" t="s">
+      <c r="C283" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D283" s="14"/>
+    </row>
+    <row r="284" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A284" s="26"/>
+      <c r="B284" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="C284" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D284" s="16"/>
-    </row>
-    <row r="285" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A285" s="25"/>
-      <c r="B285" s="14" t="s">
+      <c r="C284" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D284" s="14"/>
+    </row>
+    <row r="285" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A285" s="26"/>
+      <c r="B285" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="C285" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D285" s="16"/>
-    </row>
-    <row r="286" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A286" s="25"/>
-      <c r="B286" s="14" t="s">
+      <c r="C285" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D285" s="14"/>
+    </row>
+    <row r="286" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A286" s="26"/>
+      <c r="B286" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="C286" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D286" s="16" t="s">
+      <c r="C286" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D286" s="14" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A287" s="25"/>
-      <c r="B287" s="14" t="s">
+    <row r="287" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A287" s="26"/>
+      <c r="B287" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="C287" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D287" s="16"/>
-    </row>
-    <row r="288" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A288" s="25"/>
-      <c r="B288" s="14" t="s">
+      <c r="C287" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D287" s="14"/>
+    </row>
+    <row r="288" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A288" s="26"/>
+      <c r="B288" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="C288" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D288" s="16"/>
-    </row>
-    <row r="289" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A289" s="25"/>
-      <c r="B289" s="14" t="s">
+      <c r="C288" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D288" s="14"/>
+    </row>
+    <row r="289" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A289" s="26"/>
+      <c r="B289" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="C289" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D289" s="16"/>
-    </row>
-    <row r="290" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A290" s="25"/>
-      <c r="B290" s="14" t="s">
+      <c r="C289" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D289" s="14"/>
+    </row>
+    <row r="290" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A290" s="26"/>
+      <c r="B290" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="C290" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D290" s="16"/>
-    </row>
-    <row r="291" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A291" s="26"/>
-      <c r="B291" s="14" t="s">
+      <c r="C290" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D290" s="14"/>
+    </row>
+    <row r="291" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A291" s="27"/>
+      <c r="B291" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="C291" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D291" s="16"/>
-    </row>
-    <row r="292" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A292" s="24" t="s">
+      <c r="C291" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D291" s="14"/>
+    </row>
+    <row r="292" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A292" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="B292" s="14" t="s">
+      <c r="B292" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="C292" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D292" s="16"/>
-    </row>
-    <row r="293" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A293" s="25"/>
-      <c r="B293" s="14" t="s">
+      <c r="C292" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D292" s="14"/>
+    </row>
+    <row r="293" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A293" s="26"/>
+      <c r="B293" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="C293" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D293" s="16"/>
-    </row>
-    <row r="294" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A294" s="25"/>
-      <c r="B294" s="14" t="s">
+      <c r="C293" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D293" s="14"/>
+    </row>
+    <row r="294" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A294" s="26"/>
+      <c r="B294" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="C294" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D294" s="16"/>
-    </row>
-    <row r="295" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A295" s="25"/>
-      <c r="B295" s="14" t="s">
+      <c r="C294" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D294" s="14"/>
+    </row>
+    <row r="295" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A295" s="26"/>
+      <c r="B295" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="C295" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D295" s="16"/>
-    </row>
-    <row r="296" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A296" s="25"/>
-      <c r="B296" s="14" t="s">
+      <c r="C295" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D295" s="14"/>
+    </row>
+    <row r="296" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A296" s="26"/>
+      <c r="B296" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="C296" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D296" s="16"/>
-    </row>
-    <row r="297" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A297" s="25"/>
-      <c r="B297" s="14" t="s">
+      <c r="C296" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D296" s="14"/>
+    </row>
+    <row r="297" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A297" s="26"/>
+      <c r="B297" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="C297" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D297" s="16"/>
-    </row>
-    <row r="298" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A298" s="25"/>
-      <c r="B298" s="14" t="s">
+      <c r="C297" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D297" s="14"/>
+    </row>
+    <row r="298" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A298" s="26"/>
+      <c r="B298" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="C298" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D298" s="16"/>
-    </row>
-    <row r="299" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A299" s="25"/>
-      <c r="B299" s="14" t="s">
+      <c r="C298" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D298" s="14"/>
+    </row>
+    <row r="299" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A299" s="26"/>
+      <c r="B299" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="C299" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D299" s="16"/>
-    </row>
-    <row r="300" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A300" s="25"/>
-      <c r="B300" s="14" t="s">
+      <c r="C299" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D299" s="14"/>
+    </row>
+    <row r="300" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A300" s="26"/>
+      <c r="B300" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="C300" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D300" s="16"/>
-    </row>
-    <row r="301" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A301" s="25"/>
-      <c r="B301" s="14" t="s">
+      <c r="C300" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D300" s="14"/>
+    </row>
+    <row r="301" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A301" s="26"/>
+      <c r="B301" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="C301" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D301" s="16"/>
-    </row>
-    <row r="302" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A302" s="25"/>
-      <c r="B302" s="14" t="s">
+      <c r="C301" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D301" s="14"/>
+    </row>
+    <row r="302" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A302" s="26"/>
+      <c r="B302" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="C302" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D302" s="16"/>
-    </row>
-    <row r="303" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A303" s="25"/>
-      <c r="B303" s="14" t="s">
+      <c r="C302" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D302" s="14"/>
+    </row>
+    <row r="303" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A303" s="26"/>
+      <c r="B303" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="C303" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D303" s="16"/>
-    </row>
-    <row r="304" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A304" s="25"/>
-      <c r="B304" s="14" t="s">
+      <c r="C303" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D303" s="14"/>
+    </row>
+    <row r="304" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A304" s="26"/>
+      <c r="B304" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="C304" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D304" s="16"/>
-    </row>
-    <row r="305" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A305" s="25"/>
-      <c r="B305" s="14" t="s">
+      <c r="C304" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D304" s="14"/>
+    </row>
+    <row r="305" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A305" s="26"/>
+      <c r="B305" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="C305" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D305" s="16"/>
-    </row>
-    <row r="306" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A306" s="25"/>
-      <c r="B306" s="14" t="s">
+      <c r="C305" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D305" s="14"/>
+    </row>
+    <row r="306" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A306" s="26"/>
+      <c r="B306" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="C306" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D306" s="16"/>
-    </row>
-    <row r="307" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A307" s="25"/>
-      <c r="B307" s="14" t="s">
+      <c r="C306" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D306" s="14"/>
+    </row>
+    <row r="307" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A307" s="26"/>
+      <c r="B307" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="C307" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D307" s="16"/>
-    </row>
-    <row r="308" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A308" s="25"/>
-      <c r="B308" s="14" t="s">
+      <c r="C307" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D307" s="14"/>
+    </row>
+    <row r="308" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A308" s="26"/>
+      <c r="B308" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="C308" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D308" s="16"/>
-    </row>
-    <row r="309" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A309" s="25"/>
-      <c r="B309" s="14" t="s">
+      <c r="C308" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D308" s="14"/>
+    </row>
+    <row r="309" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A309" s="26"/>
+      <c r="B309" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="C309" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D309" s="16"/>
-    </row>
-    <row r="310" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A310" s="25"/>
-      <c r="B310" s="14" t="s">
+      <c r="C309" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D309" s="14"/>
+    </row>
+    <row r="310" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A310" s="26"/>
+      <c r="B310" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="C310" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D310" s="16"/>
-    </row>
-    <row r="311" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A311" s="25"/>
-      <c r="B311" s="14" t="s">
+      <c r="C310" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D310" s="14"/>
+    </row>
+    <row r="311" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A311" s="26"/>
+      <c r="B311" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="C311" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D311" s="16"/>
-    </row>
-    <row r="312" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A312" s="26"/>
-      <c r="B312" s="14" t="s">
+      <c r="C311" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D311" s="14"/>
+    </row>
+    <row r="312" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A312" s="27"/>
+      <c r="B312" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="C312" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D312" s="16" t="s">
+      <c r="C312" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D312" s="14" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A313" s="16" t="s">
+    <row r="313" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A313" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="B313" s="14" t="s">
+      <c r="B313" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="C313" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D313" s="16" t="s">
+      <c r="C313" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D313" s="14" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A314" s="24" t="s">
+    <row r="314" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A314" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="B314" s="14" t="s">
+      <c r="B314" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="C314" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D314" s="16"/>
-    </row>
-    <row r="315" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A315" s="25"/>
-      <c r="B315" s="14" t="s">
+      <c r="C314" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D314" s="14"/>
+    </row>
+    <row r="315" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A315" s="26"/>
+      <c r="B315" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="C315" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D315" s="16"/>
-    </row>
-    <row r="316" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A316" s="25"/>
-      <c r="B316" s="14" t="s">
+      <c r="C315" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D315" s="14"/>
+    </row>
+    <row r="316" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A316" s="26"/>
+      <c r="B316" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="C316" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D316" s="16"/>
-    </row>
-    <row r="317" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A317" s="25"/>
-      <c r="B317" s="14" t="s">
+      <c r="C316" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D316" s="14"/>
+    </row>
+    <row r="317" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A317" s="26"/>
+      <c r="B317" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="C317" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D317" s="16"/>
-    </row>
-    <row r="318" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A318" s="25"/>
-      <c r="B318" s="14" t="s">
+      <c r="C317" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D317" s="14"/>
+    </row>
+    <row r="318" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A318" s="26"/>
+      <c r="B318" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="C318" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D318" s="16" t="s">
+      <c r="C318" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D318" s="14" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A319" s="25"/>
-      <c r="B319" s="14" t="s">
+    <row r="319" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A319" s="26"/>
+      <c r="B319" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="C319" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D319" s="16"/>
-    </row>
-    <row r="320" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A320" s="25"/>
-      <c r="B320" s="14" t="s">
+      <c r="C319" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D319" s="14"/>
+    </row>
+    <row r="320" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A320" s="26"/>
+      <c r="B320" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="C320" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D320" s="16" t="s">
+      <c r="C320" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D320" s="14" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A321" s="26"/>
-      <c r="B321" s="14" t="s">
+    <row r="321" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A321" s="27"/>
+      <c r="B321" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="C321" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D321" s="16" t="s">
+      <c r="C321" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D321" s="14" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A322" s="16" t="s">
+    <row r="322" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A322" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="B322" s="14" t="s">
+      <c r="B322" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="C322" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D322" s="16" t="s">
+      <c r="C322" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D322" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A323" s="24" t="s">
+    <row r="323" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A323" s="25" t="s">
         <v>356</v>
       </c>
-      <c r="B323" s="14" t="s">
+      <c r="B323" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="C323" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D323" s="16"/>
-    </row>
-    <row r="324" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A324" s="25"/>
-      <c r="B324" s="14" t="s">
+      <c r="C323" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D323" s="14"/>
+    </row>
+    <row r="324" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A324" s="26"/>
+      <c r="B324" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="C324" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D324" s="16" t="s">
+      <c r="C324" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D324" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A325" s="25"/>
-      <c r="B325" s="14" t="s">
+    <row r="325" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A325" s="26"/>
+      <c r="B325" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="C325" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D325" s="16" t="s">
+      <c r="C325" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D325" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A326" s="25"/>
-      <c r="B326" s="14" t="s">
+    <row r="326" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A326" s="26"/>
+      <c r="B326" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="C326" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D326" s="16"/>
-    </row>
-    <row r="327" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A327" s="25"/>
-      <c r="B327" s="14" t="s">
+      <c r="C326" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D326" s="14"/>
+    </row>
+    <row r="327" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A327" s="26"/>
+      <c r="B327" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="C327" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D327" s="16"/>
-    </row>
-    <row r="328" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A328" s="26"/>
-      <c r="B328" s="14" t="s">
+      <c r="C327" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D327" s="14"/>
+    </row>
+    <row r="328" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A328" s="27"/>
+      <c r="B328" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="C328" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D328" s="16"/>
-    </row>
-    <row r="329" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A329" s="24" t="s">
+      <c r="C328" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D328" s="14"/>
+    </row>
+    <row r="329" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A329" s="25" t="s">
         <v>363</v>
       </c>
-      <c r="B329" s="14" t="s">
+      <c r="B329" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="C329" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D329" s="16" t="s">
+      <c r="C329" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D329" s="14" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A330" s="25"/>
-      <c r="B330" s="14" t="s">
+    <row r="330" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A330" s="26"/>
+      <c r="B330" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="C330" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D330" s="16" t="s">
+      <c r="C330" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D330" s="14" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A331" s="25"/>
-      <c r="B331" s="14" t="s">
+    <row r="331" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A331" s="26"/>
+      <c r="B331" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="C331" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D331" s="16" t="s">
+      <c r="C331" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D331" s="14" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A332" s="25"/>
-      <c r="B332" s="14" t="s">
+    <row r="332" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A332" s="26"/>
+      <c r="B332" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="C332" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D332" s="16" t="s">
+      <c r="C332" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D332" s="14" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A333" s="25"/>
-      <c r="B333" s="14" t="s">
+    <row r="333" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A333" s="26"/>
+      <c r="B333" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="C333" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D333" s="16" t="s">
+      <c r="C333" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D333" s="14" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A334" s="25"/>
-      <c r="B334" s="14" t="s">
+    <row r="334" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A334" s="26"/>
+      <c r="B334" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="C334" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D334" s="16" t="s">
+      <c r="C334" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D334" s="14" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A335" s="25"/>
-      <c r="B335" s="14" t="s">
+    <row r="335" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A335" s="26"/>
+      <c r="B335" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="C335" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D335" s="16" t="s">
+      <c r="C335" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D335" s="14" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A336" s="25"/>
-      <c r="B336" s="14" t="s">
+    <row r="336" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A336" s="26"/>
+      <c r="B336" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="C336" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D336" s="16" t="s">
+      <c r="C336" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D336" s="14" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A337" s="25"/>
-      <c r="B337" s="14" t="s">
+    <row r="337" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A337" s="26"/>
+      <c r="B337" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="C337" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D337" s="16" t="s">
+      <c r="C337" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D337" s="14" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A338" s="25"/>
-      <c r="B338" s="14" t="s">
+    <row r="338" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A338" s="26"/>
+      <c r="B338" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="C338" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D338" s="16" t="s">
+      <c r="C338" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D338" s="14" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A339" s="25"/>
-      <c r="B339" s="14" t="s">
+    <row r="339" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A339" s="26"/>
+      <c r="B339" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="C339" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D339" s="16" t="s">
+      <c r="C339" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D339" s="14" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A340" s="25"/>
-      <c r="B340" s="14" t="s">
+    <row r="340" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A340" s="26"/>
+      <c r="B340" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="C340" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D340" s="16" t="s">
+      <c r="C340" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D340" s="14" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A341" s="25"/>
-      <c r="B341" s="14" t="s">
+    <row r="341" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A341" s="26"/>
+      <c r="B341" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="C341" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D341" s="16" t="s">
+      <c r="C341" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D341" s="14" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A342" s="25"/>
-      <c r="B342" s="14" t="s">
+    <row r="342" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A342" s="26"/>
+      <c r="B342" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="C342" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D342" s="16"/>
-    </row>
-    <row r="343" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A343" s="25"/>
-      <c r="B343" s="14" t="s">
+      <c r="C342" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D342" s="14"/>
+    </row>
+    <row r="343" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A343" s="26"/>
+      <c r="B343" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="C343" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D343" s="16"/>
-    </row>
-    <row r="344" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A344" s="25"/>
-      <c r="B344" s="14" t="s">
+      <c r="C343" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D343" s="14"/>
+    </row>
+    <row r="344" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A344" s="26"/>
+      <c r="B344" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="C344" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D344" s="16"/>
-    </row>
-    <row r="345" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A345" s="25"/>
-      <c r="B345" s="14" t="s">
+      <c r="C344" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D344" s="14"/>
+    </row>
+    <row r="345" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A345" s="26"/>
+      <c r="B345" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="C345" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D345" s="16"/>
-    </row>
-    <row r="346" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A346" s="25"/>
-      <c r="B346" s="14" t="s">
+      <c r="C345" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D345" s="14"/>
+    </row>
+    <row r="346" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A346" s="26"/>
+      <c r="B346" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="C346" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D346" s="16"/>
-    </row>
-    <row r="347" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A347" s="25"/>
-      <c r="B347" s="14" t="s">
+      <c r="C346" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D346" s="14"/>
+    </row>
+    <row r="347" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A347" s="26"/>
+      <c r="B347" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="C347" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D347" s="16"/>
-    </row>
-    <row r="348" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A348" s="25"/>
-      <c r="B348" s="14" t="s">
+      <c r="C347" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D347" s="14"/>
+    </row>
+    <row r="348" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A348" s="26"/>
+      <c r="B348" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="C348" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D348" s="16" t="s">
+      <c r="C348" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D348" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A349" s="25"/>
-      <c r="B349" s="14" t="s">
+    <row r="349" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A349" s="26"/>
+      <c r="B349" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="C349" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D349" s="16"/>
-    </row>
-    <row r="350" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A350" s="25"/>
-      <c r="B350" s="14" t="s">
+      <c r="C349" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D349" s="14"/>
+    </row>
+    <row r="350" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A350" s="26"/>
+      <c r="B350" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="C350" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D350" s="16" t="s">
+      <c r="C350" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D350" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A351" s="25"/>
-      <c r="B351" s="14" t="s">
+    <row r="351" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A351" s="26"/>
+      <c r="B351" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="C351" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D351" s="16"/>
-    </row>
-    <row r="352" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A352" s="25"/>
-      <c r="B352" s="14" t="s">
+      <c r="C351" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D351" s="14"/>
+    </row>
+    <row r="352" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A352" s="26"/>
+      <c r="B352" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="C352" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D352" s="16"/>
-    </row>
-    <row r="353" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A353" s="25"/>
-      <c r="B353" s="14" t="s">
+      <c r="C352" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D352" s="14"/>
+    </row>
+    <row r="353" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A353" s="26"/>
+      <c r="B353" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="C353" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D353" s="16"/>
-    </row>
-    <row r="354" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A354" s="25"/>
-      <c r="B354" s="14" t="s">
+      <c r="C353" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D353" s="14"/>
+    </row>
+    <row r="354" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A354" s="26"/>
+      <c r="B354" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="C354" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D354" s="16"/>
-    </row>
-    <row r="355" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A355" s="25"/>
-      <c r="B355" s="14" t="s">
+      <c r="C354" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D354" s="14"/>
+    </row>
+    <row r="355" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A355" s="26"/>
+      <c r="B355" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="C355" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D355" s="16" t="s">
+      <c r="C355" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D355" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A356" s="25"/>
-      <c r="B356" s="14" t="s">
+    <row r="356" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A356" s="26"/>
+      <c r="B356" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="C356" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D356" s="16"/>
-    </row>
-    <row r="357" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A357" s="25"/>
-      <c r="B357" s="14" t="s">
+      <c r="C356" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D356" s="14"/>
+    </row>
+    <row r="357" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A357" s="26"/>
+      <c r="B357" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C357" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D357" s="16"/>
-    </row>
-    <row r="358" spans="1:4" ht="25.95" customHeight="1">
-      <c r="A358" s="26"/>
-      <c r="B358" s="14" t="s">
+      <c r="C357" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D357" s="14"/>
+    </row>
+    <row r="358" spans="1:4" ht="25.9" customHeight="1">
+      <c r="A358" s="27"/>
+      <c r="B358" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="C358" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D358" s="16"/>
+      <c r="C358" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D358" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A90:A97"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="A25:A52"/>
-    <mergeCell ref="A53:A62"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A68:A74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A83:A89"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A107:A112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="A181:A200"/>
-    <mergeCell ref="A201:A210"/>
-    <mergeCell ref="A212:A233"/>
-    <mergeCell ref="A234:A238"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A122:A154"/>
-    <mergeCell ref="A155:A165"/>
-    <mergeCell ref="A166:A167"/>
     <mergeCell ref="A329:A358"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A270:A279"/>
@@ -6083,6 +6073,33 @@
     <mergeCell ref="A265:A269"/>
     <mergeCell ref="A168:A177"/>
     <mergeCell ref="A178:A180"/>
+    <mergeCell ref="A181:A200"/>
+    <mergeCell ref="A201:A210"/>
+    <mergeCell ref="A212:A233"/>
+    <mergeCell ref="A234:A238"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A122:A154"/>
+    <mergeCell ref="A155:A165"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="A90:A97"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A25:A52"/>
+    <mergeCell ref="A53:A62"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A89"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C358">
@@ -6090,1196 +6107,1225 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" fitToHeight="12" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="15" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22.95" customHeight="1">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:10" ht="22.9" customHeight="1">
+      <c r="A1" s="34" t="s">
         <v>450</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="37" t="s">
         <v>395</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>403</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="37" t="s">
         <v>402</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="37" t="s">
         <v>398</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="37" t="s">
         <v>399</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="20"/>
+      <c r="G2" s="37"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="7" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="38" t="s">
         <v>401</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="38" t="s">
         <v>401</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="20"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="39" t="s">
         <v>499</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="39">
         <v>1546.43</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="39">
         <v>13</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="39">
         <v>506</v>
       </c>
-      <c r="F4" s="35">
-        <v>0</v>
-      </c>
-      <c r="G4" s="35"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="20"/>
+      <c r="F4" s="39">
+        <v>0</v>
+      </c>
+      <c r="G4" s="39">
+        <v>335</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="39" t="s">
         <v>404</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="39" t="s">
         <v>500</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="39">
         <v>1355.47</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="39">
         <v>12</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="39">
         <v>436</v>
       </c>
-      <c r="F5" s="35">
-        <v>0</v>
-      </c>
-      <c r="G5" s="35"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="20"/>
+      <c r="F5" s="39">
+        <v>0</v>
+      </c>
+      <c r="G5" s="39">
+        <v>335</v>
+      </c>
+      <c r="I5" s="21"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="39" t="s">
         <v>405</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="39" t="s">
         <v>495</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="39">
         <v>1161.49</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="39">
         <v>12</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="39">
         <v>474</v>
       </c>
-      <c r="F6" s="35">
-        <v>0</v>
-      </c>
-      <c r="G6" s="35"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="20"/>
+      <c r="F6" s="39">
+        <v>0</v>
+      </c>
+      <c r="G6" s="39">
+        <v>366</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="39" t="s">
         <v>496</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="39">
         <v>1275.5899999999999</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="39">
         <v>12</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="39">
         <v>437</v>
       </c>
-      <c r="F7" s="35">
-        <v>0</v>
-      </c>
-      <c r="G7" s="35"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="20"/>
+      <c r="F7" s="39">
+        <v>0</v>
+      </c>
+      <c r="G7" s="39">
+        <v>366</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="39" t="s">
         <v>497</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="39">
         <v>1599.88</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="39">
         <v>13</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="39">
         <v>450</v>
       </c>
-      <c r="F8" s="35">
-        <v>0</v>
-      </c>
-      <c r="G8" s="35"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="20"/>
+      <c r="F8" s="39">
+        <v>0</v>
+      </c>
+      <c r="G8" s="39">
+        <v>366</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="39" t="s">
         <v>498</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="39">
         <v>926.76</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="39">
         <v>12</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="39">
         <v>470</v>
       </c>
-      <c r="F9" s="35">
-        <v>0</v>
-      </c>
-      <c r="G9" s="35"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="20"/>
+      <c r="F9" s="39">
+        <v>0</v>
+      </c>
+      <c r="G9" s="39">
+        <v>366</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="6">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="39">
         <v>7</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="20"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="39" t="s">
         <v>409</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="35">
+      <c r="C11" s="40"/>
+      <c r="D11" s="39">
         <v>5</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="39">
         <v>428</v>
       </c>
-      <c r="F11" s="35">
-        <v>0</v>
-      </c>
-      <c r="G11" s="35"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="20"/>
+      <c r="F11" s="39">
+        <v>0</v>
+      </c>
+      <c r="G11" s="39"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="39" t="s">
         <v>410</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="39" t="s">
         <v>474</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="39">
         <v>402.08</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="39">
         <v>7</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="39">
         <v>474</v>
       </c>
-      <c r="F12" s="35">
-        <v>0</v>
-      </c>
-      <c r="G12" s="35">
+      <c r="F12" s="39">
+        <v>0</v>
+      </c>
+      <c r="G12" s="39">
         <v>777</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="20"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="39" t="s">
         <v>411</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="39" t="s">
         <v>475</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="39">
         <v>689.46</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="39">
         <v>6</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="39">
         <v>450</v>
       </c>
-      <c r="F13" s="35">
-        <v>0</v>
-      </c>
-      <c r="G13" s="35">
+      <c r="F13" s="39">
+        <v>0</v>
+      </c>
+      <c r="G13" s="39">
         <v>762</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="20"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="39" t="s">
         <v>412</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="39" t="s">
         <v>476</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="39">
         <v>710.52</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="39">
         <v>13</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="39">
         <v>413</v>
       </c>
-      <c r="F14" s="35">
-        <v>0</v>
-      </c>
-      <c r="G14" s="35">
+      <c r="F14" s="39">
+        <v>0</v>
+      </c>
+      <c r="G14" s="39">
         <v>701</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="20"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="39" t="s">
         <v>413</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="39" t="s">
         <v>477</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="39">
         <v>770.85</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="39">
         <v>9</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="39">
         <v>510</v>
       </c>
-      <c r="F15" s="35">
-        <v>0</v>
-      </c>
-      <c r="G15" s="35">
+      <c r="F15" s="39">
+        <v>0</v>
+      </c>
+      <c r="G15" s="39">
         <v>685</v>
       </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="20"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="39" t="s">
         <v>414</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="39" t="s">
         <v>478</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="39">
         <v>790.42</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="39">
         <v>9</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="39">
         <v>480</v>
       </c>
-      <c r="F16" s="35">
-        <v>0</v>
-      </c>
-      <c r="G16" s="35">
+      <c r="F16" s="39">
+        <v>0</v>
+      </c>
+      <c r="G16" s="39">
         <v>390</v>
       </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="20"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="39" t="s">
         <v>415</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="39" t="s">
         <v>479</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="39">
         <v>945.25</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="39">
         <v>7</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="39">
         <v>408</v>
       </c>
-      <c r="F17" s="35">
-        <v>0</v>
-      </c>
-      <c r="G17" s="35">
+      <c r="F17" s="39">
+        <v>0</v>
+      </c>
+      <c r="G17" s="39">
         <v>1112</v>
       </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="20"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="39" t="s">
         <v>416</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="39" t="s">
         <v>482</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="39">
         <v>733.78</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="39">
         <v>11</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18" s="39">
         <v>399</v>
       </c>
-      <c r="F18" s="35">
-        <v>0</v>
-      </c>
-      <c r="G18" s="35">
+      <c r="F18" s="39">
+        <v>0</v>
+      </c>
+      <c r="G18" s="39">
         <v>347</v>
       </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="20"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="39" t="s">
         <v>417</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="39" t="s">
         <v>483</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="39">
         <v>883.97</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="39">
         <v>11</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="39">
         <v>421</v>
       </c>
-      <c r="F19" s="35">
-        <v>0</v>
-      </c>
-      <c r="G19" s="35">
+      <c r="F19" s="39">
+        <v>0</v>
+      </c>
+      <c r="G19" s="39">
         <v>356</v>
       </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="20"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="39" t="s">
         <v>418</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="39" t="s">
         <v>483</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="39">
         <v>832.13</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="39">
         <v>6</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E20" s="39">
         <v>453</v>
       </c>
-      <c r="F20" s="35">
-        <v>0</v>
-      </c>
-      <c r="G20" s="35">
+      <c r="F20" s="39">
+        <v>0</v>
+      </c>
+      <c r="G20" s="39">
         <v>356</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="20"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="39" t="s">
         <v>419</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="39" t="s">
         <v>486</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="39">
         <v>953.47</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="39">
         <v>8</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E21" s="39">
         <v>388</v>
       </c>
-      <c r="F21" s="35">
-        <v>0</v>
-      </c>
-      <c r="G21" s="35">
+      <c r="F21" s="39">
+        <v>0</v>
+      </c>
+      <c r="G21" s="39">
         <v>406</v>
       </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="20"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="39" t="s">
         <v>420</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="39" t="s">
         <v>476</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="39">
         <v>1003.82</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="39">
         <v>11</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="39">
         <v>470</v>
       </c>
-      <c r="F22" s="35">
-        <v>0</v>
-      </c>
-      <c r="G22" s="35">
+      <c r="F22" s="39">
+        <v>0</v>
+      </c>
+      <c r="G22" s="39">
         <v>762</v>
       </c>
-      <c r="I22" s="21"/>
+      <c r="I22" s="19"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="39" t="s">
         <v>421</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="39" t="s">
         <v>480</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="39">
         <v>857</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="39">
         <v>11</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="39">
         <v>449</v>
       </c>
-      <c r="F23" s="35">
-        <v>0</v>
-      </c>
-      <c r="G23" s="35">
+      <c r="F23" s="39">
+        <v>0</v>
+      </c>
+      <c r="G23" s="39">
         <v>728</v>
       </c>
-      <c r="I23" s="21"/>
+      <c r="I23" s="19"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="39" t="s">
         <v>422</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="39" t="s">
         <v>481</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="39">
         <v>783.82</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="39">
         <v>13</v>
       </c>
-      <c r="E24" s="35">
+      <c r="E24" s="39">
         <v>441</v>
       </c>
-      <c r="F24" s="35">
-        <v>0</v>
-      </c>
-      <c r="G24" s="35"/>
-      <c r="I24" s="21"/>
+      <c r="F24" s="39">
+        <v>0</v>
+      </c>
+      <c r="G24" s="39"/>
+      <c r="I24" s="19"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="39" t="s">
         <v>423</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="39" t="s">
         <v>475</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="39">
         <v>915.8</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="39">
         <v>7</v>
       </c>
-      <c r="E25" s="35">
+      <c r="E25" s="39">
         <v>408</v>
       </c>
-      <c r="F25" s="35">
-        <v>0</v>
-      </c>
-      <c r="G25" s="35">
+      <c r="F25" s="39">
+        <v>0</v>
+      </c>
+      <c r="G25" s="39">
         <v>382</v>
       </c>
-      <c r="I25" s="21"/>
+      <c r="I25" s="19"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="39" t="s">
         <v>424</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="39" t="s">
         <v>484</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35">
+      <c r="C26" s="39"/>
+      <c r="D26" s="39">
         <v>8</v>
       </c>
-      <c r="E26" s="35">
+      <c r="E26" s="39">
         <v>491</v>
       </c>
-      <c r="F26" s="35">
-        <v>0</v>
-      </c>
-      <c r="G26" s="35">
+      <c r="F26" s="39">
+        <v>0</v>
+      </c>
+      <c r="G26" s="39">
         <v>382</v>
       </c>
-      <c r="I26" s="21"/>
+      <c r="I26" s="19"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="39" t="s">
         <v>425</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="39" t="s">
         <v>485</v>
       </c>
-      <c r="C27" s="35">
+      <c r="C27" s="39">
         <v>1389.3</v>
       </c>
-      <c r="D27" s="35">
+      <c r="D27" s="39">
         <v>13</v>
       </c>
-      <c r="E27" s="35">
+      <c r="E27" s="39">
         <v>434</v>
       </c>
-      <c r="F27" s="35">
-        <v>0</v>
-      </c>
-      <c r="G27" s="35">
+      <c r="F27" s="39">
+        <v>0</v>
+      </c>
+      <c r="G27" s="39">
         <v>424</v>
       </c>
-      <c r="I27" s="21"/>
+      <c r="I27" s="19"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="39" t="s">
         <v>426</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="39" t="s">
         <v>487</v>
       </c>
-      <c r="C28" s="35">
+      <c r="C28" s="39">
         <v>968.51</v>
       </c>
-      <c r="D28" s="35">
+      <c r="D28" s="39">
         <v>10</v>
       </c>
-      <c r="E28" s="35">
+      <c r="E28" s="39">
         <v>411</v>
       </c>
-      <c r="F28" s="35">
-        <v>0</v>
-      </c>
-      <c r="G28" s="35">
+      <c r="F28" s="39">
+        <v>0</v>
+      </c>
+      <c r="G28" s="39">
         <v>391</v>
       </c>
-      <c r="I28" s="21"/>
+      <c r="I28" s="19"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="39" t="s">
         <v>488</v>
       </c>
-      <c r="C29" s="35">
+      <c r="C29" s="39">
         <v>1111.8</v>
       </c>
-      <c r="D29" s="35">
+      <c r="D29" s="39">
         <v>11</v>
       </c>
-      <c r="E29" s="35">
+      <c r="E29" s="39">
         <v>420</v>
       </c>
-      <c r="F29" s="35">
-        <v>0</v>
-      </c>
-      <c r="G29" s="35">
+      <c r="F29" s="39">
+        <v>0</v>
+      </c>
+      <c r="G29" s="39">
         <v>367</v>
       </c>
-      <c r="I29" s="21"/>
+      <c r="I29" s="19"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="39" t="s">
         <v>428</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="39" t="s">
         <v>493</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="39">
         <v>973.48</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="39">
         <v>5</v>
       </c>
-      <c r="E30" s="35">
+      <c r="E30" s="39">
         <v>468</v>
       </c>
-      <c r="F30" s="35">
-        <v>0</v>
-      </c>
-      <c r="G30" s="35"/>
-      <c r="I30" s="21"/>
+      <c r="F30" s="39">
+        <v>0</v>
+      </c>
+      <c r="G30" s="39"/>
+      <c r="I30" s="19"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="39" t="s">
         <v>429</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="39">
         <v>846.18</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="39">
         <v>6</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E31" s="39">
         <v>383</v>
       </c>
-      <c r="F31" s="35">
-        <v>0</v>
-      </c>
-      <c r="G31" s="35"/>
-      <c r="I31" s="21"/>
+      <c r="F31" s="39">
+        <v>0</v>
+      </c>
+      <c r="G31" s="39"/>
+      <c r="I31" s="19"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="39" t="s">
         <v>430</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="39" t="s">
         <v>484</v>
       </c>
-      <c r="C32" s="36">
+      <c r="C32" s="40">
         <v>786.45</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="39">
         <v>10</v>
       </c>
-      <c r="E32" s="35">
+      <c r="E32" s="39">
         <v>460</v>
       </c>
-      <c r="F32" s="35">
-        <v>0</v>
-      </c>
-      <c r="G32" s="35"/>
-      <c r="I32" s="21"/>
+      <c r="F32" s="39">
+        <v>0</v>
+      </c>
+      <c r="G32" s="39"/>
+      <c r="I32" s="19"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="39" t="s">
         <v>485</v>
       </c>
-      <c r="C33" s="35">
+      <c r="C33" s="39">
         <v>918.58</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="39">
         <v>13</v>
       </c>
-      <c r="E33" s="35">
+      <c r="E33" s="39">
         <v>435</v>
       </c>
-      <c r="F33" s="35">
-        <v>0</v>
-      </c>
-      <c r="G33" s="35">
+      <c r="F33" s="39">
+        <v>0</v>
+      </c>
+      <c r="G33" s="39">
         <v>406</v>
       </c>
-      <c r="I33" s="21"/>
+      <c r="I33" s="19"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="39" t="s">
         <v>432</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="39" t="s">
         <v>490</v>
       </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="35">
+      <c r="C34" s="40"/>
+      <c r="D34" s="39">
         <v>11</v>
       </c>
-      <c r="E34" s="35">
+      <c r="E34" s="39">
         <v>492</v>
       </c>
-      <c r="F34" s="35">
-        <v>0</v>
-      </c>
-      <c r="G34" s="35">
+      <c r="F34" s="39">
+        <v>0</v>
+      </c>
+      <c r="G34" s="39">
         <v>336</v>
       </c>
-      <c r="I34" s="21"/>
+      <c r="I34" s="19"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="39" t="s">
         <v>433</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="39" t="s">
         <v>489</v>
       </c>
-      <c r="C35" s="35">
+      <c r="C35" s="39">
         <v>509.28</v>
       </c>
-      <c r="D35" s="35">
+      <c r="D35" s="39">
         <v>7</v>
       </c>
-      <c r="E35" s="35">
+      <c r="E35" s="39">
         <v>494</v>
       </c>
-      <c r="F35" s="35">
-        <v>0</v>
-      </c>
-      <c r="G35" s="35"/>
-      <c r="I35" s="21"/>
+      <c r="F35" s="39">
+        <v>0</v>
+      </c>
+      <c r="G35" s="39"/>
+      <c r="I35" s="19"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="39" t="s">
         <v>434</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="39" t="s">
         <v>494</v>
       </c>
-      <c r="C36" s="35">
+      <c r="C36" s="39">
         <v>929.77</v>
       </c>
-      <c r="D36" s="35">
+      <c r="D36" s="39">
         <v>12</v>
       </c>
-      <c r="E36" s="35">
+      <c r="E36" s="39">
         <v>451</v>
       </c>
-      <c r="F36" s="35">
-        <v>0</v>
-      </c>
-      <c r="G36" s="35"/>
-      <c r="I36" s="21"/>
+      <c r="F36" s="39">
+        <v>0</v>
+      </c>
+      <c r="G36" s="39"/>
+      <c r="I36" s="19"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="39" t="s">
         <v>435</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="35">
+      <c r="B37" s="39"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="39">
         <v>9</v>
       </c>
-      <c r="E37" s="35">
+      <c r="E37" s="39">
         <v>458</v>
       </c>
-      <c r="F37" s="35">
-        <v>0</v>
-      </c>
-      <c r="G37" s="35"/>
-      <c r="I37" s="21"/>
+      <c r="F37" s="39">
+        <v>0</v>
+      </c>
+      <c r="G37" s="39"/>
+      <c r="I37" s="19"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="I38" s="21"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="I38" s="19"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="39" t="s">
         <v>436</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="39" t="s">
         <v>501</v>
       </c>
-      <c r="C39" s="35">
+      <c r="C39" s="39">
         <v>1362.53</v>
       </c>
-      <c r="D39" s="35">
+      <c r="D39" s="39">
         <v>5</v>
       </c>
-      <c r="E39" s="35">
+      <c r="E39" s="39">
         <v>449</v>
       </c>
-      <c r="F39" s="35">
-        <v>0</v>
-      </c>
-      <c r="G39" s="35"/>
-      <c r="I39" s="21"/>
+      <c r="F39" s="39">
+        <v>0</v>
+      </c>
+      <c r="G39" s="39">
+        <v>458</v>
+      </c>
+      <c r="I39" s="19"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="39" t="s">
         <v>437</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="39" t="s">
         <v>502</v>
       </c>
-      <c r="C40" s="35">
+      <c r="C40" s="39">
         <v>956.73</v>
       </c>
-      <c r="D40" s="35">
+      <c r="D40" s="39">
         <v>5</v>
       </c>
-      <c r="E40" s="35">
+      <c r="E40" s="39">
         <v>426</v>
       </c>
-      <c r="F40" s="35">
-        <v>0</v>
-      </c>
-      <c r="G40" s="35"/>
-      <c r="I40" s="21"/>
+      <c r="F40" s="39">
+        <v>0</v>
+      </c>
+      <c r="G40" s="39">
+        <v>397</v>
+      </c>
+      <c r="I40" s="19"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="39" t="s">
         <v>438</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="39" t="s">
         <v>502</v>
       </c>
-      <c r="C41" s="35">
+      <c r="C41" s="39">
         <v>946.87</v>
       </c>
-      <c r="D41" s="35">
+      <c r="D41" s="39">
         <v>10</v>
       </c>
-      <c r="E41" s="35">
+      <c r="E41" s="39">
         <v>495</v>
       </c>
-      <c r="F41" s="35">
-        <v>0</v>
-      </c>
-      <c r="G41" s="35"/>
-      <c r="I41" s="21"/>
+      <c r="F41" s="39">
+        <v>0</v>
+      </c>
+      <c r="G41" s="39">
+        <v>366</v>
+      </c>
+      <c r="I41" s="19"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="39" t="s">
         <v>439</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="39" t="s">
         <v>493</v>
       </c>
-      <c r="C42" s="35">
+      <c r="C42" s="39">
         <v>1546.43</v>
       </c>
-      <c r="D42" s="35">
+      <c r="D42" s="39">
         <v>6</v>
       </c>
-      <c r="E42" s="35">
+      <c r="E42" s="39">
         <v>381</v>
       </c>
-      <c r="F42" s="35">
-        <v>0</v>
-      </c>
-      <c r="G42" s="35"/>
-      <c r="I42" s="21"/>
+      <c r="F42" s="39">
+        <v>0</v>
+      </c>
+      <c r="G42" s="39"/>
+      <c r="I42" s="19"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="35" t="s">
+      <c r="A43" s="39" t="s">
         <v>440</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="39" t="s">
         <v>503</v>
       </c>
-      <c r="C43" s="35">
+      <c r="C43" s="39">
         <v>1189.3</v>
       </c>
-      <c r="D43" s="35">
+      <c r="D43" s="39">
         <v>5</v>
       </c>
-      <c r="E43" s="35">
+      <c r="E43" s="39">
         <v>441</v>
       </c>
-      <c r="F43" s="35">
-        <v>0</v>
-      </c>
-      <c r="G43" s="35"/>
-      <c r="I43" s="21"/>
+      <c r="F43" s="39">
+        <v>0</v>
+      </c>
+      <c r="G43" s="39"/>
+      <c r="I43" s="19"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="39" t="s">
         <v>441</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="39" t="s">
         <v>493</v>
       </c>
-      <c r="C44" s="35">
+      <c r="C44" s="39">
         <v>650.34</v>
       </c>
-      <c r="D44" s="35">
+      <c r="D44" s="39">
         <v>12</v>
       </c>
-      <c r="E44" s="35">
+      <c r="E44" s="39">
         <v>518</v>
       </c>
-      <c r="F44" s="35">
-        <v>0</v>
-      </c>
-      <c r="G44" s="35"/>
-      <c r="I44" s="21"/>
+      <c r="F44" s="39">
+        <v>0</v>
+      </c>
+      <c r="G44" s="39"/>
+      <c r="I44" s="19"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="35" t="s">
+      <c r="A45" s="39" t="s">
         <v>442</v>
       </c>
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="39" t="s">
         <v>501</v>
       </c>
-      <c r="C45" s="35">
+      <c r="C45" s="39">
         <v>906.38</v>
       </c>
-      <c r="D45" s="35">
+      <c r="D45" s="39">
         <v>11</v>
       </c>
-      <c r="E45" s="35">
+      <c r="E45" s="39">
         <v>449</v>
       </c>
-      <c r="F45" s="35">
-        <v>0</v>
-      </c>
-      <c r="G45" s="35"/>
-      <c r="I45" s="21"/>
+      <c r="F45" s="39">
+        <v>0</v>
+      </c>
+      <c r="G45" s="39">
+        <v>340</v>
+      </c>
+      <c r="I45" s="19"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="35" t="s">
+      <c r="A46" s="39" t="s">
         <v>443</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="39" t="s">
         <v>504</v>
       </c>
-      <c r="C46" s="35">
+      <c r="C46" s="39">
         <v>774.82</v>
       </c>
-      <c r="D46" s="35">
+      <c r="D46" s="39">
         <v>13</v>
       </c>
-      <c r="E46" s="35">
+      <c r="E46" s="39">
         <v>455</v>
       </c>
-      <c r="F46" s="35">
-        <v>0</v>
-      </c>
-      <c r="G46" s="35"/>
-      <c r="I46" s="21"/>
+      <c r="F46" s="39">
+        <v>0</v>
+      </c>
+      <c r="G46" s="39"/>
+      <c r="I46" s="19"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="I47" s="21"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="I47" s="19"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="35" t="s">
+      <c r="A48" s="39" t="s">
         <v>444</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="39" t="s">
         <v>505</v>
       </c>
-      <c r="C48" s="35">
+      <c r="C48" s="39">
         <v>1564.42</v>
       </c>
-      <c r="D48" s="35">
+      <c r="D48" s="39">
         <v>13</v>
       </c>
-      <c r="E48" s="35">
+      <c r="E48" s="39">
         <v>490</v>
       </c>
-      <c r="F48" s="35">
-        <v>0</v>
-      </c>
-      <c r="G48" s="35"/>
-      <c r="I48" s="21"/>
+      <c r="F48" s="39">
+        <v>0</v>
+      </c>
+      <c r="G48" s="39"/>
+      <c r="I48" s="19"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="39" t="s">
         <v>445</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="39" t="s">
         <v>505</v>
       </c>
-      <c r="C49" s="35">
+      <c r="C49" s="39">
         <v>1193.7</v>
       </c>
-      <c r="D49" s="35">
+      <c r="D49" s="39">
         <v>6</v>
       </c>
-      <c r="E49" s="35">
+      <c r="E49" s="39">
         <v>494</v>
       </c>
-      <c r="F49" s="35">
-        <v>0</v>
-      </c>
-      <c r="G49" s="35"/>
-      <c r="I49" s="21"/>
+      <c r="F49" s="39">
+        <v>0</v>
+      </c>
+      <c r="G49" s="39"/>
+      <c r="I49" s="19"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="39" t="s">
         <v>446</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="39" t="s">
         <v>506</v>
       </c>
-      <c r="C50" s="35">
+      <c r="C50" s="39">
         <v>1541.8</v>
       </c>
-      <c r="D50" s="35">
+      <c r="D50" s="39">
         <v>13</v>
       </c>
-      <c r="E50" s="35">
+      <c r="E50" s="39">
         <v>410</v>
       </c>
-      <c r="F50" s="35">
-        <v>0</v>
-      </c>
-      <c r="G50" s="35"/>
-      <c r="I50" s="21"/>
+      <c r="F50" s="39">
+        <v>0</v>
+      </c>
+      <c r="G50" s="39">
+        <v>370</v>
+      </c>
+      <c r="I50" s="19"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="35" t="s">
+      <c r="A51" s="39" t="s">
         <v>447</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="39" t="s">
         <v>505</v>
       </c>
-      <c r="C51" s="35">
+      <c r="C51" s="39">
         <v>1564.3</v>
       </c>
-      <c r="D51" s="35">
+      <c r="D51" s="39">
         <v>6</v>
       </c>
-      <c r="E51" s="35">
+      <c r="E51" s="39">
         <v>478</v>
       </c>
-      <c r="F51" s="35">
-        <v>0</v>
-      </c>
-      <c r="G51" s="35"/>
-      <c r="I51" s="21"/>
+      <c r="F51" s="39">
+        <v>0</v>
+      </c>
+      <c r="G51" s="39"/>
+      <c r="I51" s="19"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="35" t="s">
+      <c r="A52" s="39" t="s">
         <v>448</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="39" t="s">
         <v>507</v>
       </c>
-      <c r="C52" s="35">
+      <c r="C52" s="39">
         <v>1507.65</v>
       </c>
-      <c r="D52" s="35">
+      <c r="D52" s="39">
         <v>7</v>
       </c>
-      <c r="E52" s="35">
+      <c r="E52" s="39">
         <v>514</v>
       </c>
-      <c r="F52" s="35">
-        <v>0</v>
-      </c>
-      <c r="G52" s="35"/>
-      <c r="I52" s="21"/>
+      <c r="F52" s="39">
+        <v>0</v>
+      </c>
+      <c r="G52" s="6">
+        <v>277</v>
+      </c>
+      <c r="I52" s="19"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="39" t="s">
         <v>449</v>
       </c>
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="39" t="s">
         <v>505</v>
       </c>
-      <c r="C53" s="35">
+      <c r="C53" s="39">
         <v>1578.57</v>
       </c>
-      <c r="D53" s="35">
+      <c r="D53" s="39">
         <v>11</v>
       </c>
-      <c r="E53" s="35">
+      <c r="E53" s="39">
         <v>494</v>
       </c>
-      <c r="F53" s="35">
-        <v>0</v>
-      </c>
-      <c r="G53" s="35"/>
-      <c r="I53" s="21"/>
+      <c r="F53" s="39">
+        <v>0</v>
+      </c>
+      <c r="G53" s="6">
+        <v>277</v>
+      </c>
+      <c r="I53" s="19"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="I54" s="21"/>
+      <c r="I54" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7291,6 +7337,1204 @@
     <mergeCell ref="B2:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="86" fitToHeight="4" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J54"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="22.9" customHeight="1">
+      <c r="A1" s="34" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="D2" s="35" t="s">
+        <v>398</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="G2" s="35"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>402</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23">
+        <v>8</v>
+      </c>
+      <c r="E4" s="23">
+        <v>491</v>
+      </c>
+      <c r="F4" s="23">
+        <v>0</v>
+      </c>
+      <c r="G4" s="23">
+        <v>382</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="C5" s="23">
+        <v>786.45</v>
+      </c>
+      <c r="D5" s="23">
+        <v>10</v>
+      </c>
+      <c r="E5" s="23">
+        <v>460</v>
+      </c>
+      <c r="F5" s="23">
+        <v>0</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>482</v>
+      </c>
+      <c r="C6" s="23">
+        <v>733.78</v>
+      </c>
+      <c r="D6" s="23">
+        <v>11</v>
+      </c>
+      <c r="E6" s="23">
+        <v>399</v>
+      </c>
+      <c r="F6" s="23">
+        <v>0</v>
+      </c>
+      <c r="G6" s="23">
+        <v>347</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="C7" s="23">
+        <v>689.46</v>
+      </c>
+      <c r="D7" s="23">
+        <v>6</v>
+      </c>
+      <c r="E7" s="23">
+        <v>450</v>
+      </c>
+      <c r="F7" s="23">
+        <v>0</v>
+      </c>
+      <c r="G7" s="23">
+        <v>762</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="C8" s="23">
+        <v>915.8</v>
+      </c>
+      <c r="D8" s="23">
+        <v>7</v>
+      </c>
+      <c r="E8" s="23">
+        <v>408</v>
+      </c>
+      <c r="F8" s="23">
+        <v>0</v>
+      </c>
+      <c r="G8" s="23">
+        <v>382</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="C9" s="23">
+        <v>1564.42</v>
+      </c>
+      <c r="D9" s="23">
+        <v>13</v>
+      </c>
+      <c r="E9" s="23">
+        <v>490</v>
+      </c>
+      <c r="F9" s="23">
+        <v>0</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="C10" s="23">
+        <v>1193.7</v>
+      </c>
+      <c r="D10" s="23">
+        <v>6</v>
+      </c>
+      <c r="E10" s="23">
+        <v>494</v>
+      </c>
+      <c r="F10" s="23">
+        <v>0</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="C11" s="23">
+        <v>1564.3</v>
+      </c>
+      <c r="D11" s="23">
+        <v>6</v>
+      </c>
+      <c r="E11" s="23">
+        <v>478</v>
+      </c>
+      <c r="F11" s="23">
+        <v>0</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="C12" s="23">
+        <v>1578.57</v>
+      </c>
+      <c r="D12" s="23">
+        <v>11</v>
+      </c>
+      <c r="E12" s="23">
+        <v>494</v>
+      </c>
+      <c r="F12" s="23">
+        <v>0</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>488</v>
+      </c>
+      <c r="C13" s="23">
+        <v>1111.8</v>
+      </c>
+      <c r="D13" s="23">
+        <v>11</v>
+      </c>
+      <c r="E13" s="23">
+        <v>420</v>
+      </c>
+      <c r="F13" s="23">
+        <v>0</v>
+      </c>
+      <c r="G13" s="23">
+        <v>367</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>503</v>
+      </c>
+      <c r="C14" s="23">
+        <v>1189.3</v>
+      </c>
+      <c r="D14" s="23">
+        <v>5</v>
+      </c>
+      <c r="E14" s="23">
+        <v>441</v>
+      </c>
+      <c r="F14" s="23">
+        <v>0</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="C15" s="23">
+        <v>790.42</v>
+      </c>
+      <c r="D15" s="23">
+        <v>9</v>
+      </c>
+      <c r="E15" s="23">
+        <v>480</v>
+      </c>
+      <c r="F15" s="23">
+        <v>0</v>
+      </c>
+      <c r="G15" s="23">
+        <v>390</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="C16" s="23">
+        <v>1275.5899999999999</v>
+      </c>
+      <c r="D16" s="23">
+        <v>12</v>
+      </c>
+      <c r="E16" s="23">
+        <v>437</v>
+      </c>
+      <c r="F16" s="23">
+        <v>0</v>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23">
+        <v>5</v>
+      </c>
+      <c r="E17" s="23">
+        <v>428</v>
+      </c>
+      <c r="F17" s="23">
+        <v>0</v>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="C18" s="23">
+        <v>846.18</v>
+      </c>
+      <c r="D18" s="23">
+        <v>6</v>
+      </c>
+      <c r="E18" s="23">
+        <v>383</v>
+      </c>
+      <c r="F18" s="23">
+        <v>0</v>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>474</v>
+      </c>
+      <c r="C19" s="23">
+        <v>402.08</v>
+      </c>
+      <c r="D19" s="23">
+        <v>7</v>
+      </c>
+      <c r="E19" s="23">
+        <v>474</v>
+      </c>
+      <c r="F19" s="23">
+        <v>0</v>
+      </c>
+      <c r="G19" s="23">
+        <v>777</v>
+      </c>
+      <c r="I19" s="21"/>
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="C20" s="23">
+        <v>1389.3</v>
+      </c>
+      <c r="D20" s="23">
+        <v>13</v>
+      </c>
+      <c r="E20" s="23">
+        <v>434</v>
+      </c>
+      <c r="F20" s="23">
+        <v>0</v>
+      </c>
+      <c r="G20" s="23">
+        <v>424</v>
+      </c>
+      <c r="I20" s="21"/>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="C21" s="23">
+        <v>918.58</v>
+      </c>
+      <c r="D21" s="23">
+        <v>13</v>
+      </c>
+      <c r="E21" s="23">
+        <v>435</v>
+      </c>
+      <c r="F21" s="23">
+        <v>0</v>
+      </c>
+      <c r="G21" s="23">
+        <v>406</v>
+      </c>
+      <c r="I21" s="21"/>
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="C22" s="23">
+        <v>1507.65</v>
+      </c>
+      <c r="D22" s="23">
+        <v>7</v>
+      </c>
+      <c r="E22" s="23">
+        <v>514</v>
+      </c>
+      <c r="F22" s="23">
+        <v>0</v>
+      </c>
+      <c r="G22" s="23"/>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="C23" s="23">
+        <v>774.82</v>
+      </c>
+      <c r="D23" s="23">
+        <v>13</v>
+      </c>
+      <c r="E23" s="23">
+        <v>455</v>
+      </c>
+      <c r="F23" s="23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="23"/>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>506</v>
+      </c>
+      <c r="C24" s="23">
+        <v>1541.8</v>
+      </c>
+      <c r="D24" s="23">
+        <v>13</v>
+      </c>
+      <c r="E24" s="23">
+        <v>410</v>
+      </c>
+      <c r="F24" s="23">
+        <v>0</v>
+      </c>
+      <c r="G24" s="23"/>
+      <c r="I24" s="19"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="C25" s="23">
+        <v>1355.47</v>
+      </c>
+      <c r="D25" s="23">
+        <v>12</v>
+      </c>
+      <c r="E25" s="23">
+        <v>436</v>
+      </c>
+      <c r="F25" s="23">
+        <v>0</v>
+      </c>
+      <c r="G25" s="23"/>
+      <c r="I25" s="19"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="C26" s="23">
+        <v>968.51</v>
+      </c>
+      <c r="D26" s="23">
+        <v>10</v>
+      </c>
+      <c r="E26" s="23">
+        <v>411</v>
+      </c>
+      <c r="F26" s="23">
+        <v>0</v>
+      </c>
+      <c r="G26" s="23">
+        <v>391</v>
+      </c>
+      <c r="I26" s="19"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="C27" s="23">
+        <v>710.52</v>
+      </c>
+      <c r="D27" s="23">
+        <v>13</v>
+      </c>
+      <c r="E27" s="23">
+        <v>413</v>
+      </c>
+      <c r="F27" s="23">
+        <v>0</v>
+      </c>
+      <c r="G27" s="23">
+        <v>701</v>
+      </c>
+      <c r="I27" s="19"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="C28" s="23">
+        <v>1003.82</v>
+      </c>
+      <c r="D28" s="23">
+        <v>11</v>
+      </c>
+      <c r="E28" s="23">
+        <v>470</v>
+      </c>
+      <c r="F28" s="23">
+        <v>0</v>
+      </c>
+      <c r="G28" s="23">
+        <v>762</v>
+      </c>
+      <c r="I28" s="19"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>479</v>
+      </c>
+      <c r="C29" s="23">
+        <v>945.25</v>
+      </c>
+      <c r="D29" s="23">
+        <v>7</v>
+      </c>
+      <c r="E29" s="23">
+        <v>408</v>
+      </c>
+      <c r="F29" s="23">
+        <v>0</v>
+      </c>
+      <c r="G29" s="23">
+        <v>1112</v>
+      </c>
+      <c r="I29" s="19"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="C30" s="23">
+        <v>783.82</v>
+      </c>
+      <c r="D30" s="23">
+        <v>13</v>
+      </c>
+      <c r="E30" s="23">
+        <v>441</v>
+      </c>
+      <c r="F30" s="23">
+        <v>0</v>
+      </c>
+      <c r="G30" s="23"/>
+      <c r="I30" s="19"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="C31" s="23">
+        <v>509.28</v>
+      </c>
+      <c r="D31" s="23">
+        <v>7</v>
+      </c>
+      <c r="E31" s="23">
+        <v>494</v>
+      </c>
+      <c r="F31" s="23">
+        <v>0</v>
+      </c>
+      <c r="G31" s="23"/>
+      <c r="I31" s="19"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="C32" s="23">
+        <v>929.77</v>
+      </c>
+      <c r="D32" s="23">
+        <v>12</v>
+      </c>
+      <c r="E32" s="23">
+        <v>451</v>
+      </c>
+      <c r="F32" s="23">
+        <v>0</v>
+      </c>
+      <c r="G32" s="23"/>
+      <c r="I32" s="19"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="C33" s="23">
+        <v>883.97</v>
+      </c>
+      <c r="D33" s="23">
+        <v>11</v>
+      </c>
+      <c r="E33" s="23">
+        <v>421</v>
+      </c>
+      <c r="F33" s="23">
+        <v>0</v>
+      </c>
+      <c r="G33" s="23">
+        <v>356</v>
+      </c>
+      <c r="I33" s="19"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="C34" s="23">
+        <v>832.13</v>
+      </c>
+      <c r="D34" s="23">
+        <v>6</v>
+      </c>
+      <c r="E34" s="23">
+        <v>453</v>
+      </c>
+      <c r="F34" s="23">
+        <v>0</v>
+      </c>
+      <c r="G34" s="23">
+        <v>356</v>
+      </c>
+      <c r="I34" s="19"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="C35" s="23">
+        <v>973.48</v>
+      </c>
+      <c r="D35" s="23">
+        <v>5</v>
+      </c>
+      <c r="E35" s="23">
+        <v>468</v>
+      </c>
+      <c r="F35" s="23">
+        <v>0</v>
+      </c>
+      <c r="G35" s="23"/>
+      <c r="I35" s="19"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="C36" s="23">
+        <v>1546.43</v>
+      </c>
+      <c r="D36" s="23">
+        <v>6</v>
+      </c>
+      <c r="E36" s="23">
+        <v>381</v>
+      </c>
+      <c r="F36" s="23">
+        <v>0</v>
+      </c>
+      <c r="G36" s="23"/>
+      <c r="I36" s="19"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="C37" s="23">
+        <v>650.34</v>
+      </c>
+      <c r="D37" s="23">
+        <v>12</v>
+      </c>
+      <c r="E37" s="23">
+        <v>518</v>
+      </c>
+      <c r="F37" s="23">
+        <v>0</v>
+      </c>
+      <c r="G37" s="23"/>
+      <c r="I37" s="19"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23">
+        <v>11</v>
+      </c>
+      <c r="E38" s="23">
+        <v>492</v>
+      </c>
+      <c r="F38" s="23">
+        <v>0</v>
+      </c>
+      <c r="G38" s="23">
+        <v>336</v>
+      </c>
+      <c r="I38" s="19"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>499</v>
+      </c>
+      <c r="C39" s="23">
+        <v>1546.43</v>
+      </c>
+      <c r="D39" s="23">
+        <v>13</v>
+      </c>
+      <c r="E39" s="23">
+        <v>506</v>
+      </c>
+      <c r="F39" s="23">
+        <v>0</v>
+      </c>
+      <c r="G39" s="23"/>
+      <c r="I39" s="19"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="C40" s="23">
+        <v>953.47</v>
+      </c>
+      <c r="D40" s="23">
+        <v>8</v>
+      </c>
+      <c r="E40" s="23">
+        <v>388</v>
+      </c>
+      <c r="F40" s="23">
+        <v>0</v>
+      </c>
+      <c r="G40" s="23">
+        <v>406</v>
+      </c>
+      <c r="I40" s="19"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="C41" s="23">
+        <v>857</v>
+      </c>
+      <c r="D41" s="23">
+        <v>11</v>
+      </c>
+      <c r="E41" s="23">
+        <v>449</v>
+      </c>
+      <c r="F41" s="23">
+        <v>0</v>
+      </c>
+      <c r="G41" s="23">
+        <v>728</v>
+      </c>
+      <c r="I41" s="19"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="C42" s="23">
+        <v>1599.88</v>
+      </c>
+      <c r="D42" s="23">
+        <v>13</v>
+      </c>
+      <c r="E42" s="23">
+        <v>450</v>
+      </c>
+      <c r="F42" s="23">
+        <v>0</v>
+      </c>
+      <c r="G42" s="23"/>
+      <c r="I42" s="19"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="C43" s="23">
+        <v>770.85</v>
+      </c>
+      <c r="D43" s="23">
+        <v>9</v>
+      </c>
+      <c r="E43" s="23">
+        <v>510</v>
+      </c>
+      <c r="F43" s="23">
+        <v>0</v>
+      </c>
+      <c r="G43" s="23">
+        <v>685</v>
+      </c>
+      <c r="I43" s="19"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="C44" s="23">
+        <v>926.76</v>
+      </c>
+      <c r="D44" s="23">
+        <v>12</v>
+      </c>
+      <c r="E44" s="23">
+        <v>470</v>
+      </c>
+      <c r="F44" s="23">
+        <v>0</v>
+      </c>
+      <c r="G44" s="23"/>
+      <c r="I44" s="19"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="C45" s="23">
+        <v>1161.49</v>
+      </c>
+      <c r="D45" s="23">
+        <v>12</v>
+      </c>
+      <c r="E45" s="23">
+        <v>474</v>
+      </c>
+      <c r="F45" s="23">
+        <v>0</v>
+      </c>
+      <c r="G45" s="23"/>
+      <c r="I45" s="19"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="C46" s="23">
+        <v>956.73</v>
+      </c>
+      <c r="D46" s="23">
+        <v>5</v>
+      </c>
+      <c r="E46" s="23">
+        <v>426</v>
+      </c>
+      <c r="F46" s="23">
+        <v>0</v>
+      </c>
+      <c r="G46" s="23"/>
+      <c r="I46" s="19"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="C47" s="23">
+        <v>946.87</v>
+      </c>
+      <c r="D47" s="23">
+        <v>10</v>
+      </c>
+      <c r="E47" s="23">
+        <v>495</v>
+      </c>
+      <c r="F47" s="23">
+        <v>0</v>
+      </c>
+      <c r="G47" s="23"/>
+      <c r="I47" s="19"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="C48" s="23">
+        <v>1362.53</v>
+      </c>
+      <c r="D48" s="23">
+        <v>5</v>
+      </c>
+      <c r="E48" s="23">
+        <v>449</v>
+      </c>
+      <c r="F48" s="23">
+        <v>0</v>
+      </c>
+      <c r="G48" s="23"/>
+      <c r="I48" s="19"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="C49" s="23">
+        <v>906.38</v>
+      </c>
+      <c r="D49" s="23">
+        <v>11</v>
+      </c>
+      <c r="E49" s="23">
+        <v>449</v>
+      </c>
+      <c r="F49" s="23">
+        <v>0</v>
+      </c>
+      <c r="G49" s="23"/>
+      <c r="I49" s="19"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="6">
+        <v>7</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="I50" s="19"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="B51" s="23"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="23">
+        <v>9</v>
+      </c>
+      <c r="E51" s="23">
+        <v>458</v>
+      </c>
+      <c r="F51" s="23">
+        <v>0</v>
+      </c>
+      <c r="G51" s="23"/>
+      <c r="I51" s="19"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="I52" s="19"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="I53" s="19"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="I54" s="19"/>
+    </row>
+  </sheetData>
+  <sortState ref="A4:G53">
+    <sortCondition ref="B4:B53"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>